--- a/Two-stage Recoverable FLP/Local Branching/output.xlsx
+++ b/Two-stage Recoverable FLP/Local Branching/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
   <si>
     <t>|N|</t>
   </si>
@@ -38,9 +38,6 @@
   </si>
   <si>
     <t>LB1:time</t>
-  </si>
-  <si>
-    <t>LBall:time</t>
   </si>
   <si>
     <t>VNB:time</t>
@@ -401,13 +398,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -456,17 +453,8 @@
       <c r="Q1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -477,58 +465,49 @@
         <v>10</v>
       </c>
       <c r="D2">
-        <v>0.206</v>
+        <v>0.28</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8124381542205811</v>
+        <v>0.6113910675048828</v>
       </c>
       <c r="G2">
-        <v>20.8</v>
+        <v>17</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.374</v>
+        <v>0.24</v>
       </c>
       <c r="J2">
-        <v>51.6</v>
+        <v>34</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.4480000000000001</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>52.6</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.444</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>52.6</v>
+        <v>0</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-      <c r="R2">
-        <v>10.442</v>
-      </c>
-      <c r="S2">
-        <v>52.6</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -536,61 +515,52 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D3">
-        <v>0.326</v>
+        <v>0.3</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.6929677963256836</v>
+        <v>1.341420650482178</v>
       </c>
       <c r="G3">
-        <v>17.4</v>
+        <v>29</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.328</v>
+        <v>0.63</v>
       </c>
       <c r="J3">
-        <v>54.2</v>
+        <v>70</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.406</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>54.4</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.398</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>54.4</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-      <c r="R3">
-        <v>10.398</v>
-      </c>
-      <c r="S3">
-        <v>54.4</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -598,61 +568,52 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D4">
-        <v>0.53</v>
+        <v>0.25</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.180263710021973</v>
+        <v>0.4548115730285645</v>
       </c>
       <c r="G4">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.5700000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="J4">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.68</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>89.2</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.6839999999999999</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>89.2</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-      <c r="R4">
-        <v>10.688</v>
-      </c>
-      <c r="S4">
-        <v>89.2</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -660,429 +621,48 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="D5">
-        <v>0.8640000000000001</v>
+        <v>0.22</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.483453989028931</v>
+        <v>0.8626925945281982</v>
       </c>
       <c r="G5">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.006</v>
+        <v>0.35</v>
       </c>
       <c r="J5">
-        <v>106.6</v>
+        <v>37</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>1.11</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.114</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>11.122</v>
-      </c>
-      <c r="S5">
-        <v>108</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>10</v>
-      </c>
-      <c r="C6">
-        <v>50</v>
-      </c>
-      <c r="D6">
-        <v>1.166</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>2.164633417129517</v>
-      </c>
-      <c r="G6">
-        <v>29.6</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0.9219999999999999</v>
-      </c>
-      <c r="J6">
-        <v>126.2</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>1.068</v>
-      </c>
-      <c r="M6">
-        <v>124</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>1.056</v>
-      </c>
-      <c r="P6">
-        <v>124</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>11.062</v>
-      </c>
-      <c r="S6">
-        <v>124</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>20</v>
-      </c>
-      <c r="C7">
-        <v>10</v>
-      </c>
-      <c r="D7">
-        <v>6.944</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>68.83611207008362</v>
-      </c>
-      <c r="G7">
-        <v>166.4</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>14.736</v>
-      </c>
-      <c r="J7">
-        <v>323.8</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>16.048</v>
-      </c>
-      <c r="M7">
-        <v>363.4</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>25.012</v>
-      </c>
-      <c r="P7">
-        <v>542.6</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>24.438</v>
-      </c>
-      <c r="S7">
-        <v>512.6</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>20</v>
-      </c>
-      <c r="C8">
-        <v>20</v>
-      </c>
-      <c r="D8">
-        <v>34.166</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>144.6696598052978</v>
-      </c>
-      <c r="G8">
-        <v>225.6</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>27.102</v>
-      </c>
-      <c r="J8">
-        <v>324.6</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>32.774</v>
-      </c>
-      <c r="M8">
-        <v>448.4</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>37.792</v>
-      </c>
-      <c r="P8">
-        <v>479.2</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>36.52</v>
-      </c>
-      <c r="S8">
-        <v>516</v>
-      </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>20</v>
-      </c>
-      <c r="C9">
-        <v>30</v>
-      </c>
-      <c r="D9">
-        <v>87.242</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>206.5012573242188</v>
-      </c>
-      <c r="G9">
-        <v>281.4</v>
-      </c>
-      <c r="H9">
-        <v>1.661007624679912e-05</v>
-      </c>
-      <c r="I9">
-        <v>49.296</v>
-      </c>
-      <c r="J9">
-        <v>494.6</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>54.188</v>
-      </c>
-      <c r="M9">
-        <v>518.6</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>59.40599999999999</v>
-      </c>
-      <c r="P9">
-        <v>672</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <v>60.398</v>
-      </c>
-      <c r="S9">
-        <v>667.8</v>
-      </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>20</v>
-      </c>
-      <c r="C10">
-        <v>40</v>
-      </c>
-      <c r="D10">
-        <v>130.128</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>74.29951930046082</v>
-      </c>
-      <c r="G10">
-        <v>135.8</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>27.464</v>
-      </c>
-      <c r="J10">
-        <v>242.8</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>28.388</v>
-      </c>
-      <c r="M10">
-        <v>275.8</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>38.57</v>
-      </c>
-      <c r="P10">
-        <v>456.4</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>38.716</v>
-      </c>
-      <c r="S10">
-        <v>466.8</v>
-      </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>20</v>
-      </c>
-      <c r="C11">
-        <v>50</v>
-      </c>
-      <c r="D11">
-        <v>264.194</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>71.33340992927552</v>
-      </c>
-      <c r="G11">
-        <v>118.4</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>43.386</v>
-      </c>
-      <c r="J11">
-        <v>299</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>52.66999999999999</v>
-      </c>
-      <c r="M11">
-        <v>370.2</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>55.524</v>
-      </c>
-      <c r="P11">
-        <v>545.8</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>47.896</v>
-      </c>
-      <c r="S11">
-        <v>516</v>
-      </c>
-      <c r="T11">
         <v>0</v>
       </c>
     </row>

--- a/Two-stage Recoverable FLP/Local Branching/output.xlsx
+++ b/Two-stage Recoverable FLP/Local Branching/output.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:Q41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -465,25 +465,25 @@
         <v>10</v>
       </c>
       <c r="D2">
-        <v>0.28</v>
+        <v>0.17</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.6113910675048828</v>
+        <v>0.34</v>
       </c>
       <c r="G2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.24</v>
+        <v>0.35</v>
       </c>
       <c r="J2">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -518,13 +518,13 @@
         <v>10</v>
       </c>
       <c r="D3">
-        <v>0.3</v>
+        <v>0.57</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.341420650482178</v>
+        <v>0.84</v>
       </c>
       <c r="G3">
         <v>29</v>
@@ -533,10 +533,10 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.63</v>
+        <v>0.6</v>
       </c>
       <c r="J3">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -571,13 +571,13 @@
         <v>10</v>
       </c>
       <c r="D4">
+        <v>0.15</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
         <v>0.25</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0.4548115730285645</v>
       </c>
       <c r="G4">
         <v>13</v>
@@ -586,10 +586,10 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.32</v>
+        <v>0.24</v>
       </c>
       <c r="J4">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -624,45 +624,1953 @@
         <v>10</v>
       </c>
       <c r="D5">
-        <v>0.22</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8626925945281982</v>
+        <v>0.44</v>
       </c>
       <c r="G5">
+        <v>17</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0.27</v>
+      </c>
+      <c r="J5">
+        <v>36</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>0.17</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0.63</v>
+      </c>
+      <c r="G6">
+        <v>26</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0.55</v>
+      </c>
+      <c r="J6">
+        <v>71</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7">
         <v>20</v>
       </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0.35</v>
-      </c>
-      <c r="J5">
+      <c r="D7">
+        <v>0.25</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0.48</v>
+      </c>
+      <c r="G7">
+        <v>19</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0.4</v>
+      </c>
+      <c r="J7">
+        <v>67</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>20</v>
+      </c>
+      <c r="D8">
+        <v>0.3</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0.42</v>
+      </c>
+      <c r="G8">
+        <v>16</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0.37</v>
+      </c>
+      <c r="J8">
+        <v>66</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>20</v>
+      </c>
+      <c r="D9">
+        <v>0.32</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0.5</v>
+      </c>
+      <c r="G9">
+        <v>19</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0.44</v>
+      </c>
+      <c r="J9">
+        <v>53</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>20</v>
+      </c>
+      <c r="D10">
+        <v>0.21</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0.29</v>
+      </c>
+      <c r="G10">
+        <v>9</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0.5</v>
+      </c>
+      <c r="J10">
+        <v>50</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>20</v>
+      </c>
+      <c r="D11">
+        <v>0.32</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0.52</v>
+      </c>
+      <c r="G11">
+        <v>19</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0.31</v>
+      </c>
+      <c r="J11">
+        <v>48</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>30</v>
+      </c>
+      <c r="D12">
+        <v>0.49</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0.83</v>
+      </c>
+      <c r="G12">
+        <v>23</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0.63</v>
+      </c>
+      <c r="J12">
+        <v>84</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>30</v>
+      </c>
+      <c r="D13">
+        <v>0.58</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0.96</v>
+      </c>
+      <c r="G13">
+        <v>29</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0.44</v>
+      </c>
+      <c r="J13">
+        <v>80</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <v>30</v>
+      </c>
+      <c r="D14">
+        <v>0.5</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="G14">
+        <v>19</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0.75</v>
+      </c>
+      <c r="J14">
+        <v>75</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>10</v>
+      </c>
+      <c r="C15">
+        <v>30</v>
+      </c>
+      <c r="D15">
+        <v>0.5</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0.83</v>
+      </c>
+      <c r="G15">
+        <v>23</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0.46</v>
+      </c>
+      <c r="J15">
+        <v>87</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>10</v>
+      </c>
+      <c r="C16">
+        <v>30</v>
+      </c>
+      <c r="D16">
+        <v>0.48</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0.93</v>
+      </c>
+      <c r="G16">
+        <v>28</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0.27</v>
+      </c>
+      <c r="J16">
+        <v>59</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>10</v>
+      </c>
+      <c r="C17">
+        <v>40</v>
+      </c>
+      <c r="D17">
+        <v>0.74</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0.86</v>
+      </c>
+      <c r="G17">
+        <v>20</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0.91</v>
+      </c>
+      <c r="J17">
+        <v>96</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>10</v>
+      </c>
+      <c r="C18">
+        <v>40</v>
+      </c>
+      <c r="D18">
+        <v>0.71</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1.31</v>
+      </c>
+      <c r="G18">
+        <v>28</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="J18">
+        <v>136</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>10</v>
+      </c>
+      <c r="C19">
+        <v>40</v>
+      </c>
+      <c r="D19">
+        <v>0.95</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0.97</v>
+      </c>
+      <c r="G19">
+        <v>23</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0.66</v>
+      </c>
+      <c r="J19">
+        <v>79</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>10</v>
+      </c>
+      <c r="C20">
+        <v>40</v>
+      </c>
+      <c r="D20">
+        <v>0.74</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1.02</v>
+      </c>
+      <c r="G20">
+        <v>22</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>1.13</v>
+      </c>
+      <c r="J20">
+        <v>101</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>10</v>
+      </c>
+      <c r="C21">
+        <v>40</v>
+      </c>
+      <c r="D21">
+        <v>0.76</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1.26</v>
+      </c>
+      <c r="G21">
+        <v>29</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0.91</v>
+      </c>
+      <c r="J21">
+        <v>110</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>10</v>
+      </c>
+      <c r="C22">
+        <v>50</v>
+      </c>
+      <c r="D22">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1.35</v>
+      </c>
+      <c r="G22">
+        <v>24</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0.61</v>
+      </c>
+      <c r="J22">
+        <v>86</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>10</v>
+      </c>
+      <c r="C23">
+        <v>50</v>
+      </c>
+      <c r="D23">
+        <v>1.12</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1.4</v>
+      </c>
+      <c r="G23">
+        <v>24</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>1.39</v>
+      </c>
+      <c r="J23">
+        <v>163</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>10</v>
+      </c>
+      <c r="C24">
+        <v>50</v>
+      </c>
+      <c r="D24">
+        <v>1.27</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1.94</v>
+      </c>
+      <c r="G24">
+        <v>35</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>1.14</v>
+      </c>
+      <c r="J24">
+        <v>158</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>10</v>
+      </c>
+      <c r="C25">
+        <v>50</v>
+      </c>
+      <c r="D25">
+        <v>0.96</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>1.5</v>
+      </c>
+      <c r="G25">
+        <v>26</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>1.22</v>
+      </c>
+      <c r="J25">
+        <v>151</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>10</v>
+      </c>
+      <c r="C26">
+        <v>50</v>
+      </c>
+      <c r="D26">
+        <v>0.95</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>1.81</v>
+      </c>
+      <c r="G26">
+        <v>32</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>1.03</v>
+      </c>
+      <c r="J26">
+        <v>110</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>10</v>
+      </c>
+      <c r="C27">
+        <v>100</v>
+      </c>
+      <c r="D27">
+        <v>2.32</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>3.03</v>
+      </c>
+      <c r="G27">
+        <v>28</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>2.29</v>
+      </c>
+      <c r="J27">
+        <v>178</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>10</v>
+      </c>
+      <c r="C28">
+        <v>100</v>
+      </c>
+      <c r="D28">
+        <v>2.74</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>2.96</v>
+      </c>
+      <c r="G28">
+        <v>28</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>2.33</v>
+      </c>
+      <c r="J28">
+        <v>168</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>10</v>
+      </c>
+      <c r="C29">
+        <v>100</v>
+      </c>
+      <c r="D29">
+        <v>2.79</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>2.76</v>
+      </c>
+      <c r="G29">
+        <v>25</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>2.19</v>
+      </c>
+      <c r="J29">
+        <v>192</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>10</v>
+      </c>
+      <c r="C30">
+        <v>100</v>
+      </c>
+      <c r="D30">
+        <v>3.04</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>2.91</v>
+      </c>
+      <c r="G30">
+        <v>27</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>1.3</v>
+      </c>
+      <c r="J30">
+        <v>165</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>10</v>
+      </c>
+      <c r="C31">
+        <v>100</v>
+      </c>
+      <c r="D31">
+        <v>2.85</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>2.94</v>
+      </c>
+      <c r="G31">
+        <v>26</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>1.56</v>
+      </c>
+      <c r="J31">
+        <v>163</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>10</v>
+      </c>
+      <c r="C32">
+        <v>200</v>
+      </c>
+      <c r="D32">
+        <v>9.66</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>7.61</v>
+      </c>
+      <c r="G32">
+        <v>33</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>6.61</v>
+      </c>
+      <c r="J32">
+        <v>322</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>10</v>
+      </c>
+      <c r="C33">
+        <v>200</v>
+      </c>
+      <c r="D33">
+        <v>9.390000000000001</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>7.73</v>
+      </c>
+      <c r="G33">
+        <v>34</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>4.75</v>
+      </c>
+      <c r="J33">
+        <v>365</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>10</v>
+      </c>
+      <c r="C34">
+        <v>200</v>
+      </c>
+      <c r="D34">
+        <v>10.09</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>7.16</v>
+      </c>
+      <c r="G34">
+        <v>30</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>5.17</v>
+      </c>
+      <c r="J34">
+        <v>311</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>10</v>
+      </c>
+      <c r="C35">
+        <v>200</v>
+      </c>
+      <c r="D35">
+        <v>5.47</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>7.34</v>
+      </c>
+      <c r="G35">
+        <v>32</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="J35">
+        <v>309</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>10</v>
+      </c>
+      <c r="C36">
+        <v>200</v>
+      </c>
+      <c r="D36">
+        <v>7.77</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>6.59</v>
+      </c>
+      <c r="G36">
+        <v>28</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>6.04</v>
+      </c>
+      <c r="J36">
+        <v>299</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>10</v>
+      </c>
+      <c r="C37">
+        <v>500</v>
+      </c>
+      <c r="D37">
+        <v>30.45</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>31.72</v>
+      </c>
+      <c r="G37">
+        <v>41</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>12.55</v>
+      </c>
+      <c r="J37">
+        <v>740</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>10</v>
+      </c>
+      <c r="C38">
+        <v>500</v>
+      </c>
+      <c r="D38">
+        <v>23.81</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>17.46</v>
+      </c>
+      <c r="G38">
+        <v>25</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>12.6</v>
+      </c>
+      <c r="J38">
+        <v>700</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
+      <c r="B39">
+        <v>10</v>
+      </c>
+      <c r="C39">
+        <v>500</v>
+      </c>
+      <c r="D39">
+        <v>22.94</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>25.34</v>
+      </c>
+      <c r="G39">
+        <v>38</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>13.9</v>
+      </c>
+      <c r="J39">
+        <v>696</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>10</v>
+      </c>
+      <c r="C40">
+        <v>500</v>
+      </c>
+      <c r="D40">
+        <v>39.88</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>24.97</v>
+      </c>
+      <c r="G40">
+        <v>37</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>17.25</v>
+      </c>
+      <c r="J40">
+        <v>705</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>10</v>
+      </c>
+      <c r="C41">
+        <v>500</v>
+      </c>
+      <c r="D41">
+        <v>38.21</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>23.86</v>
+      </c>
+      <c r="G41">
+        <v>35</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>12.67</v>
+      </c>
+      <c r="J41">
+        <v>636</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
         <v>0</v>
       </c>
     </row>

--- a/Two-stage Recoverable FLP/Local Branching/output.xlsx
+++ b/Two-stage Recoverable FLP/Local Branching/output.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\Python\Two-stage Recoverable FLP\Local Branching\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A612320F-715C-49E0-B882-867CB3FE3377}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>|N|</t>
   </si>
@@ -37,21 +43,30 @@
     <t>BC:time</t>
   </si>
   <si>
-    <t>LB1:time</t>
+    <t>LB:time</t>
   </si>
   <si>
-    <t>VNB:time</t>
+    <t>Heu_sol</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>opt_gap</t>
+  </si>
+  <si>
+    <t>PR:time</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -59,17 +74,43 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -99,22 +140,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -156,7 +208,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -188,9 +240,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -222,6 +292,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -397,14 +485,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:W41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T1" sqref="T1:T1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="4" max="4" width="10" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -448,525 +541,705 @@
         <v>8</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="U1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C2">
         <v>10</v>
       </c>
       <c r="D2">
-        <v>0.17</v>
+        <v>1.96</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.34</v>
+        <v>3.77</v>
       </c>
       <c r="G2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.35</v>
+        <v>3.25</v>
       </c>
       <c r="J2">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>6.41</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>318.5</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>4.58</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.05</v>
+      </c>
+      <c r="R2">
+        <v>6.15</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>302.5</v>
+      </c>
+      <c r="V2">
+        <v>5.65</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C3">
         <v>10</v>
       </c>
       <c r="D3">
-        <v>0.57</v>
+        <v>3.04</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.84</v>
+        <v>25.02</v>
       </c>
       <c r="G3">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.6</v>
+        <v>17.3</v>
       </c>
       <c r="J3">
-        <v>86</v>
+        <v>395</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>15.72</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>286.5</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>10.97</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.01</v>
+      </c>
+      <c r="R3">
+        <v>16.559999999999999</v>
+      </c>
+      <c r="S3">
+        <v>61</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>286.5</v>
+      </c>
+      <c r="V3">
+        <v>11.03</v>
+      </c>
+      <c r="W3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C4">
         <v>10</v>
       </c>
       <c r="D4">
-        <v>0.15</v>
+        <v>6.12</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.25</v>
+        <v>78.98</v>
       </c>
       <c r="G4">
-        <v>13</v>
+        <v>277</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.24</v>
+        <v>40.299999999999997</v>
       </c>
       <c r="J4">
-        <v>41</v>
+        <v>915</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>48.36</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>927</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>324.5</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>10.63</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="R4">
+        <v>28.31</v>
+      </c>
+      <c r="S4">
+        <v>139</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>303.62</v>
+      </c>
+      <c r="V4">
+        <v>17.09</v>
+      </c>
+      <c r="W4">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C5">
         <v>10</v>
       </c>
       <c r="D5">
-        <v>0.5600000000000001</v>
+        <v>3.17</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.44</v>
+        <v>32.840000000000003</v>
       </c>
       <c r="G5">
-        <v>17</v>
+        <v>134</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.27</v>
+        <v>7.92</v>
       </c>
       <c r="J5">
-        <v>36</v>
+        <v>193</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>12.98</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>290.5</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>9.9499999999999993</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>13.39</v>
+      </c>
+      <c r="S5">
+        <v>59</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>290.5</v>
+      </c>
+      <c r="V5">
+        <v>10.02</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C6">
         <v>10</v>
       </c>
       <c r="D6">
-        <v>0.17</v>
+        <v>4.78</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.63</v>
+        <v>6.56</v>
       </c>
       <c r="G6">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.55</v>
+        <v>4</v>
       </c>
       <c r="J6">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>11.58</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>325</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>12.37</v>
+      </c>
+      <c r="S6">
+        <v>4</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>325</v>
+      </c>
+      <c r="V6">
+        <v>2.61</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C7">
         <v>20</v>
       </c>
       <c r="D7">
-        <v>0.25</v>
+        <v>10.050000000000001</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.48</v>
+        <v>19.059999999999999</v>
       </c>
       <c r="G7">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.4</v>
+        <v>16.2</v>
       </c>
       <c r="J7">
-        <v>67</v>
+        <v>190</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>19.68</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>302.5</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>4.49</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="R7">
+        <v>23.53</v>
+      </c>
+      <c r="S7">
+        <v>6</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>289</v>
+      </c>
+      <c r="V7">
+        <v>22.4</v>
+      </c>
+      <c r="W7">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C8">
         <v>20</v>
       </c>
       <c r="D8">
-        <v>0.3</v>
+        <v>11.82</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.42</v>
+        <v>19.170000000000002</v>
       </c>
       <c r="G8">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.37</v>
+        <v>15.68</v>
       </c>
       <c r="J8">
-        <v>66</v>
+        <v>211</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>16.04</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>317</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>11.41</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>16.97</v>
+      </c>
+      <c r="S8">
+        <v>42</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>317</v>
+      </c>
+      <c r="V8">
+        <v>11.32</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C9">
         <v>20</v>
       </c>
       <c r="D9">
-        <v>0.32</v>
+        <v>23.21</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.5</v>
+        <v>118.19</v>
       </c>
       <c r="G9">
-        <v>19</v>
+        <v>295</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.44</v>
+        <v>63.95</v>
       </c>
       <c r="J9">
-        <v>53</v>
+        <v>434</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>52.52</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>294</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>9.76</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>53.93</v>
+      </c>
+      <c r="S9">
+        <v>198</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>294</v>
+      </c>
+      <c r="V9">
+        <v>9.77</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C10">
         <v>20</v>
       </c>
       <c r="D10">
-        <v>0.21</v>
+        <v>78.569999999999993</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.29</v>
+        <v>492</v>
       </c>
       <c r="G10">
-        <v>9</v>
+        <v>682</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.5</v>
+        <v>60.64</v>
       </c>
       <c r="J10">
-        <v>50</v>
+        <v>1398</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>62.56</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>306.5</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>11.71</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>63.53</v>
+      </c>
+      <c r="S10">
+        <v>881</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>306.5</v>
+      </c>
+      <c r="V10">
+        <v>11.74</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C11">
         <v>20</v>
       </c>
       <c r="D11">
-        <v>0.32</v>
+        <v>2.94</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.52</v>
+        <v>1.21</v>
       </c>
       <c r="G11">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.31</v>
+        <v>2.36</v>
       </c>
       <c r="J11">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -975,1606 +1248,2165 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>352</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>5.07</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>5.74</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>352</v>
+      </c>
+      <c r="V11">
+        <v>5.09</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C12">
         <v>30</v>
       </c>
       <c r="D12">
-        <v>0.49</v>
+        <v>113.81</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.83</v>
+        <v>300.73</v>
       </c>
       <c r="G12">
-        <v>23</v>
+        <v>421</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.63</v>
+        <v>37.229999999999997</v>
       </c>
       <c r="J12">
-        <v>84</v>
+        <v>491</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>36.76</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>380</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>318</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>40.9</v>
+      </c>
+      <c r="S12">
+        <v>216</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>318</v>
+      </c>
+      <c r="V12">
+        <v>9.5500000000000007</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C13">
         <v>30</v>
       </c>
       <c r="D13">
-        <v>0.58</v>
+        <v>68.25</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.96</v>
+        <v>144.77000000000001</v>
       </c>
       <c r="G13">
-        <v>29</v>
+        <v>296</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.44</v>
+        <v>44.66</v>
       </c>
       <c r="J13">
-        <v>80</v>
+        <v>315</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>225</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>341</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.01</v>
+      </c>
+      <c r="R13">
+        <v>50.24</v>
+      </c>
+      <c r="S13">
+        <v>184</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>341</v>
+      </c>
+      <c r="V13">
+        <v>2.12</v>
+      </c>
+      <c r="W13">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C14">
         <v>30</v>
       </c>
       <c r="D14">
-        <v>0.5</v>
+        <v>263.79000000000002</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.6899999999999999</v>
+        <v>452.03</v>
       </c>
       <c r="G14">
-        <v>19</v>
+        <v>606</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.75</v>
+        <v>124.45</v>
       </c>
       <c r="J14">
-        <v>75</v>
+        <v>691</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>140.15</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>652</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>354</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>12.6</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.09</v>
+      </c>
+      <c r="R14">
+        <v>120.69</v>
+      </c>
+      <c r="S14">
+        <v>463</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>354</v>
+      </c>
+      <c r="V14">
+        <v>12.7</v>
+      </c>
+      <c r="W14">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C15">
         <v>30</v>
       </c>
       <c r="D15">
-        <v>0.5</v>
+        <v>154.24</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.83</v>
+        <v>100.68</v>
       </c>
       <c r="G15">
-        <v>23</v>
+        <v>197</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.46</v>
+        <v>35.36</v>
       </c>
       <c r="J15">
-        <v>87</v>
+        <v>285</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>36.43</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>169</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>348.5</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>12.68</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>37.869999999999997</v>
+      </c>
+      <c r="S15">
+        <v>119</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>348.5</v>
+      </c>
+      <c r="V15">
+        <v>12.62</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C16">
         <v>30</v>
       </c>
       <c r="D16">
-        <v>0.48</v>
+        <v>25.58</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.93</v>
+        <v>30.35</v>
       </c>
       <c r="G16">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.27</v>
+        <v>26.37</v>
       </c>
       <c r="J16">
-        <v>59</v>
+        <v>192</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>29.89</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>369</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="R16">
+        <v>26.96</v>
+      </c>
+      <c r="S16">
+        <v>11</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>349.77</v>
+      </c>
+      <c r="V16">
+        <v>17.98</v>
+      </c>
+      <c r="W16">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C17">
         <v>40</v>
       </c>
       <c r="D17">
-        <v>0.74</v>
+        <v>126.29</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.86</v>
+        <v>198.14</v>
       </c>
       <c r="G17">
-        <v>20</v>
+        <v>299</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.91</v>
+        <v>53.23</v>
       </c>
       <c r="J17">
-        <v>96</v>
+        <v>641</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>65.03</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>513</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>333.5</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>14.16</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.03</v>
+      </c>
+      <c r="R17">
+        <v>62.76</v>
+      </c>
+      <c r="S17">
+        <v>305</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>333.5</v>
+      </c>
+      <c r="V17">
+        <v>14.26</v>
+      </c>
+      <c r="W17">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C18">
         <v>40</v>
       </c>
       <c r="D18">
-        <v>0.71</v>
+        <v>164.82</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.31</v>
+        <v>301.51</v>
       </c>
       <c r="G18">
-        <v>28</v>
+        <v>315</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.9399999999999999</v>
+        <v>34.770000000000003</v>
       </c>
       <c r="J18">
-        <v>136</v>
+        <v>684</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>35.729999999999997</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>484</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>353.5</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>9.31</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>42.66</v>
+      </c>
+      <c r="S18">
+        <v>328</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>353.5</v>
+      </c>
+      <c r="V18">
+        <v>9.33</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C19">
         <v>40</v>
       </c>
       <c r="D19">
-        <v>0.95</v>
+        <v>128.68</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.97</v>
+        <v>32.64</v>
       </c>
       <c r="G19">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.66</v>
+        <v>22.73</v>
       </c>
       <c r="J19">
-        <v>79</v>
+        <v>196</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>38.76</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>176</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>385.5</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>12.01</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.09</v>
+      </c>
+      <c r="R19">
+        <v>39.29</v>
+      </c>
+      <c r="S19">
+        <v>73</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>360.11</v>
+      </c>
+      <c r="V19">
+        <v>22.82</v>
+      </c>
+      <c r="W19">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C20">
         <v>40</v>
       </c>
       <c r="D20">
-        <v>0.74</v>
+        <v>177.84</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.02</v>
+        <v>160.94</v>
       </c>
       <c r="G20">
-        <v>22</v>
+        <v>250</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.13</v>
+        <v>75.72</v>
       </c>
       <c r="J20">
-        <v>101</v>
+        <v>392</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>73.680000000000007</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>276</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>364</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>13.09</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.09</v>
+      </c>
+      <c r="R20">
+        <v>69.849999999999994</v>
+      </c>
+      <c r="S20">
+        <v>171</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>334.5</v>
+      </c>
+      <c r="V20">
+        <v>25.5</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C21">
         <v>40</v>
       </c>
       <c r="D21">
-        <v>0.76</v>
+        <v>49.69</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.26</v>
+        <v>47.5</v>
       </c>
       <c r="G21">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.91</v>
+        <v>27.11</v>
       </c>
       <c r="J21">
-        <v>110</v>
+        <v>193</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>36.85</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>371</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>8.74</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.09</v>
+      </c>
+      <c r="R21">
+        <v>35.44</v>
+      </c>
+      <c r="S21">
+        <v>47</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>340.5</v>
+      </c>
+      <c r="V21">
+        <v>25.89</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C22">
         <v>50</v>
       </c>
       <c r="D22">
-        <v>0.9399999999999999</v>
+        <v>125.2</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.35</v>
+        <v>103.46</v>
       </c>
       <c r="G22">
-        <v>24</v>
+        <v>171</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.61</v>
+        <v>64.16</v>
       </c>
       <c r="J22">
-        <v>86</v>
+        <v>383</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>64.59</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>234</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>412</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>13.02</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.2</v>
+      </c>
+      <c r="R22">
+        <v>70.849999999999994</v>
+      </c>
+      <c r="S22">
+        <v>179</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>412</v>
+      </c>
+      <c r="V22">
+        <v>13.02</v>
+      </c>
+      <c r="W22">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C23">
         <v>50</v>
       </c>
       <c r="D23">
-        <v>1.12</v>
+        <v>107.89</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.4</v>
+        <v>30.8</v>
       </c>
       <c r="G23">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.39</v>
+        <v>19.739999999999998</v>
       </c>
       <c r="J23">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>19.809999999999999</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>348</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>7.63</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>21.43</v>
+      </c>
+      <c r="S23">
+        <v>36</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>348</v>
+      </c>
+      <c r="V23">
+        <v>7.62</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C24">
         <v>50</v>
       </c>
       <c r="D24">
-        <v>1.27</v>
+        <v>135.80000000000001</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.94</v>
+        <v>54.03</v>
       </c>
       <c r="G24">
-        <v>35</v>
+        <v>99</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.14</v>
+        <v>30.55</v>
       </c>
       <c r="J24">
-        <v>158</v>
+        <v>234</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>60.21</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>194</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>393.5</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>14.8</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.17</v>
+      </c>
+      <c r="R24">
+        <v>61.16</v>
+      </c>
+      <c r="S24">
+        <v>116</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>366.37</v>
+      </c>
+      <c r="V24">
+        <v>25.58</v>
+      </c>
+      <c r="W24">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C25">
         <v>50</v>
       </c>
       <c r="D25">
-        <v>0.96</v>
+        <v>33.44</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.5</v>
+        <v>32.340000000000003</v>
       </c>
       <c r="G25">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.22</v>
+        <v>11.62</v>
       </c>
       <c r="J25">
-        <v>151</v>
+        <v>116</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>23.56</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>404</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>9.0299999999999994</v>
       </c>
       <c r="Q25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
+        <v>0.17</v>
+      </c>
+      <c r="R25">
+        <v>29.72</v>
+      </c>
+      <c r="S25">
+        <v>13</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>356.72</v>
+      </c>
+      <c r="V25">
+        <v>25.46</v>
+      </c>
+      <c r="W25">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C26">
         <v>50</v>
       </c>
       <c r="D26">
-        <v>0.95</v>
+        <v>147.79</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.81</v>
+        <v>76.849999999999994</v>
       </c>
       <c r="G26">
-        <v>32</v>
+        <v>132</v>
       </c>
       <c r="H26">
         <v>0</v>
       </c>
       <c r="I26">
-        <v>1.03</v>
+        <v>30.72</v>
       </c>
       <c r="J26">
-        <v>110</v>
+        <v>208</v>
       </c>
       <c r="K26">
         <v>0</v>
       </c>
       <c r="L26">
-        <v>0</v>
+        <v>33.58</v>
       </c>
       <c r="M26">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="N26">
         <v>0</v>
       </c>
       <c r="O26">
-        <v>0</v>
+        <v>337</v>
       </c>
       <c r="P26">
-        <v>0</v>
+        <v>13.06</v>
       </c>
       <c r="Q26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
+        <v>0.01</v>
+      </c>
+      <c r="R26">
+        <v>35.93</v>
+      </c>
+      <c r="S26">
+        <v>79</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>337</v>
+      </c>
+      <c r="V26">
+        <v>12.97</v>
+      </c>
+      <c r="W26">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C27">
         <v>100</v>
       </c>
       <c r="D27">
-        <v>2.32</v>
+        <v>919.05</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27">
-        <v>3.03</v>
+        <v>443.92</v>
       </c>
       <c r="G27">
-        <v>28</v>
+        <v>324</v>
       </c>
       <c r="H27">
         <v>0</v>
       </c>
       <c r="I27">
-        <v>2.29</v>
+        <v>46.74</v>
       </c>
       <c r="J27">
-        <v>178</v>
+        <v>447</v>
       </c>
       <c r="K27">
         <v>0</v>
       </c>
       <c r="L27">
-        <v>0</v>
+        <v>70.16</v>
       </c>
       <c r="M27">
-        <v>0</v>
+        <v>297</v>
       </c>
       <c r="N27">
         <v>0</v>
       </c>
       <c r="O27">
-        <v>0</v>
+        <v>454.5</v>
       </c>
       <c r="P27">
-        <v>0</v>
+        <v>20.16</v>
       </c>
       <c r="Q27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
+        <v>0.21</v>
+      </c>
+      <c r="R27">
+        <v>66.209999999999994</v>
+      </c>
+      <c r="S27">
+        <v>168</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>454.5</v>
+      </c>
+      <c r="V27">
+        <v>20.11</v>
+      </c>
+      <c r="W27">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C28">
         <v>100</v>
       </c>
       <c r="D28">
-        <v>2.74</v>
+        <v>197.39</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>2.96</v>
+        <v>166.37</v>
       </c>
       <c r="G28">
-        <v>28</v>
+        <v>200</v>
       </c>
       <c r="H28">
         <v>0</v>
       </c>
       <c r="I28">
-        <v>2.33</v>
+        <v>71.59</v>
       </c>
       <c r="J28">
-        <v>168</v>
+        <v>403</v>
       </c>
       <c r="K28">
         <v>0</v>
       </c>
       <c r="L28">
-        <v>0</v>
+        <v>51.08</v>
       </c>
       <c r="M28">
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="N28">
         <v>0</v>
       </c>
       <c r="O28">
-        <v>0</v>
+        <v>408.5</v>
       </c>
       <c r="P28">
-        <v>0</v>
+        <v>22.83</v>
       </c>
       <c r="Q28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
+        <v>0.21</v>
+      </c>
+      <c r="R28">
+        <v>47.55</v>
+      </c>
+      <c r="S28">
+        <v>38</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>408.5</v>
+      </c>
+      <c r="V28">
+        <v>23.01</v>
+      </c>
+      <c r="W28">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C29">
         <v>100</v>
       </c>
       <c r="D29">
-        <v>2.79</v>
+        <v>586.73</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29">
-        <v>2.76</v>
+        <v>225.53</v>
       </c>
       <c r="G29">
-        <v>25</v>
+        <v>218</v>
       </c>
       <c r="H29">
         <v>0</v>
       </c>
       <c r="I29">
-        <v>2.19</v>
+        <v>59.04</v>
       </c>
       <c r="J29">
-        <v>192</v>
+        <v>416</v>
       </c>
       <c r="K29">
         <v>0</v>
       </c>
       <c r="L29">
-        <v>0</v>
+        <v>70.400000000000006</v>
       </c>
       <c r="M29">
-        <v>0</v>
+        <v>223</v>
       </c>
       <c r="N29">
         <v>0</v>
       </c>
       <c r="O29">
-        <v>0</v>
+        <v>445.5</v>
       </c>
       <c r="P29">
-        <v>0</v>
+        <v>14.2</v>
       </c>
       <c r="Q29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
+        <v>0.17</v>
+      </c>
+      <c r="R29">
+        <v>62.39</v>
+      </c>
+      <c r="S29">
+        <v>136</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>385.5</v>
+      </c>
+      <c r="V29">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="W29">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C30">
         <v>100</v>
       </c>
       <c r="D30">
-        <v>3.04</v>
+        <v>125.27</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30">
-        <v>2.91</v>
+        <v>57.41</v>
       </c>
       <c r="G30">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="H30">
         <v>0</v>
       </c>
       <c r="I30">
-        <v>1.3</v>
+        <v>68.62</v>
       </c>
       <c r="J30">
-        <v>165</v>
+        <v>365</v>
       </c>
       <c r="K30">
         <v>0</v>
       </c>
       <c r="L30">
-        <v>0</v>
+        <v>80.73</v>
       </c>
       <c r="M30">
-        <v>0</v>
+        <v>245</v>
       </c>
       <c r="N30">
         <v>0</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>434</v>
       </c>
       <c r="P30">
-        <v>0</v>
+        <v>8.34</v>
       </c>
       <c r="Q30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
+        <v>0.17</v>
+      </c>
+      <c r="R30">
+        <v>77.86</v>
+      </c>
+      <c r="S30">
+        <v>188</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>434</v>
+      </c>
+      <c r="V30">
+        <v>8.5299999999999994</v>
+      </c>
+      <c r="W30">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C31">
         <v>100</v>
       </c>
       <c r="D31">
-        <v>2.85</v>
+        <v>1000.09</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>3.2901695098500987E-2</v>
       </c>
       <c r="F31">
-        <v>2.94</v>
+        <v>333.39</v>
       </c>
       <c r="G31">
-        <v>26</v>
+        <v>293</v>
       </c>
       <c r="H31">
         <v>0</v>
       </c>
       <c r="I31">
-        <v>1.56</v>
+        <v>57.67</v>
       </c>
       <c r="J31">
-        <v>163</v>
+        <v>531</v>
       </c>
       <c r="K31">
         <v>0</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>55.68</v>
       </c>
       <c r="M31">
-        <v>0</v>
+        <v>321</v>
       </c>
       <c r="N31">
         <v>0</v>
       </c>
       <c r="O31">
-        <v>0</v>
+        <v>373</v>
       </c>
       <c r="P31">
-        <v>0</v>
+        <v>18.850000000000001</v>
       </c>
       <c r="Q31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
+        <v>0.03</v>
+      </c>
+      <c r="R31">
+        <v>57.06</v>
+      </c>
+      <c r="S31">
+        <v>218</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>373</v>
+      </c>
+      <c r="V31">
+        <v>18.91</v>
+      </c>
+      <c r="W31">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C32">
         <v>200</v>
       </c>
       <c r="D32">
-        <v>9.66</v>
+        <v>580.41</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
-        <v>7.61</v>
+        <v>364.79</v>
       </c>
       <c r="G32">
-        <v>33</v>
+        <v>245</v>
       </c>
       <c r="H32">
         <v>0</v>
       </c>
       <c r="I32">
-        <v>6.61</v>
+        <v>67.58</v>
       </c>
       <c r="J32">
-        <v>322</v>
+        <v>406</v>
       </c>
       <c r="K32">
         <v>0</v>
       </c>
       <c r="L32">
-        <v>0</v>
+        <v>76.17</v>
       </c>
       <c r="M32">
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="N32">
         <v>0</v>
       </c>
       <c r="O32">
-        <v>0</v>
+        <v>481</v>
       </c>
       <c r="P32">
-        <v>0</v>
+        <v>27.73</v>
       </c>
       <c r="Q32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17">
+        <v>0.2</v>
+      </c>
+      <c r="R32">
+        <v>82.34</v>
+      </c>
+      <c r="S32">
+        <v>117</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>481</v>
+      </c>
+      <c r="V32">
+        <v>27.33</v>
+      </c>
+      <c r="W32">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C33">
         <v>200</v>
       </c>
       <c r="D33">
-        <v>9.390000000000001</v>
+        <v>1000.16</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>0.22564734895191119</v>
       </c>
       <c r="F33">
-        <v>7.73</v>
+        <v>1054.96</v>
       </c>
       <c r="G33">
-        <v>34</v>
+        <v>447</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>7.0153061224489791E-2</v>
       </c>
       <c r="I33">
-        <v>4.75</v>
+        <v>149.07</v>
       </c>
       <c r="J33">
-        <v>365</v>
+        <v>770</v>
       </c>
       <c r="K33">
         <v>0</v>
       </c>
       <c r="L33">
-        <v>0</v>
+        <v>136.37</v>
       </c>
       <c r="M33">
-        <v>0</v>
+        <v>456</v>
       </c>
       <c r="N33">
         <v>0</v>
       </c>
       <c r="O33">
-        <v>0</v>
+        <v>463.5</v>
       </c>
       <c r="P33">
-        <v>0</v>
+        <v>15.45</v>
       </c>
       <c r="Q33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17">
+        <v>0.17</v>
+      </c>
+      <c r="R33">
+        <v>155.35</v>
+      </c>
+      <c r="S33">
+        <v>423</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>463.5</v>
+      </c>
+      <c r="V33">
+        <v>15.28</v>
+      </c>
+      <c r="W33">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C34">
         <v>200</v>
       </c>
       <c r="D34">
-        <v>10.09</v>
+        <v>1005.61</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>0.21639158708268311</v>
       </c>
       <c r="F34">
-        <v>7.16</v>
+        <v>965.63</v>
       </c>
       <c r="G34">
-        <v>30</v>
+        <v>431</v>
       </c>
       <c r="H34">
         <v>0</v>
       </c>
       <c r="I34">
-        <v>5.17</v>
+        <v>227.41</v>
       </c>
       <c r="J34">
-        <v>311</v>
+        <v>915</v>
       </c>
       <c r="K34">
         <v>0</v>
       </c>
       <c r="L34">
-        <v>0</v>
+        <v>212.92</v>
       </c>
       <c r="M34">
-        <v>0</v>
+        <v>572</v>
       </c>
       <c r="N34">
         <v>0</v>
       </c>
       <c r="O34">
-        <v>0</v>
+        <v>514</v>
       </c>
       <c r="P34">
-        <v>0</v>
+        <v>28.36</v>
       </c>
       <c r="Q34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="R34">
+        <v>220.46</v>
+      </c>
+      <c r="S34">
+        <v>490</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>467.88</v>
+      </c>
+      <c r="V34">
+        <v>40.729999999999997</v>
+      </c>
+      <c r="W34">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C35">
         <v>200</v>
       </c>
       <c r="D35">
-        <v>5.47</v>
+        <v>1000.2</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>0.175032175032175</v>
       </c>
       <c r="F35">
-        <v>7.34</v>
+        <v>636.83000000000004</v>
       </c>
       <c r="G35">
-        <v>32</v>
+        <v>337</v>
       </c>
       <c r="H35">
         <v>0</v>
       </c>
       <c r="I35">
-        <v>8.369999999999999</v>
+        <v>150.85</v>
       </c>
       <c r="J35">
-        <v>309</v>
+        <v>72</v>
       </c>
       <c r="K35">
         <v>0</v>
       </c>
       <c r="L35">
-        <v>0</v>
+        <v>109.01</v>
       </c>
       <c r="M35">
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="N35">
         <v>0</v>
       </c>
       <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35">
-        <v>0</v>
+        <v>425.5</v>
+      </c>
+      <c r="P35" s="4">
+        <v>19.5</v>
       </c>
       <c r="Q35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17">
+        <v>0.12</v>
+      </c>
+      <c r="R35">
+        <v>159.6</v>
+      </c>
+      <c r="S35">
+        <v>404</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <v>425.5</v>
+      </c>
+      <c r="V35">
+        <v>19.350000000000001</v>
+      </c>
+      <c r="W35">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C36">
         <v>200</v>
       </c>
       <c r="D36">
-        <v>7.77</v>
+        <v>1000.14</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>2.8806581716254231E-2</v>
       </c>
       <c r="F36">
-        <v>6.59</v>
+        <v>540.73</v>
       </c>
       <c r="G36">
-        <v>28</v>
+        <v>299</v>
       </c>
       <c r="H36">
         <v>0</v>
       </c>
       <c r="I36">
-        <v>6.04</v>
+        <v>58.92</v>
       </c>
       <c r="J36">
-        <v>299</v>
+        <v>515</v>
       </c>
       <c r="K36">
         <v>0</v>
       </c>
       <c r="L36">
-        <v>0</v>
+        <v>73.709999999999994</v>
       </c>
       <c r="M36">
-        <v>0</v>
+        <v>216</v>
       </c>
       <c r="N36">
         <v>0</v>
       </c>
       <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36">
-        <v>0</v>
+        <v>429</v>
+      </c>
+      <c r="P36" s="2">
+        <v>29.96</v>
       </c>
       <c r="Q36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17">
+        <v>0.18</v>
+      </c>
+      <c r="R36">
+        <v>102.31</v>
+      </c>
+      <c r="S36">
+        <v>167</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <v>429</v>
+      </c>
+      <c r="V36" s="2">
+        <v>29.95</v>
+      </c>
+      <c r="W36">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C37">
         <v>500</v>
       </c>
       <c r="D37">
-        <v>30.45</v>
+        <v>1000.33</v>
       </c>
       <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>31.72</v>
+        <v>0.31046030409243419</v>
+      </c>
+      <c r="F37" s="3">
+        <v>1952.26</v>
       </c>
       <c r="G37">
-        <v>41</v>
+        <v>431</v>
       </c>
       <c r="H37">
         <v>0</v>
       </c>
       <c r="I37">
-        <v>12.55</v>
+        <v>396.68</v>
       </c>
       <c r="J37">
-        <v>740</v>
+        <v>1231</v>
       </c>
       <c r="K37">
         <v>0</v>
       </c>
       <c r="L37">
-        <v>0</v>
+        <v>289.29000000000002</v>
       </c>
       <c r="M37">
-        <v>0</v>
+        <v>568</v>
       </c>
       <c r="N37">
         <v>0</v>
       </c>
       <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37">
-        <v>0</v>
+        <v>551.5</v>
+      </c>
+      <c r="P37" s="2">
+        <v>41.48</v>
       </c>
       <c r="Q37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17">
+        <v>0.32</v>
+      </c>
+      <c r="R37">
+        <v>409.82</v>
+      </c>
+      <c r="S37">
+        <v>682</v>
+      </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
+      <c r="U37">
+        <v>551.5</v>
+      </c>
+      <c r="V37" s="2">
+        <v>41.63</v>
+      </c>
+      <c r="W37">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C38">
         <v>500</v>
       </c>
       <c r="D38">
-        <v>23.81</v>
+        <v>1000.34</v>
       </c>
       <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <v>17.46</v>
+        <v>0.160002298541738</v>
+      </c>
+      <c r="F38" s="3">
+        <v>1290.45</v>
       </c>
       <c r="G38">
-        <v>25</v>
+        <v>349</v>
       </c>
       <c r="H38">
         <v>0</v>
       </c>
       <c r="I38">
-        <v>12.6</v>
+        <v>306.45999999999998</v>
       </c>
       <c r="J38">
-        <v>700</v>
+        <v>843</v>
       </c>
       <c r="K38">
         <v>0</v>
       </c>
       <c r="L38">
-        <v>0</v>
+        <v>329.72</v>
       </c>
       <c r="M38">
-        <v>0</v>
+        <v>295</v>
       </c>
       <c r="N38">
         <v>0</v>
       </c>
       <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38">
-        <v>0</v>
+        <v>459.5</v>
+      </c>
+      <c r="P38" s="2">
+        <v>82.43</v>
       </c>
       <c r="Q38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17">
+        <v>0.1</v>
+      </c>
+      <c r="R38">
+        <v>312.24</v>
+      </c>
+      <c r="S38">
+        <v>255</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <v>459.5</v>
+      </c>
+      <c r="V38" s="2">
+        <v>83.14</v>
+      </c>
+      <c r="W38">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C39">
         <v>500</v>
       </c>
       <c r="D39">
-        <v>22.94</v>
+        <v>1000.35</v>
       </c>
       <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>25.34</v>
+        <v>0.27351454518035939</v>
+      </c>
+      <c r="F39" s="3">
+        <v>1804.57</v>
       </c>
       <c r="G39">
-        <v>38</v>
+        <v>417</v>
       </c>
       <c r="H39">
         <v>0</v>
       </c>
       <c r="I39">
-        <v>13.9</v>
+        <v>168.83</v>
       </c>
       <c r="J39">
-        <v>696</v>
+        <v>812</v>
       </c>
       <c r="K39">
         <v>0</v>
       </c>
       <c r="L39">
-        <v>0</v>
+        <v>155.43</v>
       </c>
       <c r="M39">
-        <v>0</v>
+        <v>236</v>
       </c>
       <c r="N39">
         <v>0</v>
       </c>
       <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39">
-        <v>0</v>
+        <v>493</v>
+      </c>
+      <c r="P39" s="2">
+        <v>62.13</v>
       </c>
       <c r="Q39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17">
+        <v>0.21</v>
+      </c>
+      <c r="R39">
+        <v>159.65</v>
+      </c>
+      <c r="S39">
+        <v>185</v>
+      </c>
+      <c r="T39">
+        <v>0</v>
+      </c>
+      <c r="U39">
+        <v>493</v>
+      </c>
+      <c r="V39" s="2">
+        <v>62.36</v>
+      </c>
+      <c r="W39">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C40">
         <v>500</v>
       </c>
       <c r="D40">
-        <v>39.88</v>
+        <v>1000.44</v>
       </c>
       <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <v>24.97</v>
+        <v>0.2091163456023136</v>
+      </c>
+      <c r="F40" s="3">
+        <v>1473.81</v>
       </c>
       <c r="G40">
-        <v>37</v>
+        <v>387</v>
       </c>
       <c r="H40">
         <v>0</v>
       </c>
       <c r="I40">
-        <v>17.25</v>
+        <v>397.26</v>
       </c>
       <c r="J40">
-        <v>705</v>
+        <v>1044</v>
       </c>
       <c r="K40">
         <v>0</v>
       </c>
       <c r="L40">
-        <v>0</v>
+        <v>457.91</v>
       </c>
       <c r="M40">
-        <v>0</v>
+        <v>409</v>
       </c>
       <c r="N40">
         <v>0</v>
       </c>
       <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40">
-        <v>0</v>
+        <v>485.5</v>
+      </c>
+      <c r="P40" s="2">
+        <v>65.5</v>
       </c>
       <c r="Q40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17">
+        <v>0.13</v>
+      </c>
+      <c r="R40">
+        <v>407.32</v>
+      </c>
+      <c r="S40">
+        <v>392</v>
+      </c>
+      <c r="T40">
+        <v>0</v>
+      </c>
+      <c r="U40">
+        <v>485.5</v>
+      </c>
+      <c r="V40" s="2">
+        <v>66.33</v>
+      </c>
+      <c r="W40">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C41">
         <v>500</v>
       </c>
       <c r="D41">
-        <v>38.21</v>
+        <v>1000.33</v>
       </c>
       <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41">
-        <v>23.86</v>
+        <v>0.33914059649916573</v>
+      </c>
+      <c r="F41" s="3">
+        <v>2005.99</v>
       </c>
       <c r="G41">
-        <v>35</v>
+        <v>451</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>4.8531289910600253E-2</v>
       </c>
       <c r="I41">
-        <v>12.67</v>
+        <v>367.23</v>
       </c>
       <c r="J41">
-        <v>636</v>
+        <v>1268</v>
       </c>
       <c r="K41">
         <v>0</v>
       </c>
       <c r="L41">
-        <v>0</v>
+        <v>432.78</v>
       </c>
       <c r="M41">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="N41">
         <v>0</v>
       </c>
       <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41">
-        <v>0</v>
+        <v>463.5</v>
+      </c>
+      <c r="P41" s="2">
+        <v>35.369999999999997</v>
       </c>
       <c r="Q41">
-        <v>0</v>
+        <v>0.16</v>
+      </c>
+      <c r="R41">
+        <v>406.06</v>
+      </c>
+      <c r="S41">
+        <v>566</v>
+      </c>
+      <c r="T41">
+        <v>0</v>
+      </c>
+      <c r="U41">
+        <v>463.5</v>
+      </c>
+      <c r="V41" s="2">
+        <v>35.08</v>
+      </c>
+      <c r="W41">
+        <v>0.16</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Two-stage Recoverable FLP/Local Branching/output.xlsx
+++ b/Two-stage Recoverable FLP/Local Branching/output.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\Python\Two-stage Recoverable FLP\Local Branching\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A612320F-715C-49E0-B882-867CB3FE3377}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
   <si>
     <t>|N|</t>
   </si>
@@ -57,16 +51,19 @@
   <si>
     <t>PR:time</t>
   </si>
+  <si>
+    <t>ROOT_val</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -74,43 +71,17 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -140,33 +111,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -208,7 +168,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -240,27 +200,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -292,24 +234,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -485,19 +409,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:X41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1:T1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="4" max="4" width="10" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:24">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -564,8 +483,11 @@
       <c r="W1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -576,67 +498,70 @@
         <v>10</v>
       </c>
       <c r="D2">
-        <v>1.96</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>3.77</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>6.41</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>318.5</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>4.58</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>6.15</v>
+        <v>35.59</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="T2">
         <v>0</v>
       </c>
       <c r="U2">
-        <v>302.5</v>
+        <v>282.5</v>
       </c>
       <c r="V2">
-        <v>5.65</v>
+        <v>24.54</v>
       </c>
       <c r="W2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X2">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -647,67 +572,70 @@
         <v>10</v>
       </c>
       <c r="D3">
-        <v>3.04</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>25.02</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>17.3</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>395</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>15.72</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>286.5</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>10.97</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>16.559999999999999</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="T3">
         <v>0</v>
       </c>
       <c r="U3">
-        <v>286.5</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>11.03</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -718,67 +646,70 @@
         <v>10</v>
       </c>
       <c r="D4">
-        <v>6.12</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>78.98</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>277</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>40.299999999999997</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>915</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>48.36</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>927</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>324.5</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>10.63</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>7.0000000000000007E-2</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>28.31</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>139</v>
+        <v>0</v>
       </c>
       <c r="T4">
         <v>0</v>
       </c>
       <c r="U4">
-        <v>303.62</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>17.09</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -789,67 +720,70 @@
         <v>10</v>
       </c>
       <c r="D5">
-        <v>3.17</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>32.840000000000003</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>7.92</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>193</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>12.98</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>290.5</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>9.9499999999999993</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
       <c r="R5">
-        <v>13.39</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="T5">
         <v>0</v>
       </c>
       <c r="U5">
-        <v>290.5</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>10.02</v>
+        <v>0</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,67 +794,70 @@
         <v>10</v>
       </c>
       <c r="D6">
-        <v>4.78</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>6.56</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>11.58</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>325</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>2.63</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
       <c r="R6">
-        <v>12.37</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T6">
         <v>0</v>
       </c>
       <c r="U6">
-        <v>325</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>2.61</v>
+        <v>0</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -931,67 +868,70 @@
         <v>20</v>
       </c>
       <c r="D7">
-        <v>10.050000000000001</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>19.059999999999999</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>16.2</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>19.68</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>302.5</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>4.49</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>7.0000000000000007E-2</v>
+        <v>0</v>
       </c>
       <c r="R7">
-        <v>23.53</v>
+        <v>0</v>
       </c>
       <c r="S7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="T7">
         <v>0</v>
       </c>
       <c r="U7">
-        <v>289</v>
+        <v>0</v>
       </c>
       <c r="V7">
-        <v>22.4</v>
+        <v>0</v>
       </c>
       <c r="W7">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1002,67 +942,70 @@
         <v>20</v>
       </c>
       <c r="D8">
-        <v>11.82</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>19.170000000000002</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>15.68</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>211</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>16.04</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>317</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>11.41</v>
+        <v>0</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
       <c r="R8">
-        <v>16.97</v>
+        <v>0</v>
       </c>
       <c r="S8">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="T8">
         <v>0</v>
       </c>
       <c r="U8">
-        <v>317</v>
+        <v>0</v>
       </c>
       <c r="V8">
-        <v>11.32</v>
+        <v>0</v>
       </c>
       <c r="W8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1073,67 +1016,70 @@
         <v>20</v>
       </c>
       <c r="D9">
-        <v>23.21</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>118.19</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>295</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>63.95</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>434</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>52.52</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>294</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>9.76</v>
+        <v>0</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
       <c r="R9">
-        <v>53.93</v>
+        <v>0</v>
       </c>
       <c r="S9">
-        <v>198</v>
+        <v>0</v>
       </c>
       <c r="T9">
         <v>0</v>
       </c>
       <c r="U9">
-        <v>294</v>
+        <v>0</v>
       </c>
       <c r="V9">
-        <v>9.77</v>
+        <v>0</v>
       </c>
       <c r="W9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1144,67 +1090,70 @@
         <v>20</v>
       </c>
       <c r="D10">
-        <v>78.569999999999993</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>492</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>682</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>60.64</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>1398</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>62.56</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>306.5</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>11.71</v>
+        <v>0</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
       <c r="R10">
-        <v>63.53</v>
+        <v>0</v>
       </c>
       <c r="S10">
-        <v>881</v>
+        <v>0</v>
       </c>
       <c r="T10">
         <v>0</v>
       </c>
       <c r="U10">
-        <v>306.5</v>
+        <v>0</v>
       </c>
       <c r="V10">
-        <v>11.74</v>
+        <v>0</v>
       </c>
       <c r="W10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1215,31 +1164,31 @@
         <v>20</v>
       </c>
       <c r="D11">
-        <v>2.94</v>
+        <v>0</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.21</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.36</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>5.4</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1248,16 +1197,16 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>352</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>5.07</v>
+        <v>0</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
       <c r="R11">
-        <v>5.74</v>
+        <v>0</v>
       </c>
       <c r="S11">
         <v>0</v>
@@ -1266,16 +1215,19 @@
         <v>0</v>
       </c>
       <c r="U11">
-        <v>352</v>
+        <v>0</v>
       </c>
       <c r="V11">
-        <v>5.09</v>
+        <v>0</v>
       </c>
       <c r="W11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1286,67 +1238,70 @@
         <v>30</v>
       </c>
       <c r="D12">
-        <v>113.81</v>
+        <v>0</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>300.73</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>421</v>
+        <v>0</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>37.229999999999997</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>491</v>
+        <v>0</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>36.76</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>380</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>318</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>9.5</v>
+        <v>0</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
       <c r="R12">
-        <v>40.9</v>
+        <v>0</v>
       </c>
       <c r="S12">
-        <v>216</v>
+        <v>0</v>
       </c>
       <c r="T12">
         <v>0</v>
       </c>
       <c r="U12">
-        <v>318</v>
+        <v>0</v>
       </c>
       <c r="V12">
-        <v>9.5500000000000007</v>
+        <v>0</v>
       </c>
       <c r="W12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1357,67 +1312,70 @@
         <v>30</v>
       </c>
       <c r="D13">
-        <v>68.25</v>
+        <v>0</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>144.77000000000001</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>296</v>
+        <v>0</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>44.66</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>225</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>341</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>2.12</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="R13">
-        <v>50.24</v>
+        <v>0</v>
       </c>
       <c r="S13">
-        <v>184</v>
+        <v>0</v>
       </c>
       <c r="T13">
         <v>0</v>
       </c>
       <c r="U13">
-        <v>341</v>
+        <v>0</v>
       </c>
       <c r="V13">
-        <v>2.12</v>
+        <v>0</v>
       </c>
       <c r="W13">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1428,67 +1386,70 @@
         <v>30</v>
       </c>
       <c r="D14">
-        <v>263.79000000000002</v>
+        <v>0</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>452.03</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>606</v>
+        <v>0</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>124.45</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>691</v>
+        <v>0</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>140.15</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>652</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>354</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>12.6</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="R14">
-        <v>120.69</v>
+        <v>0</v>
       </c>
       <c r="S14">
-        <v>463</v>
+        <v>0</v>
       </c>
       <c r="T14">
         <v>0</v>
       </c>
       <c r="U14">
-        <v>354</v>
+        <v>0</v>
       </c>
       <c r="V14">
-        <v>12.7</v>
+        <v>0</v>
       </c>
       <c r="W14">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1499,67 +1460,70 @@
         <v>30</v>
       </c>
       <c r="D15">
-        <v>154.24</v>
+        <v>0</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>100.68</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>35.36</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>285</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>36.43</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>169</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>348.5</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>12.68</v>
+        <v>0</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
       <c r="R15">
-        <v>37.869999999999997</v>
+        <v>0</v>
       </c>
       <c r="S15">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="T15">
         <v>0</v>
       </c>
       <c r="U15">
-        <v>348.5</v>
+        <v>0</v>
       </c>
       <c r="V15">
-        <v>12.62</v>
+        <v>0</v>
       </c>
       <c r="W15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1570,67 +1534,70 @@
         <v>30</v>
       </c>
       <c r="D16">
-        <v>25.58</v>
+        <v>0</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>30.35</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>26.37</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>192</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>29.89</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>369</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>7.0000000000000007E-2</v>
+        <v>0</v>
       </c>
       <c r="R16">
-        <v>26.96</v>
+        <v>0</v>
       </c>
       <c r="S16">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="T16">
         <v>0</v>
       </c>
       <c r="U16">
-        <v>349.77</v>
+        <v>0</v>
       </c>
       <c r="V16">
-        <v>17.98</v>
+        <v>0</v>
       </c>
       <c r="W16">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1641,67 +1608,70 @@
         <v>40</v>
       </c>
       <c r="D17">
-        <v>126.29</v>
+        <v>0</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>198.14</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>299</v>
+        <v>0</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>53.23</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>641</v>
+        <v>0</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>65.03</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>513</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>333.5</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>14.16</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="R17">
-        <v>62.76</v>
+        <v>0</v>
       </c>
       <c r="S17">
-        <v>305</v>
+        <v>0</v>
       </c>
       <c r="T17">
         <v>0</v>
       </c>
       <c r="U17">
-        <v>333.5</v>
+        <v>0</v>
       </c>
       <c r="V17">
-        <v>14.26</v>
+        <v>0</v>
       </c>
       <c r="W17">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1712,67 +1682,70 @@
         <v>40</v>
       </c>
       <c r="D18">
-        <v>164.82</v>
+        <v>0</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>301.51</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>34.770000000000003</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>684</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>35.729999999999997</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>484</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>353.5</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>9.31</v>
+        <v>0</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
       <c r="R18">
-        <v>42.66</v>
+        <v>0</v>
       </c>
       <c r="S18">
-        <v>328</v>
+        <v>0</v>
       </c>
       <c r="T18">
         <v>0</v>
       </c>
       <c r="U18">
-        <v>353.5</v>
+        <v>0</v>
       </c>
       <c r="V18">
-        <v>9.33</v>
+        <v>0</v>
       </c>
       <c r="W18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1783,67 +1756,70 @@
         <v>40</v>
       </c>
       <c r="D19">
-        <v>128.68</v>
+        <v>0</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>32.64</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>22.73</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>196</v>
+        <v>0</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>38.76</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>176</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>385.5</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>12.01</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="R19">
-        <v>39.29</v>
+        <v>0</v>
       </c>
       <c r="S19">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="T19">
         <v>0</v>
       </c>
       <c r="U19">
-        <v>360.11</v>
+        <v>0</v>
       </c>
       <c r="V19">
-        <v>22.82</v>
+        <v>0</v>
       </c>
       <c r="W19">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1854,67 +1830,70 @@
         <v>40</v>
       </c>
       <c r="D20">
-        <v>177.84</v>
+        <v>0</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>160.94</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>75.72</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>392</v>
+        <v>0</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>73.680000000000007</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>276</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>364</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>13.09</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="R20">
-        <v>69.849999999999994</v>
+        <v>0</v>
       </c>
       <c r="S20">
-        <v>171</v>
+        <v>0</v>
       </c>
       <c r="T20">
         <v>0</v>
       </c>
       <c r="U20">
-        <v>334.5</v>
+        <v>0</v>
       </c>
       <c r="V20">
-        <v>25.5</v>
+        <v>0</v>
       </c>
       <c r="W20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1925,67 +1904,70 @@
         <v>40</v>
       </c>
       <c r="D21">
-        <v>49.69</v>
+        <v>0</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>47.5</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>27.11</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>193</v>
+        <v>0</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>36.85</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>371</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>8.74</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="R21">
-        <v>35.44</v>
+        <v>0</v>
       </c>
       <c r="S21">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="T21">
         <v>0</v>
       </c>
       <c r="U21">
-        <v>340.5</v>
+        <v>0</v>
       </c>
       <c r="V21">
-        <v>25.89</v>
+        <v>0</v>
       </c>
       <c r="W21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1996,67 +1978,70 @@
         <v>50</v>
       </c>
       <c r="D22">
-        <v>125.2</v>
+        <v>0</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>103.46</v>
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>171</v>
+        <v>0</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>64.16</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>383</v>
+        <v>0</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>64.59</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>234</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>412</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>13.02</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="R22">
-        <v>70.849999999999994</v>
+        <v>0</v>
       </c>
       <c r="S22">
-        <v>179</v>
+        <v>0</v>
       </c>
       <c r="T22">
         <v>0</v>
       </c>
       <c r="U22">
-        <v>412</v>
+        <v>0</v>
       </c>
       <c r="V22">
-        <v>13.02</v>
+        <v>0</v>
       </c>
       <c r="W22">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2067,67 +2052,70 @@
         <v>50</v>
       </c>
       <c r="D23">
-        <v>107.89</v>
+        <v>0</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>30.8</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>19.739999999999998</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>185</v>
+        <v>0</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>19.809999999999999</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>348</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>7.63</v>
+        <v>0</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
       <c r="R23">
-        <v>21.43</v>
+        <v>0</v>
       </c>
       <c r="S23">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="T23">
         <v>0</v>
       </c>
       <c r="U23">
-        <v>348</v>
+        <v>0</v>
       </c>
       <c r="V23">
-        <v>7.62</v>
+        <v>0</v>
       </c>
       <c r="W23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2138,67 +2126,70 @@
         <v>50</v>
       </c>
       <c r="D24">
-        <v>135.80000000000001</v>
+        <v>0</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>54.03</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>30.55</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>234</v>
+        <v>0</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>60.21</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>194</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>393.5</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>14.8</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="R24">
-        <v>61.16</v>
+        <v>0</v>
       </c>
       <c r="S24">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="T24">
         <v>0</v>
       </c>
       <c r="U24">
-        <v>366.37</v>
+        <v>0</v>
       </c>
       <c r="V24">
-        <v>25.58</v>
+        <v>0</v>
       </c>
       <c r="W24">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2209,67 +2200,70 @@
         <v>50</v>
       </c>
       <c r="D25">
-        <v>33.44</v>
+        <v>0</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>32.340000000000003</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>11.62</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>23.56</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>404</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>9.0299999999999994</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="R25">
-        <v>29.72</v>
+        <v>0</v>
       </c>
       <c r="S25">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="T25">
         <v>0</v>
       </c>
       <c r="U25">
-        <v>356.72</v>
+        <v>0</v>
       </c>
       <c r="V25">
-        <v>25.46</v>
+        <v>0</v>
       </c>
       <c r="W25">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2280,67 +2274,70 @@
         <v>50</v>
       </c>
       <c r="D26">
-        <v>147.79</v>
+        <v>0</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26">
-        <v>76.849999999999994</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>132</v>
+        <v>0</v>
       </c>
       <c r="H26">
         <v>0</v>
       </c>
       <c r="I26">
-        <v>30.72</v>
+        <v>0</v>
       </c>
       <c r="J26">
-        <v>208</v>
+        <v>0</v>
       </c>
       <c r="K26">
         <v>0</v>
       </c>
       <c r="L26">
-        <v>33.58</v>
+        <v>0</v>
       </c>
       <c r="M26">
-        <v>111</v>
+        <v>0</v>
       </c>
       <c r="N26">
         <v>0</v>
       </c>
       <c r="O26">
-        <v>337</v>
+        <v>0</v>
       </c>
       <c r="P26">
-        <v>13.06</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="R26">
-        <v>35.93</v>
+        <v>0</v>
       </c>
       <c r="S26">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="T26">
         <v>0</v>
       </c>
       <c r="U26">
-        <v>337</v>
+        <v>0</v>
       </c>
       <c r="V26">
-        <v>12.97</v>
+        <v>0</v>
       </c>
       <c r="W26">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2351,67 +2348,70 @@
         <v>100</v>
       </c>
       <c r="D27">
-        <v>919.05</v>
+        <v>0</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27">
-        <v>443.92</v>
+        <v>0</v>
       </c>
       <c r="G27">
-        <v>324</v>
+        <v>0</v>
       </c>
       <c r="H27">
         <v>0</v>
       </c>
       <c r="I27">
-        <v>46.74</v>
+        <v>0</v>
       </c>
       <c r="J27">
-        <v>447</v>
+        <v>0</v>
       </c>
       <c r="K27">
         <v>0</v>
       </c>
       <c r="L27">
-        <v>70.16</v>
+        <v>0</v>
       </c>
       <c r="M27">
-        <v>297</v>
+        <v>0</v>
       </c>
       <c r="N27">
         <v>0</v>
       </c>
       <c r="O27">
-        <v>454.5</v>
+        <v>0</v>
       </c>
       <c r="P27">
-        <v>20.16</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="R27">
-        <v>66.209999999999994</v>
+        <v>0</v>
       </c>
       <c r="S27">
-        <v>168</v>
+        <v>0</v>
       </c>
       <c r="T27">
         <v>0</v>
       </c>
       <c r="U27">
-        <v>454.5</v>
+        <v>0</v>
       </c>
       <c r="V27">
-        <v>20.11</v>
+        <v>0</v>
       </c>
       <c r="W27">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2422,67 +2422,70 @@
         <v>100</v>
       </c>
       <c r="D28">
-        <v>197.39</v>
+        <v>0</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>166.37</v>
+        <v>0</v>
       </c>
       <c r="G28">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H28">
         <v>0</v>
       </c>
       <c r="I28">
-        <v>71.59</v>
+        <v>0</v>
       </c>
       <c r="J28">
-        <v>403</v>
+        <v>0</v>
       </c>
       <c r="K28">
         <v>0</v>
       </c>
       <c r="L28">
-        <v>51.08</v>
+        <v>0</v>
       </c>
       <c r="M28">
-        <v>129</v>
+        <v>0</v>
       </c>
       <c r="N28">
         <v>0</v>
       </c>
       <c r="O28">
-        <v>408.5</v>
+        <v>0</v>
       </c>
       <c r="P28">
-        <v>22.83</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="R28">
-        <v>47.55</v>
+        <v>0</v>
       </c>
       <c r="S28">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="T28">
         <v>0</v>
       </c>
       <c r="U28">
-        <v>408.5</v>
+        <v>0</v>
       </c>
       <c r="V28">
-        <v>23.01</v>
+        <v>0</v>
       </c>
       <c r="W28">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2493,67 +2496,70 @@
         <v>100</v>
       </c>
       <c r="D29">
-        <v>586.73</v>
+        <v>0</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29">
-        <v>225.53</v>
+        <v>0</v>
       </c>
       <c r="G29">
-        <v>218</v>
+        <v>0</v>
       </c>
       <c r="H29">
         <v>0</v>
       </c>
       <c r="I29">
-        <v>59.04</v>
+        <v>0</v>
       </c>
       <c r="J29">
-        <v>416</v>
+        <v>0</v>
       </c>
       <c r="K29">
         <v>0</v>
       </c>
       <c r="L29">
-        <v>70.400000000000006</v>
+        <v>0</v>
       </c>
       <c r="M29">
-        <v>223</v>
+        <v>0</v>
       </c>
       <c r="N29">
         <v>0</v>
       </c>
       <c r="O29">
-        <v>445.5</v>
+        <v>0</v>
       </c>
       <c r="P29">
-        <v>14.2</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="R29">
-        <v>62.39</v>
+        <v>0</v>
       </c>
       <c r="S29">
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="T29">
         <v>0</v>
       </c>
       <c r="U29">
-        <v>385.5</v>
+        <v>0</v>
       </c>
       <c r="V29">
-        <v>32.799999999999997</v>
+        <v>0</v>
       </c>
       <c r="W29">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2564,67 +2570,70 @@
         <v>100</v>
       </c>
       <c r="D30">
-        <v>125.27</v>
+        <v>0</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30">
-        <v>57.41</v>
+        <v>0</v>
       </c>
       <c r="G30">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="H30">
         <v>0</v>
       </c>
       <c r="I30">
-        <v>68.62</v>
+        <v>0</v>
       </c>
       <c r="J30">
-        <v>365</v>
+        <v>0</v>
       </c>
       <c r="K30">
         <v>0</v>
       </c>
       <c r="L30">
-        <v>80.73</v>
+        <v>0</v>
       </c>
       <c r="M30">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="N30">
         <v>0</v>
       </c>
       <c r="O30">
-        <v>434</v>
+        <v>0</v>
       </c>
       <c r="P30">
-        <v>8.34</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="R30">
-        <v>77.86</v>
+        <v>0</v>
       </c>
       <c r="S30">
-        <v>188</v>
+        <v>0</v>
       </c>
       <c r="T30">
         <v>0</v>
       </c>
       <c r="U30">
-        <v>434</v>
+        <v>0</v>
       </c>
       <c r="V30">
-        <v>8.5299999999999994</v>
+        <v>0</v>
       </c>
       <c r="W30">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2635,67 +2644,70 @@
         <v>100</v>
       </c>
       <c r="D31">
-        <v>1000.09</v>
+        <v>0</v>
       </c>
       <c r="E31">
-        <v>3.2901695098500987E-2</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>333.39</v>
+        <v>0</v>
       </c>
       <c r="G31">
-        <v>293</v>
+        <v>0</v>
       </c>
       <c r="H31">
         <v>0</v>
       </c>
       <c r="I31">
-        <v>57.67</v>
+        <v>0</v>
       </c>
       <c r="J31">
-        <v>531</v>
+        <v>0</v>
       </c>
       <c r="K31">
         <v>0</v>
       </c>
       <c r="L31">
-        <v>55.68</v>
+        <v>0</v>
       </c>
       <c r="M31">
-        <v>321</v>
+        <v>0</v>
       </c>
       <c r="N31">
         <v>0</v>
       </c>
       <c r="O31">
-        <v>373</v>
+        <v>0</v>
       </c>
       <c r="P31">
-        <v>18.850000000000001</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="R31">
-        <v>57.06</v>
+        <v>0</v>
       </c>
       <c r="S31">
-        <v>218</v>
+        <v>0</v>
       </c>
       <c r="T31">
         <v>0</v>
       </c>
       <c r="U31">
-        <v>373</v>
+        <v>0</v>
       </c>
       <c r="V31">
-        <v>18.91</v>
+        <v>0</v>
       </c>
       <c r="W31">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2706,67 +2718,70 @@
         <v>200</v>
       </c>
       <c r="D32">
-        <v>580.41</v>
+        <v>0</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
-        <v>364.79</v>
+        <v>0</v>
       </c>
       <c r="G32">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="H32">
         <v>0</v>
       </c>
       <c r="I32">
-        <v>67.58</v>
+        <v>0</v>
       </c>
       <c r="J32">
-        <v>406</v>
+        <v>0</v>
       </c>
       <c r="K32">
         <v>0</v>
       </c>
       <c r="L32">
-        <v>76.17</v>
+        <v>0</v>
       </c>
       <c r="M32">
-        <v>156</v>
+        <v>0</v>
       </c>
       <c r="N32">
         <v>0</v>
       </c>
       <c r="O32">
-        <v>481</v>
+        <v>0</v>
       </c>
       <c r="P32">
-        <v>27.73</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="R32">
-        <v>82.34</v>
+        <v>0</v>
       </c>
       <c r="S32">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="T32">
         <v>0</v>
       </c>
       <c r="U32">
-        <v>481</v>
+        <v>0</v>
       </c>
       <c r="V32">
-        <v>27.33</v>
+        <v>0</v>
       </c>
       <c r="W32">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2777,67 +2792,70 @@
         <v>200</v>
       </c>
       <c r="D33">
-        <v>1000.16</v>
+        <v>0</v>
       </c>
       <c r="E33">
-        <v>0.22564734895191119</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>1054.96</v>
+        <v>0</v>
       </c>
       <c r="G33">
-        <v>447</v>
+        <v>0</v>
       </c>
       <c r="H33">
-        <v>7.0153061224489791E-2</v>
+        <v>0</v>
       </c>
       <c r="I33">
-        <v>149.07</v>
+        <v>0</v>
       </c>
       <c r="J33">
-        <v>770</v>
+        <v>0</v>
       </c>
       <c r="K33">
         <v>0</v>
       </c>
       <c r="L33">
-        <v>136.37</v>
+        <v>0</v>
       </c>
       <c r="M33">
-        <v>456</v>
+        <v>0</v>
       </c>
       <c r="N33">
         <v>0</v>
       </c>
       <c r="O33">
-        <v>463.5</v>
+        <v>0</v>
       </c>
       <c r="P33">
-        <v>15.45</v>
+        <v>0</v>
       </c>
       <c r="Q33">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="R33">
-        <v>155.35</v>
+        <v>0</v>
       </c>
       <c r="S33">
-        <v>423</v>
+        <v>0</v>
       </c>
       <c r="T33">
         <v>0</v>
       </c>
       <c r="U33">
-        <v>463.5</v>
+        <v>0</v>
       </c>
       <c r="V33">
-        <v>15.28</v>
+        <v>0</v>
       </c>
       <c r="W33">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -2848,67 +2866,70 @@
         <v>200</v>
       </c>
       <c r="D34">
-        <v>1005.61</v>
+        <v>0</v>
       </c>
       <c r="E34">
-        <v>0.21639158708268311</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>965.63</v>
+        <v>0</v>
       </c>
       <c r="G34">
-        <v>431</v>
+        <v>0</v>
       </c>
       <c r="H34">
         <v>0</v>
       </c>
       <c r="I34">
-        <v>227.41</v>
+        <v>0</v>
       </c>
       <c r="J34">
-        <v>915</v>
+        <v>0</v>
       </c>
       <c r="K34">
         <v>0</v>
       </c>
       <c r="L34">
-        <v>212.92</v>
+        <v>0</v>
       </c>
       <c r="M34">
-        <v>572</v>
+        <v>0</v>
       </c>
       <c r="N34">
         <v>0</v>
       </c>
       <c r="O34">
-        <v>514</v>
+        <v>0</v>
       </c>
       <c r="P34">
-        <v>28.36</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>0.28000000000000003</v>
+        <v>0</v>
       </c>
       <c r="R34">
-        <v>220.46</v>
+        <v>0</v>
       </c>
       <c r="S34">
-        <v>490</v>
+        <v>0</v>
       </c>
       <c r="T34">
         <v>0</v>
       </c>
       <c r="U34">
-        <v>467.88</v>
+        <v>0</v>
       </c>
       <c r="V34">
-        <v>40.729999999999997</v>
+        <v>0</v>
       </c>
       <c r="W34">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2919,67 +2940,70 @@
         <v>200</v>
       </c>
       <c r="D35">
-        <v>1000.2</v>
+        <v>0</v>
       </c>
       <c r="E35">
-        <v>0.175032175032175</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>636.83000000000004</v>
+        <v>0</v>
       </c>
       <c r="G35">
-        <v>337</v>
+        <v>0</v>
       </c>
       <c r="H35">
         <v>0</v>
       </c>
       <c r="I35">
-        <v>150.85</v>
+        <v>0</v>
       </c>
       <c r="J35">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="K35">
         <v>0</v>
       </c>
       <c r="L35">
-        <v>109.01</v>
+        <v>0</v>
       </c>
       <c r="M35">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="N35">
         <v>0</v>
       </c>
       <c r="O35">
-        <v>425.5</v>
-      </c>
-      <c r="P35" s="4">
-        <v>19.5</v>
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="R35">
-        <v>159.6</v>
+        <v>0</v>
       </c>
       <c r="S35">
-        <v>404</v>
+        <v>0</v>
       </c>
       <c r="T35">
         <v>0</v>
       </c>
       <c r="U35">
-        <v>425.5</v>
+        <v>0</v>
       </c>
       <c r="V35">
-        <v>19.350000000000001</v>
+        <v>0</v>
       </c>
       <c r="W35">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -2990,67 +3014,70 @@
         <v>200</v>
       </c>
       <c r="D36">
-        <v>1000.14</v>
+        <v>0</v>
       </c>
       <c r="E36">
-        <v>2.8806581716254231E-2</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>540.73</v>
+        <v>0</v>
       </c>
       <c r="G36">
-        <v>299</v>
+        <v>0</v>
       </c>
       <c r="H36">
         <v>0</v>
       </c>
       <c r="I36">
-        <v>58.92</v>
+        <v>0</v>
       </c>
       <c r="J36">
-        <v>515</v>
+        <v>0</v>
       </c>
       <c r="K36">
         <v>0</v>
       </c>
       <c r="L36">
-        <v>73.709999999999994</v>
+        <v>0</v>
       </c>
       <c r="M36">
-        <v>216</v>
+        <v>0</v>
       </c>
       <c r="N36">
         <v>0</v>
       </c>
       <c r="O36">
-        <v>429</v>
-      </c>
-      <c r="P36" s="2">
-        <v>29.96</v>
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="R36">
-        <v>102.31</v>
+        <v>0</v>
       </c>
       <c r="S36">
-        <v>167</v>
+        <v>0</v>
       </c>
       <c r="T36">
         <v>0</v>
       </c>
       <c r="U36">
-        <v>429</v>
-      </c>
-      <c r="V36" s="2">
-        <v>29.95</v>
+        <v>0</v>
+      </c>
+      <c r="V36">
+        <v>0</v>
       </c>
       <c r="W36">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -3061,67 +3088,70 @@
         <v>500</v>
       </c>
       <c r="D37">
-        <v>1000.33</v>
+        <v>0</v>
       </c>
       <c r="E37">
-        <v>0.31046030409243419</v>
-      </c>
-      <c r="F37" s="3">
-        <v>1952.26</v>
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
       </c>
       <c r="G37">
-        <v>431</v>
+        <v>0</v>
       </c>
       <c r="H37">
         <v>0</v>
       </c>
       <c r="I37">
-        <v>396.68</v>
+        <v>0</v>
       </c>
       <c r="J37">
-        <v>1231</v>
+        <v>0</v>
       </c>
       <c r="K37">
         <v>0</v>
       </c>
       <c r="L37">
-        <v>289.29000000000002</v>
+        <v>0</v>
       </c>
       <c r="M37">
-        <v>568</v>
+        <v>0</v>
       </c>
       <c r="N37">
         <v>0</v>
       </c>
       <c r="O37">
-        <v>551.5</v>
-      </c>
-      <c r="P37" s="2">
-        <v>41.48</v>
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="R37">
-        <v>409.82</v>
+        <v>0</v>
       </c>
       <c r="S37">
-        <v>682</v>
+        <v>0</v>
       </c>
       <c r="T37">
         <v>0</v>
       </c>
       <c r="U37">
-        <v>551.5</v>
-      </c>
-      <c r="V37" s="2">
-        <v>41.63</v>
+        <v>0</v>
+      </c>
+      <c r="V37">
+        <v>0</v>
       </c>
       <c r="W37">
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="X37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -3132,67 +3162,70 @@
         <v>500</v>
       </c>
       <c r="D38">
-        <v>1000.34</v>
+        <v>0</v>
       </c>
       <c r="E38">
-        <v>0.160002298541738</v>
-      </c>
-      <c r="F38" s="3">
-        <v>1290.45</v>
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
       </c>
       <c r="G38">
-        <v>349</v>
+        <v>0</v>
       </c>
       <c r="H38">
         <v>0</v>
       </c>
       <c r="I38">
-        <v>306.45999999999998</v>
+        <v>0</v>
       </c>
       <c r="J38">
-        <v>843</v>
+        <v>0</v>
       </c>
       <c r="K38">
         <v>0</v>
       </c>
       <c r="L38">
-        <v>329.72</v>
+        <v>0</v>
       </c>
       <c r="M38">
-        <v>295</v>
+        <v>0</v>
       </c>
       <c r="N38">
         <v>0</v>
       </c>
       <c r="O38">
-        <v>459.5</v>
-      </c>
-      <c r="P38" s="2">
-        <v>82.43</v>
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="R38">
-        <v>312.24</v>
+        <v>0</v>
       </c>
       <c r="S38">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="T38">
         <v>0</v>
       </c>
       <c r="U38">
-        <v>459.5</v>
-      </c>
-      <c r="V38" s="2">
-        <v>83.14</v>
+        <v>0</v>
+      </c>
+      <c r="V38">
+        <v>0</v>
       </c>
       <c r="W38">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="X38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -3203,67 +3236,70 @@
         <v>500</v>
       </c>
       <c r="D39">
-        <v>1000.35</v>
+        <v>0</v>
       </c>
       <c r="E39">
-        <v>0.27351454518035939</v>
-      </c>
-      <c r="F39" s="3">
-        <v>1804.57</v>
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
       </c>
       <c r="G39">
-        <v>417</v>
+        <v>0</v>
       </c>
       <c r="H39">
         <v>0</v>
       </c>
       <c r="I39">
-        <v>168.83</v>
+        <v>0</v>
       </c>
       <c r="J39">
-        <v>812</v>
+        <v>0</v>
       </c>
       <c r="K39">
         <v>0</v>
       </c>
       <c r="L39">
-        <v>155.43</v>
+        <v>0</v>
       </c>
       <c r="M39">
-        <v>236</v>
+        <v>0</v>
       </c>
       <c r="N39">
         <v>0</v>
       </c>
       <c r="O39">
-        <v>493</v>
-      </c>
-      <c r="P39" s="2">
-        <v>62.13</v>
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="R39">
-        <v>159.65</v>
+        <v>0</v>
       </c>
       <c r="S39">
-        <v>185</v>
+        <v>0</v>
       </c>
       <c r="T39">
         <v>0</v>
       </c>
       <c r="U39">
-        <v>493</v>
-      </c>
-      <c r="V39" s="2">
-        <v>62.36</v>
+        <v>0</v>
+      </c>
+      <c r="V39">
+        <v>0</v>
       </c>
       <c r="W39">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="X39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -3274,67 +3310,70 @@
         <v>500</v>
       </c>
       <c r="D40">
-        <v>1000.44</v>
+        <v>0</v>
       </c>
       <c r="E40">
-        <v>0.2091163456023136</v>
-      </c>
-      <c r="F40" s="3">
-        <v>1473.81</v>
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
       </c>
       <c r="G40">
-        <v>387</v>
+        <v>0</v>
       </c>
       <c r="H40">
         <v>0</v>
       </c>
       <c r="I40">
-        <v>397.26</v>
+        <v>0</v>
       </c>
       <c r="J40">
-        <v>1044</v>
+        <v>0</v>
       </c>
       <c r="K40">
         <v>0</v>
       </c>
       <c r="L40">
-        <v>457.91</v>
+        <v>0</v>
       </c>
       <c r="M40">
-        <v>409</v>
+        <v>0</v>
       </c>
       <c r="N40">
         <v>0</v>
       </c>
       <c r="O40">
-        <v>485.5</v>
-      </c>
-      <c r="P40" s="2">
-        <v>65.5</v>
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="R40">
-        <v>407.32</v>
+        <v>0</v>
       </c>
       <c r="S40">
-        <v>392</v>
+        <v>0</v>
       </c>
       <c r="T40">
         <v>0</v>
       </c>
       <c r="U40">
-        <v>485.5</v>
-      </c>
-      <c r="V40" s="2">
-        <v>66.33</v>
+        <v>0</v>
+      </c>
+      <c r="V40">
+        <v>0</v>
       </c>
       <c r="W40">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="X40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -3345,68 +3384,70 @@
         <v>500</v>
       </c>
       <c r="D41">
-        <v>1000.33</v>
+        <v>0</v>
       </c>
       <c r="E41">
-        <v>0.33914059649916573</v>
-      </c>
-      <c r="F41" s="3">
-        <v>2005.99</v>
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
       </c>
       <c r="G41">
-        <v>451</v>
+        <v>0</v>
       </c>
       <c r="H41">
-        <v>4.8531289910600253E-2</v>
+        <v>0</v>
       </c>
       <c r="I41">
-        <v>367.23</v>
+        <v>0</v>
       </c>
       <c r="J41">
-        <v>1268</v>
+        <v>0</v>
       </c>
       <c r="K41">
         <v>0</v>
       </c>
       <c r="L41">
-        <v>432.78</v>
+        <v>0</v>
       </c>
       <c r="M41">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="N41">
         <v>0</v>
       </c>
       <c r="O41">
-        <v>463.5</v>
-      </c>
-      <c r="P41" s="2">
-        <v>35.369999999999997</v>
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="R41">
-        <v>406.06</v>
+        <v>0</v>
       </c>
       <c r="S41">
-        <v>566</v>
+        <v>0</v>
       </c>
       <c r="T41">
         <v>0</v>
       </c>
       <c r="U41">
-        <v>463.5</v>
-      </c>
-      <c r="V41" s="2">
-        <v>35.08</v>
+        <v>0</v>
+      </c>
+      <c r="V41">
+        <v>0</v>
       </c>
       <c r="W41">
-        <v>0.16</v>
+        <v>0</v>
+      </c>
+      <c r="X41">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Two-stage Recoverable FLP/Local Branching/output.xlsx
+++ b/Two-stage Recoverable FLP/Local Branching/output.xlsx
@@ -492,55 +492,55 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C2">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>43.41</v>
+        <v>0.52</v>
       </c>
       <c r="J2">
-        <v>198</v>
+        <v>56</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>585</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -549,16 +549,16 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>567.59</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="W2">
         <v>0</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>734.5</v>
       </c>
     </row>
   </sheetData>

--- a/Two-stage Recoverable FLP/Local Branching/output.xlsx
+++ b/Two-stage Recoverable FLP/Local Branching/output.xlsx
@@ -410,7 +410,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X2"/>
+  <dimension ref="A1:X51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -498,67 +498,3693 @@
         <v>10</v>
       </c>
       <c r="D2">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
+        <v>0.5</v>
+      </c>
+      <c r="G2">
+        <v>13</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0.28</v>
+      </c>
+      <c r="J2">
+        <v>45</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>1.31</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>537.5</v>
+      </c>
+      <c r="P2">
+        <v>0.23</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>1.41</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>537.5</v>
+      </c>
+      <c r="V2">
+        <v>0.24</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>537.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>0.16</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0.52</v>
+      </c>
+      <c r="G3">
+        <v>19</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0.24</v>
+      </c>
+      <c r="J3">
+        <v>33</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>1.32</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>560</v>
+      </c>
+      <c r="P3">
+        <v>0.23</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>1.41</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>560</v>
+      </c>
+      <c r="V3">
+        <v>0.23</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>0.18</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0.35</v>
+      </c>
+      <c r="G4">
+        <v>13</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0.24</v>
+      </c>
+      <c r="J4">
+        <v>30</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>1.31</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>541</v>
+      </c>
+      <c r="P4">
+        <v>0.55</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>1.35</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>541</v>
+      </c>
+      <c r="V4">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>0.19</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0.64</v>
+      </c>
+      <c r="G5">
+        <v>19</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0.32</v>
+      </c>
+      <c r="J5">
+        <v>42</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>1.39</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>534.5</v>
+      </c>
+      <c r="P5">
+        <v>0.3</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>1.48</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>534.5</v>
+      </c>
+      <c r="V5">
+        <v>0.29</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>534.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>0.13</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0.11</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0.13</v>
+      </c>
+      <c r="J6">
+        <v>15</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>1.22</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>488</v>
+      </c>
+      <c r="P6">
+        <v>0.13</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>1.22</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>488</v>
+      </c>
+      <c r="V6">
+        <v>0.13</v>
+      </c>
+      <c r="W6">
+        <v>-0.01</v>
+      </c>
+      <c r="X6">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>20</v>
+      </c>
+      <c r="D7">
+        <v>0.27</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0.61</v>
+      </c>
+      <c r="G7">
+        <v>12</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0.38</v>
+      </c>
+      <c r="J7">
+        <v>54</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>2.54</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>580</v>
+      </c>
+      <c r="P7">
+        <v>0.33</v>
+      </c>
+      <c r="Q7">
+        <v>0.04</v>
+      </c>
+      <c r="R7">
+        <v>2.64</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>559.64</v>
+      </c>
+      <c r="V7">
+        <v>2.47</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>20</v>
+      </c>
+      <c r="D8">
+        <v>0.26</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0.4</v>
+      </c>
+      <c r="G8">
+        <v>7</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0.3</v>
+      </c>
+      <c r="J8">
+        <v>24</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>2.52</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>547</v>
+      </c>
+      <c r="P8">
+        <v>0.28</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>2.55</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>547</v>
+      </c>
+      <c r="V8">
+        <v>0.29</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>20</v>
+      </c>
+      <c r="D9">
+        <v>0.28</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0.78</v>
+      </c>
+      <c r="G9">
+        <v>21</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0.64</v>
+      </c>
+      <c r="J9">
+        <v>74</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>2.62</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>561</v>
+      </c>
+      <c r="P9">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>2.85</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>561</v>
+      </c>
+      <c r="V9">
         <v>0.83</v>
       </c>
-      <c r="G2">
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>20</v>
+      </c>
+      <c r="D10">
+        <v>0.25</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0.75</v>
+      </c>
+      <c r="G10">
+        <v>16</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0.31</v>
+      </c>
+      <c r="J10">
+        <v>35</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>2.51</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>550</v>
+      </c>
+      <c r="P10">
+        <v>0.31</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>2.51</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>550</v>
+      </c>
+      <c r="V10">
+        <v>0.3</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>20</v>
+      </c>
+      <c r="D11">
+        <v>0.35</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1.06</v>
+      </c>
+      <c r="G11">
+        <v>27</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0.46</v>
+      </c>
+      <c r="J11">
+        <v>66</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>2.66</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>620.5</v>
+      </c>
+      <c r="P11">
+        <v>0.45</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>2.85</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>620.5</v>
+      </c>
+      <c r="V11">
+        <v>0.44</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>620.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>50</v>
+      </c>
+      <c r="D12">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1.89</v>
+      </c>
+      <c r="G12">
+        <v>26</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>1.18</v>
+      </c>
+      <c r="J12">
+        <v>130</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>6.49</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>613.5</v>
+      </c>
+      <c r="P12">
+        <v>0.92</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>7.02</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>613.5</v>
+      </c>
+      <c r="V12">
+        <v>0.93</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>613.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>50</v>
+      </c>
+      <c r="D13">
+        <v>1.07</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>2.01</v>
+      </c>
+      <c r="G13">
+        <v>27</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0.92</v>
+      </c>
+      <c r="J13">
+        <v>128</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>6.34</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>577</v>
+      </c>
+      <c r="P13">
+        <v>0.83</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>6.56</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>577</v>
+      </c>
+      <c r="V13">
+        <v>0.85</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <v>50</v>
+      </c>
+      <c r="D14">
+        <v>1.23</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>2.39</v>
+      </c>
+      <c r="G14">
+        <v>31</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>1.36</v>
+      </c>
+      <c r="J14">
+        <v>123</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>6.6</v>
+      </c>
+      <c r="M14">
+        <v>6</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>597</v>
+      </c>
+      <c r="P14">
+        <v>1.03</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>7.12</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>597</v>
+      </c>
+      <c r="V14">
+        <v>1.05</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>10</v>
+      </c>
+      <c r="C15">
+        <v>50</v>
+      </c>
+      <c r="D15">
+        <v>1.14</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1.58</v>
+      </c>
+      <c r="G15">
+        <v>21</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>1.44</v>
+      </c>
+      <c r="J15">
+        <v>119</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>6.43</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>593</v>
+      </c>
+      <c r="P15">
+        <v>1.66</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>6.58</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>593</v>
+      </c>
+      <c r="V15">
+        <v>1.67</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>601.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>10</v>
+      </c>
+      <c r="C16">
+        <v>50</v>
+      </c>
+      <c r="D16">
+        <v>0.98</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1.72</v>
+      </c>
+      <c r="G16">
+        <v>23</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>1.22</v>
+      </c>
+      <c r="J16">
+        <v>130</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>6.58</v>
+      </c>
+      <c r="M16">
+        <v>3</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>555.5</v>
+      </c>
+      <c r="P16">
+        <v>0.91</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>6.86</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>555.5</v>
+      </c>
+      <c r="V16">
+        <v>0.9</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>555.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>10</v>
+      </c>
+      <c r="C17">
+        <v>100</v>
+      </c>
+      <c r="D17">
+        <v>2.48</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>3.82</v>
+      </c>
+      <c r="G17">
+        <v>30</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>1.77</v>
+      </c>
+      <c r="J17">
+        <v>170</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>12.81</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>603.5</v>
+      </c>
+      <c r="P17">
+        <v>3.78</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>13.17</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>603.5</v>
+      </c>
+      <c r="V17">
+        <v>3.74</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>10</v>
+      </c>
+      <c r="C18">
+        <v>100</v>
+      </c>
+      <c r="D18">
+        <v>2.78</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>3.5</v>
+      </c>
+      <c r="G18">
+        <v>29</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>1.96</v>
+      </c>
+      <c r="J18">
+        <v>162</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>12.95</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>633</v>
+      </c>
+      <c r="P18">
+        <v>1.54</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>13.53</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>633</v>
+      </c>
+      <c r="V18">
+        <v>1.42</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>10</v>
+      </c>
+      <c r="C19">
+        <v>100</v>
+      </c>
+      <c r="D19">
+        <v>2.81</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>4.22</v>
+      </c>
+      <c r="G19">
+        <v>34</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>3.03</v>
+      </c>
+      <c r="J19">
+        <v>216</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>13.4</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>634.5</v>
+      </c>
+      <c r="P19">
+        <v>4.24</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>14.35</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>634.5</v>
+      </c>
+      <c r="V19">
+        <v>4.36</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>10</v>
+      </c>
+      <c r="C20">
+        <v>100</v>
+      </c>
+      <c r="D20">
+        <v>2.36</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>3.66</v>
+      </c>
+      <c r="G20">
+        <v>30</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>1.75</v>
+      </c>
+      <c r="J20">
+        <v>171</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>13.24</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>634.5</v>
+      </c>
+      <c r="P20">
+        <v>1.78</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>13.75</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>634.5</v>
+      </c>
+      <c r="V20">
+        <v>1.87</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>634.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>10</v>
+      </c>
+      <c r="C21">
+        <v>100</v>
+      </c>
+      <c r="D21">
+        <v>3.01</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>3.05</v>
+      </c>
+      <c r="G21">
+        <v>25</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>2.8</v>
+      </c>
+      <c r="J21">
+        <v>181</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>13.48</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>581</v>
+      </c>
+      <c r="P21">
+        <v>5.67</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>13.74</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>581</v>
+      </c>
+      <c r="V21">
+        <v>5.66</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>10</v>
+      </c>
+      <c r="C22">
+        <v>200</v>
+      </c>
+      <c r="D22">
+        <v>8.26</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>8.470000000000001</v>
+      </c>
+      <c r="G22">
+        <v>33</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>5.24</v>
+      </c>
+      <c r="J22">
+        <v>322</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>27.04</v>
+      </c>
+      <c r="M22">
+        <v>3</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>671</v>
+      </c>
+      <c r="P22">
+        <v>3.86</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>28.54</v>
+      </c>
+      <c r="S22">
+        <v>1</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>671</v>
+      </c>
+      <c r="V22">
+        <v>3.91</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>10</v>
+      </c>
+      <c r="C23">
+        <v>200</v>
+      </c>
+      <c r="D23">
+        <v>8.73</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>8.59</v>
+      </c>
+      <c r="G23">
+        <v>36</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>6.46</v>
+      </c>
+      <c r="J23">
+        <v>355</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>26.59</v>
+      </c>
+      <c r="M23">
+        <v>4</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>680</v>
+      </c>
+      <c r="P23">
+        <v>6.97</v>
+      </c>
+      <c r="Q23">
+        <v>0.03</v>
+      </c>
+      <c r="R23">
+        <v>27.92</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>680</v>
+      </c>
+      <c r="V23">
+        <v>6.94</v>
+      </c>
+      <c r="W23">
+        <v>0.03</v>
+      </c>
+      <c r="X23">
+        <v>696.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24">
+      <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0.52</v>
-      </c>
-      <c r="J2">
-        <v>56</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>1.42</v>
-      </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>585</v>
-      </c>
-      <c r="P2">
-        <v>0.55</v>
-      </c>
-      <c r="Q2">
+      <c r="B24">
+        <v>10</v>
+      </c>
+      <c r="C24">
+        <v>200</v>
+      </c>
+      <c r="D24">
+        <v>8.23</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>7.91</v>
+      </c>
+      <c r="G24">
+        <v>31</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>4.95</v>
+      </c>
+      <c r="J24">
+        <v>393</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>26.5</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>623</v>
+      </c>
+      <c r="P24">
+        <v>4</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>27.85</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>623</v>
+      </c>
+      <c r="V24">
+        <v>4.01</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>10</v>
+      </c>
+      <c r="C25">
+        <v>200</v>
+      </c>
+      <c r="D25">
+        <v>7.05</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>7.47</v>
+      </c>
+      <c r="G25">
+        <v>27</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>5.44</v>
+      </c>
+      <c r="J25">
+        <v>366</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>25.31</v>
+      </c>
+      <c r="M25">
+        <v>4</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>677</v>
+      </c>
+      <c r="P25">
+        <v>11.88</v>
+      </c>
+      <c r="Q25">
+        <v>-0</v>
+      </c>
+      <c r="R25">
+        <v>26.12</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>677</v>
+      </c>
+      <c r="V25">
+        <v>11.87</v>
+      </c>
+      <c r="W25">
+        <v>-0</v>
+      </c>
+      <c r="X25">
+        <v>709.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>10</v>
+      </c>
+      <c r="C26">
+        <v>200</v>
+      </c>
+      <c r="D26">
+        <v>8.57</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>9.539999999999999</v>
+      </c>
+      <c r="G26">
+        <v>38</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>5.34</v>
+      </c>
+      <c r="J26">
+        <v>322</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>24.96</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>655.5</v>
+      </c>
+      <c r="P26">
+        <v>13.04</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>25.78</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>655.5</v>
+      </c>
+      <c r="V26">
+        <v>12.99</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>684.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>10</v>
+      </c>
+      <c r="C27">
+        <v>500</v>
+      </c>
+      <c r="D27">
+        <v>38.81</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>25.07</v>
+      </c>
+      <c r="G27">
+        <v>34</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>21.16</v>
+      </c>
+      <c r="J27">
+        <v>745</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>64.28</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>655.5</v>
+      </c>
+      <c r="P27">
+        <v>38</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>67.31999999999999</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>655.5</v>
+      </c>
+      <c r="V27">
+        <v>38.24</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>10</v>
+      </c>
+      <c r="C28">
+        <v>500</v>
+      </c>
+      <c r="D28">
+        <v>36.58</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>21.34</v>
+      </c>
+      <c r="G28">
+        <v>30</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>18.88</v>
+      </c>
+      <c r="J28">
+        <v>731</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>72.06999999999999</v>
+      </c>
+      <c r="M28">
+        <v>21</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>719</v>
+      </c>
+      <c r="P28">
+        <v>11.42</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>73.65000000000001</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>719</v>
+      </c>
+      <c r="V28">
+        <v>11.74</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>10</v>
+      </c>
+      <c r="C29">
+        <v>500</v>
+      </c>
+      <c r="D29">
+        <v>43.33</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>23.89</v>
+      </c>
+      <c r="G29">
+        <v>33</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>10.96</v>
+      </c>
+      <c r="J29">
+        <v>699</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>63.46</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>700</v>
+      </c>
+      <c r="P29">
+        <v>8.06</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>65.54000000000001</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>700</v>
+      </c>
+      <c r="V29">
+        <v>8.109999999999999</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>10</v>
+      </c>
+      <c r="C30">
+        <v>500</v>
+      </c>
+      <c r="D30">
+        <v>37.73</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>24.58</v>
+      </c>
+      <c r="G30">
+        <v>32</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>21.67</v>
+      </c>
+      <c r="J30">
+        <v>661</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>65.97</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>669</v>
+      </c>
+      <c r="P30">
+        <v>28.66</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>68.14</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>669</v>
+      </c>
+      <c r="V30">
+        <v>28.44</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>10</v>
+      </c>
+      <c r="C31">
+        <v>500</v>
+      </c>
+      <c r="D31">
+        <v>49.78</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>32.41</v>
+      </c>
+      <c r="G31">
+        <v>39</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>20.02</v>
+      </c>
+      <c r="J31">
+        <v>789</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>66.31999999999999</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>753</v>
+      </c>
+      <c r="P31">
+        <v>10.67</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>72.37</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>753</v>
+      </c>
+      <c r="V31">
+        <v>10.87</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>20</v>
+      </c>
+      <c r="C32">
+        <v>10</v>
+      </c>
+      <c r="D32">
+        <v>4.56</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>15.36</v>
+      </c>
+      <c r="G32">
+        <v>53</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>14.11</v>
+      </c>
+      <c r="J32">
+        <v>274</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="M32">
+        <v>100</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>341</v>
+      </c>
+      <c r="P32">
+        <v>3.07</v>
+      </c>
+      <c r="Q32">
+        <v>0.22</v>
+      </c>
+      <c r="R32">
+        <v>8.970000000000001</v>
+      </c>
+      <c r="S32">
+        <v>61</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>283.87</v>
+      </c>
+      <c r="V32">
+        <v>5.2</v>
+      </c>
+      <c r="W32">
+        <v>0.06</v>
+      </c>
+      <c r="X32">
+        <v>361.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>20</v>
+      </c>
+      <c r="C33">
+        <v>10</v>
+      </c>
+      <c r="D33">
+        <v>5.74</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>50.53</v>
+      </c>
+      <c r="G33">
+        <v>158</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>19.4</v>
+      </c>
+      <c r="J33">
+        <v>261</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>14.26</v>
+      </c>
+      <c r="M33">
+        <v>133</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>311</v>
+      </c>
+      <c r="P33">
+        <v>2.95</v>
+      </c>
+      <c r="Q33">
+        <v>0.06</v>
+      </c>
+      <c r="R33">
+        <v>19.06</v>
+      </c>
+      <c r="S33">
+        <v>176</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>311</v>
+      </c>
+      <c r="V33">
+        <v>2.89</v>
+      </c>
+      <c r="W33">
+        <v>0.06</v>
+      </c>
+      <c r="X33">
+        <v>371.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>20</v>
+      </c>
+      <c r="C34">
+        <v>10</v>
+      </c>
+      <c r="D34">
+        <v>7.19</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>36.3</v>
+      </c>
+      <c r="G34">
+        <v>112</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>22.6</v>
+      </c>
+      <c r="J34">
+        <v>322</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>21.09</v>
+      </c>
+      <c r="M34">
+        <v>248</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>332</v>
+      </c>
+      <c r="P34">
+        <v>0.78</v>
+      </c>
+      <c r="Q34">
+        <v>0.05</v>
+      </c>
+      <c r="R34">
+        <v>14.11</v>
+      </c>
+      <c r="S34">
+        <v>129</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>332</v>
+      </c>
+      <c r="V34">
+        <v>0.77</v>
+      </c>
+      <c r="W34">
+        <v>0.05</v>
+      </c>
+      <c r="X34">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>20</v>
+      </c>
+      <c r="C35">
+        <v>10</v>
+      </c>
+      <c r="D35">
+        <v>6.78</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>148.31</v>
+      </c>
+      <c r="G35">
+        <v>364</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>32.33</v>
+      </c>
+      <c r="J35">
+        <v>892</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>42.35</v>
+      </c>
+      <c r="M35">
+        <v>1004</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>330.5</v>
+      </c>
+      <c r="P35">
+        <v>2.5</v>
+      </c>
+      <c r="Q35">
+        <v>0.21</v>
+      </c>
+      <c r="R35">
+        <v>33.98</v>
+      </c>
+      <c r="S35">
+        <v>786</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <v>330.5</v>
+      </c>
+      <c r="V35">
+        <v>2.64</v>
+      </c>
+      <c r="W35">
+        <v>0.21</v>
+      </c>
+      <c r="X35">
+        <v>361.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>20</v>
+      </c>
+      <c r="C36">
+        <v>10</v>
+      </c>
+      <c r="D36">
+        <v>3.42</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>3.69</v>
+      </c>
+      <c r="G36">
+        <v>14</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>13.58</v>
+      </c>
+      <c r="J36">
+        <v>148</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>6.23</v>
+      </c>
+      <c r="M36">
+        <v>25</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>338</v>
+      </c>
+      <c r="P36">
+        <v>3</v>
+      </c>
+      <c r="Q36">
+        <v>0.11</v>
+      </c>
+      <c r="R36">
+        <v>7.5</v>
+      </c>
+      <c r="S36">
+        <v>16</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <v>313</v>
+      </c>
+      <c r="V36">
+        <v>3.45</v>
+      </c>
+      <c r="W36">
+        <v>0.04</v>
+      </c>
+      <c r="X36">
+        <v>366.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>20</v>
+      </c>
+      <c r="C37">
+        <v>20</v>
+      </c>
+      <c r="D37">
+        <v>105.26</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>1000.77</v>
+      </c>
+      <c r="G37">
+        <v>906</v>
+      </c>
+      <c r="H37">
         <v>0.03</v>
       </c>
-      <c r="R2">
-        <v>1.57</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>567.59</v>
-      </c>
-      <c r="V2">
-        <v>1.5</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>734.5</v>
+      <c r="I37">
+        <v>326.27</v>
+      </c>
+      <c r="J37">
+        <v>1492</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>339.67</v>
+      </c>
+      <c r="M37">
+        <v>1475</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>363.5</v>
+      </c>
+      <c r="P37">
+        <v>7.05</v>
+      </c>
+      <c r="Q37">
+        <v>0.14</v>
+      </c>
+      <c r="R37">
+        <v>304.83</v>
+      </c>
+      <c r="S37">
+        <v>1336</v>
+      </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
+      <c r="U37">
+        <v>363.5</v>
+      </c>
+      <c r="V37">
+        <v>6.78</v>
+      </c>
+      <c r="W37">
+        <v>0.14</v>
+      </c>
+      <c r="X37">
+        <v>426.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>20</v>
+      </c>
+      <c r="C38">
+        <v>20</v>
+      </c>
+      <c r="D38">
+        <v>18.31</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>66.25</v>
+      </c>
+      <c r="G38">
+        <v>141</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>41.67</v>
+      </c>
+      <c r="J38">
+        <v>188</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>36.95</v>
+      </c>
+      <c r="M38">
+        <v>115</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>319</v>
+      </c>
+      <c r="P38">
+        <v>4.34</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>37.3</v>
+      </c>
+      <c r="S38">
+        <v>113</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <v>319</v>
+      </c>
+      <c r="V38">
+        <v>4.51</v>
+      </c>
+      <c r="W38">
+        <v>0</v>
+      </c>
+      <c r="X38">
+        <v>351.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>20</v>
+      </c>
+      <c r="C39">
+        <v>20</v>
+      </c>
+      <c r="D39">
+        <v>3.51</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>2.27</v>
+      </c>
+      <c r="G39">
+        <v>7</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>3.96</v>
+      </c>
+      <c r="J39">
+        <v>37</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>6.81</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>324.5</v>
+      </c>
+      <c r="P39">
+        <v>5.09</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <v>7.25</v>
+      </c>
+      <c r="S39">
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <v>0</v>
+      </c>
+      <c r="U39">
+        <v>324.5</v>
+      </c>
+      <c r="V39">
+        <v>5.14</v>
+      </c>
+      <c r="W39">
+        <v>0</v>
+      </c>
+      <c r="X39">
+        <v>386.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>20</v>
+      </c>
+      <c r="C40">
+        <v>20</v>
+      </c>
+      <c r="D40">
+        <v>14.97</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>10.38</v>
+      </c>
+      <c r="G40">
+        <v>23</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>6.22</v>
+      </c>
+      <c r="J40">
+        <v>51</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>10.56</v>
+      </c>
+      <c r="M40">
+        <v>22</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>359</v>
+      </c>
+      <c r="P40">
+        <v>3.33</v>
+      </c>
+      <c r="Q40">
+        <v>0.02</v>
+      </c>
+      <c r="R40">
+        <v>12.08</v>
+      </c>
+      <c r="S40">
+        <v>16</v>
+      </c>
+      <c r="T40">
+        <v>0</v>
+      </c>
+      <c r="U40">
+        <v>359</v>
+      </c>
+      <c r="V40">
+        <v>3.59</v>
+      </c>
+      <c r="W40">
+        <v>0.02</v>
+      </c>
+      <c r="X40">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>20</v>
+      </c>
+      <c r="C41">
+        <v>20</v>
+      </c>
+      <c r="D41">
+        <v>29.18</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>66.25</v>
+      </c>
+      <c r="G41">
+        <v>128</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>121.78</v>
+      </c>
+      <c r="J41">
+        <v>96</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>32.19</v>
+      </c>
+      <c r="M41">
+        <v>279</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>336</v>
+      </c>
+      <c r="P41">
+        <v>6.48</v>
+      </c>
+      <c r="Q41">
+        <v>0.11</v>
+      </c>
+      <c r="R41">
+        <v>35.96</v>
+      </c>
+      <c r="S41">
+        <v>217</v>
+      </c>
+      <c r="T41">
+        <v>0</v>
+      </c>
+      <c r="U41">
+        <v>336</v>
+      </c>
+      <c r="V41">
+        <v>7.01</v>
+      </c>
+      <c r="W41">
+        <v>0.11</v>
+      </c>
+      <c r="X41">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>20</v>
+      </c>
+      <c r="C42">
+        <v>50</v>
+      </c>
+      <c r="D42">
+        <v>86.66</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>4.97</v>
+      </c>
+      <c r="G42">
+        <v>7</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>7.14</v>
+      </c>
+      <c r="J42">
+        <v>62</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>14.78</v>
+      </c>
+      <c r="M42">
+        <v>2</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>385</v>
+      </c>
+      <c r="P42">
+        <v>10.78</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <v>15.4</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>0</v>
+      </c>
+      <c r="U42">
+        <v>385</v>
+      </c>
+      <c r="V42">
+        <v>10.83</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>20</v>
+      </c>
+      <c r="C43">
+        <v>50</v>
+      </c>
+      <c r="D43">
+        <v>190.81</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>90.23999999999999</v>
+      </c>
+      <c r="G43">
+        <v>121</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>59.53</v>
+      </c>
+      <c r="J43">
+        <v>273</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>59.68</v>
+      </c>
+      <c r="M43">
+        <v>162</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <v>367</v>
+      </c>
+      <c r="P43">
+        <v>9.41</v>
+      </c>
+      <c r="Q43">
+        <v>0.02</v>
+      </c>
+      <c r="R43">
+        <v>66.02</v>
+      </c>
+      <c r="S43">
+        <v>125</v>
+      </c>
+      <c r="T43">
+        <v>0</v>
+      </c>
+      <c r="U43">
+        <v>367</v>
+      </c>
+      <c r="V43">
+        <v>9.31</v>
+      </c>
+      <c r="W43">
+        <v>0.02</v>
+      </c>
+      <c r="X43">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>20</v>
+      </c>
+      <c r="C44">
+        <v>50</v>
+      </c>
+      <c r="D44">
+        <v>66.65000000000001</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>30.02</v>
+      </c>
+      <c r="G44">
+        <v>57</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>11.56</v>
+      </c>
+      <c r="J44">
+        <v>135</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>40.26</v>
+      </c>
+      <c r="M44">
+        <v>151</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <v>394</v>
+      </c>
+      <c r="P44">
+        <v>15.6</v>
+      </c>
+      <c r="Q44">
+        <v>0.14</v>
+      </c>
+      <c r="R44">
+        <v>43.59</v>
+      </c>
+      <c r="S44">
+        <v>65</v>
+      </c>
+      <c r="T44">
+        <v>0</v>
+      </c>
+      <c r="U44">
+        <v>394</v>
+      </c>
+      <c r="V44">
+        <v>15.69</v>
+      </c>
+      <c r="W44">
+        <v>0.14</v>
+      </c>
+      <c r="X44">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>20</v>
+      </c>
+      <c r="C45">
+        <v>50</v>
+      </c>
+      <c r="D45">
+        <v>265.93</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>292.32</v>
+      </c>
+      <c r="G45">
+        <v>299</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>85.75</v>
+      </c>
+      <c r="J45">
+        <v>389</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>89.92</v>
+      </c>
+      <c r="M45">
+        <v>241</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <v>392</v>
+      </c>
+      <c r="P45">
+        <v>15.5</v>
+      </c>
+      <c r="Q45">
+        <v>0.1</v>
+      </c>
+      <c r="R45">
+        <v>87.64</v>
+      </c>
+      <c r="S45">
+        <v>184</v>
+      </c>
+      <c r="T45">
+        <v>0</v>
+      </c>
+      <c r="U45">
+        <v>392</v>
+      </c>
+      <c r="V45">
+        <v>15.84</v>
+      </c>
+      <c r="W45">
+        <v>0.1</v>
+      </c>
+      <c r="X45">
+        <v>459.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>20</v>
+      </c>
+      <c r="C46">
+        <v>50</v>
+      </c>
+      <c r="D46">
+        <v>117.55</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>136.56</v>
+      </c>
+      <c r="G46">
+        <v>162</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>35.23</v>
+      </c>
+      <c r="J46">
+        <v>243</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>47.22</v>
+      </c>
+      <c r="M46">
+        <v>139</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <v>348</v>
+      </c>
+      <c r="P46">
+        <v>9.82</v>
+      </c>
+      <c r="Q46">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="R46">
+        <v>42.26</v>
+      </c>
+      <c r="S46">
+        <v>72</v>
+      </c>
+      <c r="T46">
+        <v>0</v>
+      </c>
+      <c r="U46">
+        <v>325.62</v>
+      </c>
+      <c r="V46">
+        <v>27.44</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>20</v>
+      </c>
+      <c r="C47">
+        <v>100</v>
+      </c>
+      <c r="D47">
+        <v>1000.21</v>
+      </c>
+      <c r="E47">
+        <v>0.04</v>
+      </c>
+      <c r="F47">
+        <v>621.72</v>
+      </c>
+      <c r="G47">
+        <v>384</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>146.68</v>
+      </c>
+      <c r="J47">
+        <v>646</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>157.05</v>
+      </c>
+      <c r="M47">
+        <v>436</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <v>408.5</v>
+      </c>
+      <c r="P47">
+        <v>22.89</v>
+      </c>
+      <c r="Q47">
+        <v>0.11</v>
+      </c>
+      <c r="R47">
+        <v>133.42</v>
+      </c>
+      <c r="S47">
+        <v>304</v>
+      </c>
+      <c r="T47">
+        <v>0</v>
+      </c>
+      <c r="U47">
+        <v>408.5</v>
+      </c>
+      <c r="V47">
+        <v>22.24</v>
+      </c>
+      <c r="W47">
+        <v>0.11</v>
+      </c>
+      <c r="X47">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>20</v>
+      </c>
+      <c r="C48">
+        <v>100</v>
+      </c>
+      <c r="D48">
+        <v>849.41</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>434.98</v>
+      </c>
+      <c r="G48">
+        <v>271</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>57.35</v>
+      </c>
+      <c r="J48">
+        <v>424</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>76.61</v>
+      </c>
+      <c r="M48">
+        <v>230</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>418.5</v>
+      </c>
+      <c r="P48">
+        <v>23.34</v>
+      </c>
+      <c r="Q48">
+        <v>0.13</v>
+      </c>
+      <c r="R48">
+        <v>82.09</v>
+      </c>
+      <c r="S48">
+        <v>108</v>
+      </c>
+      <c r="T48">
+        <v>0</v>
+      </c>
+      <c r="U48">
+        <v>418.5</v>
+      </c>
+      <c r="V48">
+        <v>23.69</v>
+      </c>
+      <c r="W48">
+        <v>0.13</v>
+      </c>
+      <c r="X48">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>20</v>
+      </c>
+      <c r="C49">
+        <v>100</v>
+      </c>
+      <c r="D49">
+        <v>595.04</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>223.41</v>
+      </c>
+      <c r="G49">
+        <v>208</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>86.8</v>
+      </c>
+      <c r="J49">
+        <v>443</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>67.04000000000001</v>
+      </c>
+      <c r="M49">
+        <v>199</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <v>386</v>
+      </c>
+      <c r="P49">
+        <v>14.43</v>
+      </c>
+      <c r="Q49">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="R49">
+        <v>68.31999999999999</v>
+      </c>
+      <c r="S49">
+        <v>74</v>
+      </c>
+      <c r="T49">
+        <v>0</v>
+      </c>
+      <c r="U49">
+        <v>386</v>
+      </c>
+      <c r="V49">
+        <v>14.69</v>
+      </c>
+      <c r="W49">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="X49">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>20</v>
+      </c>
+      <c r="C50">
+        <v>100</v>
+      </c>
+      <c r="D50">
+        <v>337.01</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>92.52</v>
+      </c>
+      <c r="G50">
+        <v>76</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>53.99</v>
+      </c>
+      <c r="J50">
+        <v>260</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>100.87</v>
+      </c>
+      <c r="M50">
+        <v>155</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <v>432.5</v>
+      </c>
+      <c r="P50">
+        <v>26.71</v>
+      </c>
+      <c r="Q50">
+        <v>0.09</v>
+      </c>
+      <c r="R50">
+        <v>103.02</v>
+      </c>
+      <c r="S50">
+        <v>81</v>
+      </c>
+      <c r="T50">
+        <v>0</v>
+      </c>
+      <c r="U50">
+        <v>432.5</v>
+      </c>
+      <c r="V50">
+        <v>26.43</v>
+      </c>
+      <c r="W50">
+        <v>0.09</v>
+      </c>
+      <c r="X50">
+        <v>480.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>20</v>
+      </c>
+      <c r="C51">
+        <v>100</v>
+      </c>
+      <c r="D51">
+        <v>899.08</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>428.7</v>
+      </c>
+      <c r="G51">
+        <v>267</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>64</v>
+      </c>
+      <c r="J51">
+        <v>449</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>60.35</v>
+      </c>
+      <c r="M51">
+        <v>182</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <v>391</v>
+      </c>
+      <c r="P51">
+        <v>26.42</v>
+      </c>
+      <c r="Q51">
+        <v>0.09</v>
+      </c>
+      <c r="R51">
+        <v>66.61</v>
+      </c>
+      <c r="S51">
+        <v>55</v>
+      </c>
+      <c r="T51">
+        <v>0</v>
+      </c>
+      <c r="U51">
+        <v>391</v>
+      </c>
+      <c r="V51">
+        <v>26.33</v>
+      </c>
+      <c r="W51">
+        <v>0.09</v>
+      </c>
+      <c r="X51">
+        <v>476</v>
       </c>
     </row>
   </sheetData>

--- a/Two-stage Recoverable FLP/Local Branching/output.xlsx
+++ b/Two-stage Recoverable FLP/Local Branching/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
   <si>
     <t>|N|</t>
   </si>
@@ -37,13 +37,16 @@
     <t>BC:time</t>
   </si>
   <si>
+    <t>objval</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
     <t>LB:time</t>
   </si>
   <si>
     <t>Heu_sol</t>
-  </si>
-  <si>
-    <t>time</t>
   </si>
   <si>
     <t>opt_gap</t>
@@ -410,13 +413,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X2"/>
+  <dimension ref="A1:Z7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:26">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -451,114 +454,526 @@
         <v>7</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>12</v>
+      <c r="Y1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:26">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7">
         <v>20</v>
       </c>
-      <c r="C2">
-        <v>50</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>18.21</v>
-      </c>
-      <c r="J2">
-        <v>84</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>35.01</v>
-      </c>
-      <c r="M2">
-        <v>14</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>433.5</v>
-      </c>
-      <c r="P2">
-        <v>26.12</v>
-      </c>
-      <c r="Q2">
-        <v>0.14</v>
-      </c>
-      <c r="R2">
-        <v>35.9</v>
-      </c>
-      <c r="S2">
-        <v>5</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>375.5</v>
-      </c>
-      <c r="V2">
-        <v>28.45</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>464.5</v>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0.44</v>
+      </c>
+      <c r="J7">
+        <v>54</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>558.5</v>
+      </c>
+      <c r="M7">
+        <v>0.44</v>
+      </c>
+      <c r="N7">
+        <v>0.88</v>
+      </c>
+      <c r="O7">
+        <v>8</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>580</v>
+      </c>
+      <c r="R7">
+        <v>0.23</v>
+      </c>
+      <c r="S7">
+        <v>0.04</v>
+      </c>
+      <c r="T7">
+        <v>1.08</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>558.5</v>
+      </c>
+      <c r="X7">
+        <v>0.98</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>580</v>
       </c>
     </row>
   </sheetData>

--- a/Two-stage Recoverable FLP/Local Branching/output.xlsx
+++ b/Two-stage Recoverable FLP/Local Branching/output.xlsx
@@ -413,7 +413,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z7"/>
+  <dimension ref="A1:Z46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -922,58 +922,3178 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>558.5</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>20</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>20</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>580</v>
-      </c>
-      <c r="R7">
-        <v>0.23</v>
-      </c>
-      <c r="S7">
-        <v>0.04</v>
-      </c>
-      <c r="T7">
-        <v>1.08</v>
-      </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <v>558.5</v>
-      </c>
-      <c r="X7">
-        <v>0.98</v>
-      </c>
-      <c r="Y7">
-        <v>0</v>
-      </c>
-      <c r="Z7">
-        <v>580</v>
+      <c r="B10">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>20</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>20</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>50</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>50</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <v>50</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>10</v>
+      </c>
+      <c r="C15">
+        <v>50</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>10</v>
+      </c>
+      <c r="C16">
+        <v>50</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>10</v>
+      </c>
+      <c r="C17">
+        <v>100</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>10</v>
+      </c>
+      <c r="C18">
+        <v>100</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>10</v>
+      </c>
+      <c r="C19">
+        <v>100</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>10</v>
+      </c>
+      <c r="C20">
+        <v>100</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>10</v>
+      </c>
+      <c r="C21">
+        <v>100</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>10</v>
+      </c>
+      <c r="C22">
+        <v>200</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>10</v>
+      </c>
+      <c r="C23">
+        <v>200</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>10</v>
+      </c>
+      <c r="C24">
+        <v>200</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>10</v>
+      </c>
+      <c r="C25">
+        <v>200</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>10</v>
+      </c>
+      <c r="C26">
+        <v>200</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26">
+        <v>0</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>10</v>
+      </c>
+      <c r="C27">
+        <v>500</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <v>0</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>10</v>
+      </c>
+      <c r="C28">
+        <v>500</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Y28">
+        <v>0</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>10</v>
+      </c>
+      <c r="C29">
+        <v>500</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <v>0</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>10</v>
+      </c>
+      <c r="C30">
+        <v>500</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+      <c r="Y30">
+        <v>0</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>10</v>
+      </c>
+      <c r="C31">
+        <v>500</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
+      </c>
+      <c r="Y31">
+        <v>0</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>20</v>
+      </c>
+      <c r="C32">
+        <v>10</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <v>0</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>20</v>
+      </c>
+      <c r="C33">
+        <v>10</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
+      </c>
+      <c r="Y33">
+        <v>0</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>20</v>
+      </c>
+      <c r="C34">
+        <v>10</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
+      </c>
+      <c r="Y34">
+        <v>0</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>20</v>
+      </c>
+      <c r="C35">
+        <v>10</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
+      </c>
+      <c r="Y35">
+        <v>0</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>20</v>
+      </c>
+      <c r="C36">
+        <v>10</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <v>0</v>
+      </c>
+      <c r="V36">
+        <v>0</v>
+      </c>
+      <c r="W36">
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <v>0</v>
+      </c>
+      <c r="Y36">
+        <v>0</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>20</v>
+      </c>
+      <c r="C37">
+        <v>20</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
+      <c r="U37">
+        <v>0</v>
+      </c>
+      <c r="V37">
+        <v>0</v>
+      </c>
+      <c r="W37">
+        <v>0</v>
+      </c>
+      <c r="X37">
+        <v>0</v>
+      </c>
+      <c r="Y37">
+        <v>0</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>20</v>
+      </c>
+      <c r="C38">
+        <v>20</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <v>0</v>
+      </c>
+      <c r="V38">
+        <v>0</v>
+      </c>
+      <c r="W38">
+        <v>0</v>
+      </c>
+      <c r="X38">
+        <v>0</v>
+      </c>
+      <c r="Y38">
+        <v>0</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>20</v>
+      </c>
+      <c r="C39">
+        <v>20</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <v>0</v>
+      </c>
+      <c r="U39">
+        <v>0</v>
+      </c>
+      <c r="V39">
+        <v>0</v>
+      </c>
+      <c r="W39">
+        <v>0</v>
+      </c>
+      <c r="X39">
+        <v>0</v>
+      </c>
+      <c r="Y39">
+        <v>0</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>20</v>
+      </c>
+      <c r="C40">
+        <v>20</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <v>0</v>
+      </c>
+      <c r="S40">
+        <v>0</v>
+      </c>
+      <c r="T40">
+        <v>0</v>
+      </c>
+      <c r="U40">
+        <v>0</v>
+      </c>
+      <c r="V40">
+        <v>0</v>
+      </c>
+      <c r="W40">
+        <v>0</v>
+      </c>
+      <c r="X40">
+        <v>0</v>
+      </c>
+      <c r="Y40">
+        <v>0</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>20</v>
+      </c>
+      <c r="C41">
+        <v>20</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <v>0</v>
+      </c>
+      <c r="S41">
+        <v>0</v>
+      </c>
+      <c r="T41">
+        <v>0</v>
+      </c>
+      <c r="U41">
+        <v>0</v>
+      </c>
+      <c r="V41">
+        <v>0</v>
+      </c>
+      <c r="W41">
+        <v>0</v>
+      </c>
+      <c r="X41">
+        <v>0</v>
+      </c>
+      <c r="Y41">
+        <v>0</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>20</v>
+      </c>
+      <c r="C42">
+        <v>50</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <v>0</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>0</v>
+      </c>
+      <c r="U42">
+        <v>0</v>
+      </c>
+      <c r="V42">
+        <v>0</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>0</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>20</v>
+      </c>
+      <c r="C43">
+        <v>50</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+      <c r="R43">
+        <v>0</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>0</v>
+      </c>
+      <c r="U43">
+        <v>0</v>
+      </c>
+      <c r="V43">
+        <v>0</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>0</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>20</v>
+      </c>
+      <c r="C44">
+        <v>50</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+      <c r="R44">
+        <v>0</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>0</v>
+      </c>
+      <c r="U44">
+        <v>0</v>
+      </c>
+      <c r="V44">
+        <v>0</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>0</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>20</v>
+      </c>
+      <c r="C45">
+        <v>50</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+      <c r="R45">
+        <v>0</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>0</v>
+      </c>
+      <c r="U45">
+        <v>0</v>
+      </c>
+      <c r="V45">
+        <v>0</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>0</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>20</v>
+      </c>
+      <c r="C46">
+        <v>50</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="R46">
+        <v>0</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>0</v>
+      </c>
+      <c r="U46">
+        <v>0</v>
+      </c>
+      <c r="V46">
+        <v>0</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>0</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Two-stage Recoverable FLP/Local Branching/output.xlsx
+++ b/Two-stage Recoverable FLP/Local Branching/output.xlsx
@@ -13,10 +13,65 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
+  <si>
+    <t>|N|</t>
+  </si>
+  <si>
+    <t>|k|</t>
+  </si>
+  <si>
+    <t>LIP:time</t>
+  </si>
+  <si>
+    <t>gap</t>
+  </si>
+  <si>
+    <t>BD:time</t>
+  </si>
+  <si>
+    <t>cuts</t>
+  </si>
+  <si>
+    <t>BC:time</t>
+  </si>
+  <si>
+    <t>objval</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>LB:time</t>
+  </si>
+  <si>
+    <t>Heu_sol</t>
+  </si>
+  <si>
+    <t>opt_gap</t>
+  </si>
+  <si>
+    <t>PR:time</t>
+  </si>
+  <si>
+    <t>ROOT_val</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -32,7 +87,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -40,12 +95,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -340,12 +413,4890 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:Z61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:26">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>20</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>20</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>20</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>20</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>20</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>50</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>50</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <v>50</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>10</v>
+      </c>
+      <c r="C15">
+        <v>50</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>10</v>
+      </c>
+      <c r="C16">
+        <v>50</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>10</v>
+      </c>
+      <c r="C17">
+        <v>100</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>10</v>
+      </c>
+      <c r="C18">
+        <v>100</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>10</v>
+      </c>
+      <c r="C19">
+        <v>100</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>10</v>
+      </c>
+      <c r="C20">
+        <v>100</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>10</v>
+      </c>
+      <c r="C21">
+        <v>100</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>10</v>
+      </c>
+      <c r="C22">
+        <v>200</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>10</v>
+      </c>
+      <c r="C23">
+        <v>200</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>10</v>
+      </c>
+      <c r="C24">
+        <v>200</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>10</v>
+      </c>
+      <c r="C25">
+        <v>200</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>10</v>
+      </c>
+      <c r="C26">
+        <v>200</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26">
+        <v>0</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>10</v>
+      </c>
+      <c r="C27">
+        <v>500</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <v>0</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>10</v>
+      </c>
+      <c r="C28">
+        <v>500</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Y28">
+        <v>0</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>10</v>
+      </c>
+      <c r="C29">
+        <v>500</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <v>0</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>10</v>
+      </c>
+      <c r="C30">
+        <v>500</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+      <c r="Y30">
+        <v>0</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>10</v>
+      </c>
+      <c r="C31">
+        <v>500</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
+      </c>
+      <c r="Y31">
+        <v>0</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>20</v>
+      </c>
+      <c r="C32">
+        <v>10</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <v>0</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>20</v>
+      </c>
+      <c r="C33">
+        <v>10</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
+      </c>
+      <c r="Y33">
+        <v>0</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>20</v>
+      </c>
+      <c r="C34">
+        <v>10</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
+      </c>
+      <c r="Y34">
+        <v>0</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>20</v>
+      </c>
+      <c r="C35">
+        <v>10</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
+      </c>
+      <c r="Y35">
+        <v>0</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>20</v>
+      </c>
+      <c r="C36">
+        <v>10</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <v>0</v>
+      </c>
+      <c r="V36">
+        <v>0</v>
+      </c>
+      <c r="W36">
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <v>0</v>
+      </c>
+      <c r="Y36">
+        <v>0</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>20</v>
+      </c>
+      <c r="C37">
+        <v>20</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
+      <c r="U37">
+        <v>0</v>
+      </c>
+      <c r="V37">
+        <v>0</v>
+      </c>
+      <c r="W37">
+        <v>0</v>
+      </c>
+      <c r="X37">
+        <v>0</v>
+      </c>
+      <c r="Y37">
+        <v>0</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>20</v>
+      </c>
+      <c r="C38">
+        <v>20</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <v>0</v>
+      </c>
+      <c r="V38">
+        <v>0</v>
+      </c>
+      <c r="W38">
+        <v>0</v>
+      </c>
+      <c r="X38">
+        <v>0</v>
+      </c>
+      <c r="Y38">
+        <v>0</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>20</v>
+      </c>
+      <c r="C39">
+        <v>20</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <v>0</v>
+      </c>
+      <c r="U39">
+        <v>0</v>
+      </c>
+      <c r="V39">
+        <v>0</v>
+      </c>
+      <c r="W39">
+        <v>0</v>
+      </c>
+      <c r="X39">
+        <v>0</v>
+      </c>
+      <c r="Y39">
+        <v>0</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>20</v>
+      </c>
+      <c r="C40">
+        <v>20</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <v>0</v>
+      </c>
+      <c r="S40">
+        <v>0</v>
+      </c>
+      <c r="T40">
+        <v>0</v>
+      </c>
+      <c r="U40">
+        <v>0</v>
+      </c>
+      <c r="V40">
+        <v>0</v>
+      </c>
+      <c r="W40">
+        <v>0</v>
+      </c>
+      <c r="X40">
+        <v>0</v>
+      </c>
+      <c r="Y40">
+        <v>0</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>20</v>
+      </c>
+      <c r="C41">
+        <v>20</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <v>0</v>
+      </c>
+      <c r="S41">
+        <v>0</v>
+      </c>
+      <c r="T41">
+        <v>0</v>
+      </c>
+      <c r="U41">
+        <v>0</v>
+      </c>
+      <c r="V41">
+        <v>0</v>
+      </c>
+      <c r="W41">
+        <v>0</v>
+      </c>
+      <c r="X41">
+        <v>0</v>
+      </c>
+      <c r="Y41">
+        <v>0</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>20</v>
+      </c>
+      <c r="C42">
+        <v>50</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <v>0</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>0</v>
+      </c>
+      <c r="U42">
+        <v>0</v>
+      </c>
+      <c r="V42">
+        <v>0</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>0</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>20</v>
+      </c>
+      <c r="C43">
+        <v>50</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+      <c r="R43">
+        <v>0</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>0</v>
+      </c>
+      <c r="U43">
+        <v>0</v>
+      </c>
+      <c r="V43">
+        <v>0</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>0</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>20</v>
+      </c>
+      <c r="C44">
+        <v>50</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+      <c r="R44">
+        <v>0</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>0</v>
+      </c>
+      <c r="U44">
+        <v>0</v>
+      </c>
+      <c r="V44">
+        <v>0</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>0</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>20</v>
+      </c>
+      <c r="C45">
+        <v>50</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+      <c r="R45">
+        <v>0</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>0</v>
+      </c>
+      <c r="U45">
+        <v>0</v>
+      </c>
+      <c r="V45">
+        <v>0</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>0</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>20</v>
+      </c>
+      <c r="C46">
+        <v>50</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="R46">
+        <v>0</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>0</v>
+      </c>
+      <c r="U46">
+        <v>0</v>
+      </c>
+      <c r="V46">
+        <v>0</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>0</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>20</v>
+      </c>
+      <c r="C47">
+        <v>100</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>0</v>
+      </c>
+      <c r="R47">
+        <v>0</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>0</v>
+      </c>
+      <c r="U47">
+        <v>0</v>
+      </c>
+      <c r="V47">
+        <v>0</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>0</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>20</v>
+      </c>
+      <c r="C48">
+        <v>100</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>0</v>
+      </c>
+      <c r="R48">
+        <v>0</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>0</v>
+      </c>
+      <c r="U48">
+        <v>0</v>
+      </c>
+      <c r="V48">
+        <v>0</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>0</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>20</v>
+      </c>
+      <c r="C49">
+        <v>100</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>0</v>
+      </c>
+      <c r="R49">
+        <v>0</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>0</v>
+      </c>
+      <c r="U49">
+        <v>0</v>
+      </c>
+      <c r="V49">
+        <v>0</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>0</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>20</v>
+      </c>
+      <c r="C50">
+        <v>100</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>0</v>
+      </c>
+      <c r="R50">
+        <v>0</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>0</v>
+      </c>
+      <c r="U50">
+        <v>0</v>
+      </c>
+      <c r="V50">
+        <v>0</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>0</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>20</v>
+      </c>
+      <c r="C51">
+        <v>100</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>0</v>
+      </c>
+      <c r="R51">
+        <v>0</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>0</v>
+      </c>
+      <c r="U51">
+        <v>0</v>
+      </c>
+      <c r="V51">
+        <v>0</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>0</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>20</v>
+      </c>
+      <c r="C52">
+        <v>200</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>0</v>
+      </c>
+      <c r="R52">
+        <v>0</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>0</v>
+      </c>
+      <c r="U52">
+        <v>0</v>
+      </c>
+      <c r="V52">
+        <v>0</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>0</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>20</v>
+      </c>
+      <c r="C53">
+        <v>200</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>0</v>
+      </c>
+      <c r="R53">
+        <v>0</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>0</v>
+      </c>
+      <c r="U53">
+        <v>0</v>
+      </c>
+      <c r="V53">
+        <v>0</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>0</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>20</v>
+      </c>
+      <c r="C54">
+        <v>200</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>0</v>
+      </c>
+      <c r="R54">
+        <v>0</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>0</v>
+      </c>
+      <c r="U54">
+        <v>0</v>
+      </c>
+      <c r="V54">
+        <v>0</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>0</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>20</v>
+      </c>
+      <c r="C55">
+        <v>200</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>0</v>
+      </c>
+      <c r="R55">
+        <v>0</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>0</v>
+      </c>
+      <c r="U55">
+        <v>0</v>
+      </c>
+      <c r="V55">
+        <v>0</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>0</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>20</v>
+      </c>
+      <c r="C56">
+        <v>200</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>0</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>0</v>
+      </c>
+      <c r="R56">
+        <v>0</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>0</v>
+      </c>
+      <c r="U56">
+        <v>0</v>
+      </c>
+      <c r="V56">
+        <v>0</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>0</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>20</v>
+      </c>
+      <c r="C57">
+        <v>500</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>0</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>0</v>
+      </c>
+      <c r="R57">
+        <v>0</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>0</v>
+      </c>
+      <c r="U57">
+        <v>0</v>
+      </c>
+      <c r="V57">
+        <v>0</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <v>0</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>20</v>
+      </c>
+      <c r="C58">
+        <v>500</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>0</v>
+      </c>
+      <c r="R58">
+        <v>0</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <v>0</v>
+      </c>
+      <c r="U58">
+        <v>0</v>
+      </c>
+      <c r="V58">
+        <v>0</v>
+      </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <v>0</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>20</v>
+      </c>
+      <c r="C59">
+        <v>500</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>0</v>
+      </c>
+      <c r="R59">
+        <v>0</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>0</v>
+      </c>
+      <c r="U59">
+        <v>0</v>
+      </c>
+      <c r="V59">
+        <v>0</v>
+      </c>
+      <c r="W59">
+        <v>0</v>
+      </c>
+      <c r="X59">
+        <v>0</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>20</v>
+      </c>
+      <c r="C60">
+        <v>500</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>0</v>
+      </c>
+      <c r="R60">
+        <v>0</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>0</v>
+      </c>
+      <c r="U60">
+        <v>0</v>
+      </c>
+      <c r="V60">
+        <v>0</v>
+      </c>
+      <c r="W60">
+        <v>0</v>
+      </c>
+      <c r="X60">
+        <v>0</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>20</v>
+      </c>
+      <c r="C61">
+        <v>500</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>0</v>
+      </c>
+      <c r="R61">
+        <v>0</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>0</v>
+      </c>
+      <c r="U61">
+        <v>0</v>
+      </c>
+      <c r="V61">
+        <v>0</v>
+      </c>
+      <c r="W61">
+        <v>0</v>
+      </c>
+      <c r="X61">
+        <v>0</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Two-stage Recoverable FLP/Local Branching/output.xlsx
+++ b/Two-stage Recoverable FLP/Local Branching/output.xlsx
@@ -413,7 +413,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z61"/>
+  <dimension ref="A1:Z68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5296,6 +5296,566 @@
         <v>0</v>
       </c>
     </row>
+    <row r="62" spans="1:26">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>30</v>
+      </c>
+      <c r="C62">
+        <v>10</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="P62">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>0</v>
+      </c>
+      <c r="R62">
+        <v>0</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <v>0</v>
+      </c>
+      <c r="U62">
+        <v>0</v>
+      </c>
+      <c r="V62">
+        <v>0</v>
+      </c>
+      <c r="W62">
+        <v>0</v>
+      </c>
+      <c r="X62">
+        <v>0</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>30</v>
+      </c>
+      <c r="C63">
+        <v>10</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>0</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+      <c r="P63">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>0</v>
+      </c>
+      <c r="R63">
+        <v>0</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>0</v>
+      </c>
+      <c r="U63">
+        <v>0</v>
+      </c>
+      <c r="V63">
+        <v>0</v>
+      </c>
+      <c r="W63">
+        <v>0</v>
+      </c>
+      <c r="X63">
+        <v>0</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>30</v>
+      </c>
+      <c r="C64">
+        <v>10</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+      <c r="P64">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>0</v>
+      </c>
+      <c r="R64">
+        <v>0</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>0</v>
+      </c>
+      <c r="U64">
+        <v>0</v>
+      </c>
+      <c r="V64">
+        <v>0</v>
+      </c>
+      <c r="W64">
+        <v>0</v>
+      </c>
+      <c r="X64">
+        <v>0</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>30</v>
+      </c>
+      <c r="C65">
+        <v>10</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+      <c r="P65">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>0</v>
+      </c>
+      <c r="R65">
+        <v>0</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>0</v>
+      </c>
+      <c r="U65">
+        <v>0</v>
+      </c>
+      <c r="V65">
+        <v>0</v>
+      </c>
+      <c r="W65">
+        <v>0</v>
+      </c>
+      <c r="X65">
+        <v>0</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>30</v>
+      </c>
+      <c r="C66">
+        <v>10</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>0</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+      <c r="P66">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>0</v>
+      </c>
+      <c r="R66">
+        <v>0</v>
+      </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
+      <c r="T66">
+        <v>0</v>
+      </c>
+      <c r="U66">
+        <v>0</v>
+      </c>
+      <c r="V66">
+        <v>0</v>
+      </c>
+      <c r="W66">
+        <v>0</v>
+      </c>
+      <c r="X66">
+        <v>0</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>30</v>
+      </c>
+      <c r="C67">
+        <v>20</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>0</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+      <c r="P67">
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <v>0</v>
+      </c>
+      <c r="R67">
+        <v>0</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>0</v>
+      </c>
+      <c r="U67">
+        <v>0</v>
+      </c>
+      <c r="V67">
+        <v>0</v>
+      </c>
+      <c r="W67">
+        <v>0</v>
+      </c>
+      <c r="X67">
+        <v>0</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>30</v>
+      </c>
+      <c r="C68">
+        <v>20</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>0</v>
+      </c>
+      <c r="O68">
+        <v>0</v>
+      </c>
+      <c r="P68">
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <v>0</v>
+      </c>
+      <c r="R68">
+        <v>0</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>0</v>
+      </c>
+      <c r="U68">
+        <v>0</v>
+      </c>
+      <c r="V68">
+        <v>0</v>
+      </c>
+      <c r="W68">
+        <v>0</v>
+      </c>
+      <c r="X68">
+        <v>0</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Two-stage Recoverable FLP/Local Branching/output.xlsx
+++ b/Two-stage Recoverable FLP/Local Branching/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
   <si>
     <t>|N|</t>
   </si>
@@ -22,19 +22,13 @@
     <t>|k|</t>
   </si>
   <si>
-    <t>LIP:time</t>
-  </si>
-  <si>
-    <t>gap</t>
-  </si>
-  <si>
-    <t>BD:time</t>
+    <t>BC:time</t>
   </si>
   <si>
     <t>cuts</t>
   </si>
   <si>
-    <t>BC:time</t>
+    <t>gap</t>
   </si>
   <si>
     <t>objval</t>
@@ -53,6 +47,9 @@
   </si>
   <si>
     <t>PR:time</t>
+  </si>
+  <si>
+    <t>HY:time</t>
   </si>
   <si>
     <t>ROOT_val</t>
@@ -413,13 +410,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z68"/>
+  <dimension ref="A1:AA75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:27">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -439,64 +436,67 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26">
+        <v>9</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -575,8 +575,11 @@
       <c r="Z2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:26">
+      <c r="AA2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -655,8 +658,11 @@
       <c r="Z3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:26">
+      <c r="AA3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -735,8 +741,11 @@
       <c r="Z4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:26">
+      <c r="AA4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -815,8 +824,11 @@
       <c r="Z5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:26">
+      <c r="AA5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -895,8 +907,11 @@
       <c r="Z6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:26">
+      <c r="AA6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -975,8 +990,11 @@
       <c r="Z7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:26">
+      <c r="AA7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1055,8 +1073,11 @@
       <c r="Z8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:26">
+      <c r="AA8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1135,8 +1156,11 @@
       <c r="Z9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:26">
+      <c r="AA9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1215,8 +1239,11 @@
       <c r="Z10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:26">
+      <c r="AA10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1295,8 +1322,11 @@
       <c r="Z11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:26">
+      <c r="AA11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1375,8 +1405,11 @@
       <c r="Z12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:26">
+      <c r="AA12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1455,8 +1488,11 @@
       <c r="Z13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26">
+      <c r="AA13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1535,8 +1571,11 @@
       <c r="Z14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26">
+      <c r="AA14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1615,8 +1654,11 @@
       <c r="Z15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26">
+      <c r="AA15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1695,8 +1737,11 @@
       <c r="Z16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:26">
+      <c r="AA16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1775,8 +1820,11 @@
       <c r="Z17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:26">
+      <c r="AA17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1855,8 +1903,11 @@
       <c r="Z18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:26">
+      <c r="AA18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1935,8 +1986,11 @@
       <c r="Z19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:26">
+      <c r="AA19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2015,8 +2069,11 @@
       <c r="Z20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:26">
+      <c r="AA20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2095,8 +2152,11 @@
       <c r="Z21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:26">
+      <c r="AA21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2175,8 +2235,11 @@
       <c r="Z22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:26">
+      <c r="AA22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2255,8 +2318,11 @@
       <c r="Z23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:26">
+      <c r="AA23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2335,8 +2401,11 @@
       <c r="Z24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:26">
+      <c r="AA24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2415,8 +2484,11 @@
       <c r="Z25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:26">
+      <c r="AA25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2495,8 +2567,11 @@
       <c r="Z26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:26">
+      <c r="AA26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2575,8 +2650,11 @@
       <c r="Z27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:26">
+      <c r="AA27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2655,8 +2733,11 @@
       <c r="Z28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:26">
+      <c r="AA28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2735,8 +2816,11 @@
       <c r="Z29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:26">
+      <c r="AA29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2815,8 +2899,11 @@
       <c r="Z30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:26">
+      <c r="AA30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2895,8 +2982,11 @@
       <c r="Z31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:26">
+      <c r="AA31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2922,61 +3012,64 @@
         <v>0</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>17.69</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="K32">
         <v>0</v>
       </c>
       <c r="L32">
-        <v>0</v>
+        <v>333</v>
       </c>
       <c r="M32">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="N32">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="O32">
-        <v>0</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="P32">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="Q32">
         <v>0</v>
       </c>
       <c r="R32">
-        <v>0</v>
+        <v>266.5</v>
       </c>
       <c r="S32">
-        <v>0</v>
+        <v>7.33</v>
       </c>
       <c r="T32">
         <v>0</v>
       </c>
       <c r="U32">
-        <v>0</v>
+        <v>16.68</v>
       </c>
       <c r="V32">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="W32">
         <v>0</v>
       </c>
       <c r="X32">
-        <v>0</v>
+        <v>267.5</v>
       </c>
       <c r="Y32">
-        <v>0</v>
+        <v>16.06</v>
       </c>
       <c r="Z32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:26">
+      <c r="AA32">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -3002,61 +3095,64 @@
         <v>0</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>20.62</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="K33">
         <v>0</v>
       </c>
       <c r="L33">
-        <v>0</v>
+        <v>311.5</v>
       </c>
       <c r="M33">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="N33">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="O33">
-        <v>0</v>
+        <v>20.24</v>
       </c>
       <c r="P33">
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="Q33">
         <v>0</v>
       </c>
       <c r="R33">
-        <v>0</v>
+        <v>293</v>
       </c>
       <c r="S33">
-        <v>0</v>
+        <v>17.76</v>
       </c>
       <c r="T33">
         <v>0</v>
       </c>
       <c r="U33">
-        <v>0</v>
+        <v>20.27</v>
       </c>
       <c r="V33">
-        <v>0</v>
+        <v>265</v>
       </c>
       <c r="W33">
         <v>0</v>
       </c>
       <c r="X33">
-        <v>0</v>
+        <v>311.5</v>
       </c>
       <c r="Y33">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="Z33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:26">
+        <v>0.06</v>
+      </c>
+      <c r="AA33">
+        <v>311.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -3082,61 +3178,64 @@
         <v>0</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>18.72</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>187</v>
       </c>
       <c r="K34">
         <v>0</v>
       </c>
       <c r="L34">
-        <v>0</v>
+        <v>327</v>
       </c>
       <c r="M34">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="N34">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="O34">
-        <v>0</v>
+        <v>13.78</v>
       </c>
       <c r="P34">
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="Q34">
         <v>0</v>
       </c>
       <c r="R34">
-        <v>0</v>
+        <v>316.5</v>
       </c>
       <c r="S34">
-        <v>0</v>
+        <v>13.62</v>
       </c>
       <c r="T34">
         <v>0</v>
       </c>
       <c r="U34">
-        <v>0</v>
+        <v>15.66</v>
       </c>
       <c r="V34">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="W34">
         <v>0</v>
       </c>
       <c r="X34">
-        <v>0</v>
+        <v>327</v>
       </c>
       <c r="Y34">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="Z34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:26">
+        <v>0.03</v>
+      </c>
+      <c r="AA34">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -3162,61 +3261,64 @@
         <v>0</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>46.69</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>508</v>
       </c>
       <c r="K35">
         <v>0</v>
       </c>
       <c r="L35">
-        <v>0</v>
+        <v>262.5</v>
       </c>
       <c r="M35">
-        <v>0</v>
+        <v>4.84</v>
       </c>
       <c r="N35">
         <v>0</v>
       </c>
       <c r="O35">
-        <v>0</v>
+        <v>25.98</v>
       </c>
       <c r="P35">
-        <v>0</v>
+        <v>446</v>
       </c>
       <c r="Q35">
         <v>0</v>
       </c>
       <c r="R35">
-        <v>0</v>
+        <v>262.5</v>
       </c>
       <c r="S35">
-        <v>0</v>
+        <v>19.28</v>
       </c>
       <c r="T35">
         <v>0</v>
       </c>
       <c r="U35">
-        <v>0</v>
+        <v>24.98</v>
       </c>
       <c r="V35">
-        <v>0</v>
+        <v>627</v>
       </c>
       <c r="W35">
         <v>0</v>
       </c>
       <c r="X35">
-        <v>0</v>
+        <v>262.5</v>
       </c>
       <c r="Y35">
-        <v>0</v>
+        <v>4.79</v>
       </c>
       <c r="Z35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:26">
+      <c r="AA35">
+        <v>357.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -3242,61 +3344,64 @@
         <v>0</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>12.75</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="K36">
         <v>0</v>
       </c>
       <c r="L36">
-        <v>0</v>
+        <v>313</v>
       </c>
       <c r="M36">
-        <v>0</v>
+        <v>3.88</v>
       </c>
       <c r="N36">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="O36">
-        <v>0</v>
+        <v>7.34</v>
       </c>
       <c r="P36">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q36">
         <v>0</v>
       </c>
       <c r="R36">
-        <v>0</v>
+        <v>301</v>
       </c>
       <c r="S36">
-        <v>0</v>
+        <v>6.69</v>
       </c>
       <c r="T36">
         <v>0</v>
       </c>
       <c r="U36">
-        <v>0</v>
+        <v>6.68</v>
       </c>
       <c r="V36">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="W36">
         <v>0</v>
       </c>
       <c r="X36">
-        <v>0</v>
+        <v>313</v>
       </c>
       <c r="Y36">
-        <v>0</v>
+        <v>3.48</v>
       </c>
       <c r="Z36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:26">
+        <v>0.04</v>
+      </c>
+      <c r="AA36">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -3322,61 +3427,64 @@
         <v>0</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>250.88</v>
       </c>
       <c r="J37">
-        <v>0</v>
+        <v>1439</v>
       </c>
       <c r="K37">
         <v>0</v>
       </c>
       <c r="L37">
-        <v>0</v>
+        <v>316.5</v>
       </c>
       <c r="M37">
-        <v>0</v>
+        <v>5.36</v>
       </c>
       <c r="N37">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="O37">
-        <v>0</v>
+        <v>264.13</v>
       </c>
       <c r="P37">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="Q37">
         <v>0</v>
       </c>
       <c r="R37">
-        <v>0</v>
+        <v>316.5</v>
       </c>
       <c r="S37">
-        <v>0</v>
+        <v>48.2</v>
       </c>
       <c r="T37">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="U37">
-        <v>0</v>
+        <v>253.82</v>
       </c>
       <c r="V37">
-        <v>0</v>
+        <v>1419</v>
       </c>
       <c r="W37">
         <v>0</v>
       </c>
       <c r="X37">
-        <v>0</v>
+        <v>316.5</v>
       </c>
       <c r="Y37">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="Z37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:26">
+        <v>0.01</v>
+      </c>
+      <c r="AA37">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -3402,61 +3510,64 @@
         <v>0</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>32.41</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="K38">
         <v>0</v>
       </c>
       <c r="L38">
-        <v>0</v>
+        <v>319</v>
       </c>
       <c r="M38">
-        <v>0</v>
+        <v>4.28</v>
       </c>
       <c r="N38">
         <v>0</v>
       </c>
       <c r="O38">
-        <v>0</v>
+        <v>28.38</v>
       </c>
       <c r="P38">
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="Q38">
         <v>0</v>
       </c>
       <c r="R38">
-        <v>0</v>
+        <v>319</v>
       </c>
       <c r="S38">
-        <v>0</v>
+        <v>6.17</v>
       </c>
       <c r="T38">
         <v>0</v>
       </c>
       <c r="U38">
-        <v>0</v>
+        <v>28.8</v>
       </c>
       <c r="V38">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="W38">
         <v>0</v>
       </c>
       <c r="X38">
-        <v>0</v>
+        <v>319</v>
       </c>
       <c r="Y38">
-        <v>0</v>
+        <v>4.39</v>
       </c>
       <c r="Z38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:26">
+      <c r="AA38">
+        <v>351.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -3482,61 +3593,64 @@
         <v>0</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>11.96</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K39">
         <v>0</v>
       </c>
       <c r="L39">
-        <v>0</v>
+        <v>327.5</v>
       </c>
       <c r="M39">
-        <v>0</v>
+        <v>5.88</v>
       </c>
       <c r="N39">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="O39">
-        <v>0</v>
+        <v>2.97</v>
       </c>
       <c r="P39">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q39">
         <v>0</v>
       </c>
       <c r="R39">
-        <v>0</v>
+        <v>332</v>
       </c>
       <c r="S39">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="T39">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="U39">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V39">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W39">
         <v>0</v>
       </c>
       <c r="X39">
-        <v>0</v>
+        <v>332</v>
       </c>
       <c r="Y39">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="Z39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:26">
+        <v>0.02</v>
+      </c>
+      <c r="AA39">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -3562,61 +3676,64 @@
         <v>0</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>13.71</v>
       </c>
       <c r="J40">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="K40">
         <v>0</v>
       </c>
       <c r="L40">
-        <v>0</v>
+        <v>352</v>
       </c>
       <c r="M40">
-        <v>0</v>
+        <v>9.07</v>
       </c>
       <c r="N40">
         <v>0</v>
       </c>
       <c r="O40">
-        <v>0</v>
+        <v>5.61</v>
       </c>
       <c r="P40">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="Q40">
         <v>0</v>
       </c>
       <c r="R40">
-        <v>0</v>
+        <v>352.5</v>
       </c>
       <c r="S40">
-        <v>0</v>
+        <v>4.73</v>
       </c>
       <c r="T40">
         <v>0</v>
       </c>
       <c r="U40">
-        <v>0</v>
+        <v>9.52</v>
       </c>
       <c r="V40">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="W40">
         <v>0</v>
       </c>
       <c r="X40">
-        <v>0</v>
+        <v>359</v>
       </c>
       <c r="Y40">
-        <v>0</v>
+        <v>2.66</v>
       </c>
       <c r="Z40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:26">
+        <v>0.02</v>
+      </c>
+      <c r="AA40">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -3642,61 +3759,64 @@
         <v>0</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>52.25</v>
       </c>
       <c r="J41">
-        <v>0</v>
+        <v>490</v>
       </c>
       <c r="K41">
         <v>0</v>
       </c>
       <c r="L41">
-        <v>0</v>
+        <v>330.5</v>
       </c>
       <c r="M41">
-        <v>0</v>
+        <v>10.52</v>
       </c>
       <c r="N41">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="O41">
-        <v>0</v>
+        <v>44.44</v>
       </c>
       <c r="P41">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="Q41">
         <v>0</v>
       </c>
       <c r="R41">
-        <v>0</v>
+        <v>303</v>
       </c>
       <c r="S41">
-        <v>0</v>
+        <v>36.13</v>
       </c>
       <c r="T41">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="U41">
-        <v>0</v>
+        <v>30.15</v>
       </c>
       <c r="V41">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="W41">
         <v>0</v>
       </c>
       <c r="X41">
-        <v>0</v>
+        <v>299</v>
       </c>
       <c r="Y41">
-        <v>0</v>
+        <v>27.41</v>
       </c>
       <c r="Z41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:26">
+        <v>-0</v>
+      </c>
+      <c r="AA41">
+        <v>373.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -3722,61 +3842,64 @@
         <v>0</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>23.39</v>
       </c>
       <c r="J42">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K42">
         <v>0</v>
       </c>
       <c r="L42">
-        <v>0</v>
+        <v>385</v>
       </c>
       <c r="M42">
-        <v>0</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="N42">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O42">
-        <v>0</v>
+        <v>5.41</v>
       </c>
       <c r="P42">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q42">
         <v>0</v>
       </c>
       <c r="R42">
-        <v>0</v>
+        <v>385</v>
       </c>
       <c r="S42">
-        <v>0</v>
+        <v>5.31</v>
       </c>
       <c r="T42">
         <v>0</v>
       </c>
       <c r="U42">
-        <v>0</v>
+        <v>14.87</v>
       </c>
       <c r="V42">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W42">
         <v>0</v>
       </c>
       <c r="X42">
-        <v>0</v>
+        <v>385</v>
       </c>
       <c r="Y42">
-        <v>0</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="Z42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:26">
+        <v>-0</v>
+      </c>
+      <c r="AA42">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -3802,61 +3925,64 @@
         <v>0</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>46.52</v>
       </c>
       <c r="J43">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="K43">
         <v>0</v>
       </c>
       <c r="L43">
-        <v>0</v>
+        <v>386.5</v>
       </c>
       <c r="M43">
-        <v>0</v>
+        <v>6.53</v>
       </c>
       <c r="N43">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="O43">
-        <v>0</v>
+        <v>38.81</v>
       </c>
       <c r="P43">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="Q43">
         <v>0</v>
       </c>
       <c r="R43">
-        <v>0</v>
+        <v>358</v>
       </c>
       <c r="S43">
-        <v>0</v>
+        <v>32.61</v>
       </c>
       <c r="T43">
         <v>0</v>
       </c>
       <c r="U43">
-        <v>0</v>
+        <v>41.02</v>
       </c>
       <c r="V43">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="W43">
         <v>0</v>
       </c>
       <c r="X43">
-        <v>0</v>
+        <v>358</v>
       </c>
       <c r="Y43">
-        <v>0</v>
+        <v>34.68</v>
       </c>
       <c r="Z43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:26">
+      <c r="AA43">
+        <v>386.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -3882,61 +4008,64 @@
         <v>0</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>50.45</v>
       </c>
       <c r="J44">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="K44">
         <v>0</v>
       </c>
       <c r="L44">
-        <v>0</v>
+        <v>338.5</v>
       </c>
       <c r="M44">
-        <v>0</v>
+        <v>5.55</v>
       </c>
       <c r="N44">
         <v>0</v>
       </c>
       <c r="O44">
-        <v>0</v>
+        <v>11.93</v>
       </c>
       <c r="P44">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="Q44">
         <v>0</v>
       </c>
       <c r="R44">
-        <v>0</v>
+        <v>338.5</v>
       </c>
       <c r="S44">
-        <v>0</v>
+        <v>5.56</v>
       </c>
       <c r="T44">
         <v>0</v>
       </c>
       <c r="U44">
-        <v>0</v>
+        <v>15.85</v>
       </c>
       <c r="V44">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="W44">
         <v>0</v>
       </c>
       <c r="X44">
-        <v>0</v>
+        <v>338.5</v>
       </c>
       <c r="Y44">
-        <v>0</v>
+        <v>5.68</v>
       </c>
       <c r="Z44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:26">
+      <c r="AA44">
+        <v>338.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -3962,61 +4091,64 @@
         <v>0</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>74.72</v>
       </c>
       <c r="J45">
-        <v>0</v>
+        <v>259</v>
       </c>
       <c r="K45">
         <v>0</v>
       </c>
       <c r="L45">
-        <v>0</v>
+        <v>365</v>
       </c>
       <c r="M45">
-        <v>0</v>
+        <v>15.48</v>
       </c>
       <c r="N45">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="O45">
-        <v>0</v>
+        <v>67.81</v>
       </c>
       <c r="P45">
-        <v>0</v>
+        <v>229</v>
       </c>
       <c r="Q45">
         <v>0</v>
       </c>
       <c r="R45">
-        <v>0</v>
+        <v>354.5</v>
       </c>
       <c r="S45">
-        <v>0</v>
+        <v>33.07</v>
       </c>
       <c r="T45">
         <v>0</v>
       </c>
       <c r="U45">
-        <v>0</v>
+        <v>84.36</v>
       </c>
       <c r="V45">
-        <v>0</v>
+        <v>251</v>
       </c>
       <c r="W45">
         <v>0</v>
       </c>
       <c r="X45">
-        <v>0</v>
+        <v>354.5</v>
       </c>
       <c r="Y45">
-        <v>0</v>
+        <v>27.71</v>
       </c>
       <c r="Z45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:26">
+      <c r="AA45">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -4042,61 +4174,64 @@
         <v>0</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>37.71</v>
       </c>
       <c r="J46">
-        <v>0</v>
+        <v>152</v>
       </c>
       <c r="K46">
         <v>0</v>
       </c>
       <c r="L46">
-        <v>0</v>
+        <v>324</v>
       </c>
       <c r="M46">
-        <v>0</v>
+        <v>20.18</v>
       </c>
       <c r="N46">
         <v>0</v>
       </c>
       <c r="O46">
-        <v>0</v>
+        <v>35.53</v>
       </c>
       <c r="P46">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="Q46">
         <v>0</v>
       </c>
       <c r="R46">
-        <v>0</v>
+        <v>324</v>
       </c>
       <c r="S46">
-        <v>0</v>
+        <v>22.6</v>
       </c>
       <c r="T46">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U46">
-        <v>0</v>
+        <v>40.11</v>
       </c>
       <c r="V46">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="W46">
         <v>0</v>
       </c>
       <c r="X46">
-        <v>0</v>
+        <v>324</v>
       </c>
       <c r="Y46">
-        <v>0</v>
+        <v>19.96</v>
       </c>
       <c r="Z46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:26">
+      <c r="AA46">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -4122,61 +4257,64 @@
         <v>0</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>111.03</v>
       </c>
       <c r="J47">
-        <v>0</v>
+        <v>393</v>
       </c>
       <c r="K47">
         <v>0</v>
       </c>
       <c r="L47">
-        <v>0</v>
+        <v>373.5</v>
       </c>
       <c r="M47">
-        <v>0</v>
+        <v>34.28</v>
       </c>
       <c r="N47">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="O47">
-        <v>0</v>
+        <v>130.9</v>
       </c>
       <c r="P47">
-        <v>0</v>
+        <v>263</v>
       </c>
       <c r="Q47">
         <v>0</v>
       </c>
       <c r="R47">
-        <v>0</v>
+        <v>365.5</v>
       </c>
       <c r="S47">
-        <v>0</v>
+        <v>89.84999999999999</v>
       </c>
       <c r="T47">
         <v>0</v>
       </c>
       <c r="U47">
-        <v>0</v>
+        <v>135.56</v>
       </c>
       <c r="V47">
-        <v>0</v>
+        <v>391</v>
       </c>
       <c r="W47">
         <v>0</v>
       </c>
       <c r="X47">
-        <v>0</v>
+        <v>373.5</v>
       </c>
       <c r="Y47">
-        <v>0</v>
+        <v>34.33</v>
       </c>
       <c r="Z47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:26">
+        <v>0.02</v>
+      </c>
+      <c r="AA47">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -4202,61 +4340,64 @@
         <v>0</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>89.27</v>
       </c>
       <c r="J48">
-        <v>0</v>
+        <v>204</v>
       </c>
       <c r="K48">
         <v>0</v>
       </c>
       <c r="L48">
-        <v>0</v>
+        <v>379.5</v>
       </c>
       <c r="M48">
-        <v>0</v>
+        <v>27.4</v>
       </c>
       <c r="N48">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="O48">
-        <v>0</v>
+        <v>68.95999999999999</v>
       </c>
       <c r="P48">
-        <v>0</v>
+        <v>163</v>
       </c>
       <c r="Q48">
         <v>0</v>
       </c>
       <c r="R48">
-        <v>0</v>
+        <v>367</v>
       </c>
       <c r="S48">
-        <v>0</v>
+        <v>59.43</v>
       </c>
       <c r="T48">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="U48">
-        <v>0</v>
+        <v>64.19</v>
       </c>
       <c r="V48">
-        <v>0</v>
+        <v>209</v>
       </c>
       <c r="W48">
         <v>0</v>
       </c>
       <c r="X48">
-        <v>0</v>
+        <v>379.5</v>
       </c>
       <c r="Y48">
-        <v>0</v>
+        <v>26.52</v>
       </c>
       <c r="Z48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:26">
+        <v>0.04</v>
+      </c>
+      <c r="AA48">
+        <v>404.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -4282,61 +4423,64 @@
         <v>0</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>78.95999999999999</v>
       </c>
       <c r="J49">
-        <v>0</v>
+        <v>178</v>
       </c>
       <c r="K49">
         <v>0</v>
       </c>
       <c r="L49">
-        <v>0</v>
+        <v>386</v>
       </c>
       <c r="M49">
-        <v>0</v>
+        <v>21.18</v>
       </c>
       <c r="N49">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="O49">
-        <v>0</v>
+        <v>65.68000000000001</v>
       </c>
       <c r="P49">
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="Q49">
         <v>0</v>
       </c>
       <c r="R49">
-        <v>0</v>
+        <v>357.5</v>
       </c>
       <c r="S49">
-        <v>0</v>
+        <v>36.52</v>
       </c>
       <c r="T49">
         <v>0</v>
       </c>
       <c r="U49">
-        <v>0</v>
+        <v>106.94</v>
       </c>
       <c r="V49">
-        <v>0</v>
+        <v>307</v>
       </c>
       <c r="W49">
         <v>0</v>
       </c>
       <c r="X49">
-        <v>0</v>
+        <v>386</v>
       </c>
       <c r="Y49">
-        <v>0</v>
+        <v>21.42</v>
       </c>
       <c r="Z49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:26">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AA49">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -4362,61 +4506,64 @@
         <v>0</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>71.7</v>
       </c>
       <c r="J50">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="K50">
         <v>0</v>
       </c>
       <c r="L50">
-        <v>0</v>
+        <v>412.5</v>
       </c>
       <c r="M50">
-        <v>0</v>
+        <v>21.94</v>
       </c>
       <c r="N50">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="O50">
-        <v>0</v>
+        <v>65.2</v>
       </c>
       <c r="P50">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="Q50">
         <v>0</v>
       </c>
       <c r="R50">
-        <v>0</v>
+        <v>392</v>
       </c>
       <c r="S50">
-        <v>0</v>
+        <v>62.85</v>
       </c>
       <c r="T50">
         <v>0</v>
       </c>
       <c r="U50">
-        <v>0</v>
+        <v>70.84</v>
       </c>
       <c r="V50">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="W50">
         <v>0</v>
       </c>
       <c r="X50">
-        <v>0</v>
+        <v>412.5</v>
       </c>
       <c r="Y50">
-        <v>0</v>
+        <v>22.6</v>
       </c>
       <c r="Z50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:26">
+        <v>0.05</v>
+      </c>
+      <c r="AA50">
+        <v>457.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -4442,61 +4589,64 @@
         <v>0</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>81.95999999999999</v>
       </c>
       <c r="J51">
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="K51">
         <v>0</v>
       </c>
       <c r="L51">
-        <v>0</v>
+        <v>357.5</v>
       </c>
       <c r="M51">
-        <v>0</v>
+        <v>24.74</v>
       </c>
       <c r="N51">
         <v>0</v>
       </c>
       <c r="O51">
-        <v>0</v>
+        <v>69.13</v>
       </c>
       <c r="P51">
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="Q51">
         <v>0</v>
       </c>
       <c r="R51">
-        <v>0</v>
+        <v>357.5</v>
       </c>
       <c r="S51">
-        <v>0</v>
+        <v>47.39</v>
       </c>
       <c r="T51">
         <v>0</v>
       </c>
       <c r="U51">
-        <v>0</v>
+        <v>48.8</v>
       </c>
       <c r="V51">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="W51">
         <v>0</v>
       </c>
       <c r="X51">
-        <v>0</v>
+        <v>357.5</v>
       </c>
       <c r="Y51">
-        <v>0</v>
+        <v>23.77</v>
       </c>
       <c r="Z51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:26">
+      <c r="AA51">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -4522,61 +4672,64 @@
         <v>0</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>252.49</v>
       </c>
       <c r="J52">
-        <v>0</v>
+        <v>574</v>
       </c>
       <c r="K52">
         <v>0</v>
       </c>
       <c r="L52">
-        <v>0</v>
+        <v>428</v>
       </c>
       <c r="M52">
-        <v>0</v>
+        <v>68.75</v>
       </c>
       <c r="N52">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="O52">
-        <v>0</v>
+        <v>265.2</v>
       </c>
       <c r="P52">
-        <v>0</v>
+        <v>298</v>
       </c>
       <c r="Q52">
         <v>0</v>
       </c>
       <c r="R52">
-        <v>0</v>
+        <v>419</v>
       </c>
       <c r="S52">
-        <v>0</v>
+        <v>217.48</v>
       </c>
       <c r="T52">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="U52">
-        <v>0</v>
+        <v>273.97</v>
       </c>
       <c r="V52">
-        <v>0</v>
+        <v>423</v>
       </c>
       <c r="W52">
         <v>0</v>
       </c>
       <c r="X52">
-        <v>0</v>
+        <v>428</v>
       </c>
       <c r="Y52">
-        <v>0</v>
+        <v>67.8</v>
       </c>
       <c r="Z52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:26">
+        <v>0.05</v>
+      </c>
+      <c r="AA52">
+        <v>450.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -4602,61 +4755,64 @@
         <v>0</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>172.58</v>
       </c>
       <c r="J53">
-        <v>0</v>
+        <v>372</v>
       </c>
       <c r="K53">
         <v>0</v>
       </c>
       <c r="L53">
-        <v>0</v>
+        <v>436.5</v>
       </c>
       <c r="M53">
-        <v>0</v>
+        <v>66.55</v>
       </c>
       <c r="N53">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="O53">
-        <v>0</v>
+        <v>212.91</v>
       </c>
       <c r="P53">
-        <v>0</v>
+        <v>284</v>
       </c>
       <c r="Q53">
         <v>0</v>
       </c>
       <c r="R53">
-        <v>0</v>
+        <v>417</v>
       </c>
       <c r="S53">
-        <v>0</v>
+        <v>188.01</v>
       </c>
       <c r="T53">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="U53">
-        <v>0</v>
+        <v>205.7</v>
       </c>
       <c r="V53">
-        <v>0</v>
+        <v>294</v>
       </c>
       <c r="W53">
         <v>0</v>
       </c>
       <c r="X53">
-        <v>0</v>
+        <v>429.5</v>
       </c>
       <c r="Y53">
-        <v>0</v>
+        <v>91.81</v>
       </c>
       <c r="Z53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:26">
+        <v>0.05</v>
+      </c>
+      <c r="AA53">
+        <v>467.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -4682,61 +4838,64 @@
         <v>0</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>115.86</v>
       </c>
       <c r="J54">
-        <v>0</v>
+        <v>248</v>
       </c>
       <c r="K54">
         <v>0</v>
       </c>
       <c r="L54">
-        <v>0</v>
+        <v>376.5</v>
       </c>
       <c r="M54">
-        <v>0</v>
+        <v>52.29</v>
       </c>
       <c r="N54">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="O54">
-        <v>0</v>
+        <v>130.71</v>
       </c>
       <c r="P54">
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="Q54">
         <v>0</v>
       </c>
       <c r="R54">
-        <v>0</v>
+        <v>367.5</v>
       </c>
       <c r="S54">
-        <v>0</v>
+        <v>129.99</v>
       </c>
       <c r="T54">
         <v>0</v>
       </c>
       <c r="U54">
-        <v>0</v>
+        <v>129.41</v>
       </c>
       <c r="V54">
-        <v>0</v>
+        <v>203</v>
       </c>
       <c r="W54">
         <v>0</v>
       </c>
       <c r="X54">
-        <v>0</v>
+        <v>376.5</v>
       </c>
       <c r="Y54">
-        <v>0</v>
+        <v>51.8</v>
       </c>
       <c r="Z54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:26">
+        <v>0.02</v>
+      </c>
+      <c r="AA54">
+        <v>398.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -4762,61 +4921,64 @@
         <v>0</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>165.44</v>
       </c>
       <c r="J55">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="K55">
         <v>0</v>
       </c>
       <c r="L55">
-        <v>0</v>
+        <v>404</v>
       </c>
       <c r="M55">
-        <v>0</v>
+        <v>79.78</v>
       </c>
       <c r="N55">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="O55">
-        <v>0</v>
+        <v>165.85</v>
       </c>
       <c r="P55">
-        <v>0</v>
+        <v>203</v>
       </c>
       <c r="Q55">
         <v>0</v>
       </c>
       <c r="R55">
-        <v>0</v>
+        <v>384</v>
       </c>
       <c r="S55">
-        <v>0</v>
+        <v>99.17</v>
       </c>
       <c r="T55">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="U55">
-        <v>0</v>
+        <v>184.77</v>
       </c>
       <c r="V55">
-        <v>0</v>
+        <v>228</v>
       </c>
       <c r="W55">
         <v>0</v>
       </c>
       <c r="X55">
-        <v>0</v>
+        <v>378.5</v>
       </c>
       <c r="Y55">
-        <v>0</v>
+        <v>104.05</v>
       </c>
       <c r="Z55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:26">
+      <c r="AA55">
+        <v>421.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -4842,61 +5004,64 @@
         <v>0</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>165.16</v>
       </c>
       <c r="J56">
-        <v>0</v>
+        <v>176</v>
       </c>
       <c r="K56">
         <v>0</v>
       </c>
       <c r="L56">
-        <v>0</v>
+        <v>415.5</v>
       </c>
       <c r="M56">
-        <v>0</v>
+        <v>21.19</v>
       </c>
       <c r="N56">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="O56">
-        <v>0</v>
+        <v>153.43</v>
       </c>
       <c r="P56">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="Q56">
         <v>0</v>
       </c>
       <c r="R56">
-        <v>0</v>
+        <v>386</v>
       </c>
       <c r="S56">
-        <v>0</v>
+        <v>152.97</v>
       </c>
       <c r="T56">
         <v>0</v>
       </c>
       <c r="U56">
-        <v>0</v>
+        <v>156.58</v>
       </c>
       <c r="V56">
-        <v>0</v>
+        <v>225</v>
       </c>
       <c r="W56">
         <v>0</v>
       </c>
       <c r="X56">
-        <v>0</v>
+        <v>415.5</v>
       </c>
       <c r="Y56">
-        <v>0</v>
+        <v>20.9</v>
       </c>
       <c r="Z56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:26">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AA56">
+        <v>415.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -4922,61 +5087,64 @@
         <v>0</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>268.13</v>
       </c>
       <c r="J57">
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="K57">
         <v>0</v>
       </c>
       <c r="L57">
-        <v>0</v>
+        <v>421.5</v>
       </c>
       <c r="M57">
-        <v>0</v>
+        <v>177.47</v>
       </c>
       <c r="N57">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="O57">
-        <v>0</v>
+        <v>300.85</v>
       </c>
       <c r="P57">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="Q57">
         <v>0</v>
       </c>
       <c r="R57">
-        <v>0</v>
+        <v>410</v>
       </c>
       <c r="S57">
-        <v>0</v>
+        <v>255.58</v>
       </c>
       <c r="T57">
         <v>0</v>
       </c>
       <c r="U57">
-        <v>0</v>
+        <v>337.48</v>
       </c>
       <c r="V57">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="W57">
         <v>0</v>
       </c>
       <c r="X57">
-        <v>0</v>
+        <v>410</v>
       </c>
       <c r="Y57">
-        <v>0</v>
+        <v>204.89</v>
       </c>
       <c r="Z57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:26">
+      <c r="AA57">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -5002,61 +5170,64 @@
         <v>0</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>621.08</v>
       </c>
       <c r="J58">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="K58">
         <v>0</v>
       </c>
       <c r="L58">
-        <v>0</v>
+        <v>485</v>
       </c>
       <c r="M58">
-        <v>0</v>
+        <v>131.3</v>
       </c>
       <c r="N58">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="O58">
-        <v>0</v>
+        <v>399.24</v>
       </c>
       <c r="P58">
-        <v>0</v>
+        <v>333</v>
       </c>
       <c r="Q58">
         <v>0</v>
       </c>
       <c r="R58">
-        <v>0</v>
+        <v>454</v>
       </c>
       <c r="S58">
-        <v>0</v>
+        <v>134.64</v>
       </c>
       <c r="T58">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U58">
-        <v>0</v>
+        <v>600.49</v>
       </c>
       <c r="V58">
-        <v>0</v>
+        <v>518</v>
       </c>
       <c r="W58">
         <v>0</v>
       </c>
       <c r="X58">
-        <v>0</v>
+        <v>485</v>
       </c>
       <c r="Y58">
-        <v>0</v>
+        <v>131.47</v>
       </c>
       <c r="Z58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:26">
+        <v>0.06</v>
+      </c>
+      <c r="AA58">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -5082,61 +5253,64 @@
         <v>0</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>589.3099999999999</v>
       </c>
       <c r="J59">
-        <v>0</v>
+        <v>703</v>
       </c>
       <c r="K59">
         <v>0</v>
       </c>
       <c r="L59">
-        <v>0</v>
+        <v>472</v>
       </c>
       <c r="M59">
-        <v>0</v>
+        <v>132.96</v>
       </c>
       <c r="N59">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="O59">
-        <v>0</v>
+        <v>692.3099999999999</v>
       </c>
       <c r="P59">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="Q59">
         <v>0</v>
       </c>
       <c r="R59">
-        <v>0</v>
+        <v>446</v>
       </c>
       <c r="S59">
-        <v>0</v>
+        <v>595.8200000000001</v>
       </c>
       <c r="T59">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="U59">
-        <v>0</v>
+        <v>710.4400000000001</v>
       </c>
       <c r="V59">
-        <v>0</v>
+        <v>520</v>
       </c>
       <c r="W59">
         <v>0</v>
       </c>
       <c r="X59">
-        <v>0</v>
+        <v>472</v>
       </c>
       <c r="Y59">
-        <v>0</v>
+        <v>132.92</v>
       </c>
       <c r="Z59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:26">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AA59">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -5162,61 +5336,64 @@
         <v>0</v>
       </c>
       <c r="I60">
-        <v>0</v>
+        <v>612.08</v>
       </c>
       <c r="J60">
-        <v>0</v>
+        <v>690</v>
       </c>
       <c r="K60">
         <v>0</v>
       </c>
       <c r="L60">
-        <v>0</v>
+        <v>429.5</v>
       </c>
       <c r="M60">
-        <v>0</v>
+        <v>176.93</v>
       </c>
       <c r="N60">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="O60">
-        <v>0</v>
+        <v>752.12</v>
       </c>
       <c r="P60">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="Q60">
         <v>0</v>
       </c>
       <c r="R60">
-        <v>0</v>
+        <v>429.5</v>
       </c>
       <c r="S60">
-        <v>0</v>
+        <v>228.74</v>
       </c>
       <c r="T60">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="U60">
-        <v>0</v>
+        <v>623.1900000000001</v>
       </c>
       <c r="V60">
-        <v>0</v>
+        <v>458</v>
       </c>
       <c r="W60">
         <v>0</v>
       </c>
       <c r="X60">
-        <v>0</v>
+        <v>429.5</v>
       </c>
       <c r="Y60">
-        <v>0</v>
+        <v>173.21</v>
       </c>
       <c r="Z60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:26">
+        <v>0.03</v>
+      </c>
+      <c r="AA60">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -5242,61 +5419,64 @@
         <v>0</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>732.54</v>
       </c>
       <c r="J61">
-        <v>0</v>
+        <v>227</v>
       </c>
       <c r="K61">
         <v>0</v>
       </c>
       <c r="L61">
-        <v>0</v>
+        <v>440.5</v>
       </c>
       <c r="M61">
-        <v>0</v>
+        <v>137.38</v>
       </c>
       <c r="N61">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="O61">
-        <v>0</v>
+        <v>1008.2</v>
       </c>
       <c r="P61">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q61">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="R61">
-        <v>0</v>
+        <v>413.5</v>
       </c>
       <c r="S61">
-        <v>0</v>
+        <v>774.37</v>
       </c>
       <c r="T61">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U61">
-        <v>0</v>
+        <v>967.72</v>
       </c>
       <c r="V61">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="W61">
         <v>0</v>
       </c>
       <c r="X61">
-        <v>0</v>
+        <v>440.5</v>
       </c>
       <c r="Y61">
-        <v>0</v>
+        <v>138.23</v>
       </c>
       <c r="Z61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:26">
+        <v>0.06</v>
+      </c>
+      <c r="AA61">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -5322,61 +5502,64 @@
         <v>0</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>1004.56</v>
       </c>
       <c r="J62">
-        <v>0</v>
+        <v>3124</v>
       </c>
       <c r="K62">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="L62">
-        <v>0</v>
+        <v>259</v>
       </c>
       <c r="M62">
-        <v>0</v>
+        <v>53.13</v>
       </c>
       <c r="N62">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O62">
-        <v>0</v>
+        <v>1005.89</v>
       </c>
       <c r="P62">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Q62">
-        <v>0</v>
+        <v>0.28</v>
       </c>
       <c r="R62">
-        <v>0</v>
+        <v>290.5</v>
       </c>
       <c r="S62">
-        <v>0</v>
+        <v>1002.83</v>
       </c>
       <c r="T62">
         <v>0</v>
       </c>
       <c r="U62">
-        <v>0</v>
+        <v>1045.01</v>
       </c>
       <c r="V62">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="W62">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="X62">
-        <v>0</v>
+        <v>270.5</v>
       </c>
       <c r="Y62">
-        <v>0</v>
+        <v>29.87</v>
       </c>
       <c r="Z62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:26">
+        <v>-0</v>
+      </c>
+      <c r="AA62">
+        <v>333.5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -5402,7 +5585,7 @@
         <v>0</v>
       </c>
       <c r="I63">
-        <v>0</v>
+        <v>79.70999999999999</v>
       </c>
       <c r="J63">
         <v>0</v>
@@ -5411,16 +5594,16 @@
         <v>0</v>
       </c>
       <c r="L63">
-        <v>0</v>
+        <v>291.5</v>
       </c>
       <c r="M63">
-        <v>0</v>
+        <v>35.23</v>
       </c>
       <c r="N63">
         <v>0</v>
       </c>
       <c r="O63">
-        <v>0</v>
+        <v>5.64</v>
       </c>
       <c r="P63">
         <v>0</v>
@@ -5429,16 +5612,16 @@
         <v>0</v>
       </c>
       <c r="R63">
-        <v>0</v>
+        <v>293</v>
       </c>
       <c r="S63">
-        <v>0</v>
+        <v>4.31</v>
       </c>
       <c r="T63">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="U63">
-        <v>0</v>
+        <v>7.82</v>
       </c>
       <c r="V63">
         <v>0</v>
@@ -5447,16 +5630,19 @@
         <v>0</v>
       </c>
       <c r="X63">
-        <v>0</v>
+        <v>293</v>
       </c>
       <c r="Y63">
-        <v>0</v>
+        <v>6.37</v>
       </c>
       <c r="Z63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:26">
+        <v>0.01</v>
+      </c>
+      <c r="AA63">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -5482,61 +5668,64 @@
         <v>0</v>
       </c>
       <c r="I64">
-        <v>0</v>
+        <v>1012.26</v>
       </c>
       <c r="J64">
-        <v>0</v>
+        <v>5090</v>
       </c>
       <c r="K64">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="L64">
-        <v>0</v>
+        <v>241.5</v>
       </c>
       <c r="M64">
-        <v>0</v>
+        <v>145.78</v>
       </c>
       <c r="N64">
         <v>0</v>
       </c>
       <c r="O64">
-        <v>0</v>
+        <v>1009.71</v>
       </c>
       <c r="P64">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q64">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="R64">
-        <v>0</v>
+        <v>241</v>
       </c>
       <c r="S64">
-        <v>0</v>
+        <v>1006.86</v>
       </c>
       <c r="T64">
         <v>0</v>
       </c>
       <c r="U64">
-        <v>0</v>
+        <v>1011.05</v>
       </c>
       <c r="V64">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="W64">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="X64">
-        <v>0</v>
+        <v>259</v>
       </c>
       <c r="Y64">
-        <v>0</v>
+        <v>56.47</v>
       </c>
       <c r="Z64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:26">
+      <c r="AA64">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -5562,61 +5751,64 @@
         <v>0</v>
       </c>
       <c r="I65">
-        <v>0</v>
+        <v>359.65</v>
       </c>
       <c r="J65">
-        <v>0</v>
+        <v>595</v>
       </c>
       <c r="K65">
         <v>0</v>
       </c>
       <c r="L65">
-        <v>0</v>
+        <v>246.5</v>
       </c>
       <c r="M65">
-        <v>0</v>
+        <v>107.53</v>
       </c>
       <c r="N65">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="O65">
-        <v>0</v>
+        <v>200.44</v>
       </c>
       <c r="P65">
-        <v>0</v>
+        <v>542</v>
       </c>
       <c r="Q65">
         <v>0</v>
       </c>
       <c r="R65">
-        <v>0</v>
+        <v>244</v>
       </c>
       <c r="S65">
-        <v>0</v>
+        <v>129.79</v>
       </c>
       <c r="T65">
         <v>0</v>
       </c>
       <c r="U65">
-        <v>0</v>
+        <v>290.8</v>
       </c>
       <c r="V65">
-        <v>0</v>
+        <v>926</v>
       </c>
       <c r="W65">
         <v>0</v>
       </c>
       <c r="X65">
-        <v>0</v>
+        <v>251</v>
       </c>
       <c r="Y65">
-        <v>0</v>
+        <v>13.69</v>
       </c>
       <c r="Z65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:26">
+        <v>0.03</v>
+      </c>
+      <c r="AA65">
+        <v>291.5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -5642,61 +5834,64 @@
         <v>0</v>
       </c>
       <c r="I66">
-        <v>0</v>
+        <v>1012.45</v>
       </c>
       <c r="J66">
-        <v>0</v>
+        <v>3804</v>
       </c>
       <c r="K66">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="L66">
-        <v>0</v>
+        <v>262</v>
       </c>
       <c r="M66">
-        <v>0</v>
+        <v>26.94</v>
       </c>
       <c r="N66">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="O66">
-        <v>0</v>
+        <v>1016.45</v>
       </c>
       <c r="P66">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="Q66">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="R66">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="S66">
-        <v>0</v>
+        <v>1012.24</v>
       </c>
       <c r="T66">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U66">
-        <v>0</v>
+        <v>1008.99</v>
       </c>
       <c r="V66">
-        <v>0</v>
+        <v>2515</v>
       </c>
       <c r="W66">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="X66">
-        <v>0</v>
+        <v>262</v>
       </c>
       <c r="Y66">
-        <v>0</v>
+        <v>30.08</v>
       </c>
       <c r="Z66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:26">
+        <v>0.01</v>
+      </c>
+      <c r="AA66">
+        <v>303.5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -5722,61 +5917,64 @@
         <v>0</v>
       </c>
       <c r="I67">
-        <v>0</v>
+        <v>1002.58</v>
       </c>
       <c r="J67">
-        <v>0</v>
+        <v>1025</v>
       </c>
       <c r="K67">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="L67">
-        <v>0</v>
+        <v>264</v>
       </c>
       <c r="M67">
-        <v>0</v>
+        <v>170.08</v>
       </c>
       <c r="N67">
         <v>0</v>
       </c>
       <c r="O67">
-        <v>0</v>
+        <v>1010.63</v>
       </c>
       <c r="P67">
-        <v>0</v>
+        <v>837</v>
       </c>
       <c r="Q67">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="R67">
-        <v>0</v>
+        <v>263</v>
       </c>
       <c r="S67">
-        <v>0</v>
+        <v>388.31</v>
       </c>
       <c r="T67">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="U67">
-        <v>0</v>
+        <v>1010.46</v>
       </c>
       <c r="V67">
-        <v>0</v>
+        <v>1126</v>
       </c>
       <c r="W67">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="X67">
-        <v>0</v>
+        <v>263</v>
       </c>
       <c r="Y67">
-        <v>0</v>
+        <v>77.43000000000001</v>
       </c>
       <c r="Z67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:26">
+        <v>0.01</v>
+      </c>
+      <c r="AA67">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -5802,58 +6000,642 @@
         <v>0</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>1003</v>
       </c>
       <c r="J68">
-        <v>0</v>
+        <v>723</v>
       </c>
       <c r="K68">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="L68">
-        <v>0</v>
+        <v>254.5</v>
       </c>
       <c r="M68">
-        <v>0</v>
+        <v>28.35</v>
       </c>
       <c r="N68">
         <v>0</v>
       </c>
       <c r="O68">
-        <v>0</v>
+        <v>867.03</v>
       </c>
       <c r="P68">
-        <v>0</v>
+        <v>884</v>
       </c>
       <c r="Q68">
         <v>0</v>
       </c>
       <c r="R68">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="S68">
-        <v>0</v>
+        <v>640.01</v>
       </c>
       <c r="T68">
         <v>0</v>
       </c>
       <c r="U68">
-        <v>0</v>
+        <v>896.9299999999999</v>
       </c>
       <c r="V68">
-        <v>0</v>
+        <v>1751</v>
       </c>
       <c r="W68">
         <v>0</v>
       </c>
       <c r="X68">
-        <v>0</v>
+        <v>255.5</v>
       </c>
       <c r="Y68">
-        <v>0</v>
+        <v>8.75</v>
       </c>
       <c r="Z68">
-        <v>0</v>
+        <v>0.04</v>
+      </c>
+      <c r="AA68">
+        <v>255.5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>30</v>
+      </c>
+      <c r="C69">
+        <v>20</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>1002.95</v>
+      </c>
+      <c r="J69">
+        <v>2334</v>
+      </c>
+      <c r="K69">
+        <v>0.17</v>
+      </c>
+      <c r="L69">
+        <v>259.5</v>
+      </c>
+      <c r="M69">
+        <v>72.23999999999999</v>
+      </c>
+      <c r="N69">
+        <v>-0</v>
+      </c>
+      <c r="O69">
+        <v>1007.41</v>
+      </c>
+      <c r="P69">
+        <v>14</v>
+      </c>
+      <c r="Q69">
+        <v>0.29</v>
+      </c>
+      <c r="R69">
+        <v>284</v>
+      </c>
+      <c r="S69">
+        <v>8.99</v>
+      </c>
+      <c r="T69">
+        <v>-0</v>
+      </c>
+      <c r="U69">
+        <v>1014.44</v>
+      </c>
+      <c r="V69">
+        <v>15</v>
+      </c>
+      <c r="W69">
+        <v>0.16</v>
+      </c>
+      <c r="X69">
+        <v>269</v>
+      </c>
+      <c r="Y69">
+        <v>18.78</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+      <c r="AA69">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>30</v>
+      </c>
+      <c r="C70">
+        <v>20</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>1001.88</v>
+      </c>
+      <c r="J70">
+        <v>846</v>
+      </c>
+      <c r="K70">
+        <v>0.11</v>
+      </c>
+      <c r="L70">
+        <v>258</v>
+      </c>
+      <c r="M70">
+        <v>197.82</v>
+      </c>
+      <c r="N70">
+        <v>0</v>
+      </c>
+      <c r="O70">
+        <v>1018.24</v>
+      </c>
+      <c r="P70">
+        <v>4</v>
+      </c>
+      <c r="Q70">
+        <v>0.11</v>
+      </c>
+      <c r="R70">
+        <v>266</v>
+      </c>
+      <c r="S70">
+        <v>310.5</v>
+      </c>
+      <c r="T70">
+        <v>-0</v>
+      </c>
+      <c r="U70">
+        <v>1000.4</v>
+      </c>
+      <c r="V70">
+        <v>9</v>
+      </c>
+      <c r="W70">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="X70">
+        <v>258</v>
+      </c>
+      <c r="Y70">
+        <v>198.71</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+      <c r="AA70">
+        <v>298.5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>30</v>
+      </c>
+      <c r="C71">
+        <v>20</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>1025.43</v>
+      </c>
+      <c r="J71">
+        <v>2516</v>
+      </c>
+      <c r="K71">
+        <v>0.2</v>
+      </c>
+      <c r="L71">
+        <v>252</v>
+      </c>
+      <c r="M71">
+        <v>17.34</v>
+      </c>
+      <c r="N71">
+        <v>0.02</v>
+      </c>
+      <c r="O71">
+        <v>1009.53</v>
+      </c>
+      <c r="P71">
+        <v>12</v>
+      </c>
+      <c r="Q71">
+        <v>0.3</v>
+      </c>
+      <c r="R71">
+        <v>263</v>
+      </c>
+      <c r="S71">
+        <v>10.37</v>
+      </c>
+      <c r="T71">
+        <v>-0</v>
+      </c>
+      <c r="U71">
+        <v>1025.02</v>
+      </c>
+      <c r="V71">
+        <v>10</v>
+      </c>
+      <c r="W71">
+        <v>0.26</v>
+      </c>
+      <c r="X71">
+        <v>252</v>
+      </c>
+      <c r="Y71">
+        <v>19.11</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+      <c r="AA71">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>30</v>
+      </c>
+      <c r="C72">
+        <v>50</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>1008.73</v>
+      </c>
+      <c r="J72">
+        <v>1118</v>
+      </c>
+      <c r="K72">
+        <v>0.12</v>
+      </c>
+      <c r="L72">
+        <v>302</v>
+      </c>
+      <c r="M72">
+        <v>191.54</v>
+      </c>
+      <c r="N72">
+        <v>0.05</v>
+      </c>
+      <c r="O72">
+        <v>1002.9</v>
+      </c>
+      <c r="P72">
+        <v>8</v>
+      </c>
+      <c r="Q72">
+        <v>0.15</v>
+      </c>
+      <c r="R72">
+        <v>319</v>
+      </c>
+      <c r="S72">
+        <v>328.92</v>
+      </c>
+      <c r="T72">
+        <v>0</v>
+      </c>
+      <c r="U72">
+        <v>1004.33</v>
+      </c>
+      <c r="V72">
+        <v>29</v>
+      </c>
+      <c r="W72">
+        <v>0.09</v>
+      </c>
+      <c r="X72">
+        <v>304</v>
+      </c>
+      <c r="Y72">
+        <v>80.89</v>
+      </c>
+      <c r="Z72">
+        <v>0.01</v>
+      </c>
+      <c r="AA72">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>30</v>
+      </c>
+      <c r="C73">
+        <v>50</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>1001.8</v>
+      </c>
+      <c r="J73">
+        <v>736</v>
+      </c>
+      <c r="K73">
+        <v>0.2</v>
+      </c>
+      <c r="L73">
+        <v>302.5</v>
+      </c>
+      <c r="M73">
+        <v>52.65</v>
+      </c>
+      <c r="N73">
+        <v>0.03</v>
+      </c>
+      <c r="O73">
+        <v>1026.94</v>
+      </c>
+      <c r="P73">
+        <v>13</v>
+      </c>
+      <c r="Q73">
+        <v>0.12</v>
+      </c>
+      <c r="R73">
+        <v>292</v>
+      </c>
+      <c r="S73">
+        <v>398.22</v>
+      </c>
+      <c r="T73">
+        <v>-0</v>
+      </c>
+      <c r="U73">
+        <v>1081.79</v>
+      </c>
+      <c r="V73">
+        <v>9</v>
+      </c>
+      <c r="W73">
+        <v>0.19</v>
+      </c>
+      <c r="X73">
+        <v>302.5</v>
+      </c>
+      <c r="Y73">
+        <v>57.27</v>
+      </c>
+      <c r="Z73">
+        <v>-0</v>
+      </c>
+      <c r="AA73">
+        <v>336.5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>30</v>
+      </c>
+      <c r="C74">
+        <v>50</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>1007.71</v>
+      </c>
+      <c r="J74">
+        <v>1956</v>
+      </c>
+      <c r="K74">
+        <v>0.23</v>
+      </c>
+      <c r="L74">
+        <v>294</v>
+      </c>
+      <c r="M74">
+        <v>76.34</v>
+      </c>
+      <c r="N74">
+        <v>0.05</v>
+      </c>
+      <c r="O74">
+        <v>1013.94</v>
+      </c>
+      <c r="P74">
+        <v>9</v>
+      </c>
+      <c r="Q74">
+        <v>0.33</v>
+      </c>
+      <c r="R74">
+        <v>282.5</v>
+      </c>
+      <c r="S74">
+        <v>1010.1</v>
+      </c>
+      <c r="T74">
+        <v>-0</v>
+      </c>
+      <c r="U74">
+        <v>1017.95</v>
+      </c>
+      <c r="V74">
+        <v>9</v>
+      </c>
+      <c r="W74">
+        <v>0.36</v>
+      </c>
+      <c r="X74">
+        <v>294</v>
+      </c>
+      <c r="Y74">
+        <v>78.05</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+      <c r="AA74">
+        <v>334.5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>30</v>
+      </c>
+      <c r="C75">
+        <v>50</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>259.07</v>
+      </c>
+      <c r="J75">
+        <v>4</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>283.5</v>
+      </c>
+      <c r="M75">
+        <v>180.61</v>
+      </c>
+      <c r="N75">
+        <v>0</v>
+      </c>
+      <c r="O75">
+        <v>59.3</v>
+      </c>
+      <c r="P75">
+        <v>18</v>
+      </c>
+      <c r="Q75">
+        <v>0</v>
+      </c>
+      <c r="R75">
+        <v>283.5</v>
+      </c>
+      <c r="S75">
+        <v>39.04</v>
+      </c>
+      <c r="T75">
+        <v>0</v>
+      </c>
+      <c r="U75">
+        <v>142.84</v>
+      </c>
+      <c r="V75">
+        <v>30</v>
+      </c>
+      <c r="W75">
+        <v>0</v>
+      </c>
+      <c r="X75">
+        <v>288.5</v>
+      </c>
+      <c r="Y75">
+        <v>104.42</v>
+      </c>
+      <c r="Z75">
+        <v>0.02</v>
+      </c>
+      <c r="AA75">
+        <v>396</v>
       </c>
     </row>
   </sheetData>

--- a/Two-stage Recoverable FLP/Local Branching/output.xlsx
+++ b/Two-stage Recoverable FLP/Local Branching/output.xlsx
@@ -410,7 +410,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA75"/>
+  <dimension ref="A1:AA151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3012,61 +3012,61 @@
         <v>0</v>
       </c>
       <c r="I32">
-        <v>17.69</v>
+        <v>0</v>
       </c>
       <c r="J32">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="K32">
         <v>0</v>
       </c>
       <c r="L32">
-        <v>333</v>
+        <v>0</v>
       </c>
       <c r="M32">
-        <v>4.25</v>
+        <v>0</v>
       </c>
       <c r="N32">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="O32">
-        <v>8.449999999999999</v>
+        <v>0</v>
       </c>
       <c r="P32">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="Q32">
         <v>0</v>
       </c>
       <c r="R32">
-        <v>266.5</v>
+        <v>0</v>
       </c>
       <c r="S32">
-        <v>7.33</v>
+        <v>0</v>
       </c>
       <c r="T32">
         <v>0</v>
       </c>
       <c r="U32">
-        <v>16.68</v>
+        <v>0</v>
       </c>
       <c r="V32">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="W32">
         <v>0</v>
       </c>
       <c r="X32">
-        <v>267.5</v>
+        <v>0</v>
       </c>
       <c r="Y32">
-        <v>16.06</v>
+        <v>0</v>
       </c>
       <c r="Z32">
         <v>0</v>
       </c>
       <c r="AA32">
-        <v>342</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:27">
@@ -3095,61 +3095,61 @@
         <v>0</v>
       </c>
       <c r="I33">
-        <v>20.62</v>
+        <v>0</v>
       </c>
       <c r="J33">
-        <v>188</v>
+        <v>0</v>
       </c>
       <c r="K33">
         <v>0</v>
       </c>
       <c r="L33">
-        <v>311.5</v>
+        <v>0</v>
       </c>
       <c r="M33">
-        <v>1.62</v>
+        <v>0</v>
       </c>
       <c r="N33">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="O33">
-        <v>20.24</v>
+        <v>0</v>
       </c>
       <c r="P33">
-        <v>147</v>
+        <v>0</v>
       </c>
       <c r="Q33">
         <v>0</v>
       </c>
       <c r="R33">
-        <v>293</v>
+        <v>0</v>
       </c>
       <c r="S33">
-        <v>17.76</v>
+        <v>0</v>
       </c>
       <c r="T33">
         <v>0</v>
       </c>
       <c r="U33">
-        <v>20.27</v>
+        <v>0</v>
       </c>
       <c r="V33">
-        <v>265</v>
+        <v>0</v>
       </c>
       <c r="W33">
         <v>0</v>
       </c>
       <c r="X33">
-        <v>311.5</v>
+        <v>0</v>
       </c>
       <c r="Y33">
-        <v>1.62</v>
+        <v>0</v>
       </c>
       <c r="Z33">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="AA33">
-        <v>311.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:27">
@@ -3178,61 +3178,61 @@
         <v>0</v>
       </c>
       <c r="I34">
-        <v>18.72</v>
+        <v>0</v>
       </c>
       <c r="J34">
-        <v>187</v>
+        <v>0</v>
       </c>
       <c r="K34">
         <v>0</v>
       </c>
       <c r="L34">
-        <v>327</v>
+        <v>0</v>
       </c>
       <c r="M34">
-        <v>2.36</v>
+        <v>0</v>
       </c>
       <c r="N34">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="O34">
-        <v>13.78</v>
+        <v>0</v>
       </c>
       <c r="P34">
-        <v>127</v>
+        <v>0</v>
       </c>
       <c r="Q34">
         <v>0</v>
       </c>
       <c r="R34">
-        <v>316.5</v>
+        <v>0</v>
       </c>
       <c r="S34">
-        <v>13.62</v>
+        <v>0</v>
       </c>
       <c r="T34">
         <v>0</v>
       </c>
       <c r="U34">
-        <v>15.66</v>
+        <v>0</v>
       </c>
       <c r="V34">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="W34">
         <v>0</v>
       </c>
       <c r="X34">
-        <v>327</v>
+        <v>0</v>
       </c>
       <c r="Y34">
-        <v>2.36</v>
+        <v>0</v>
       </c>
       <c r="Z34">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="AA34">
-        <v>332</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:27">
@@ -3261,61 +3261,61 @@
         <v>0</v>
       </c>
       <c r="I35">
-        <v>46.69</v>
+        <v>0</v>
       </c>
       <c r="J35">
-        <v>508</v>
+        <v>0</v>
       </c>
       <c r="K35">
         <v>0</v>
       </c>
       <c r="L35">
-        <v>262.5</v>
+        <v>0</v>
       </c>
       <c r="M35">
-        <v>4.84</v>
+        <v>0</v>
       </c>
       <c r="N35">
         <v>0</v>
       </c>
       <c r="O35">
-        <v>25.98</v>
+        <v>0</v>
       </c>
       <c r="P35">
-        <v>446</v>
+        <v>0</v>
       </c>
       <c r="Q35">
         <v>0</v>
       </c>
       <c r="R35">
-        <v>262.5</v>
+        <v>0</v>
       </c>
       <c r="S35">
-        <v>19.28</v>
+        <v>0</v>
       </c>
       <c r="T35">
         <v>0</v>
       </c>
       <c r="U35">
-        <v>24.98</v>
+        <v>0</v>
       </c>
       <c r="V35">
-        <v>627</v>
+        <v>0</v>
       </c>
       <c r="W35">
         <v>0</v>
       </c>
       <c r="X35">
-        <v>262.5</v>
+        <v>0</v>
       </c>
       <c r="Y35">
-        <v>4.79</v>
+        <v>0</v>
       </c>
       <c r="Z35">
         <v>0</v>
       </c>
       <c r="AA35">
-        <v>357.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:27">
@@ -3344,61 +3344,61 @@
         <v>0</v>
       </c>
       <c r="I36">
-        <v>12.75</v>
+        <v>0</v>
       </c>
       <c r="J36">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="K36">
         <v>0</v>
       </c>
       <c r="L36">
-        <v>313</v>
+        <v>0</v>
       </c>
       <c r="M36">
-        <v>3.88</v>
+        <v>0</v>
       </c>
       <c r="N36">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="O36">
-        <v>7.34</v>
+        <v>0</v>
       </c>
       <c r="P36">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q36">
         <v>0</v>
       </c>
       <c r="R36">
-        <v>301</v>
+        <v>0</v>
       </c>
       <c r="S36">
-        <v>6.69</v>
+        <v>0</v>
       </c>
       <c r="T36">
         <v>0</v>
       </c>
       <c r="U36">
-        <v>6.68</v>
+        <v>0</v>
       </c>
       <c r="V36">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="W36">
         <v>0</v>
       </c>
       <c r="X36">
-        <v>313</v>
+        <v>0</v>
       </c>
       <c r="Y36">
-        <v>3.48</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="AA36">
-        <v>341</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:27">
@@ -3427,61 +3427,61 @@
         <v>0</v>
       </c>
       <c r="I37">
-        <v>250.88</v>
+        <v>0</v>
       </c>
       <c r="J37">
-        <v>1439</v>
+        <v>0</v>
       </c>
       <c r="K37">
         <v>0</v>
       </c>
       <c r="L37">
-        <v>316.5</v>
+        <v>0</v>
       </c>
       <c r="M37">
-        <v>5.36</v>
+        <v>0</v>
       </c>
       <c r="N37">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="O37">
-        <v>264.13</v>
+        <v>0</v>
       </c>
       <c r="P37">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="Q37">
         <v>0</v>
       </c>
       <c r="R37">
-        <v>316.5</v>
+        <v>0</v>
       </c>
       <c r="S37">
-        <v>48.2</v>
+        <v>0</v>
       </c>
       <c r="T37">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="U37">
-        <v>253.82</v>
+        <v>0</v>
       </c>
       <c r="V37">
-        <v>1419</v>
+        <v>0</v>
       </c>
       <c r="W37">
         <v>0</v>
       </c>
       <c r="X37">
-        <v>316.5</v>
+        <v>0</v>
       </c>
       <c r="Y37">
-        <v>5.4</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="AA37">
-        <v>363</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:27">
@@ -3510,61 +3510,61 @@
         <v>0</v>
       </c>
       <c r="I38">
-        <v>32.41</v>
+        <v>0</v>
       </c>
       <c r="J38">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="K38">
         <v>0</v>
       </c>
       <c r="L38">
-        <v>319</v>
+        <v>0</v>
       </c>
       <c r="M38">
-        <v>4.28</v>
+        <v>0</v>
       </c>
       <c r="N38">
         <v>0</v>
       </c>
       <c r="O38">
-        <v>28.38</v>
+        <v>0</v>
       </c>
       <c r="P38">
-        <v>118</v>
+        <v>0</v>
       </c>
       <c r="Q38">
         <v>0</v>
       </c>
       <c r="R38">
-        <v>319</v>
+        <v>0</v>
       </c>
       <c r="S38">
-        <v>6.17</v>
+        <v>0</v>
       </c>
       <c r="T38">
         <v>0</v>
       </c>
       <c r="U38">
-        <v>28.8</v>
+        <v>0</v>
       </c>
       <c r="V38">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="W38">
         <v>0</v>
       </c>
       <c r="X38">
-        <v>319</v>
+        <v>0</v>
       </c>
       <c r="Y38">
-        <v>4.39</v>
+        <v>0</v>
       </c>
       <c r="Z38">
         <v>0</v>
       </c>
       <c r="AA38">
-        <v>351.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:27">
@@ -3593,61 +3593,61 @@
         <v>0</v>
       </c>
       <c r="I39">
-        <v>11.96</v>
+        <v>0</v>
       </c>
       <c r="J39">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K39">
         <v>0</v>
       </c>
       <c r="L39">
-        <v>327.5</v>
+        <v>0</v>
       </c>
       <c r="M39">
-        <v>5.88</v>
+        <v>0</v>
       </c>
       <c r="N39">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="O39">
-        <v>2.97</v>
+        <v>0</v>
       </c>
       <c r="P39">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q39">
         <v>0</v>
       </c>
       <c r="R39">
-        <v>332</v>
+        <v>0</v>
       </c>
       <c r="S39">
-        <v>1.91</v>
+        <v>0</v>
       </c>
       <c r="T39">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="U39">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V39">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="W39">
         <v>0</v>
       </c>
       <c r="X39">
-        <v>332</v>
+        <v>0</v>
       </c>
       <c r="Y39">
-        <v>1.91</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="AA39">
-        <v>332</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:27">
@@ -3676,61 +3676,61 @@
         <v>0</v>
       </c>
       <c r="I40">
-        <v>13.71</v>
+        <v>0</v>
       </c>
       <c r="J40">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="K40">
         <v>0</v>
       </c>
       <c r="L40">
-        <v>352</v>
+        <v>0</v>
       </c>
       <c r="M40">
-        <v>9.07</v>
+        <v>0</v>
       </c>
       <c r="N40">
         <v>0</v>
       </c>
       <c r="O40">
-        <v>5.61</v>
+        <v>0</v>
       </c>
       <c r="P40">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="Q40">
         <v>0</v>
       </c>
       <c r="R40">
-        <v>352.5</v>
+        <v>0</v>
       </c>
       <c r="S40">
-        <v>4.73</v>
+        <v>0</v>
       </c>
       <c r="T40">
         <v>0</v>
       </c>
       <c r="U40">
-        <v>9.52</v>
+        <v>0</v>
       </c>
       <c r="V40">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="W40">
         <v>0</v>
       </c>
       <c r="X40">
-        <v>359</v>
+        <v>0</v>
       </c>
       <c r="Y40">
-        <v>2.66</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="AA40">
-        <v>367</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:27">
@@ -3759,61 +3759,61 @@
         <v>0</v>
       </c>
       <c r="I41">
-        <v>52.25</v>
+        <v>0</v>
       </c>
       <c r="J41">
-        <v>490</v>
+        <v>0</v>
       </c>
       <c r="K41">
         <v>0</v>
       </c>
       <c r="L41">
-        <v>330.5</v>
+        <v>0</v>
       </c>
       <c r="M41">
-        <v>10.52</v>
+        <v>0</v>
       </c>
       <c r="N41">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="O41">
-        <v>44.44</v>
+        <v>0</v>
       </c>
       <c r="P41">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="Q41">
         <v>0</v>
       </c>
       <c r="R41">
-        <v>303</v>
+        <v>0</v>
       </c>
       <c r="S41">
-        <v>36.13</v>
+        <v>0</v>
       </c>
       <c r="T41">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="U41">
-        <v>30.15</v>
+        <v>0</v>
       </c>
       <c r="V41">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="W41">
         <v>0</v>
       </c>
       <c r="X41">
-        <v>299</v>
+        <v>0</v>
       </c>
       <c r="Y41">
-        <v>27.41</v>
+        <v>0</v>
       </c>
       <c r="Z41">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA41">
-        <v>373.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:27">
@@ -3827,22 +3827,22 @@
         <v>50</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>5.61</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="F42">
         <v>0</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>385</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>5.28</v>
       </c>
       <c r="I42">
-        <v>23.39</v>
+        <v>37.64</v>
       </c>
       <c r="J42">
         <v>4</v>
@@ -3854,13 +3854,13 @@
         <v>385</v>
       </c>
       <c r="M42">
-        <v>8.720000000000001</v>
+        <v>8.83</v>
       </c>
       <c r="N42">
         <v>-0</v>
       </c>
       <c r="O42">
-        <v>5.41</v>
+        <v>5.46</v>
       </c>
       <c r="P42">
         <v>4</v>
@@ -3872,13 +3872,13 @@
         <v>385</v>
       </c>
       <c r="S42">
-        <v>5.31</v>
+        <v>5.37</v>
       </c>
       <c r="T42">
         <v>0</v>
       </c>
       <c r="U42">
-        <v>14.87</v>
+        <v>15.03</v>
       </c>
       <c r="V42">
         <v>3</v>
@@ -3890,7 +3890,7 @@
         <v>385</v>
       </c>
       <c r="Y42">
-        <v>8.699999999999999</v>
+        <v>8.82</v>
       </c>
       <c r="Z42">
         <v>-0</v>
@@ -3910,43 +3910,43 @@
         <v>50</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>46.98</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>273</v>
       </c>
       <c r="F43">
         <v>0</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>358</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>46.02</v>
       </c>
       <c r="I43">
-        <v>46.52</v>
+        <v>233.08</v>
       </c>
       <c r="J43">
-        <v>150</v>
+        <v>104</v>
       </c>
       <c r="K43">
         <v>0</v>
       </c>
       <c r="L43">
-        <v>386.5</v>
+        <v>358</v>
       </c>
       <c r="M43">
-        <v>6.53</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="N43">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="O43">
-        <v>38.81</v>
+        <v>40.91</v>
       </c>
       <c r="P43">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="Q43">
         <v>0</v>
@@ -3955,13 +3955,13 @@
         <v>358</v>
       </c>
       <c r="S43">
-        <v>32.61</v>
+        <v>28.76</v>
       </c>
       <c r="T43">
         <v>0</v>
       </c>
       <c r="U43">
-        <v>41.02</v>
+        <v>45.17</v>
       </c>
       <c r="V43">
         <v>89</v>
@@ -3973,7 +3973,7 @@
         <v>358</v>
       </c>
       <c r="Y43">
-        <v>34.68</v>
+        <v>33.06</v>
       </c>
       <c r="Z43">
         <v>0</v>
@@ -3993,25 +3993,25 @@
         <v>50</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="F44">
         <v>0</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>338.5</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>5.72</v>
       </c>
       <c r="I44">
-        <v>50.45</v>
+        <v>202.41</v>
       </c>
       <c r="J44">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="K44">
         <v>0</v>
@@ -4020,16 +4020,16 @@
         <v>338.5</v>
       </c>
       <c r="M44">
-        <v>5.55</v>
+        <v>5.6</v>
       </c>
       <c r="N44">
         <v>0</v>
       </c>
       <c r="O44">
-        <v>11.93</v>
+        <v>12.27</v>
       </c>
       <c r="P44">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q44">
         <v>0</v>
@@ -4038,16 +4038,16 @@
         <v>338.5</v>
       </c>
       <c r="S44">
-        <v>5.56</v>
+        <v>5.61</v>
       </c>
       <c r="T44">
         <v>0</v>
       </c>
       <c r="U44">
-        <v>15.85</v>
+        <v>14.89</v>
       </c>
       <c r="V44">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="W44">
         <v>0</v>
@@ -4056,7 +4056,7 @@
         <v>338.5</v>
       </c>
       <c r="Y44">
-        <v>5.68</v>
+        <v>6.48</v>
       </c>
       <c r="Z44">
         <v>0</v>
@@ -4076,43 +4076,43 @@
         <v>50</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>67.77</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>389</v>
       </c>
       <c r="F45">
         <v>0</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>354.5</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>34.94</v>
       </c>
       <c r="I45">
-        <v>74.72</v>
+        <v>224.06</v>
       </c>
       <c r="J45">
-        <v>259</v>
+        <v>221</v>
       </c>
       <c r="K45">
         <v>0</v>
       </c>
       <c r="L45">
-        <v>365</v>
+        <v>354.5</v>
       </c>
       <c r="M45">
-        <v>15.48</v>
+        <v>103.61</v>
       </c>
       <c r="N45">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="O45">
-        <v>67.81</v>
+        <v>90.86</v>
       </c>
       <c r="P45">
-        <v>229</v>
+        <v>202</v>
       </c>
       <c r="Q45">
         <v>0</v>
@@ -4121,31 +4121,31 @@
         <v>354.5</v>
       </c>
       <c r="S45">
-        <v>33.07</v>
+        <v>72.33</v>
       </c>
       <c r="T45">
         <v>0</v>
       </c>
       <c r="U45">
-        <v>84.36</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="V45">
-        <v>251</v>
+        <v>284</v>
       </c>
       <c r="W45">
         <v>0</v>
       </c>
       <c r="X45">
-        <v>354.5</v>
+        <v>386</v>
       </c>
       <c r="Y45">
-        <v>27.71</v>
+        <v>9.5</v>
       </c>
       <c r="Z45">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="AA45">
-        <v>392</v>
+        <v>386</v>
       </c>
     </row>
     <row r="46" spans="1:27">
@@ -4159,25 +4159,25 @@
         <v>50</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>26.78</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>243</v>
       </c>
       <c r="F46">
         <v>0</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>324</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>15.35</v>
       </c>
       <c r="I46">
-        <v>37.71</v>
+        <v>218.56</v>
       </c>
       <c r="J46">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="K46">
         <v>0</v>
@@ -4186,16 +4186,16 @@
         <v>324</v>
       </c>
       <c r="M46">
-        <v>20.18</v>
+        <v>30.15</v>
       </c>
       <c r="N46">
         <v>0</v>
       </c>
       <c r="O46">
-        <v>35.53</v>
+        <v>49.32</v>
       </c>
       <c r="P46">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="Q46">
         <v>0</v>
@@ -4204,31 +4204,31 @@
         <v>324</v>
       </c>
       <c r="S46">
-        <v>22.6</v>
+        <v>48.4</v>
       </c>
       <c r="T46">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="U46">
-        <v>40.11</v>
+        <v>39.97</v>
       </c>
       <c r="V46">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="W46">
         <v>0</v>
       </c>
       <c r="X46">
-        <v>324</v>
+        <v>346</v>
       </c>
       <c r="Y46">
-        <v>19.96</v>
+        <v>7.62</v>
       </c>
       <c r="Z46">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="AA46">
-        <v>361</v>
+        <v>346</v>
       </c>
     </row>
     <row r="47" spans="1:27">
@@ -4257,61 +4257,61 @@
         <v>0</v>
       </c>
       <c r="I47">
-        <v>111.03</v>
+        <v>0</v>
       </c>
       <c r="J47">
-        <v>393</v>
+        <v>0</v>
       </c>
       <c r="K47">
         <v>0</v>
       </c>
       <c r="L47">
-        <v>373.5</v>
+        <v>0</v>
       </c>
       <c r="M47">
-        <v>34.28</v>
+        <v>0</v>
       </c>
       <c r="N47">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="O47">
-        <v>130.9</v>
+        <v>0</v>
       </c>
       <c r="P47">
-        <v>263</v>
+        <v>0</v>
       </c>
       <c r="Q47">
         <v>0</v>
       </c>
       <c r="R47">
-        <v>365.5</v>
+        <v>0</v>
       </c>
       <c r="S47">
-        <v>89.84999999999999</v>
+        <v>0</v>
       </c>
       <c r="T47">
         <v>0</v>
       </c>
       <c r="U47">
-        <v>135.56</v>
+        <v>0</v>
       </c>
       <c r="V47">
-        <v>391</v>
+        <v>0</v>
       </c>
       <c r="W47">
         <v>0</v>
       </c>
       <c r="X47">
-        <v>373.5</v>
+        <v>0</v>
       </c>
       <c r="Y47">
-        <v>34.33</v>
+        <v>0</v>
       </c>
       <c r="Z47">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="AA47">
-        <v>410</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:27">
@@ -4340,61 +4340,61 @@
         <v>0</v>
       </c>
       <c r="I48">
-        <v>89.27</v>
+        <v>0</v>
       </c>
       <c r="J48">
-        <v>204</v>
+        <v>0</v>
       </c>
       <c r="K48">
         <v>0</v>
       </c>
       <c r="L48">
-        <v>379.5</v>
+        <v>0</v>
       </c>
       <c r="M48">
-        <v>27.4</v>
+        <v>0</v>
       </c>
       <c r="N48">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="O48">
-        <v>68.95999999999999</v>
+        <v>0</v>
       </c>
       <c r="P48">
-        <v>163</v>
+        <v>0</v>
       </c>
       <c r="Q48">
         <v>0</v>
       </c>
       <c r="R48">
-        <v>367</v>
+        <v>0</v>
       </c>
       <c r="S48">
-        <v>59.43</v>
+        <v>0</v>
       </c>
       <c r="T48">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="U48">
-        <v>64.19</v>
+        <v>0</v>
       </c>
       <c r="V48">
-        <v>209</v>
+        <v>0</v>
       </c>
       <c r="W48">
         <v>0</v>
       </c>
       <c r="X48">
-        <v>379.5</v>
+        <v>0</v>
       </c>
       <c r="Y48">
-        <v>26.52</v>
+        <v>0</v>
       </c>
       <c r="Z48">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="AA48">
-        <v>404.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:27">
@@ -4423,61 +4423,61 @@
         <v>0</v>
       </c>
       <c r="I49">
-        <v>78.95999999999999</v>
+        <v>0</v>
       </c>
       <c r="J49">
-        <v>178</v>
+        <v>0</v>
       </c>
       <c r="K49">
         <v>0</v>
       </c>
       <c r="L49">
-        <v>386</v>
+        <v>0</v>
       </c>
       <c r="M49">
-        <v>21.18</v>
+        <v>0</v>
       </c>
       <c r="N49">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="O49">
-        <v>65.68000000000001</v>
+        <v>0</v>
       </c>
       <c r="P49">
-        <v>147</v>
+        <v>0</v>
       </c>
       <c r="Q49">
         <v>0</v>
       </c>
       <c r="R49">
-        <v>357.5</v>
+        <v>0</v>
       </c>
       <c r="S49">
-        <v>36.52</v>
+        <v>0</v>
       </c>
       <c r="T49">
         <v>0</v>
       </c>
       <c r="U49">
-        <v>106.94</v>
+        <v>0</v>
       </c>
       <c r="V49">
-        <v>307</v>
+        <v>0</v>
       </c>
       <c r="W49">
         <v>0</v>
       </c>
       <c r="X49">
-        <v>386</v>
+        <v>0</v>
       </c>
       <c r="Y49">
-        <v>21.42</v>
+        <v>0</v>
       </c>
       <c r="Z49">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA49">
-        <v>422</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:27">
@@ -4506,61 +4506,61 @@
         <v>0</v>
       </c>
       <c r="I50">
-        <v>71.7</v>
+        <v>0</v>
       </c>
       <c r="J50">
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="K50">
         <v>0</v>
       </c>
       <c r="L50">
-        <v>412.5</v>
+        <v>0</v>
       </c>
       <c r="M50">
-        <v>21.94</v>
+        <v>0</v>
       </c>
       <c r="N50">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="O50">
-        <v>65.2</v>
+        <v>0</v>
       </c>
       <c r="P50">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="Q50">
         <v>0</v>
       </c>
       <c r="R50">
-        <v>392</v>
+        <v>0</v>
       </c>
       <c r="S50">
-        <v>62.85</v>
+        <v>0</v>
       </c>
       <c r="T50">
         <v>0</v>
       </c>
       <c r="U50">
-        <v>70.84</v>
+        <v>0</v>
       </c>
       <c r="V50">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="W50">
         <v>0</v>
       </c>
       <c r="X50">
-        <v>412.5</v>
+        <v>0</v>
       </c>
       <c r="Y50">
-        <v>22.6</v>
+        <v>0</v>
       </c>
       <c r="Z50">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="AA50">
-        <v>457.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:27">
@@ -4589,61 +4589,61 @@
         <v>0</v>
       </c>
       <c r="I51">
-        <v>81.95999999999999</v>
+        <v>0</v>
       </c>
       <c r="J51">
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="K51">
         <v>0</v>
       </c>
       <c r="L51">
-        <v>357.5</v>
+        <v>0</v>
       </c>
       <c r="M51">
-        <v>24.74</v>
+        <v>0</v>
       </c>
       <c r="N51">
         <v>0</v>
       </c>
       <c r="O51">
-        <v>69.13</v>
+        <v>0</v>
       </c>
       <c r="P51">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="Q51">
         <v>0</v>
       </c>
       <c r="R51">
-        <v>357.5</v>
+        <v>0</v>
       </c>
       <c r="S51">
-        <v>47.39</v>
+        <v>0</v>
       </c>
       <c r="T51">
         <v>0</v>
       </c>
       <c r="U51">
-        <v>48.8</v>
+        <v>0</v>
       </c>
       <c r="V51">
-        <v>144</v>
+        <v>0</v>
       </c>
       <c r="W51">
         <v>0</v>
       </c>
       <c r="X51">
-        <v>357.5</v>
+        <v>0</v>
       </c>
       <c r="Y51">
-        <v>23.77</v>
+        <v>0</v>
       </c>
       <c r="Z51">
         <v>0</v>
       </c>
       <c r="AA51">
-        <v>441</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:27">
@@ -4672,61 +4672,61 @@
         <v>0</v>
       </c>
       <c r="I52">
-        <v>252.49</v>
+        <v>0</v>
       </c>
       <c r="J52">
-        <v>574</v>
+        <v>0</v>
       </c>
       <c r="K52">
         <v>0</v>
       </c>
       <c r="L52">
-        <v>428</v>
+        <v>0</v>
       </c>
       <c r="M52">
-        <v>68.75</v>
+        <v>0</v>
       </c>
       <c r="N52">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="O52">
-        <v>265.2</v>
+        <v>0</v>
       </c>
       <c r="P52">
-        <v>298</v>
+        <v>0</v>
       </c>
       <c r="Q52">
         <v>0</v>
       </c>
       <c r="R52">
-        <v>419</v>
+        <v>0</v>
       </c>
       <c r="S52">
-        <v>217.48</v>
+        <v>0</v>
       </c>
       <c r="T52">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="U52">
-        <v>273.97</v>
+        <v>0</v>
       </c>
       <c r="V52">
-        <v>423</v>
+        <v>0</v>
       </c>
       <c r="W52">
         <v>0</v>
       </c>
       <c r="X52">
-        <v>428</v>
+        <v>0</v>
       </c>
       <c r="Y52">
-        <v>67.8</v>
+        <v>0</v>
       </c>
       <c r="Z52">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="AA52">
-        <v>450.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:27">
@@ -4755,61 +4755,61 @@
         <v>0</v>
       </c>
       <c r="I53">
-        <v>172.58</v>
+        <v>0</v>
       </c>
       <c r="J53">
-        <v>372</v>
+        <v>0</v>
       </c>
       <c r="K53">
         <v>0</v>
       </c>
       <c r="L53">
-        <v>436.5</v>
+        <v>0</v>
       </c>
       <c r="M53">
-        <v>66.55</v>
+        <v>0</v>
       </c>
       <c r="N53">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="O53">
-        <v>212.91</v>
+        <v>0</v>
       </c>
       <c r="P53">
-        <v>284</v>
+        <v>0</v>
       </c>
       <c r="Q53">
         <v>0</v>
       </c>
       <c r="R53">
-        <v>417</v>
+        <v>0</v>
       </c>
       <c r="S53">
-        <v>188.01</v>
+        <v>0</v>
       </c>
       <c r="T53">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="U53">
-        <v>205.7</v>
+        <v>0</v>
       </c>
       <c r="V53">
-        <v>294</v>
+        <v>0</v>
       </c>
       <c r="W53">
         <v>0</v>
       </c>
       <c r="X53">
-        <v>429.5</v>
+        <v>0</v>
       </c>
       <c r="Y53">
-        <v>91.81</v>
+        <v>0</v>
       </c>
       <c r="Z53">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="AA53">
-        <v>467.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:27">
@@ -4838,61 +4838,61 @@
         <v>0</v>
       </c>
       <c r="I54">
-        <v>115.86</v>
+        <v>0</v>
       </c>
       <c r="J54">
-        <v>248</v>
+        <v>0</v>
       </c>
       <c r="K54">
         <v>0</v>
       </c>
       <c r="L54">
-        <v>376.5</v>
+        <v>0</v>
       </c>
       <c r="M54">
-        <v>52.29</v>
+        <v>0</v>
       </c>
       <c r="N54">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="O54">
-        <v>130.71</v>
+        <v>0</v>
       </c>
       <c r="P54">
-        <v>129</v>
+        <v>0</v>
       </c>
       <c r="Q54">
         <v>0</v>
       </c>
       <c r="R54">
-        <v>367.5</v>
+        <v>0</v>
       </c>
       <c r="S54">
-        <v>129.99</v>
+        <v>0</v>
       </c>
       <c r="T54">
         <v>0</v>
       </c>
       <c r="U54">
-        <v>129.41</v>
+        <v>0</v>
       </c>
       <c r="V54">
-        <v>203</v>
+        <v>0</v>
       </c>
       <c r="W54">
         <v>0</v>
       </c>
       <c r="X54">
-        <v>376.5</v>
+        <v>0</v>
       </c>
       <c r="Y54">
-        <v>51.8</v>
+        <v>0</v>
       </c>
       <c r="Z54">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="AA54">
-        <v>398.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:27">
@@ -4921,61 +4921,61 @@
         <v>0</v>
       </c>
       <c r="I55">
-        <v>165.44</v>
+        <v>0</v>
       </c>
       <c r="J55">
-        <v>246</v>
+        <v>0</v>
       </c>
       <c r="K55">
         <v>0</v>
       </c>
       <c r="L55">
-        <v>404</v>
+        <v>0</v>
       </c>
       <c r="M55">
-        <v>79.78</v>
+        <v>0</v>
       </c>
       <c r="N55">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="O55">
-        <v>165.85</v>
+        <v>0</v>
       </c>
       <c r="P55">
-        <v>203</v>
+        <v>0</v>
       </c>
       <c r="Q55">
         <v>0</v>
       </c>
       <c r="R55">
-        <v>384</v>
+        <v>0</v>
       </c>
       <c r="S55">
-        <v>99.17</v>
+        <v>0</v>
       </c>
       <c r="T55">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="U55">
-        <v>184.77</v>
+        <v>0</v>
       </c>
       <c r="V55">
-        <v>228</v>
+        <v>0</v>
       </c>
       <c r="W55">
         <v>0</v>
       </c>
       <c r="X55">
-        <v>378.5</v>
+        <v>0</v>
       </c>
       <c r="Y55">
-        <v>104.05</v>
+        <v>0</v>
       </c>
       <c r="Z55">
         <v>0</v>
       </c>
       <c r="AA55">
-        <v>421.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:27">
@@ -5004,61 +5004,61 @@
         <v>0</v>
       </c>
       <c r="I56">
-        <v>165.16</v>
+        <v>0</v>
       </c>
       <c r="J56">
-        <v>176</v>
+        <v>0</v>
       </c>
       <c r="K56">
         <v>0</v>
       </c>
       <c r="L56">
-        <v>415.5</v>
+        <v>0</v>
       </c>
       <c r="M56">
-        <v>21.19</v>
+        <v>0</v>
       </c>
       <c r="N56">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="O56">
-        <v>153.43</v>
+        <v>0</v>
       </c>
       <c r="P56">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="Q56">
         <v>0</v>
       </c>
       <c r="R56">
-        <v>386</v>
+        <v>0</v>
       </c>
       <c r="S56">
-        <v>152.97</v>
+        <v>0</v>
       </c>
       <c r="T56">
         <v>0</v>
       </c>
       <c r="U56">
-        <v>156.58</v>
+        <v>0</v>
       </c>
       <c r="V56">
-        <v>225</v>
+        <v>0</v>
       </c>
       <c r="W56">
         <v>0</v>
       </c>
       <c r="X56">
-        <v>415.5</v>
+        <v>0</v>
       </c>
       <c r="Y56">
-        <v>20.9</v>
+        <v>0</v>
       </c>
       <c r="Z56">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA56">
-        <v>415.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:27">
@@ -5087,61 +5087,61 @@
         <v>0</v>
       </c>
       <c r="I57">
-        <v>268.13</v>
+        <v>0</v>
       </c>
       <c r="J57">
-        <v>137</v>
+        <v>0</v>
       </c>
       <c r="K57">
         <v>0</v>
       </c>
       <c r="L57">
-        <v>421.5</v>
+        <v>0</v>
       </c>
       <c r="M57">
-        <v>177.47</v>
+        <v>0</v>
       </c>
       <c r="N57">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="O57">
-        <v>300.85</v>
+        <v>0</v>
       </c>
       <c r="P57">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="Q57">
         <v>0</v>
       </c>
       <c r="R57">
-        <v>410</v>
+        <v>0</v>
       </c>
       <c r="S57">
-        <v>255.58</v>
+        <v>0</v>
       </c>
       <c r="T57">
         <v>0</v>
       </c>
       <c r="U57">
-        <v>337.48</v>
+        <v>0</v>
       </c>
       <c r="V57">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="W57">
         <v>0</v>
       </c>
       <c r="X57">
-        <v>410</v>
+        <v>0</v>
       </c>
       <c r="Y57">
-        <v>204.89</v>
+        <v>0</v>
       </c>
       <c r="Z57">
         <v>0</v>
       </c>
       <c r="AA57">
-        <v>483</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:27">
@@ -5170,61 +5170,61 @@
         <v>0</v>
       </c>
       <c r="I58">
-        <v>621.08</v>
+        <v>0</v>
       </c>
       <c r="J58">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="K58">
         <v>0</v>
       </c>
       <c r="L58">
-        <v>485</v>
+        <v>0</v>
       </c>
       <c r="M58">
-        <v>131.3</v>
+        <v>0</v>
       </c>
       <c r="N58">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="O58">
-        <v>399.24</v>
+        <v>0</v>
       </c>
       <c r="P58">
-        <v>333</v>
+        <v>0</v>
       </c>
       <c r="Q58">
         <v>0</v>
       </c>
       <c r="R58">
-        <v>454</v>
+        <v>0</v>
       </c>
       <c r="S58">
-        <v>134.64</v>
+        <v>0</v>
       </c>
       <c r="T58">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="U58">
-        <v>600.49</v>
+        <v>0</v>
       </c>
       <c r="V58">
-        <v>518</v>
+        <v>0</v>
       </c>
       <c r="W58">
         <v>0</v>
       </c>
       <c r="X58">
-        <v>485</v>
+        <v>0</v>
       </c>
       <c r="Y58">
-        <v>131.47</v>
+        <v>0</v>
       </c>
       <c r="Z58">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="AA58">
-        <v>534</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:27">
@@ -5253,61 +5253,61 @@
         <v>0</v>
       </c>
       <c r="I59">
-        <v>589.3099999999999</v>
+        <v>0</v>
       </c>
       <c r="J59">
-        <v>703</v>
+        <v>0</v>
       </c>
       <c r="K59">
         <v>0</v>
       </c>
       <c r="L59">
-        <v>472</v>
+        <v>0</v>
       </c>
       <c r="M59">
-        <v>132.96</v>
+        <v>0</v>
       </c>
       <c r="N59">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="O59">
-        <v>692.3099999999999</v>
+        <v>0</v>
       </c>
       <c r="P59">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="Q59">
         <v>0</v>
       </c>
       <c r="R59">
-        <v>446</v>
+        <v>0</v>
       </c>
       <c r="S59">
-        <v>595.8200000000001</v>
+        <v>0</v>
       </c>
       <c r="T59">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="U59">
-        <v>710.4400000000001</v>
+        <v>0</v>
       </c>
       <c r="V59">
-        <v>520</v>
+        <v>0</v>
       </c>
       <c r="W59">
         <v>0</v>
       </c>
       <c r="X59">
-        <v>472</v>
+        <v>0</v>
       </c>
       <c r="Y59">
-        <v>132.92</v>
+        <v>0</v>
       </c>
       <c r="Z59">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA59">
-        <v>493</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:27">
@@ -5336,61 +5336,61 @@
         <v>0</v>
       </c>
       <c r="I60">
-        <v>612.08</v>
+        <v>0</v>
       </c>
       <c r="J60">
-        <v>690</v>
+        <v>0</v>
       </c>
       <c r="K60">
         <v>0</v>
       </c>
       <c r="L60">
-        <v>429.5</v>
+        <v>0</v>
       </c>
       <c r="M60">
-        <v>176.93</v>
+        <v>0</v>
       </c>
       <c r="N60">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="O60">
-        <v>752.12</v>
+        <v>0</v>
       </c>
       <c r="P60">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="Q60">
         <v>0</v>
       </c>
       <c r="R60">
-        <v>429.5</v>
+        <v>0</v>
       </c>
       <c r="S60">
-        <v>228.74</v>
+        <v>0</v>
       </c>
       <c r="T60">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="U60">
-        <v>623.1900000000001</v>
+        <v>0</v>
       </c>
       <c r="V60">
-        <v>458</v>
+        <v>0</v>
       </c>
       <c r="W60">
         <v>0</v>
       </c>
       <c r="X60">
-        <v>429.5</v>
+        <v>0</v>
       </c>
       <c r="Y60">
-        <v>173.21</v>
+        <v>0</v>
       </c>
       <c r="Z60">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="AA60">
-        <v>484</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:27">
@@ -5419,61 +5419,61 @@
         <v>0</v>
       </c>
       <c r="I61">
-        <v>732.54</v>
+        <v>0</v>
       </c>
       <c r="J61">
-        <v>227</v>
+        <v>0</v>
       </c>
       <c r="K61">
         <v>0</v>
       </c>
       <c r="L61">
-        <v>440.5</v>
+        <v>0</v>
       </c>
       <c r="M61">
-        <v>137.38</v>
+        <v>0</v>
       </c>
       <c r="N61">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="O61">
-        <v>1008.2</v>
+        <v>0</v>
       </c>
       <c r="P61">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Q61">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="R61">
-        <v>413.5</v>
+        <v>0</v>
       </c>
       <c r="S61">
-        <v>774.37</v>
+        <v>0</v>
       </c>
       <c r="T61">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="U61">
-        <v>967.72</v>
+        <v>0</v>
       </c>
       <c r="V61">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="W61">
         <v>0</v>
       </c>
       <c r="X61">
-        <v>440.5</v>
+        <v>0</v>
       </c>
       <c r="Y61">
-        <v>138.23</v>
+        <v>0</v>
       </c>
       <c r="Z61">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="AA61">
-        <v>474</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:27">
@@ -5502,61 +5502,61 @@
         <v>0</v>
       </c>
       <c r="I62">
-        <v>1004.56</v>
+        <v>0</v>
       </c>
       <c r="J62">
-        <v>3124</v>
+        <v>0</v>
       </c>
       <c r="K62">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="L62">
-        <v>259</v>
+        <v>0</v>
       </c>
       <c r="M62">
-        <v>53.13</v>
+        <v>0</v>
       </c>
       <c r="N62">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O62">
-        <v>1005.89</v>
+        <v>0</v>
       </c>
       <c r="P62">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Q62">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="R62">
-        <v>290.5</v>
+        <v>0</v>
       </c>
       <c r="S62">
-        <v>1002.83</v>
+        <v>0</v>
       </c>
       <c r="T62">
         <v>0</v>
       </c>
       <c r="U62">
-        <v>1045.01</v>
+        <v>0</v>
       </c>
       <c r="V62">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="W62">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="X62">
-        <v>270.5</v>
+        <v>0</v>
       </c>
       <c r="Y62">
-        <v>29.87</v>
+        <v>0</v>
       </c>
       <c r="Z62">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA62">
-        <v>333.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:27">
@@ -5585,7 +5585,7 @@
         <v>0</v>
       </c>
       <c r="I63">
-        <v>79.70999999999999</v>
+        <v>0</v>
       </c>
       <c r="J63">
         <v>0</v>
@@ -5594,16 +5594,16 @@
         <v>0</v>
       </c>
       <c r="L63">
-        <v>291.5</v>
+        <v>0</v>
       </c>
       <c r="M63">
-        <v>35.23</v>
+        <v>0</v>
       </c>
       <c r="N63">
         <v>0</v>
       </c>
       <c r="O63">
-        <v>5.64</v>
+        <v>0</v>
       </c>
       <c r="P63">
         <v>0</v>
@@ -5612,16 +5612,16 @@
         <v>0</v>
       </c>
       <c r="R63">
-        <v>293</v>
+        <v>0</v>
       </c>
       <c r="S63">
-        <v>4.31</v>
+        <v>0</v>
       </c>
       <c r="T63">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="U63">
-        <v>7.82</v>
+        <v>0</v>
       </c>
       <c r="V63">
         <v>0</v>
@@ -5630,16 +5630,16 @@
         <v>0</v>
       </c>
       <c r="X63">
-        <v>293</v>
+        <v>0</v>
       </c>
       <c r="Y63">
-        <v>6.37</v>
+        <v>0</v>
       </c>
       <c r="Z63">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="AA63">
-        <v>306</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:27">
@@ -5668,61 +5668,61 @@
         <v>0</v>
       </c>
       <c r="I64">
-        <v>1012.26</v>
+        <v>0</v>
       </c>
       <c r="J64">
-        <v>5090</v>
+        <v>0</v>
       </c>
       <c r="K64">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="L64">
-        <v>241.5</v>
+        <v>0</v>
       </c>
       <c r="M64">
-        <v>145.78</v>
+        <v>0</v>
       </c>
       <c r="N64">
         <v>0</v>
       </c>
       <c r="O64">
-        <v>1009.71</v>
+        <v>0</v>
       </c>
       <c r="P64">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q64">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="R64">
-        <v>241</v>
+        <v>0</v>
       </c>
       <c r="S64">
-        <v>1006.86</v>
+        <v>0</v>
       </c>
       <c r="T64">
         <v>0</v>
       </c>
       <c r="U64">
-        <v>1011.05</v>
+        <v>0</v>
       </c>
       <c r="V64">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="W64">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="X64">
-        <v>259</v>
+        <v>0</v>
       </c>
       <c r="Y64">
-        <v>56.47</v>
+        <v>0</v>
       </c>
       <c r="Z64">
         <v>0</v>
       </c>
       <c r="AA64">
-        <v>331</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:27">
@@ -5751,61 +5751,61 @@
         <v>0</v>
       </c>
       <c r="I65">
-        <v>359.65</v>
+        <v>0</v>
       </c>
       <c r="J65">
-        <v>595</v>
+        <v>0</v>
       </c>
       <c r="K65">
         <v>0</v>
       </c>
       <c r="L65">
-        <v>246.5</v>
+        <v>0</v>
       </c>
       <c r="M65">
-        <v>107.53</v>
+        <v>0</v>
       </c>
       <c r="N65">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="O65">
-        <v>200.44</v>
+        <v>0</v>
       </c>
       <c r="P65">
-        <v>542</v>
+        <v>0</v>
       </c>
       <c r="Q65">
         <v>0</v>
       </c>
       <c r="R65">
-        <v>244</v>
+        <v>0</v>
       </c>
       <c r="S65">
-        <v>129.79</v>
+        <v>0</v>
       </c>
       <c r="T65">
         <v>0</v>
       </c>
       <c r="U65">
-        <v>290.8</v>
+        <v>0</v>
       </c>
       <c r="V65">
-        <v>926</v>
+        <v>0</v>
       </c>
       <c r="W65">
         <v>0</v>
       </c>
       <c r="X65">
-        <v>251</v>
+        <v>0</v>
       </c>
       <c r="Y65">
-        <v>13.69</v>
+        <v>0</v>
       </c>
       <c r="Z65">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="AA65">
-        <v>291.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:27">
@@ -5834,61 +5834,61 @@
         <v>0</v>
       </c>
       <c r="I66">
-        <v>1012.45</v>
+        <v>0</v>
       </c>
       <c r="J66">
-        <v>3804</v>
+        <v>0</v>
       </c>
       <c r="K66">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="L66">
-        <v>262</v>
+        <v>0</v>
       </c>
       <c r="M66">
-        <v>26.94</v>
+        <v>0</v>
       </c>
       <c r="N66">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="O66">
-        <v>1016.45</v>
+        <v>0</v>
       </c>
       <c r="P66">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="Q66">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="R66">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="S66">
-        <v>1012.24</v>
+        <v>0</v>
       </c>
       <c r="T66">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="U66">
-        <v>1008.99</v>
+        <v>0</v>
       </c>
       <c r="V66">
-        <v>2515</v>
+        <v>0</v>
       </c>
       <c r="W66">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="X66">
-        <v>262</v>
+        <v>0</v>
       </c>
       <c r="Y66">
-        <v>30.08</v>
+        <v>0</v>
       </c>
       <c r="Z66">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="AA66">
-        <v>303.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:27">
@@ -5917,61 +5917,61 @@
         <v>0</v>
       </c>
       <c r="I67">
-        <v>1002.58</v>
+        <v>0</v>
       </c>
       <c r="J67">
-        <v>1025</v>
+        <v>0</v>
       </c>
       <c r="K67">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="L67">
-        <v>264</v>
+        <v>0</v>
       </c>
       <c r="M67">
-        <v>170.08</v>
+        <v>0</v>
       </c>
       <c r="N67">
         <v>0</v>
       </c>
       <c r="O67">
-        <v>1010.63</v>
+        <v>0</v>
       </c>
       <c r="P67">
-        <v>837</v>
+        <v>0</v>
       </c>
       <c r="Q67">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="R67">
-        <v>263</v>
+        <v>0</v>
       </c>
       <c r="S67">
-        <v>388.31</v>
+        <v>0</v>
       </c>
       <c r="T67">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="U67">
-        <v>1010.46</v>
+        <v>0</v>
       </c>
       <c r="V67">
-        <v>1126</v>
+        <v>0</v>
       </c>
       <c r="W67">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="X67">
-        <v>263</v>
+        <v>0</v>
       </c>
       <c r="Y67">
-        <v>77.43000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z67">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="AA67">
-        <v>343</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:27">
@@ -6000,61 +6000,61 @@
         <v>0</v>
       </c>
       <c r="I68">
-        <v>1003</v>
+        <v>0</v>
       </c>
       <c r="J68">
-        <v>723</v>
+        <v>0</v>
       </c>
       <c r="K68">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="L68">
-        <v>254.5</v>
+        <v>0</v>
       </c>
       <c r="M68">
-        <v>28.35</v>
+        <v>0</v>
       </c>
       <c r="N68">
         <v>0</v>
       </c>
       <c r="O68">
-        <v>867.03</v>
+        <v>0</v>
       </c>
       <c r="P68">
-        <v>884</v>
+        <v>0</v>
       </c>
       <c r="Q68">
         <v>0</v>
       </c>
       <c r="R68">
-        <v>246</v>
+        <v>0</v>
       </c>
       <c r="S68">
-        <v>640.01</v>
+        <v>0</v>
       </c>
       <c r="T68">
         <v>0</v>
       </c>
       <c r="U68">
-        <v>896.9299999999999</v>
+        <v>0</v>
       </c>
       <c r="V68">
-        <v>1751</v>
+        <v>0</v>
       </c>
       <c r="W68">
         <v>0</v>
       </c>
       <c r="X68">
-        <v>255.5</v>
+        <v>0</v>
       </c>
       <c r="Y68">
-        <v>8.75</v>
+        <v>0</v>
       </c>
       <c r="Z68">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="AA68">
-        <v>255.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:27">
@@ -6083,61 +6083,61 @@
         <v>0</v>
       </c>
       <c r="I69">
-        <v>1002.95</v>
+        <v>0</v>
       </c>
       <c r="J69">
-        <v>2334</v>
+        <v>0</v>
       </c>
       <c r="K69">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="L69">
-        <v>259.5</v>
+        <v>0</v>
       </c>
       <c r="M69">
-        <v>72.23999999999999</v>
+        <v>0</v>
       </c>
       <c r="N69">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O69">
-        <v>1007.41</v>
+        <v>0</v>
       </c>
       <c r="P69">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="Q69">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="R69">
-        <v>284</v>
+        <v>0</v>
       </c>
       <c r="S69">
-        <v>8.99</v>
+        <v>0</v>
       </c>
       <c r="T69">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="U69">
-        <v>1014.44</v>
+        <v>0</v>
       </c>
       <c r="V69">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="W69">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="X69">
-        <v>269</v>
+        <v>0</v>
       </c>
       <c r="Y69">
-        <v>18.78</v>
+        <v>0</v>
       </c>
       <c r="Z69">
         <v>0</v>
       </c>
       <c r="AA69">
-        <v>284</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:27">
@@ -6166,61 +6166,61 @@
         <v>0</v>
       </c>
       <c r="I70">
-        <v>1001.88</v>
+        <v>0</v>
       </c>
       <c r="J70">
-        <v>846</v>
+        <v>0</v>
       </c>
       <c r="K70">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="L70">
-        <v>258</v>
+        <v>0</v>
       </c>
       <c r="M70">
-        <v>197.82</v>
+        <v>0</v>
       </c>
       <c r="N70">
         <v>0</v>
       </c>
       <c r="O70">
-        <v>1018.24</v>
+        <v>0</v>
       </c>
       <c r="P70">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q70">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="R70">
-        <v>266</v>
+        <v>0</v>
       </c>
       <c r="S70">
-        <v>310.5</v>
+        <v>0</v>
       </c>
       <c r="T70">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="U70">
-        <v>1000.4</v>
+        <v>0</v>
       </c>
       <c r="V70">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="W70">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="X70">
-        <v>258</v>
+        <v>0</v>
       </c>
       <c r="Y70">
-        <v>198.71</v>
+        <v>0</v>
       </c>
       <c r="Z70">
         <v>0</v>
       </c>
       <c r="AA70">
-        <v>298.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:27">
@@ -6249,61 +6249,61 @@
         <v>0</v>
       </c>
       <c r="I71">
-        <v>1025.43</v>
+        <v>0</v>
       </c>
       <c r="J71">
-        <v>2516</v>
+        <v>0</v>
       </c>
       <c r="K71">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="L71">
-        <v>252</v>
+        <v>0</v>
       </c>
       <c r="M71">
-        <v>17.34</v>
+        <v>0</v>
       </c>
       <c r="N71">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="O71">
-        <v>1009.53</v>
+        <v>0</v>
       </c>
       <c r="P71">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Q71">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="R71">
-        <v>263</v>
+        <v>0</v>
       </c>
       <c r="S71">
-        <v>10.37</v>
+        <v>0</v>
       </c>
       <c r="T71">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="U71">
-        <v>1025.02</v>
+        <v>0</v>
       </c>
       <c r="V71">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="W71">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="X71">
-        <v>252</v>
+        <v>0</v>
       </c>
       <c r="Y71">
-        <v>19.11</v>
+        <v>0</v>
       </c>
       <c r="Z71">
         <v>0</v>
       </c>
       <c r="AA71">
-        <v>263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:27">
@@ -6332,61 +6332,61 @@
         <v>0</v>
       </c>
       <c r="I72">
-        <v>1008.73</v>
+        <v>0</v>
       </c>
       <c r="J72">
-        <v>1118</v>
+        <v>0</v>
       </c>
       <c r="K72">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="L72">
-        <v>302</v>
+        <v>0</v>
       </c>
       <c r="M72">
-        <v>191.54</v>
+        <v>0</v>
       </c>
       <c r="N72">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="O72">
-        <v>1002.9</v>
+        <v>0</v>
       </c>
       <c r="P72">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Q72">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="R72">
-        <v>319</v>
+        <v>0</v>
       </c>
       <c r="S72">
-        <v>328.92</v>
+        <v>0</v>
       </c>
       <c r="T72">
         <v>0</v>
       </c>
       <c r="U72">
-        <v>1004.33</v>
+        <v>0</v>
       </c>
       <c r="V72">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="W72">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="X72">
-        <v>304</v>
+        <v>0</v>
       </c>
       <c r="Y72">
-        <v>80.89</v>
+        <v>0</v>
       </c>
       <c r="Z72">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="AA72">
-        <v>382</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:27">
@@ -6415,61 +6415,61 @@
         <v>0</v>
       </c>
       <c r="I73">
-        <v>1001.8</v>
+        <v>0</v>
       </c>
       <c r="J73">
-        <v>736</v>
+        <v>0</v>
       </c>
       <c r="K73">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="L73">
-        <v>302.5</v>
+        <v>0</v>
       </c>
       <c r="M73">
-        <v>52.65</v>
+        <v>0</v>
       </c>
       <c r="N73">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="O73">
-        <v>1026.94</v>
+        <v>0</v>
       </c>
       <c r="P73">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="Q73">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="R73">
-        <v>292</v>
+        <v>0</v>
       </c>
       <c r="S73">
-        <v>398.22</v>
+        <v>0</v>
       </c>
       <c r="T73">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="U73">
-        <v>1081.79</v>
+        <v>0</v>
       </c>
       <c r="V73">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="W73">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="X73">
-        <v>302.5</v>
+        <v>0</v>
       </c>
       <c r="Y73">
-        <v>57.27</v>
+        <v>0</v>
       </c>
       <c r="Z73">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA73">
-        <v>336.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:27">
@@ -6498,61 +6498,61 @@
         <v>0</v>
       </c>
       <c r="I74">
-        <v>1007.71</v>
+        <v>0</v>
       </c>
       <c r="J74">
-        <v>1956</v>
+        <v>0</v>
       </c>
       <c r="K74">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="L74">
-        <v>294</v>
+        <v>0</v>
       </c>
       <c r="M74">
-        <v>76.34</v>
+        <v>0</v>
       </c>
       <c r="N74">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="O74">
-        <v>1013.94</v>
+        <v>0</v>
       </c>
       <c r="P74">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Q74">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="R74">
-        <v>282.5</v>
+        <v>0</v>
       </c>
       <c r="S74">
-        <v>1010.1</v>
+        <v>0</v>
       </c>
       <c r="T74">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="U74">
-        <v>1017.95</v>
+        <v>0</v>
       </c>
       <c r="V74">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="W74">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="X74">
-        <v>294</v>
+        <v>0</v>
       </c>
       <c r="Y74">
-        <v>78.05</v>
+        <v>0</v>
       </c>
       <c r="Z74">
         <v>0</v>
       </c>
       <c r="AA74">
-        <v>334.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:27">
@@ -6581,61 +6581,6369 @@
         <v>0</v>
       </c>
       <c r="I75">
-        <v>259.07</v>
+        <v>0</v>
       </c>
       <c r="J75">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K75">
         <v>0</v>
       </c>
       <c r="L75">
-        <v>283.5</v>
+        <v>0</v>
       </c>
       <c r="M75">
-        <v>180.61</v>
+        <v>0</v>
       </c>
       <c r="N75">
         <v>0</v>
       </c>
       <c r="O75">
-        <v>59.3</v>
+        <v>0</v>
       </c>
       <c r="P75">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="Q75">
         <v>0</v>
       </c>
       <c r="R75">
-        <v>283.5</v>
+        <v>0</v>
       </c>
       <c r="S75">
-        <v>39.04</v>
+        <v>0</v>
       </c>
       <c r="T75">
         <v>0</v>
       </c>
       <c r="U75">
-        <v>142.84</v>
+        <v>0</v>
       </c>
       <c r="V75">
+        <v>0</v>
+      </c>
+      <c r="W75">
+        <v>0</v>
+      </c>
+      <c r="X75">
+        <v>0</v>
+      </c>
+      <c r="Y75">
+        <v>0</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+      <c r="AA75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76">
         <v>30</v>
       </c>
-      <c r="W75">
-        <v>0</v>
-      </c>
-      <c r="X75">
-        <v>288.5</v>
-      </c>
-      <c r="Y75">
-        <v>104.42</v>
-      </c>
-      <c r="Z75">
-        <v>0.02</v>
-      </c>
-      <c r="AA75">
-        <v>396</v>
+      <c r="C76">
+        <v>50</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>0</v>
+      </c>
+      <c r="O76">
+        <v>0</v>
+      </c>
+      <c r="P76">
+        <v>0</v>
+      </c>
+      <c r="Q76">
+        <v>0</v>
+      </c>
+      <c r="R76">
+        <v>0</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>0</v>
+      </c>
+      <c r="U76">
+        <v>0</v>
+      </c>
+      <c r="V76">
+        <v>0</v>
+      </c>
+      <c r="W76">
+        <v>0</v>
+      </c>
+      <c r="X76">
+        <v>0</v>
+      </c>
+      <c r="Y76">
+        <v>0</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+      <c r="AA76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>30</v>
+      </c>
+      <c r="C77">
+        <v>100</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>0</v>
+      </c>
+      <c r="O77">
+        <v>0</v>
+      </c>
+      <c r="P77">
+        <v>0</v>
+      </c>
+      <c r="Q77">
+        <v>0</v>
+      </c>
+      <c r="R77">
+        <v>0</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>0</v>
+      </c>
+      <c r="U77">
+        <v>0</v>
+      </c>
+      <c r="V77">
+        <v>0</v>
+      </c>
+      <c r="W77">
+        <v>0</v>
+      </c>
+      <c r="X77">
+        <v>0</v>
+      </c>
+      <c r="Y77">
+        <v>0</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+      <c r="AA77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>30</v>
+      </c>
+      <c r="C78">
+        <v>100</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>0</v>
+      </c>
+      <c r="O78">
+        <v>0</v>
+      </c>
+      <c r="P78">
+        <v>0</v>
+      </c>
+      <c r="Q78">
+        <v>0</v>
+      </c>
+      <c r="R78">
+        <v>0</v>
+      </c>
+      <c r="S78">
+        <v>0</v>
+      </c>
+      <c r="T78">
+        <v>0</v>
+      </c>
+      <c r="U78">
+        <v>0</v>
+      </c>
+      <c r="V78">
+        <v>0</v>
+      </c>
+      <c r="W78">
+        <v>0</v>
+      </c>
+      <c r="X78">
+        <v>0</v>
+      </c>
+      <c r="Y78">
+        <v>0</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+      <c r="AA78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>30</v>
+      </c>
+      <c r="C79">
+        <v>100</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>0</v>
+      </c>
+      <c r="O79">
+        <v>0</v>
+      </c>
+      <c r="P79">
+        <v>0</v>
+      </c>
+      <c r="Q79">
+        <v>0</v>
+      </c>
+      <c r="R79">
+        <v>0</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>0</v>
+      </c>
+      <c r="U79">
+        <v>0</v>
+      </c>
+      <c r="V79">
+        <v>0</v>
+      </c>
+      <c r="W79">
+        <v>0</v>
+      </c>
+      <c r="X79">
+        <v>0</v>
+      </c>
+      <c r="Y79">
+        <v>0</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+      <c r="AA79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>30</v>
+      </c>
+      <c r="C80">
+        <v>100</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>0</v>
+      </c>
+      <c r="O80">
+        <v>0</v>
+      </c>
+      <c r="P80">
+        <v>0</v>
+      </c>
+      <c r="Q80">
+        <v>0</v>
+      </c>
+      <c r="R80">
+        <v>0</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>0</v>
+      </c>
+      <c r="U80">
+        <v>0</v>
+      </c>
+      <c r="V80">
+        <v>0</v>
+      </c>
+      <c r="W80">
+        <v>0</v>
+      </c>
+      <c r="X80">
+        <v>0</v>
+      </c>
+      <c r="Y80">
+        <v>0</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+      <c r="AA80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>30</v>
+      </c>
+      <c r="C81">
+        <v>100</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>0</v>
+      </c>
+      <c r="O81">
+        <v>0</v>
+      </c>
+      <c r="P81">
+        <v>0</v>
+      </c>
+      <c r="Q81">
+        <v>0</v>
+      </c>
+      <c r="R81">
+        <v>0</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>0</v>
+      </c>
+      <c r="U81">
+        <v>0</v>
+      </c>
+      <c r="V81">
+        <v>0</v>
+      </c>
+      <c r="W81">
+        <v>0</v>
+      </c>
+      <c r="X81">
+        <v>0</v>
+      </c>
+      <c r="Y81">
+        <v>0</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+      <c r="AA81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>30</v>
+      </c>
+      <c r="C82">
+        <v>200</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <v>0</v>
+      </c>
+      <c r="O82">
+        <v>0</v>
+      </c>
+      <c r="P82">
+        <v>0</v>
+      </c>
+      <c r="Q82">
+        <v>0</v>
+      </c>
+      <c r="R82">
+        <v>0</v>
+      </c>
+      <c r="S82">
+        <v>0</v>
+      </c>
+      <c r="T82">
+        <v>0</v>
+      </c>
+      <c r="U82">
+        <v>0</v>
+      </c>
+      <c r="V82">
+        <v>0</v>
+      </c>
+      <c r="W82">
+        <v>0</v>
+      </c>
+      <c r="X82">
+        <v>0</v>
+      </c>
+      <c r="Y82">
+        <v>0</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+      <c r="AA82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:27">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>30</v>
+      </c>
+      <c r="C83">
+        <v>200</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+      <c r="M83">
+        <v>0</v>
+      </c>
+      <c r="N83">
+        <v>0</v>
+      </c>
+      <c r="O83">
+        <v>0</v>
+      </c>
+      <c r="P83">
+        <v>0</v>
+      </c>
+      <c r="Q83">
+        <v>0</v>
+      </c>
+      <c r="R83">
+        <v>0</v>
+      </c>
+      <c r="S83">
+        <v>0</v>
+      </c>
+      <c r="T83">
+        <v>0</v>
+      </c>
+      <c r="U83">
+        <v>0</v>
+      </c>
+      <c r="V83">
+        <v>0</v>
+      </c>
+      <c r="W83">
+        <v>0</v>
+      </c>
+      <c r="X83">
+        <v>0</v>
+      </c>
+      <c r="Y83">
+        <v>0</v>
+      </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
+      <c r="AA83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:27">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>30</v>
+      </c>
+      <c r="C84">
+        <v>200</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+      <c r="M84">
+        <v>0</v>
+      </c>
+      <c r="N84">
+        <v>0</v>
+      </c>
+      <c r="O84">
+        <v>0</v>
+      </c>
+      <c r="P84">
+        <v>0</v>
+      </c>
+      <c r="Q84">
+        <v>0</v>
+      </c>
+      <c r="R84">
+        <v>0</v>
+      </c>
+      <c r="S84">
+        <v>0</v>
+      </c>
+      <c r="T84">
+        <v>0</v>
+      </c>
+      <c r="U84">
+        <v>0</v>
+      </c>
+      <c r="V84">
+        <v>0</v>
+      </c>
+      <c r="W84">
+        <v>0</v>
+      </c>
+      <c r="X84">
+        <v>0</v>
+      </c>
+      <c r="Y84">
+        <v>0</v>
+      </c>
+      <c r="Z84">
+        <v>0</v>
+      </c>
+      <c r="AA84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:27">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>30</v>
+      </c>
+      <c r="C85">
+        <v>200</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+      <c r="M85">
+        <v>0</v>
+      </c>
+      <c r="N85">
+        <v>0</v>
+      </c>
+      <c r="O85">
+        <v>0</v>
+      </c>
+      <c r="P85">
+        <v>0</v>
+      </c>
+      <c r="Q85">
+        <v>0</v>
+      </c>
+      <c r="R85">
+        <v>0</v>
+      </c>
+      <c r="S85">
+        <v>0</v>
+      </c>
+      <c r="T85">
+        <v>0</v>
+      </c>
+      <c r="U85">
+        <v>0</v>
+      </c>
+      <c r="V85">
+        <v>0</v>
+      </c>
+      <c r="W85">
+        <v>0</v>
+      </c>
+      <c r="X85">
+        <v>0</v>
+      </c>
+      <c r="Y85">
+        <v>0</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
+      <c r="AA85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:27">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>30</v>
+      </c>
+      <c r="C86">
+        <v>200</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+      <c r="M86">
+        <v>0</v>
+      </c>
+      <c r="N86">
+        <v>0</v>
+      </c>
+      <c r="O86">
+        <v>0</v>
+      </c>
+      <c r="P86">
+        <v>0</v>
+      </c>
+      <c r="Q86">
+        <v>0</v>
+      </c>
+      <c r="R86">
+        <v>0</v>
+      </c>
+      <c r="S86">
+        <v>0</v>
+      </c>
+      <c r="T86">
+        <v>0</v>
+      </c>
+      <c r="U86">
+        <v>0</v>
+      </c>
+      <c r="V86">
+        <v>0</v>
+      </c>
+      <c r="W86">
+        <v>0</v>
+      </c>
+      <c r="X86">
+        <v>0</v>
+      </c>
+      <c r="Y86">
+        <v>0</v>
+      </c>
+      <c r="Z86">
+        <v>0</v>
+      </c>
+      <c r="AA86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:27">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>30</v>
+      </c>
+      <c r="C87">
+        <v>500</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+      <c r="L87">
+        <v>0</v>
+      </c>
+      <c r="M87">
+        <v>0</v>
+      </c>
+      <c r="N87">
+        <v>0</v>
+      </c>
+      <c r="O87">
+        <v>0</v>
+      </c>
+      <c r="P87">
+        <v>0</v>
+      </c>
+      <c r="Q87">
+        <v>0</v>
+      </c>
+      <c r="R87">
+        <v>0</v>
+      </c>
+      <c r="S87">
+        <v>0</v>
+      </c>
+      <c r="T87">
+        <v>0</v>
+      </c>
+      <c r="U87">
+        <v>0</v>
+      </c>
+      <c r="V87">
+        <v>0</v>
+      </c>
+      <c r="W87">
+        <v>0</v>
+      </c>
+      <c r="X87">
+        <v>0</v>
+      </c>
+      <c r="Y87">
+        <v>0</v>
+      </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
+      <c r="AA87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:27">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>30</v>
+      </c>
+      <c r="C88">
+        <v>500</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+      <c r="M88">
+        <v>0</v>
+      </c>
+      <c r="N88">
+        <v>0</v>
+      </c>
+      <c r="O88">
+        <v>0</v>
+      </c>
+      <c r="P88">
+        <v>0</v>
+      </c>
+      <c r="Q88">
+        <v>0</v>
+      </c>
+      <c r="R88">
+        <v>0</v>
+      </c>
+      <c r="S88">
+        <v>0</v>
+      </c>
+      <c r="T88">
+        <v>0</v>
+      </c>
+      <c r="U88">
+        <v>0</v>
+      </c>
+      <c r="V88">
+        <v>0</v>
+      </c>
+      <c r="W88">
+        <v>0</v>
+      </c>
+      <c r="X88">
+        <v>0</v>
+      </c>
+      <c r="Y88">
+        <v>0</v>
+      </c>
+      <c r="Z88">
+        <v>0</v>
+      </c>
+      <c r="AA88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:27">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>30</v>
+      </c>
+      <c r="C89">
+        <v>500</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>0</v>
+      </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
+      <c r="M89">
+        <v>0</v>
+      </c>
+      <c r="N89">
+        <v>0</v>
+      </c>
+      <c r="O89">
+        <v>0</v>
+      </c>
+      <c r="P89">
+        <v>0</v>
+      </c>
+      <c r="Q89">
+        <v>0</v>
+      </c>
+      <c r="R89">
+        <v>0</v>
+      </c>
+      <c r="S89">
+        <v>0</v>
+      </c>
+      <c r="T89">
+        <v>0</v>
+      </c>
+      <c r="U89">
+        <v>0</v>
+      </c>
+      <c r="V89">
+        <v>0</v>
+      </c>
+      <c r="W89">
+        <v>0</v>
+      </c>
+      <c r="X89">
+        <v>0</v>
+      </c>
+      <c r="Y89">
+        <v>0</v>
+      </c>
+      <c r="Z89">
+        <v>0</v>
+      </c>
+      <c r="AA89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:27">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>30</v>
+      </c>
+      <c r="C90">
+        <v>500</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+      <c r="M90">
+        <v>0</v>
+      </c>
+      <c r="N90">
+        <v>0</v>
+      </c>
+      <c r="O90">
+        <v>0</v>
+      </c>
+      <c r="P90">
+        <v>0</v>
+      </c>
+      <c r="Q90">
+        <v>0</v>
+      </c>
+      <c r="R90">
+        <v>0</v>
+      </c>
+      <c r="S90">
+        <v>0</v>
+      </c>
+      <c r="T90">
+        <v>0</v>
+      </c>
+      <c r="U90">
+        <v>0</v>
+      </c>
+      <c r="V90">
+        <v>0</v>
+      </c>
+      <c r="W90">
+        <v>0</v>
+      </c>
+      <c r="X90">
+        <v>0</v>
+      </c>
+      <c r="Y90">
+        <v>0</v>
+      </c>
+      <c r="Z90">
+        <v>0</v>
+      </c>
+      <c r="AA90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:27">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>30</v>
+      </c>
+      <c r="C91">
+        <v>500</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>0</v>
+      </c>
+      <c r="L91">
+        <v>0</v>
+      </c>
+      <c r="M91">
+        <v>0</v>
+      </c>
+      <c r="N91">
+        <v>0</v>
+      </c>
+      <c r="O91">
+        <v>0</v>
+      </c>
+      <c r="P91">
+        <v>0</v>
+      </c>
+      <c r="Q91">
+        <v>0</v>
+      </c>
+      <c r="R91">
+        <v>0</v>
+      </c>
+      <c r="S91">
+        <v>0</v>
+      </c>
+      <c r="T91">
+        <v>0</v>
+      </c>
+      <c r="U91">
+        <v>0</v>
+      </c>
+      <c r="V91">
+        <v>0</v>
+      </c>
+      <c r="W91">
+        <v>0</v>
+      </c>
+      <c r="X91">
+        <v>0</v>
+      </c>
+      <c r="Y91">
+        <v>0</v>
+      </c>
+      <c r="Z91">
+        <v>0</v>
+      </c>
+      <c r="AA91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:27">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <v>40</v>
+      </c>
+      <c r="C92">
+        <v>10</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>0</v>
+      </c>
+      <c r="L92">
+        <v>0</v>
+      </c>
+      <c r="M92">
+        <v>0</v>
+      </c>
+      <c r="N92">
+        <v>0</v>
+      </c>
+      <c r="O92">
+        <v>0</v>
+      </c>
+      <c r="P92">
+        <v>0</v>
+      </c>
+      <c r="Q92">
+        <v>0</v>
+      </c>
+      <c r="R92">
+        <v>0</v>
+      </c>
+      <c r="S92">
+        <v>0</v>
+      </c>
+      <c r="T92">
+        <v>0</v>
+      </c>
+      <c r="U92">
+        <v>0</v>
+      </c>
+      <c r="V92">
+        <v>0</v>
+      </c>
+      <c r="W92">
+        <v>0</v>
+      </c>
+      <c r="X92">
+        <v>0</v>
+      </c>
+      <c r="Y92">
+        <v>0</v>
+      </c>
+      <c r="Z92">
+        <v>0</v>
+      </c>
+      <c r="AA92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:27">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <v>40</v>
+      </c>
+      <c r="C93">
+        <v>10</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
+      <c r="L93">
+        <v>0</v>
+      </c>
+      <c r="M93">
+        <v>0</v>
+      </c>
+      <c r="N93">
+        <v>0</v>
+      </c>
+      <c r="O93">
+        <v>0</v>
+      </c>
+      <c r="P93">
+        <v>0</v>
+      </c>
+      <c r="Q93">
+        <v>0</v>
+      </c>
+      <c r="R93">
+        <v>0</v>
+      </c>
+      <c r="S93">
+        <v>0</v>
+      </c>
+      <c r="T93">
+        <v>0</v>
+      </c>
+      <c r="U93">
+        <v>0</v>
+      </c>
+      <c r="V93">
+        <v>0</v>
+      </c>
+      <c r="W93">
+        <v>0</v>
+      </c>
+      <c r="X93">
+        <v>0</v>
+      </c>
+      <c r="Y93">
+        <v>0</v>
+      </c>
+      <c r="Z93">
+        <v>0</v>
+      </c>
+      <c r="AA93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:27">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>40</v>
+      </c>
+      <c r="C94">
+        <v>10</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>0</v>
+      </c>
+      <c r="L94">
+        <v>0</v>
+      </c>
+      <c r="M94">
+        <v>0</v>
+      </c>
+      <c r="N94">
+        <v>0</v>
+      </c>
+      <c r="O94">
+        <v>0</v>
+      </c>
+      <c r="P94">
+        <v>0</v>
+      </c>
+      <c r="Q94">
+        <v>0</v>
+      </c>
+      <c r="R94">
+        <v>0</v>
+      </c>
+      <c r="S94">
+        <v>0</v>
+      </c>
+      <c r="T94">
+        <v>0</v>
+      </c>
+      <c r="U94">
+        <v>0</v>
+      </c>
+      <c r="V94">
+        <v>0</v>
+      </c>
+      <c r="W94">
+        <v>0</v>
+      </c>
+      <c r="X94">
+        <v>0</v>
+      </c>
+      <c r="Y94">
+        <v>0</v>
+      </c>
+      <c r="Z94">
+        <v>0</v>
+      </c>
+      <c r="AA94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:27">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>40</v>
+      </c>
+      <c r="C95">
+        <v>10</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>0</v>
+      </c>
+      <c r="L95">
+        <v>0</v>
+      </c>
+      <c r="M95">
+        <v>0</v>
+      </c>
+      <c r="N95">
+        <v>0</v>
+      </c>
+      <c r="O95">
+        <v>0</v>
+      </c>
+      <c r="P95">
+        <v>0</v>
+      </c>
+      <c r="Q95">
+        <v>0</v>
+      </c>
+      <c r="R95">
+        <v>0</v>
+      </c>
+      <c r="S95">
+        <v>0</v>
+      </c>
+      <c r="T95">
+        <v>0</v>
+      </c>
+      <c r="U95">
+        <v>0</v>
+      </c>
+      <c r="V95">
+        <v>0</v>
+      </c>
+      <c r="W95">
+        <v>0</v>
+      </c>
+      <c r="X95">
+        <v>0</v>
+      </c>
+      <c r="Y95">
+        <v>0</v>
+      </c>
+      <c r="Z95">
+        <v>0</v>
+      </c>
+      <c r="AA95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:27">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>40</v>
+      </c>
+      <c r="C96">
+        <v>10</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+      <c r="N96">
+        <v>0</v>
+      </c>
+      <c r="O96">
+        <v>0</v>
+      </c>
+      <c r="P96">
+        <v>0</v>
+      </c>
+      <c r="Q96">
+        <v>0</v>
+      </c>
+      <c r="R96">
+        <v>0</v>
+      </c>
+      <c r="S96">
+        <v>0</v>
+      </c>
+      <c r="T96">
+        <v>0</v>
+      </c>
+      <c r="U96">
+        <v>0</v>
+      </c>
+      <c r="V96">
+        <v>0</v>
+      </c>
+      <c r="W96">
+        <v>0</v>
+      </c>
+      <c r="X96">
+        <v>0</v>
+      </c>
+      <c r="Y96">
+        <v>0</v>
+      </c>
+      <c r="Z96">
+        <v>0</v>
+      </c>
+      <c r="AA96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:27">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>40</v>
+      </c>
+      <c r="C97">
+        <v>20</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>0</v>
+      </c>
+      <c r="L97">
+        <v>0</v>
+      </c>
+      <c r="M97">
+        <v>0</v>
+      </c>
+      <c r="N97">
+        <v>0</v>
+      </c>
+      <c r="O97">
+        <v>0</v>
+      </c>
+      <c r="P97">
+        <v>0</v>
+      </c>
+      <c r="Q97">
+        <v>0</v>
+      </c>
+      <c r="R97">
+        <v>0</v>
+      </c>
+      <c r="S97">
+        <v>0</v>
+      </c>
+      <c r="T97">
+        <v>0</v>
+      </c>
+      <c r="U97">
+        <v>0</v>
+      </c>
+      <c r="V97">
+        <v>0</v>
+      </c>
+      <c r="W97">
+        <v>0</v>
+      </c>
+      <c r="X97">
+        <v>0</v>
+      </c>
+      <c r="Y97">
+        <v>0</v>
+      </c>
+      <c r="Z97">
+        <v>0</v>
+      </c>
+      <c r="AA97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:27">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <v>40</v>
+      </c>
+      <c r="C98">
+        <v>20</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>0</v>
+      </c>
+      <c r="L98">
+        <v>0</v>
+      </c>
+      <c r="M98">
+        <v>0</v>
+      </c>
+      <c r="N98">
+        <v>0</v>
+      </c>
+      <c r="O98">
+        <v>0</v>
+      </c>
+      <c r="P98">
+        <v>0</v>
+      </c>
+      <c r="Q98">
+        <v>0</v>
+      </c>
+      <c r="R98">
+        <v>0</v>
+      </c>
+      <c r="S98">
+        <v>0</v>
+      </c>
+      <c r="T98">
+        <v>0</v>
+      </c>
+      <c r="U98">
+        <v>0</v>
+      </c>
+      <c r="V98">
+        <v>0</v>
+      </c>
+      <c r="W98">
+        <v>0</v>
+      </c>
+      <c r="X98">
+        <v>0</v>
+      </c>
+      <c r="Y98">
+        <v>0</v>
+      </c>
+      <c r="Z98">
+        <v>0</v>
+      </c>
+      <c r="AA98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:27">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <v>40</v>
+      </c>
+      <c r="C99">
+        <v>20</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
+      </c>
+      <c r="L99">
+        <v>0</v>
+      </c>
+      <c r="M99">
+        <v>0</v>
+      </c>
+      <c r="N99">
+        <v>0</v>
+      </c>
+      <c r="O99">
+        <v>0</v>
+      </c>
+      <c r="P99">
+        <v>0</v>
+      </c>
+      <c r="Q99">
+        <v>0</v>
+      </c>
+      <c r="R99">
+        <v>0</v>
+      </c>
+      <c r="S99">
+        <v>0</v>
+      </c>
+      <c r="T99">
+        <v>0</v>
+      </c>
+      <c r="U99">
+        <v>0</v>
+      </c>
+      <c r="V99">
+        <v>0</v>
+      </c>
+      <c r="W99">
+        <v>0</v>
+      </c>
+      <c r="X99">
+        <v>0</v>
+      </c>
+      <c r="Y99">
+        <v>0</v>
+      </c>
+      <c r="Z99">
+        <v>0</v>
+      </c>
+      <c r="AA99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:27">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <v>40</v>
+      </c>
+      <c r="C100">
+        <v>20</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+      <c r="N100">
+        <v>0</v>
+      </c>
+      <c r="O100">
+        <v>0</v>
+      </c>
+      <c r="P100">
+        <v>0</v>
+      </c>
+      <c r="Q100">
+        <v>0</v>
+      </c>
+      <c r="R100">
+        <v>0</v>
+      </c>
+      <c r="S100">
+        <v>0</v>
+      </c>
+      <c r="T100">
+        <v>0</v>
+      </c>
+      <c r="U100">
+        <v>0</v>
+      </c>
+      <c r="V100">
+        <v>0</v>
+      </c>
+      <c r="W100">
+        <v>0</v>
+      </c>
+      <c r="X100">
+        <v>0</v>
+      </c>
+      <c r="Y100">
+        <v>0</v>
+      </c>
+      <c r="Z100">
+        <v>0</v>
+      </c>
+      <c r="AA100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:27">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <v>40</v>
+      </c>
+      <c r="C101">
+        <v>20</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <v>0</v>
+      </c>
+      <c r="L101">
+        <v>0</v>
+      </c>
+      <c r="M101">
+        <v>0</v>
+      </c>
+      <c r="N101">
+        <v>0</v>
+      </c>
+      <c r="O101">
+        <v>0</v>
+      </c>
+      <c r="P101">
+        <v>0</v>
+      </c>
+      <c r="Q101">
+        <v>0</v>
+      </c>
+      <c r="R101">
+        <v>0</v>
+      </c>
+      <c r="S101">
+        <v>0</v>
+      </c>
+      <c r="T101">
+        <v>0</v>
+      </c>
+      <c r="U101">
+        <v>0</v>
+      </c>
+      <c r="V101">
+        <v>0</v>
+      </c>
+      <c r="W101">
+        <v>0</v>
+      </c>
+      <c r="X101">
+        <v>0</v>
+      </c>
+      <c r="Y101">
+        <v>0</v>
+      </c>
+      <c r="Z101">
+        <v>0</v>
+      </c>
+      <c r="AA101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:27">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102">
+        <v>40</v>
+      </c>
+      <c r="C102">
+        <v>50</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+      <c r="N102">
+        <v>0</v>
+      </c>
+      <c r="O102">
+        <v>0</v>
+      </c>
+      <c r="P102">
+        <v>0</v>
+      </c>
+      <c r="Q102">
+        <v>0</v>
+      </c>
+      <c r="R102">
+        <v>0</v>
+      </c>
+      <c r="S102">
+        <v>0</v>
+      </c>
+      <c r="T102">
+        <v>0</v>
+      </c>
+      <c r="U102">
+        <v>0</v>
+      </c>
+      <c r="V102">
+        <v>0</v>
+      </c>
+      <c r="W102">
+        <v>0</v>
+      </c>
+      <c r="X102">
+        <v>0</v>
+      </c>
+      <c r="Y102">
+        <v>0</v>
+      </c>
+      <c r="Z102">
+        <v>0</v>
+      </c>
+      <c r="AA102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:27">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103">
+        <v>40</v>
+      </c>
+      <c r="C103">
+        <v>50</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+      <c r="N103">
+        <v>0</v>
+      </c>
+      <c r="O103">
+        <v>0</v>
+      </c>
+      <c r="P103">
+        <v>0</v>
+      </c>
+      <c r="Q103">
+        <v>0</v>
+      </c>
+      <c r="R103">
+        <v>0</v>
+      </c>
+      <c r="S103">
+        <v>0</v>
+      </c>
+      <c r="T103">
+        <v>0</v>
+      </c>
+      <c r="U103">
+        <v>0</v>
+      </c>
+      <c r="V103">
+        <v>0</v>
+      </c>
+      <c r="W103">
+        <v>0</v>
+      </c>
+      <c r="X103">
+        <v>0</v>
+      </c>
+      <c r="Y103">
+        <v>0</v>
+      </c>
+      <c r="Z103">
+        <v>0</v>
+      </c>
+      <c r="AA103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:27">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104">
+        <v>40</v>
+      </c>
+      <c r="C104">
+        <v>50</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104">
+        <v>0</v>
+      </c>
+      <c r="N104">
+        <v>0</v>
+      </c>
+      <c r="O104">
+        <v>0</v>
+      </c>
+      <c r="P104">
+        <v>0</v>
+      </c>
+      <c r="Q104">
+        <v>0</v>
+      </c>
+      <c r="R104">
+        <v>0</v>
+      </c>
+      <c r="S104">
+        <v>0</v>
+      </c>
+      <c r="T104">
+        <v>0</v>
+      </c>
+      <c r="U104">
+        <v>0</v>
+      </c>
+      <c r="V104">
+        <v>0</v>
+      </c>
+      <c r="W104">
+        <v>0</v>
+      </c>
+      <c r="X104">
+        <v>0</v>
+      </c>
+      <c r="Y104">
+        <v>0</v>
+      </c>
+      <c r="Z104">
+        <v>0</v>
+      </c>
+      <c r="AA104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:27">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105">
+        <v>40</v>
+      </c>
+      <c r="C105">
+        <v>50</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="K105">
+        <v>0</v>
+      </c>
+      <c r="L105">
+        <v>0</v>
+      </c>
+      <c r="M105">
+        <v>0</v>
+      </c>
+      <c r="N105">
+        <v>0</v>
+      </c>
+      <c r="O105">
+        <v>0</v>
+      </c>
+      <c r="P105">
+        <v>0</v>
+      </c>
+      <c r="Q105">
+        <v>0</v>
+      </c>
+      <c r="R105">
+        <v>0</v>
+      </c>
+      <c r="S105">
+        <v>0</v>
+      </c>
+      <c r="T105">
+        <v>0</v>
+      </c>
+      <c r="U105">
+        <v>0</v>
+      </c>
+      <c r="V105">
+        <v>0</v>
+      </c>
+      <c r="W105">
+        <v>0</v>
+      </c>
+      <c r="X105">
+        <v>0</v>
+      </c>
+      <c r="Y105">
+        <v>0</v>
+      </c>
+      <c r="Z105">
+        <v>0</v>
+      </c>
+      <c r="AA105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:27">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106">
+        <v>40</v>
+      </c>
+      <c r="C106">
+        <v>50</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+      <c r="K106">
+        <v>0</v>
+      </c>
+      <c r="L106">
+        <v>0</v>
+      </c>
+      <c r="M106">
+        <v>0</v>
+      </c>
+      <c r="N106">
+        <v>0</v>
+      </c>
+      <c r="O106">
+        <v>0</v>
+      </c>
+      <c r="P106">
+        <v>0</v>
+      </c>
+      <c r="Q106">
+        <v>0</v>
+      </c>
+      <c r="R106">
+        <v>0</v>
+      </c>
+      <c r="S106">
+        <v>0</v>
+      </c>
+      <c r="T106">
+        <v>0</v>
+      </c>
+      <c r="U106">
+        <v>0</v>
+      </c>
+      <c r="V106">
+        <v>0</v>
+      </c>
+      <c r="W106">
+        <v>0</v>
+      </c>
+      <c r="X106">
+        <v>0</v>
+      </c>
+      <c r="Y106">
+        <v>0</v>
+      </c>
+      <c r="Z106">
+        <v>0</v>
+      </c>
+      <c r="AA106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:27">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107">
+        <v>40</v>
+      </c>
+      <c r="C107">
+        <v>100</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
+      </c>
+      <c r="H107">
+        <v>0</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107">
+        <v>0</v>
+      </c>
+      <c r="L107">
+        <v>0</v>
+      </c>
+      <c r="M107">
+        <v>0</v>
+      </c>
+      <c r="N107">
+        <v>0</v>
+      </c>
+      <c r="O107">
+        <v>0</v>
+      </c>
+      <c r="P107">
+        <v>0</v>
+      </c>
+      <c r="Q107">
+        <v>0</v>
+      </c>
+      <c r="R107">
+        <v>0</v>
+      </c>
+      <c r="S107">
+        <v>0</v>
+      </c>
+      <c r="T107">
+        <v>0</v>
+      </c>
+      <c r="U107">
+        <v>0</v>
+      </c>
+      <c r="V107">
+        <v>0</v>
+      </c>
+      <c r="W107">
+        <v>0</v>
+      </c>
+      <c r="X107">
+        <v>0</v>
+      </c>
+      <c r="Y107">
+        <v>0</v>
+      </c>
+      <c r="Z107">
+        <v>0</v>
+      </c>
+      <c r="AA107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:27">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108">
+        <v>40</v>
+      </c>
+      <c r="C108">
+        <v>100</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+      <c r="G108">
+        <v>0</v>
+      </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="K108">
+        <v>0</v>
+      </c>
+      <c r="L108">
+        <v>0</v>
+      </c>
+      <c r="M108">
+        <v>0</v>
+      </c>
+      <c r="N108">
+        <v>0</v>
+      </c>
+      <c r="O108">
+        <v>0</v>
+      </c>
+      <c r="P108">
+        <v>0</v>
+      </c>
+      <c r="Q108">
+        <v>0</v>
+      </c>
+      <c r="R108">
+        <v>0</v>
+      </c>
+      <c r="S108">
+        <v>0</v>
+      </c>
+      <c r="T108">
+        <v>0</v>
+      </c>
+      <c r="U108">
+        <v>0</v>
+      </c>
+      <c r="V108">
+        <v>0</v>
+      </c>
+      <c r="W108">
+        <v>0</v>
+      </c>
+      <c r="X108">
+        <v>0</v>
+      </c>
+      <c r="Y108">
+        <v>0</v>
+      </c>
+      <c r="Z108">
+        <v>0</v>
+      </c>
+      <c r="AA108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:27">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109">
+        <v>40</v>
+      </c>
+      <c r="C109">
+        <v>100</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+      <c r="F109">
+        <v>0</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+      <c r="H109">
+        <v>0</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+      <c r="K109">
+        <v>0</v>
+      </c>
+      <c r="L109">
+        <v>0</v>
+      </c>
+      <c r="M109">
+        <v>0</v>
+      </c>
+      <c r="N109">
+        <v>0</v>
+      </c>
+      <c r="O109">
+        <v>0</v>
+      </c>
+      <c r="P109">
+        <v>0</v>
+      </c>
+      <c r="Q109">
+        <v>0</v>
+      </c>
+      <c r="R109">
+        <v>0</v>
+      </c>
+      <c r="S109">
+        <v>0</v>
+      </c>
+      <c r="T109">
+        <v>0</v>
+      </c>
+      <c r="U109">
+        <v>0</v>
+      </c>
+      <c r="V109">
+        <v>0</v>
+      </c>
+      <c r="W109">
+        <v>0</v>
+      </c>
+      <c r="X109">
+        <v>0</v>
+      </c>
+      <c r="Y109">
+        <v>0</v>
+      </c>
+      <c r="Z109">
+        <v>0</v>
+      </c>
+      <c r="AA109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:27">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110">
+        <v>40</v>
+      </c>
+      <c r="C110">
+        <v>100</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+      <c r="F110">
+        <v>0</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+      <c r="K110">
+        <v>0</v>
+      </c>
+      <c r="L110">
+        <v>0</v>
+      </c>
+      <c r="M110">
+        <v>0</v>
+      </c>
+      <c r="N110">
+        <v>0</v>
+      </c>
+      <c r="O110">
+        <v>0</v>
+      </c>
+      <c r="P110">
+        <v>0</v>
+      </c>
+      <c r="Q110">
+        <v>0</v>
+      </c>
+      <c r="R110">
+        <v>0</v>
+      </c>
+      <c r="S110">
+        <v>0</v>
+      </c>
+      <c r="T110">
+        <v>0</v>
+      </c>
+      <c r="U110">
+        <v>0</v>
+      </c>
+      <c r="V110">
+        <v>0</v>
+      </c>
+      <c r="W110">
+        <v>0</v>
+      </c>
+      <c r="X110">
+        <v>0</v>
+      </c>
+      <c r="Y110">
+        <v>0</v>
+      </c>
+      <c r="Z110">
+        <v>0</v>
+      </c>
+      <c r="AA110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:27">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111">
+        <v>40</v>
+      </c>
+      <c r="C111">
+        <v>100</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111">
+        <v>0</v>
+      </c>
+      <c r="G111">
+        <v>0</v>
+      </c>
+      <c r="H111">
+        <v>0</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="K111">
+        <v>0</v>
+      </c>
+      <c r="L111">
+        <v>0</v>
+      </c>
+      <c r="M111">
+        <v>0</v>
+      </c>
+      <c r="N111">
+        <v>0</v>
+      </c>
+      <c r="O111">
+        <v>0</v>
+      </c>
+      <c r="P111">
+        <v>0</v>
+      </c>
+      <c r="Q111">
+        <v>0</v>
+      </c>
+      <c r="R111">
+        <v>0</v>
+      </c>
+      <c r="S111">
+        <v>0</v>
+      </c>
+      <c r="T111">
+        <v>0</v>
+      </c>
+      <c r="U111">
+        <v>0</v>
+      </c>
+      <c r="V111">
+        <v>0</v>
+      </c>
+      <c r="W111">
+        <v>0</v>
+      </c>
+      <c r="X111">
+        <v>0</v>
+      </c>
+      <c r="Y111">
+        <v>0</v>
+      </c>
+      <c r="Z111">
+        <v>0</v>
+      </c>
+      <c r="AA111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:27">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112">
+        <v>40</v>
+      </c>
+      <c r="C112">
+        <v>200</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
+      </c>
+      <c r="H112">
+        <v>0</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112">
+        <v>0</v>
+      </c>
+      <c r="K112">
+        <v>0</v>
+      </c>
+      <c r="L112">
+        <v>0</v>
+      </c>
+      <c r="M112">
+        <v>0</v>
+      </c>
+      <c r="N112">
+        <v>0</v>
+      </c>
+      <c r="O112">
+        <v>0</v>
+      </c>
+      <c r="P112">
+        <v>0</v>
+      </c>
+      <c r="Q112">
+        <v>0</v>
+      </c>
+      <c r="R112">
+        <v>0</v>
+      </c>
+      <c r="S112">
+        <v>0</v>
+      </c>
+      <c r="T112">
+        <v>0</v>
+      </c>
+      <c r="U112">
+        <v>0</v>
+      </c>
+      <c r="V112">
+        <v>0</v>
+      </c>
+      <c r="W112">
+        <v>0</v>
+      </c>
+      <c r="X112">
+        <v>0</v>
+      </c>
+      <c r="Y112">
+        <v>0</v>
+      </c>
+      <c r="Z112">
+        <v>0</v>
+      </c>
+      <c r="AA112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:27">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113">
+        <v>40</v>
+      </c>
+      <c r="C113">
+        <v>200</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="E113">
+        <v>0</v>
+      </c>
+      <c r="F113">
+        <v>0</v>
+      </c>
+      <c r="G113">
+        <v>0</v>
+      </c>
+      <c r="H113">
+        <v>0</v>
+      </c>
+      <c r="I113">
+        <v>0</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+      <c r="K113">
+        <v>0</v>
+      </c>
+      <c r="L113">
+        <v>0</v>
+      </c>
+      <c r="M113">
+        <v>0</v>
+      </c>
+      <c r="N113">
+        <v>0</v>
+      </c>
+      <c r="O113">
+        <v>0</v>
+      </c>
+      <c r="P113">
+        <v>0</v>
+      </c>
+      <c r="Q113">
+        <v>0</v>
+      </c>
+      <c r="R113">
+        <v>0</v>
+      </c>
+      <c r="S113">
+        <v>0</v>
+      </c>
+      <c r="T113">
+        <v>0</v>
+      </c>
+      <c r="U113">
+        <v>0</v>
+      </c>
+      <c r="V113">
+        <v>0</v>
+      </c>
+      <c r="W113">
+        <v>0</v>
+      </c>
+      <c r="X113">
+        <v>0</v>
+      </c>
+      <c r="Y113">
+        <v>0</v>
+      </c>
+      <c r="Z113">
+        <v>0</v>
+      </c>
+      <c r="AA113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:27">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114">
+        <v>40</v>
+      </c>
+      <c r="C114">
+        <v>200</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+      <c r="E114">
+        <v>0</v>
+      </c>
+      <c r="F114">
+        <v>0</v>
+      </c>
+      <c r="G114">
+        <v>0</v>
+      </c>
+      <c r="H114">
+        <v>0</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
+      </c>
+      <c r="K114">
+        <v>0</v>
+      </c>
+      <c r="L114">
+        <v>0</v>
+      </c>
+      <c r="M114">
+        <v>0</v>
+      </c>
+      <c r="N114">
+        <v>0</v>
+      </c>
+      <c r="O114">
+        <v>0</v>
+      </c>
+      <c r="P114">
+        <v>0</v>
+      </c>
+      <c r="Q114">
+        <v>0</v>
+      </c>
+      <c r="R114">
+        <v>0</v>
+      </c>
+      <c r="S114">
+        <v>0</v>
+      </c>
+      <c r="T114">
+        <v>0</v>
+      </c>
+      <c r="U114">
+        <v>0</v>
+      </c>
+      <c r="V114">
+        <v>0</v>
+      </c>
+      <c r="W114">
+        <v>0</v>
+      </c>
+      <c r="X114">
+        <v>0</v>
+      </c>
+      <c r="Y114">
+        <v>0</v>
+      </c>
+      <c r="Z114">
+        <v>0</v>
+      </c>
+      <c r="AA114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:27">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115">
+        <v>40</v>
+      </c>
+      <c r="C115">
+        <v>200</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
+      </c>
+      <c r="F115">
+        <v>0</v>
+      </c>
+      <c r="G115">
+        <v>0</v>
+      </c>
+      <c r="H115">
+        <v>0</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+      <c r="K115">
+        <v>0</v>
+      </c>
+      <c r="L115">
+        <v>0</v>
+      </c>
+      <c r="M115">
+        <v>0</v>
+      </c>
+      <c r="N115">
+        <v>0</v>
+      </c>
+      <c r="O115">
+        <v>0</v>
+      </c>
+      <c r="P115">
+        <v>0</v>
+      </c>
+      <c r="Q115">
+        <v>0</v>
+      </c>
+      <c r="R115">
+        <v>0</v>
+      </c>
+      <c r="S115">
+        <v>0</v>
+      </c>
+      <c r="T115">
+        <v>0</v>
+      </c>
+      <c r="U115">
+        <v>0</v>
+      </c>
+      <c r="V115">
+        <v>0</v>
+      </c>
+      <c r="W115">
+        <v>0</v>
+      </c>
+      <c r="X115">
+        <v>0</v>
+      </c>
+      <c r="Y115">
+        <v>0</v>
+      </c>
+      <c r="Z115">
+        <v>0</v>
+      </c>
+      <c r="AA115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:27">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116">
+        <v>40</v>
+      </c>
+      <c r="C116">
+        <v>200</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="E116">
+        <v>0</v>
+      </c>
+      <c r="F116">
+        <v>0</v>
+      </c>
+      <c r="G116">
+        <v>0</v>
+      </c>
+      <c r="H116">
+        <v>0</v>
+      </c>
+      <c r="I116">
+        <v>0</v>
+      </c>
+      <c r="J116">
+        <v>0</v>
+      </c>
+      <c r="K116">
+        <v>0</v>
+      </c>
+      <c r="L116">
+        <v>0</v>
+      </c>
+      <c r="M116">
+        <v>0</v>
+      </c>
+      <c r="N116">
+        <v>0</v>
+      </c>
+      <c r="O116">
+        <v>0</v>
+      </c>
+      <c r="P116">
+        <v>0</v>
+      </c>
+      <c r="Q116">
+        <v>0</v>
+      </c>
+      <c r="R116">
+        <v>0</v>
+      </c>
+      <c r="S116">
+        <v>0</v>
+      </c>
+      <c r="T116">
+        <v>0</v>
+      </c>
+      <c r="U116">
+        <v>0</v>
+      </c>
+      <c r="V116">
+        <v>0</v>
+      </c>
+      <c r="W116">
+        <v>0</v>
+      </c>
+      <c r="X116">
+        <v>0</v>
+      </c>
+      <c r="Y116">
+        <v>0</v>
+      </c>
+      <c r="Z116">
+        <v>0</v>
+      </c>
+      <c r="AA116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:27">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117">
+        <v>40</v>
+      </c>
+      <c r="C117">
+        <v>500</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
+      </c>
+      <c r="F117">
+        <v>0</v>
+      </c>
+      <c r="G117">
+        <v>0</v>
+      </c>
+      <c r="H117">
+        <v>0</v>
+      </c>
+      <c r="I117">
+        <v>0</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
+      </c>
+      <c r="K117">
+        <v>0</v>
+      </c>
+      <c r="L117">
+        <v>0</v>
+      </c>
+      <c r="M117">
+        <v>0</v>
+      </c>
+      <c r="N117">
+        <v>0</v>
+      </c>
+      <c r="O117">
+        <v>0</v>
+      </c>
+      <c r="P117">
+        <v>0</v>
+      </c>
+      <c r="Q117">
+        <v>0</v>
+      </c>
+      <c r="R117">
+        <v>0</v>
+      </c>
+      <c r="S117">
+        <v>0</v>
+      </c>
+      <c r="T117">
+        <v>0</v>
+      </c>
+      <c r="U117">
+        <v>0</v>
+      </c>
+      <c r="V117">
+        <v>0</v>
+      </c>
+      <c r="W117">
+        <v>0</v>
+      </c>
+      <c r="X117">
+        <v>0</v>
+      </c>
+      <c r="Y117">
+        <v>0</v>
+      </c>
+      <c r="Z117">
+        <v>0</v>
+      </c>
+      <c r="AA117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:27">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118">
+        <v>40</v>
+      </c>
+      <c r="C118">
+        <v>500</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
+      <c r="F118">
+        <v>0</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+      <c r="H118">
+        <v>0</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+      <c r="K118">
+        <v>0</v>
+      </c>
+      <c r="L118">
+        <v>0</v>
+      </c>
+      <c r="M118">
+        <v>0</v>
+      </c>
+      <c r="N118">
+        <v>0</v>
+      </c>
+      <c r="O118">
+        <v>0</v>
+      </c>
+      <c r="P118">
+        <v>0</v>
+      </c>
+      <c r="Q118">
+        <v>0</v>
+      </c>
+      <c r="R118">
+        <v>0</v>
+      </c>
+      <c r="S118">
+        <v>0</v>
+      </c>
+      <c r="T118">
+        <v>0</v>
+      </c>
+      <c r="U118">
+        <v>0</v>
+      </c>
+      <c r="V118">
+        <v>0</v>
+      </c>
+      <c r="W118">
+        <v>0</v>
+      </c>
+      <c r="X118">
+        <v>0</v>
+      </c>
+      <c r="Y118">
+        <v>0</v>
+      </c>
+      <c r="Z118">
+        <v>0</v>
+      </c>
+      <c r="AA118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:27">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119">
+        <v>40</v>
+      </c>
+      <c r="C119">
+        <v>500</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
+      </c>
+      <c r="F119">
+        <v>0</v>
+      </c>
+      <c r="G119">
+        <v>0</v>
+      </c>
+      <c r="H119">
+        <v>0</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+      <c r="K119">
+        <v>0</v>
+      </c>
+      <c r="L119">
+        <v>0</v>
+      </c>
+      <c r="M119">
+        <v>0</v>
+      </c>
+      <c r="N119">
+        <v>0</v>
+      </c>
+      <c r="O119">
+        <v>0</v>
+      </c>
+      <c r="P119">
+        <v>0</v>
+      </c>
+      <c r="Q119">
+        <v>0</v>
+      </c>
+      <c r="R119">
+        <v>0</v>
+      </c>
+      <c r="S119">
+        <v>0</v>
+      </c>
+      <c r="T119">
+        <v>0</v>
+      </c>
+      <c r="U119">
+        <v>0</v>
+      </c>
+      <c r="V119">
+        <v>0</v>
+      </c>
+      <c r="W119">
+        <v>0</v>
+      </c>
+      <c r="X119">
+        <v>0</v>
+      </c>
+      <c r="Y119">
+        <v>0</v>
+      </c>
+      <c r="Z119">
+        <v>0</v>
+      </c>
+      <c r="AA119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:27">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120">
+        <v>40</v>
+      </c>
+      <c r="C120">
+        <v>500</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+      <c r="E120">
+        <v>0</v>
+      </c>
+      <c r="F120">
+        <v>0</v>
+      </c>
+      <c r="G120">
+        <v>0</v>
+      </c>
+      <c r="H120">
+        <v>0</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="K120">
+        <v>0</v>
+      </c>
+      <c r="L120">
+        <v>0</v>
+      </c>
+      <c r="M120">
+        <v>0</v>
+      </c>
+      <c r="N120">
+        <v>0</v>
+      </c>
+      <c r="O120">
+        <v>0</v>
+      </c>
+      <c r="P120">
+        <v>0</v>
+      </c>
+      <c r="Q120">
+        <v>0</v>
+      </c>
+      <c r="R120">
+        <v>0</v>
+      </c>
+      <c r="S120">
+        <v>0</v>
+      </c>
+      <c r="T120">
+        <v>0</v>
+      </c>
+      <c r="U120">
+        <v>0</v>
+      </c>
+      <c r="V120">
+        <v>0</v>
+      </c>
+      <c r="W120">
+        <v>0</v>
+      </c>
+      <c r="X120">
+        <v>0</v>
+      </c>
+      <c r="Y120">
+        <v>0</v>
+      </c>
+      <c r="Z120">
+        <v>0</v>
+      </c>
+      <c r="AA120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:27">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121">
+        <v>40</v>
+      </c>
+      <c r="C121">
+        <v>500</v>
+      </c>
+      <c r="D121">
+        <v>0</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="F121">
+        <v>0</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
+      <c r="H121">
+        <v>0</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+      <c r="K121">
+        <v>0</v>
+      </c>
+      <c r="L121">
+        <v>0</v>
+      </c>
+      <c r="M121">
+        <v>0</v>
+      </c>
+      <c r="N121">
+        <v>0</v>
+      </c>
+      <c r="O121">
+        <v>0</v>
+      </c>
+      <c r="P121">
+        <v>0</v>
+      </c>
+      <c r="Q121">
+        <v>0</v>
+      </c>
+      <c r="R121">
+        <v>0</v>
+      </c>
+      <c r="S121">
+        <v>0</v>
+      </c>
+      <c r="T121">
+        <v>0</v>
+      </c>
+      <c r="U121">
+        <v>0</v>
+      </c>
+      <c r="V121">
+        <v>0</v>
+      </c>
+      <c r="W121">
+        <v>0</v>
+      </c>
+      <c r="X121">
+        <v>0</v>
+      </c>
+      <c r="Y121">
+        <v>0</v>
+      </c>
+      <c r="Z121">
+        <v>0</v>
+      </c>
+      <c r="AA121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:27">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122">
+        <v>50</v>
+      </c>
+      <c r="C122">
+        <v>10</v>
+      </c>
+      <c r="D122">
+        <v>0</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="F122">
+        <v>0</v>
+      </c>
+      <c r="G122">
+        <v>0</v>
+      </c>
+      <c r="H122">
+        <v>0</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+      <c r="K122">
+        <v>0</v>
+      </c>
+      <c r="L122">
+        <v>0</v>
+      </c>
+      <c r="M122">
+        <v>0</v>
+      </c>
+      <c r="N122">
+        <v>0</v>
+      </c>
+      <c r="O122">
+        <v>0</v>
+      </c>
+      <c r="P122">
+        <v>0</v>
+      </c>
+      <c r="Q122">
+        <v>0</v>
+      </c>
+      <c r="R122">
+        <v>0</v>
+      </c>
+      <c r="S122">
+        <v>0</v>
+      </c>
+      <c r="T122">
+        <v>0</v>
+      </c>
+      <c r="U122">
+        <v>0</v>
+      </c>
+      <c r="V122">
+        <v>0</v>
+      </c>
+      <c r="W122">
+        <v>0</v>
+      </c>
+      <c r="X122">
+        <v>0</v>
+      </c>
+      <c r="Y122">
+        <v>0</v>
+      </c>
+      <c r="Z122">
+        <v>0</v>
+      </c>
+      <c r="AA122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:27">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123">
+        <v>50</v>
+      </c>
+      <c r="C123">
+        <v>10</v>
+      </c>
+      <c r="D123">
+        <v>0</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+      <c r="F123">
+        <v>0</v>
+      </c>
+      <c r="G123">
+        <v>0</v>
+      </c>
+      <c r="H123">
+        <v>0</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+      <c r="K123">
+        <v>0</v>
+      </c>
+      <c r="L123">
+        <v>0</v>
+      </c>
+      <c r="M123">
+        <v>0</v>
+      </c>
+      <c r="N123">
+        <v>0</v>
+      </c>
+      <c r="O123">
+        <v>0</v>
+      </c>
+      <c r="P123">
+        <v>0</v>
+      </c>
+      <c r="Q123">
+        <v>0</v>
+      </c>
+      <c r="R123">
+        <v>0</v>
+      </c>
+      <c r="S123">
+        <v>0</v>
+      </c>
+      <c r="T123">
+        <v>0</v>
+      </c>
+      <c r="U123">
+        <v>0</v>
+      </c>
+      <c r="V123">
+        <v>0</v>
+      </c>
+      <c r="W123">
+        <v>0</v>
+      </c>
+      <c r="X123">
+        <v>0</v>
+      </c>
+      <c r="Y123">
+        <v>0</v>
+      </c>
+      <c r="Z123">
+        <v>0</v>
+      </c>
+      <c r="AA123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:27">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124">
+        <v>50</v>
+      </c>
+      <c r="C124">
+        <v>10</v>
+      </c>
+      <c r="D124">
+        <v>0</v>
+      </c>
+      <c r="E124">
+        <v>0</v>
+      </c>
+      <c r="F124">
+        <v>0</v>
+      </c>
+      <c r="G124">
+        <v>0</v>
+      </c>
+      <c r="H124">
+        <v>0</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+      <c r="K124">
+        <v>0</v>
+      </c>
+      <c r="L124">
+        <v>0</v>
+      </c>
+      <c r="M124">
+        <v>0</v>
+      </c>
+      <c r="N124">
+        <v>0</v>
+      </c>
+      <c r="O124">
+        <v>0</v>
+      </c>
+      <c r="P124">
+        <v>0</v>
+      </c>
+      <c r="Q124">
+        <v>0</v>
+      </c>
+      <c r="R124">
+        <v>0</v>
+      </c>
+      <c r="S124">
+        <v>0</v>
+      </c>
+      <c r="T124">
+        <v>0</v>
+      </c>
+      <c r="U124">
+        <v>0</v>
+      </c>
+      <c r="V124">
+        <v>0</v>
+      </c>
+      <c r="W124">
+        <v>0</v>
+      </c>
+      <c r="X124">
+        <v>0</v>
+      </c>
+      <c r="Y124">
+        <v>0</v>
+      </c>
+      <c r="Z124">
+        <v>0</v>
+      </c>
+      <c r="AA124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:27">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125">
+        <v>50</v>
+      </c>
+      <c r="C125">
+        <v>10</v>
+      </c>
+      <c r="D125">
+        <v>0</v>
+      </c>
+      <c r="E125">
+        <v>0</v>
+      </c>
+      <c r="F125">
+        <v>0</v>
+      </c>
+      <c r="G125">
+        <v>0</v>
+      </c>
+      <c r="H125">
+        <v>0</v>
+      </c>
+      <c r="I125">
+        <v>0</v>
+      </c>
+      <c r="J125">
+        <v>0</v>
+      </c>
+      <c r="K125">
+        <v>0</v>
+      </c>
+      <c r="L125">
+        <v>0</v>
+      </c>
+      <c r="M125">
+        <v>0</v>
+      </c>
+      <c r="N125">
+        <v>0</v>
+      </c>
+      <c r="O125">
+        <v>0</v>
+      </c>
+      <c r="P125">
+        <v>0</v>
+      </c>
+      <c r="Q125">
+        <v>0</v>
+      </c>
+      <c r="R125">
+        <v>0</v>
+      </c>
+      <c r="S125">
+        <v>0</v>
+      </c>
+      <c r="T125">
+        <v>0</v>
+      </c>
+      <c r="U125">
+        <v>0</v>
+      </c>
+      <c r="V125">
+        <v>0</v>
+      </c>
+      <c r="W125">
+        <v>0</v>
+      </c>
+      <c r="X125">
+        <v>0</v>
+      </c>
+      <c r="Y125">
+        <v>0</v>
+      </c>
+      <c r="Z125">
+        <v>0</v>
+      </c>
+      <c r="AA125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:27">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126">
+        <v>50</v>
+      </c>
+      <c r="C126">
+        <v>10</v>
+      </c>
+      <c r="D126">
+        <v>0</v>
+      </c>
+      <c r="E126">
+        <v>0</v>
+      </c>
+      <c r="F126">
+        <v>0</v>
+      </c>
+      <c r="G126">
+        <v>0</v>
+      </c>
+      <c r="H126">
+        <v>0</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
+      <c r="K126">
+        <v>0</v>
+      </c>
+      <c r="L126">
+        <v>0</v>
+      </c>
+      <c r="M126">
+        <v>0</v>
+      </c>
+      <c r="N126">
+        <v>0</v>
+      </c>
+      <c r="O126">
+        <v>0</v>
+      </c>
+      <c r="P126">
+        <v>0</v>
+      </c>
+      <c r="Q126">
+        <v>0</v>
+      </c>
+      <c r="R126">
+        <v>0</v>
+      </c>
+      <c r="S126">
+        <v>0</v>
+      </c>
+      <c r="T126">
+        <v>0</v>
+      </c>
+      <c r="U126">
+        <v>0</v>
+      </c>
+      <c r="V126">
+        <v>0</v>
+      </c>
+      <c r="W126">
+        <v>0</v>
+      </c>
+      <c r="X126">
+        <v>0</v>
+      </c>
+      <c r="Y126">
+        <v>0</v>
+      </c>
+      <c r="Z126">
+        <v>0</v>
+      </c>
+      <c r="AA126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:27">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127">
+        <v>50</v>
+      </c>
+      <c r="C127">
+        <v>20</v>
+      </c>
+      <c r="D127">
+        <v>0</v>
+      </c>
+      <c r="E127">
+        <v>0</v>
+      </c>
+      <c r="F127">
+        <v>0</v>
+      </c>
+      <c r="G127">
+        <v>0</v>
+      </c>
+      <c r="H127">
+        <v>0</v>
+      </c>
+      <c r="I127">
+        <v>0</v>
+      </c>
+      <c r="J127">
+        <v>0</v>
+      </c>
+      <c r="K127">
+        <v>0</v>
+      </c>
+      <c r="L127">
+        <v>0</v>
+      </c>
+      <c r="M127">
+        <v>0</v>
+      </c>
+      <c r="N127">
+        <v>0</v>
+      </c>
+      <c r="O127">
+        <v>0</v>
+      </c>
+      <c r="P127">
+        <v>0</v>
+      </c>
+      <c r="Q127">
+        <v>0</v>
+      </c>
+      <c r="R127">
+        <v>0</v>
+      </c>
+      <c r="S127">
+        <v>0</v>
+      </c>
+      <c r="T127">
+        <v>0</v>
+      </c>
+      <c r="U127">
+        <v>0</v>
+      </c>
+      <c r="V127">
+        <v>0</v>
+      </c>
+      <c r="W127">
+        <v>0</v>
+      </c>
+      <c r="X127">
+        <v>0</v>
+      </c>
+      <c r="Y127">
+        <v>0</v>
+      </c>
+      <c r="Z127">
+        <v>0</v>
+      </c>
+      <c r="AA127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:27">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128">
+        <v>50</v>
+      </c>
+      <c r="C128">
+        <v>20</v>
+      </c>
+      <c r="D128">
+        <v>0</v>
+      </c>
+      <c r="E128">
+        <v>0</v>
+      </c>
+      <c r="F128">
+        <v>0</v>
+      </c>
+      <c r="G128">
+        <v>0</v>
+      </c>
+      <c r="H128">
+        <v>0</v>
+      </c>
+      <c r="I128">
+        <v>0</v>
+      </c>
+      <c r="J128">
+        <v>0</v>
+      </c>
+      <c r="K128">
+        <v>0</v>
+      </c>
+      <c r="L128">
+        <v>0</v>
+      </c>
+      <c r="M128">
+        <v>0</v>
+      </c>
+      <c r="N128">
+        <v>0</v>
+      </c>
+      <c r="O128">
+        <v>0</v>
+      </c>
+      <c r="P128">
+        <v>0</v>
+      </c>
+      <c r="Q128">
+        <v>0</v>
+      </c>
+      <c r="R128">
+        <v>0</v>
+      </c>
+      <c r="S128">
+        <v>0</v>
+      </c>
+      <c r="T128">
+        <v>0</v>
+      </c>
+      <c r="U128">
+        <v>0</v>
+      </c>
+      <c r="V128">
+        <v>0</v>
+      </c>
+      <c r="W128">
+        <v>0</v>
+      </c>
+      <c r="X128">
+        <v>0</v>
+      </c>
+      <c r="Y128">
+        <v>0</v>
+      </c>
+      <c r="Z128">
+        <v>0</v>
+      </c>
+      <c r="AA128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:27">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129">
+        <v>50</v>
+      </c>
+      <c r="C129">
+        <v>20</v>
+      </c>
+      <c r="D129">
+        <v>0</v>
+      </c>
+      <c r="E129">
+        <v>0</v>
+      </c>
+      <c r="F129">
+        <v>0</v>
+      </c>
+      <c r="G129">
+        <v>0</v>
+      </c>
+      <c r="H129">
+        <v>0</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
+      <c r="K129">
+        <v>0</v>
+      </c>
+      <c r="L129">
+        <v>0</v>
+      </c>
+      <c r="M129">
+        <v>0</v>
+      </c>
+      <c r="N129">
+        <v>0</v>
+      </c>
+      <c r="O129">
+        <v>0</v>
+      </c>
+      <c r="P129">
+        <v>0</v>
+      </c>
+      <c r="Q129">
+        <v>0</v>
+      </c>
+      <c r="R129">
+        <v>0</v>
+      </c>
+      <c r="S129">
+        <v>0</v>
+      </c>
+      <c r="T129">
+        <v>0</v>
+      </c>
+      <c r="U129">
+        <v>0</v>
+      </c>
+      <c r="V129">
+        <v>0</v>
+      </c>
+      <c r="W129">
+        <v>0</v>
+      </c>
+      <c r="X129">
+        <v>0</v>
+      </c>
+      <c r="Y129">
+        <v>0</v>
+      </c>
+      <c r="Z129">
+        <v>0</v>
+      </c>
+      <c r="AA129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:27">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130">
+        <v>50</v>
+      </c>
+      <c r="C130">
+        <v>20</v>
+      </c>
+      <c r="D130">
+        <v>0</v>
+      </c>
+      <c r="E130">
+        <v>0</v>
+      </c>
+      <c r="F130">
+        <v>0</v>
+      </c>
+      <c r="G130">
+        <v>0</v>
+      </c>
+      <c r="H130">
+        <v>0</v>
+      </c>
+      <c r="I130">
+        <v>0</v>
+      </c>
+      <c r="J130">
+        <v>0</v>
+      </c>
+      <c r="K130">
+        <v>0</v>
+      </c>
+      <c r="L130">
+        <v>0</v>
+      </c>
+      <c r="M130">
+        <v>0</v>
+      </c>
+      <c r="N130">
+        <v>0</v>
+      </c>
+      <c r="O130">
+        <v>0</v>
+      </c>
+      <c r="P130">
+        <v>0</v>
+      </c>
+      <c r="Q130">
+        <v>0</v>
+      </c>
+      <c r="R130">
+        <v>0</v>
+      </c>
+      <c r="S130">
+        <v>0</v>
+      </c>
+      <c r="T130">
+        <v>0</v>
+      </c>
+      <c r="U130">
+        <v>0</v>
+      </c>
+      <c r="V130">
+        <v>0</v>
+      </c>
+      <c r="W130">
+        <v>0</v>
+      </c>
+      <c r="X130">
+        <v>0</v>
+      </c>
+      <c r="Y130">
+        <v>0</v>
+      </c>
+      <c r="Z130">
+        <v>0</v>
+      </c>
+      <c r="AA130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:27">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131">
+        <v>50</v>
+      </c>
+      <c r="C131">
+        <v>20</v>
+      </c>
+      <c r="D131">
+        <v>0</v>
+      </c>
+      <c r="E131">
+        <v>0</v>
+      </c>
+      <c r="F131">
+        <v>0</v>
+      </c>
+      <c r="G131">
+        <v>0</v>
+      </c>
+      <c r="H131">
+        <v>0</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131">
+        <v>0</v>
+      </c>
+      <c r="K131">
+        <v>0</v>
+      </c>
+      <c r="L131">
+        <v>0</v>
+      </c>
+      <c r="M131">
+        <v>0</v>
+      </c>
+      <c r="N131">
+        <v>0</v>
+      </c>
+      <c r="O131">
+        <v>0</v>
+      </c>
+      <c r="P131">
+        <v>0</v>
+      </c>
+      <c r="Q131">
+        <v>0</v>
+      </c>
+      <c r="R131">
+        <v>0</v>
+      </c>
+      <c r="S131">
+        <v>0</v>
+      </c>
+      <c r="T131">
+        <v>0</v>
+      </c>
+      <c r="U131">
+        <v>0</v>
+      </c>
+      <c r="V131">
+        <v>0</v>
+      </c>
+      <c r="W131">
+        <v>0</v>
+      </c>
+      <c r="X131">
+        <v>0</v>
+      </c>
+      <c r="Y131">
+        <v>0</v>
+      </c>
+      <c r="Z131">
+        <v>0</v>
+      </c>
+      <c r="AA131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:27">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132">
+        <v>50</v>
+      </c>
+      <c r="C132">
+        <v>50</v>
+      </c>
+      <c r="D132">
+        <v>0</v>
+      </c>
+      <c r="E132">
+        <v>0</v>
+      </c>
+      <c r="F132">
+        <v>0</v>
+      </c>
+      <c r="G132">
+        <v>0</v>
+      </c>
+      <c r="H132">
+        <v>0</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
+      <c r="K132">
+        <v>0</v>
+      </c>
+      <c r="L132">
+        <v>0</v>
+      </c>
+      <c r="M132">
+        <v>0</v>
+      </c>
+      <c r="N132">
+        <v>0</v>
+      </c>
+      <c r="O132">
+        <v>0</v>
+      </c>
+      <c r="P132">
+        <v>0</v>
+      </c>
+      <c r="Q132">
+        <v>0</v>
+      </c>
+      <c r="R132">
+        <v>0</v>
+      </c>
+      <c r="S132">
+        <v>0</v>
+      </c>
+      <c r="T132">
+        <v>0</v>
+      </c>
+      <c r="U132">
+        <v>0</v>
+      </c>
+      <c r="V132">
+        <v>0</v>
+      </c>
+      <c r="W132">
+        <v>0</v>
+      </c>
+      <c r="X132">
+        <v>0</v>
+      </c>
+      <c r="Y132">
+        <v>0</v>
+      </c>
+      <c r="Z132">
+        <v>0</v>
+      </c>
+      <c r="AA132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:27">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133">
+        <v>50</v>
+      </c>
+      <c r="C133">
+        <v>50</v>
+      </c>
+      <c r="D133">
+        <v>0</v>
+      </c>
+      <c r="E133">
+        <v>0</v>
+      </c>
+      <c r="F133">
+        <v>0</v>
+      </c>
+      <c r="G133">
+        <v>0</v>
+      </c>
+      <c r="H133">
+        <v>0</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+      <c r="K133">
+        <v>0</v>
+      </c>
+      <c r="L133">
+        <v>0</v>
+      </c>
+      <c r="M133">
+        <v>0</v>
+      </c>
+      <c r="N133">
+        <v>0</v>
+      </c>
+      <c r="O133">
+        <v>0</v>
+      </c>
+      <c r="P133">
+        <v>0</v>
+      </c>
+      <c r="Q133">
+        <v>0</v>
+      </c>
+      <c r="R133">
+        <v>0</v>
+      </c>
+      <c r="S133">
+        <v>0</v>
+      </c>
+      <c r="T133">
+        <v>0</v>
+      </c>
+      <c r="U133">
+        <v>0</v>
+      </c>
+      <c r="V133">
+        <v>0</v>
+      </c>
+      <c r="W133">
+        <v>0</v>
+      </c>
+      <c r="X133">
+        <v>0</v>
+      </c>
+      <c r="Y133">
+        <v>0</v>
+      </c>
+      <c r="Z133">
+        <v>0</v>
+      </c>
+      <c r="AA133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:27">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134">
+        <v>50</v>
+      </c>
+      <c r="C134">
+        <v>50</v>
+      </c>
+      <c r="D134">
+        <v>0</v>
+      </c>
+      <c r="E134">
+        <v>0</v>
+      </c>
+      <c r="F134">
+        <v>0</v>
+      </c>
+      <c r="G134">
+        <v>0</v>
+      </c>
+      <c r="H134">
+        <v>0</v>
+      </c>
+      <c r="I134">
+        <v>0</v>
+      </c>
+      <c r="J134">
+        <v>0</v>
+      </c>
+      <c r="K134">
+        <v>0</v>
+      </c>
+      <c r="L134">
+        <v>0</v>
+      </c>
+      <c r="M134">
+        <v>0</v>
+      </c>
+      <c r="N134">
+        <v>0</v>
+      </c>
+      <c r="O134">
+        <v>0</v>
+      </c>
+      <c r="P134">
+        <v>0</v>
+      </c>
+      <c r="Q134">
+        <v>0</v>
+      </c>
+      <c r="R134">
+        <v>0</v>
+      </c>
+      <c r="S134">
+        <v>0</v>
+      </c>
+      <c r="T134">
+        <v>0</v>
+      </c>
+      <c r="U134">
+        <v>0</v>
+      </c>
+      <c r="V134">
+        <v>0</v>
+      </c>
+      <c r="W134">
+        <v>0</v>
+      </c>
+      <c r="X134">
+        <v>0</v>
+      </c>
+      <c r="Y134">
+        <v>0</v>
+      </c>
+      <c r="Z134">
+        <v>0</v>
+      </c>
+      <c r="AA134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:27">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135">
+        <v>50</v>
+      </c>
+      <c r="C135">
+        <v>50</v>
+      </c>
+      <c r="D135">
+        <v>0</v>
+      </c>
+      <c r="E135">
+        <v>0</v>
+      </c>
+      <c r="F135">
+        <v>0</v>
+      </c>
+      <c r="G135">
+        <v>0</v>
+      </c>
+      <c r="H135">
+        <v>0</v>
+      </c>
+      <c r="I135">
+        <v>0</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+      <c r="K135">
+        <v>0</v>
+      </c>
+      <c r="L135">
+        <v>0</v>
+      </c>
+      <c r="M135">
+        <v>0</v>
+      </c>
+      <c r="N135">
+        <v>0</v>
+      </c>
+      <c r="O135">
+        <v>0</v>
+      </c>
+      <c r="P135">
+        <v>0</v>
+      </c>
+      <c r="Q135">
+        <v>0</v>
+      </c>
+      <c r="R135">
+        <v>0</v>
+      </c>
+      <c r="S135">
+        <v>0</v>
+      </c>
+      <c r="T135">
+        <v>0</v>
+      </c>
+      <c r="U135">
+        <v>0</v>
+      </c>
+      <c r="V135">
+        <v>0</v>
+      </c>
+      <c r="W135">
+        <v>0</v>
+      </c>
+      <c r="X135">
+        <v>0</v>
+      </c>
+      <c r="Y135">
+        <v>0</v>
+      </c>
+      <c r="Z135">
+        <v>0</v>
+      </c>
+      <c r="AA135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:27">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136">
+        <v>50</v>
+      </c>
+      <c r="C136">
+        <v>50</v>
+      </c>
+      <c r="D136">
+        <v>0</v>
+      </c>
+      <c r="E136">
+        <v>0</v>
+      </c>
+      <c r="F136">
+        <v>0</v>
+      </c>
+      <c r="G136">
+        <v>0</v>
+      </c>
+      <c r="H136">
+        <v>0</v>
+      </c>
+      <c r="I136">
+        <v>0</v>
+      </c>
+      <c r="J136">
+        <v>0</v>
+      </c>
+      <c r="K136">
+        <v>0</v>
+      </c>
+      <c r="L136">
+        <v>0</v>
+      </c>
+      <c r="M136">
+        <v>0</v>
+      </c>
+      <c r="N136">
+        <v>0</v>
+      </c>
+      <c r="O136">
+        <v>0</v>
+      </c>
+      <c r="P136">
+        <v>0</v>
+      </c>
+      <c r="Q136">
+        <v>0</v>
+      </c>
+      <c r="R136">
+        <v>0</v>
+      </c>
+      <c r="S136">
+        <v>0</v>
+      </c>
+      <c r="T136">
+        <v>0</v>
+      </c>
+      <c r="U136">
+        <v>0</v>
+      </c>
+      <c r="V136">
+        <v>0</v>
+      </c>
+      <c r="W136">
+        <v>0</v>
+      </c>
+      <c r="X136">
+        <v>0</v>
+      </c>
+      <c r="Y136">
+        <v>0</v>
+      </c>
+      <c r="Z136">
+        <v>0</v>
+      </c>
+      <c r="AA136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:27">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137">
+        <v>50</v>
+      </c>
+      <c r="C137">
+        <v>100</v>
+      </c>
+      <c r="D137">
+        <v>0</v>
+      </c>
+      <c r="E137">
+        <v>0</v>
+      </c>
+      <c r="F137">
+        <v>0</v>
+      </c>
+      <c r="G137">
+        <v>0</v>
+      </c>
+      <c r="H137">
+        <v>0</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137">
+        <v>0</v>
+      </c>
+      <c r="K137">
+        <v>0</v>
+      </c>
+      <c r="L137">
+        <v>0</v>
+      </c>
+      <c r="M137">
+        <v>0</v>
+      </c>
+      <c r="N137">
+        <v>0</v>
+      </c>
+      <c r="O137">
+        <v>0</v>
+      </c>
+      <c r="P137">
+        <v>0</v>
+      </c>
+      <c r="Q137">
+        <v>0</v>
+      </c>
+      <c r="R137">
+        <v>0</v>
+      </c>
+      <c r="S137">
+        <v>0</v>
+      </c>
+      <c r="T137">
+        <v>0</v>
+      </c>
+      <c r="U137">
+        <v>0</v>
+      </c>
+      <c r="V137">
+        <v>0</v>
+      </c>
+      <c r="W137">
+        <v>0</v>
+      </c>
+      <c r="X137">
+        <v>0</v>
+      </c>
+      <c r="Y137">
+        <v>0</v>
+      </c>
+      <c r="Z137">
+        <v>0</v>
+      </c>
+      <c r="AA137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:27">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138">
+        <v>50</v>
+      </c>
+      <c r="C138">
+        <v>100</v>
+      </c>
+      <c r="D138">
+        <v>0</v>
+      </c>
+      <c r="E138">
+        <v>0</v>
+      </c>
+      <c r="F138">
+        <v>0</v>
+      </c>
+      <c r="G138">
+        <v>0</v>
+      </c>
+      <c r="H138">
+        <v>0</v>
+      </c>
+      <c r="I138">
+        <v>0</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
+      </c>
+      <c r="K138">
+        <v>0</v>
+      </c>
+      <c r="L138">
+        <v>0</v>
+      </c>
+      <c r="M138">
+        <v>0</v>
+      </c>
+      <c r="N138">
+        <v>0</v>
+      </c>
+      <c r="O138">
+        <v>0</v>
+      </c>
+      <c r="P138">
+        <v>0</v>
+      </c>
+      <c r="Q138">
+        <v>0</v>
+      </c>
+      <c r="R138">
+        <v>0</v>
+      </c>
+      <c r="S138">
+        <v>0</v>
+      </c>
+      <c r="T138">
+        <v>0</v>
+      </c>
+      <c r="U138">
+        <v>0</v>
+      </c>
+      <c r="V138">
+        <v>0</v>
+      </c>
+      <c r="W138">
+        <v>0</v>
+      </c>
+      <c r="X138">
+        <v>0</v>
+      </c>
+      <c r="Y138">
+        <v>0</v>
+      </c>
+      <c r="Z138">
+        <v>0</v>
+      </c>
+      <c r="AA138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:27">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139">
+        <v>50</v>
+      </c>
+      <c r="C139">
+        <v>100</v>
+      </c>
+      <c r="D139">
+        <v>0</v>
+      </c>
+      <c r="E139">
+        <v>0</v>
+      </c>
+      <c r="F139">
+        <v>0</v>
+      </c>
+      <c r="G139">
+        <v>0</v>
+      </c>
+      <c r="H139">
+        <v>0</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="J139">
+        <v>0</v>
+      </c>
+      <c r="K139">
+        <v>0</v>
+      </c>
+      <c r="L139">
+        <v>0</v>
+      </c>
+      <c r="M139">
+        <v>0</v>
+      </c>
+      <c r="N139">
+        <v>0</v>
+      </c>
+      <c r="O139">
+        <v>0</v>
+      </c>
+      <c r="P139">
+        <v>0</v>
+      </c>
+      <c r="Q139">
+        <v>0</v>
+      </c>
+      <c r="R139">
+        <v>0</v>
+      </c>
+      <c r="S139">
+        <v>0</v>
+      </c>
+      <c r="T139">
+        <v>0</v>
+      </c>
+      <c r="U139">
+        <v>0</v>
+      </c>
+      <c r="V139">
+        <v>0</v>
+      </c>
+      <c r="W139">
+        <v>0</v>
+      </c>
+      <c r="X139">
+        <v>0</v>
+      </c>
+      <c r="Y139">
+        <v>0</v>
+      </c>
+      <c r="Z139">
+        <v>0</v>
+      </c>
+      <c r="AA139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:27">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="B140">
+        <v>50</v>
+      </c>
+      <c r="C140">
+        <v>100</v>
+      </c>
+      <c r="D140">
+        <v>0</v>
+      </c>
+      <c r="E140">
+        <v>0</v>
+      </c>
+      <c r="F140">
+        <v>0</v>
+      </c>
+      <c r="G140">
+        <v>0</v>
+      </c>
+      <c r="H140">
+        <v>0</v>
+      </c>
+      <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+      <c r="K140">
+        <v>0</v>
+      </c>
+      <c r="L140">
+        <v>0</v>
+      </c>
+      <c r="M140">
+        <v>0</v>
+      </c>
+      <c r="N140">
+        <v>0</v>
+      </c>
+      <c r="O140">
+        <v>0</v>
+      </c>
+      <c r="P140">
+        <v>0</v>
+      </c>
+      <c r="Q140">
+        <v>0</v>
+      </c>
+      <c r="R140">
+        <v>0</v>
+      </c>
+      <c r="S140">
+        <v>0</v>
+      </c>
+      <c r="T140">
+        <v>0</v>
+      </c>
+      <c r="U140">
+        <v>0</v>
+      </c>
+      <c r="V140">
+        <v>0</v>
+      </c>
+      <c r="W140">
+        <v>0</v>
+      </c>
+      <c r="X140">
+        <v>0</v>
+      </c>
+      <c r="Y140">
+        <v>0</v>
+      </c>
+      <c r="Z140">
+        <v>0</v>
+      </c>
+      <c r="AA140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:27">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141">
+        <v>50</v>
+      </c>
+      <c r="C141">
+        <v>100</v>
+      </c>
+      <c r="D141">
+        <v>0</v>
+      </c>
+      <c r="E141">
+        <v>0</v>
+      </c>
+      <c r="F141">
+        <v>0</v>
+      </c>
+      <c r="G141">
+        <v>0</v>
+      </c>
+      <c r="H141">
+        <v>0</v>
+      </c>
+      <c r="I141">
+        <v>0</v>
+      </c>
+      <c r="J141">
+        <v>0</v>
+      </c>
+      <c r="K141">
+        <v>0</v>
+      </c>
+      <c r="L141">
+        <v>0</v>
+      </c>
+      <c r="M141">
+        <v>0</v>
+      </c>
+      <c r="N141">
+        <v>0</v>
+      </c>
+      <c r="O141">
+        <v>0</v>
+      </c>
+      <c r="P141">
+        <v>0</v>
+      </c>
+      <c r="Q141">
+        <v>0</v>
+      </c>
+      <c r="R141">
+        <v>0</v>
+      </c>
+      <c r="S141">
+        <v>0</v>
+      </c>
+      <c r="T141">
+        <v>0</v>
+      </c>
+      <c r="U141">
+        <v>0</v>
+      </c>
+      <c r="V141">
+        <v>0</v>
+      </c>
+      <c r="W141">
+        <v>0</v>
+      </c>
+      <c r="X141">
+        <v>0</v>
+      </c>
+      <c r="Y141">
+        <v>0</v>
+      </c>
+      <c r="Z141">
+        <v>0</v>
+      </c>
+      <c r="AA141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:27">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142">
+        <v>50</v>
+      </c>
+      <c r="C142">
+        <v>200</v>
+      </c>
+      <c r="D142">
+        <v>0</v>
+      </c>
+      <c r="E142">
+        <v>0</v>
+      </c>
+      <c r="F142">
+        <v>0</v>
+      </c>
+      <c r="G142">
+        <v>0</v>
+      </c>
+      <c r="H142">
+        <v>0</v>
+      </c>
+      <c r="I142">
+        <v>0</v>
+      </c>
+      <c r="J142">
+        <v>0</v>
+      </c>
+      <c r="K142">
+        <v>0</v>
+      </c>
+      <c r="L142">
+        <v>0</v>
+      </c>
+      <c r="M142">
+        <v>0</v>
+      </c>
+      <c r="N142">
+        <v>0</v>
+      </c>
+      <c r="O142">
+        <v>0</v>
+      </c>
+      <c r="P142">
+        <v>0</v>
+      </c>
+      <c r="Q142">
+        <v>0</v>
+      </c>
+      <c r="R142">
+        <v>0</v>
+      </c>
+      <c r="S142">
+        <v>0</v>
+      </c>
+      <c r="T142">
+        <v>0</v>
+      </c>
+      <c r="U142">
+        <v>0</v>
+      </c>
+      <c r="V142">
+        <v>0</v>
+      </c>
+      <c r="W142">
+        <v>0</v>
+      </c>
+      <c r="X142">
+        <v>0</v>
+      </c>
+      <c r="Y142">
+        <v>0</v>
+      </c>
+      <c r="Z142">
+        <v>0</v>
+      </c>
+      <c r="AA142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:27">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143">
+        <v>50</v>
+      </c>
+      <c r="C143">
+        <v>200</v>
+      </c>
+      <c r="D143">
+        <v>0</v>
+      </c>
+      <c r="E143">
+        <v>0</v>
+      </c>
+      <c r="F143">
+        <v>0</v>
+      </c>
+      <c r="G143">
+        <v>0</v>
+      </c>
+      <c r="H143">
+        <v>0</v>
+      </c>
+      <c r="I143">
+        <v>0</v>
+      </c>
+      <c r="J143">
+        <v>0</v>
+      </c>
+      <c r="K143">
+        <v>0</v>
+      </c>
+      <c r="L143">
+        <v>0</v>
+      </c>
+      <c r="M143">
+        <v>0</v>
+      </c>
+      <c r="N143">
+        <v>0</v>
+      </c>
+      <c r="O143">
+        <v>0</v>
+      </c>
+      <c r="P143">
+        <v>0</v>
+      </c>
+      <c r="Q143">
+        <v>0</v>
+      </c>
+      <c r="R143">
+        <v>0</v>
+      </c>
+      <c r="S143">
+        <v>0</v>
+      </c>
+      <c r="T143">
+        <v>0</v>
+      </c>
+      <c r="U143">
+        <v>0</v>
+      </c>
+      <c r="V143">
+        <v>0</v>
+      </c>
+      <c r="W143">
+        <v>0</v>
+      </c>
+      <c r="X143">
+        <v>0</v>
+      </c>
+      <c r="Y143">
+        <v>0</v>
+      </c>
+      <c r="Z143">
+        <v>0</v>
+      </c>
+      <c r="AA143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:27">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144">
+        <v>50</v>
+      </c>
+      <c r="C144">
+        <v>200</v>
+      </c>
+      <c r="D144">
+        <v>0</v>
+      </c>
+      <c r="E144">
+        <v>0</v>
+      </c>
+      <c r="F144">
+        <v>0</v>
+      </c>
+      <c r="G144">
+        <v>0</v>
+      </c>
+      <c r="H144">
+        <v>0</v>
+      </c>
+      <c r="I144">
+        <v>0</v>
+      </c>
+      <c r="J144">
+        <v>0</v>
+      </c>
+      <c r="K144">
+        <v>0</v>
+      </c>
+      <c r="L144">
+        <v>0</v>
+      </c>
+      <c r="M144">
+        <v>0</v>
+      </c>
+      <c r="N144">
+        <v>0</v>
+      </c>
+      <c r="O144">
+        <v>0</v>
+      </c>
+      <c r="P144">
+        <v>0</v>
+      </c>
+      <c r="Q144">
+        <v>0</v>
+      </c>
+      <c r="R144">
+        <v>0</v>
+      </c>
+      <c r="S144">
+        <v>0</v>
+      </c>
+      <c r="T144">
+        <v>0</v>
+      </c>
+      <c r="U144">
+        <v>0</v>
+      </c>
+      <c r="V144">
+        <v>0</v>
+      </c>
+      <c r="W144">
+        <v>0</v>
+      </c>
+      <c r="X144">
+        <v>0</v>
+      </c>
+      <c r="Y144">
+        <v>0</v>
+      </c>
+      <c r="Z144">
+        <v>0</v>
+      </c>
+      <c r="AA144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:27">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145">
+        <v>50</v>
+      </c>
+      <c r="C145">
+        <v>200</v>
+      </c>
+      <c r="D145">
+        <v>0</v>
+      </c>
+      <c r="E145">
+        <v>0</v>
+      </c>
+      <c r="F145">
+        <v>0</v>
+      </c>
+      <c r="G145">
+        <v>0</v>
+      </c>
+      <c r="H145">
+        <v>0</v>
+      </c>
+      <c r="I145">
+        <v>0</v>
+      </c>
+      <c r="J145">
+        <v>0</v>
+      </c>
+      <c r="K145">
+        <v>0</v>
+      </c>
+      <c r="L145">
+        <v>0</v>
+      </c>
+      <c r="M145">
+        <v>0</v>
+      </c>
+      <c r="N145">
+        <v>0</v>
+      </c>
+      <c r="O145">
+        <v>0</v>
+      </c>
+      <c r="P145">
+        <v>0</v>
+      </c>
+      <c r="Q145">
+        <v>0</v>
+      </c>
+      <c r="R145">
+        <v>0</v>
+      </c>
+      <c r="S145">
+        <v>0</v>
+      </c>
+      <c r="T145">
+        <v>0</v>
+      </c>
+      <c r="U145">
+        <v>0</v>
+      </c>
+      <c r="V145">
+        <v>0</v>
+      </c>
+      <c r="W145">
+        <v>0</v>
+      </c>
+      <c r="X145">
+        <v>0</v>
+      </c>
+      <c r="Y145">
+        <v>0</v>
+      </c>
+      <c r="Z145">
+        <v>0</v>
+      </c>
+      <c r="AA145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:27">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="B146">
+        <v>50</v>
+      </c>
+      <c r="C146">
+        <v>200</v>
+      </c>
+      <c r="D146">
+        <v>0</v>
+      </c>
+      <c r="E146">
+        <v>0</v>
+      </c>
+      <c r="F146">
+        <v>0</v>
+      </c>
+      <c r="G146">
+        <v>0</v>
+      </c>
+      <c r="H146">
+        <v>0</v>
+      </c>
+      <c r="I146">
+        <v>0</v>
+      </c>
+      <c r="J146">
+        <v>0</v>
+      </c>
+      <c r="K146">
+        <v>0</v>
+      </c>
+      <c r="L146">
+        <v>0</v>
+      </c>
+      <c r="M146">
+        <v>0</v>
+      </c>
+      <c r="N146">
+        <v>0</v>
+      </c>
+      <c r="O146">
+        <v>0</v>
+      </c>
+      <c r="P146">
+        <v>0</v>
+      </c>
+      <c r="Q146">
+        <v>0</v>
+      </c>
+      <c r="R146">
+        <v>0</v>
+      </c>
+      <c r="S146">
+        <v>0</v>
+      </c>
+      <c r="T146">
+        <v>0</v>
+      </c>
+      <c r="U146">
+        <v>0</v>
+      </c>
+      <c r="V146">
+        <v>0</v>
+      </c>
+      <c r="W146">
+        <v>0</v>
+      </c>
+      <c r="X146">
+        <v>0</v>
+      </c>
+      <c r="Y146">
+        <v>0</v>
+      </c>
+      <c r="Z146">
+        <v>0</v>
+      </c>
+      <c r="AA146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:27">
+      <c r="A147" s="1">
+        <v>145</v>
+      </c>
+      <c r="B147">
+        <v>50</v>
+      </c>
+      <c r="C147">
+        <v>500</v>
+      </c>
+      <c r="D147">
+        <v>0</v>
+      </c>
+      <c r="E147">
+        <v>0</v>
+      </c>
+      <c r="F147">
+        <v>0</v>
+      </c>
+      <c r="G147">
+        <v>0</v>
+      </c>
+      <c r="H147">
+        <v>0</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+      <c r="J147">
+        <v>0</v>
+      </c>
+      <c r="K147">
+        <v>0</v>
+      </c>
+      <c r="L147">
+        <v>0</v>
+      </c>
+      <c r="M147">
+        <v>0</v>
+      </c>
+      <c r="N147">
+        <v>0</v>
+      </c>
+      <c r="O147">
+        <v>0</v>
+      </c>
+      <c r="P147">
+        <v>0</v>
+      </c>
+      <c r="Q147">
+        <v>0</v>
+      </c>
+      <c r="R147">
+        <v>0</v>
+      </c>
+      <c r="S147">
+        <v>0</v>
+      </c>
+      <c r="T147">
+        <v>0</v>
+      </c>
+      <c r="U147">
+        <v>0</v>
+      </c>
+      <c r="V147">
+        <v>0</v>
+      </c>
+      <c r="W147">
+        <v>0</v>
+      </c>
+      <c r="X147">
+        <v>0</v>
+      </c>
+      <c r="Y147">
+        <v>0</v>
+      </c>
+      <c r="Z147">
+        <v>0</v>
+      </c>
+      <c r="AA147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:27">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+      <c r="B148">
+        <v>50</v>
+      </c>
+      <c r="C148">
+        <v>500</v>
+      </c>
+      <c r="D148">
+        <v>0</v>
+      </c>
+      <c r="E148">
+        <v>0</v>
+      </c>
+      <c r="F148">
+        <v>0</v>
+      </c>
+      <c r="G148">
+        <v>0</v>
+      </c>
+      <c r="H148">
+        <v>0</v>
+      </c>
+      <c r="I148">
+        <v>0</v>
+      </c>
+      <c r="J148">
+        <v>0</v>
+      </c>
+      <c r="K148">
+        <v>0</v>
+      </c>
+      <c r="L148">
+        <v>0</v>
+      </c>
+      <c r="M148">
+        <v>0</v>
+      </c>
+      <c r="N148">
+        <v>0</v>
+      </c>
+      <c r="O148">
+        <v>0</v>
+      </c>
+      <c r="P148">
+        <v>0</v>
+      </c>
+      <c r="Q148">
+        <v>0</v>
+      </c>
+      <c r="R148">
+        <v>0</v>
+      </c>
+      <c r="S148">
+        <v>0</v>
+      </c>
+      <c r="T148">
+        <v>0</v>
+      </c>
+      <c r="U148">
+        <v>0</v>
+      </c>
+      <c r="V148">
+        <v>0</v>
+      </c>
+      <c r="W148">
+        <v>0</v>
+      </c>
+      <c r="X148">
+        <v>0</v>
+      </c>
+      <c r="Y148">
+        <v>0</v>
+      </c>
+      <c r="Z148">
+        <v>0</v>
+      </c>
+      <c r="AA148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:27">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="B149">
+        <v>50</v>
+      </c>
+      <c r="C149">
+        <v>500</v>
+      </c>
+      <c r="D149">
+        <v>0</v>
+      </c>
+      <c r="E149">
+        <v>0</v>
+      </c>
+      <c r="F149">
+        <v>0</v>
+      </c>
+      <c r="G149">
+        <v>0</v>
+      </c>
+      <c r="H149">
+        <v>0</v>
+      </c>
+      <c r="I149">
+        <v>0</v>
+      </c>
+      <c r="J149">
+        <v>0</v>
+      </c>
+      <c r="K149">
+        <v>0</v>
+      </c>
+      <c r="L149">
+        <v>0</v>
+      </c>
+      <c r="M149">
+        <v>0</v>
+      </c>
+      <c r="N149">
+        <v>0</v>
+      </c>
+      <c r="O149">
+        <v>0</v>
+      </c>
+      <c r="P149">
+        <v>0</v>
+      </c>
+      <c r="Q149">
+        <v>0</v>
+      </c>
+      <c r="R149">
+        <v>0</v>
+      </c>
+      <c r="S149">
+        <v>0</v>
+      </c>
+      <c r="T149">
+        <v>0</v>
+      </c>
+      <c r="U149">
+        <v>0</v>
+      </c>
+      <c r="V149">
+        <v>0</v>
+      </c>
+      <c r="W149">
+        <v>0</v>
+      </c>
+      <c r="X149">
+        <v>0</v>
+      </c>
+      <c r="Y149">
+        <v>0</v>
+      </c>
+      <c r="Z149">
+        <v>0</v>
+      </c>
+      <c r="AA149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:27">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="B150">
+        <v>50</v>
+      </c>
+      <c r="C150">
+        <v>500</v>
+      </c>
+      <c r="D150">
+        <v>0</v>
+      </c>
+      <c r="E150">
+        <v>0</v>
+      </c>
+      <c r="F150">
+        <v>0</v>
+      </c>
+      <c r="G150">
+        <v>0</v>
+      </c>
+      <c r="H150">
+        <v>0</v>
+      </c>
+      <c r="I150">
+        <v>0</v>
+      </c>
+      <c r="J150">
+        <v>0</v>
+      </c>
+      <c r="K150">
+        <v>0</v>
+      </c>
+      <c r="L150">
+        <v>0</v>
+      </c>
+      <c r="M150">
+        <v>0</v>
+      </c>
+      <c r="N150">
+        <v>0</v>
+      </c>
+      <c r="O150">
+        <v>0</v>
+      </c>
+      <c r="P150">
+        <v>0</v>
+      </c>
+      <c r="Q150">
+        <v>0</v>
+      </c>
+      <c r="R150">
+        <v>0</v>
+      </c>
+      <c r="S150">
+        <v>0</v>
+      </c>
+      <c r="T150">
+        <v>0</v>
+      </c>
+      <c r="U150">
+        <v>0</v>
+      </c>
+      <c r="V150">
+        <v>0</v>
+      </c>
+      <c r="W150">
+        <v>0</v>
+      </c>
+      <c r="X150">
+        <v>0</v>
+      </c>
+      <c r="Y150">
+        <v>0</v>
+      </c>
+      <c r="Z150">
+        <v>0</v>
+      </c>
+      <c r="AA150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:27">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+      <c r="B151">
+        <v>50</v>
+      </c>
+      <c r="C151">
+        <v>500</v>
+      </c>
+      <c r="D151">
+        <v>0</v>
+      </c>
+      <c r="E151">
+        <v>0</v>
+      </c>
+      <c r="F151">
+        <v>0</v>
+      </c>
+      <c r="G151">
+        <v>0</v>
+      </c>
+      <c r="H151">
+        <v>0</v>
+      </c>
+      <c r="I151">
+        <v>0</v>
+      </c>
+      <c r="J151">
+        <v>0</v>
+      </c>
+      <c r="K151">
+        <v>0</v>
+      </c>
+      <c r="L151">
+        <v>0</v>
+      </c>
+      <c r="M151">
+        <v>0</v>
+      </c>
+      <c r="N151">
+        <v>0</v>
+      </c>
+      <c r="O151">
+        <v>0</v>
+      </c>
+      <c r="P151">
+        <v>0</v>
+      </c>
+      <c r="Q151">
+        <v>0</v>
+      </c>
+      <c r="R151">
+        <v>0</v>
+      </c>
+      <c r="S151">
+        <v>0</v>
+      </c>
+      <c r="T151">
+        <v>0</v>
+      </c>
+      <c r="U151">
+        <v>0</v>
+      </c>
+      <c r="V151">
+        <v>0</v>
+      </c>
+      <c r="W151">
+        <v>0</v>
+      </c>
+      <c r="X151">
+        <v>0</v>
+      </c>
+      <c r="Y151">
+        <v>0</v>
+      </c>
+      <c r="Z151">
+        <v>0</v>
+      </c>
+      <c r="AA151">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Two-stage Recoverable FLP/Local Branching/output.xlsx
+++ b/Two-stage Recoverable FLP/Local Branching/output.xlsx
@@ -410,7 +410,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA119"/>
+  <dimension ref="A1:AA151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9554,76 +9554,76 @@
         <v>100</v>
       </c>
       <c r="D111">
-        <v>501.63</v>
+        <v>0</v>
       </c>
       <c r="E111">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="F111">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="G111">
-        <v>294.5</v>
+        <v>0</v>
       </c>
       <c r="H111">
-        <v>352.38</v>
+        <v>0</v>
       </c>
       <c r="I111">
-        <v>502.66</v>
+        <v>0</v>
       </c>
       <c r="J111">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="K111">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="L111">
-        <v>297</v>
+        <v>0</v>
       </c>
       <c r="M111">
-        <v>116.11</v>
+        <v>0</v>
       </c>
       <c r="N111">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O111">
-        <v>508.22</v>
+        <v>0</v>
       </c>
       <c r="P111">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="Q111">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="R111">
-        <v>312</v>
+        <v>0</v>
       </c>
       <c r="S111">
-        <v>71.78</v>
+        <v>0</v>
       </c>
       <c r="T111">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="U111">
-        <v>508.11</v>
+        <v>0</v>
       </c>
       <c r="V111">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="W111">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="X111">
-        <v>297</v>
+        <v>0</v>
       </c>
       <c r="Y111">
-        <v>119.42</v>
+        <v>0</v>
       </c>
       <c r="Z111">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA111">
-        <v>312</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:27">
@@ -9637,76 +9637,76 @@
         <v>200</v>
       </c>
       <c r="D112">
-        <v>510.19</v>
+        <v>0</v>
       </c>
       <c r="E112">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="F112">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="G112">
-        <v>290</v>
+        <v>0</v>
       </c>
       <c r="H112">
-        <v>435.47</v>
+        <v>0</v>
       </c>
       <c r="I112">
-        <v>587.83</v>
+        <v>0</v>
       </c>
       <c r="J112">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="K112">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="L112">
-        <v>308</v>
+        <v>0</v>
       </c>
       <c r="M112">
-        <v>211.23</v>
+        <v>0</v>
       </c>
       <c r="N112">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O112">
-        <v>519.5700000000001</v>
+        <v>0</v>
       </c>
       <c r="P112">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="Q112">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="R112">
-        <v>308</v>
+        <v>0</v>
       </c>
       <c r="S112">
-        <v>213.73</v>
+        <v>0</v>
       </c>
       <c r="T112">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="U112">
-        <v>533.99</v>
+        <v>0</v>
       </c>
       <c r="V112">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="W112">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="X112">
-        <v>308</v>
+        <v>0</v>
       </c>
       <c r="Y112">
-        <v>214.59</v>
+        <v>0</v>
       </c>
       <c r="Z112">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA112">
-        <v>308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:27">
@@ -9720,76 +9720,76 @@
         <v>200</v>
       </c>
       <c r="D113">
-        <v>508.01</v>
+        <v>0</v>
       </c>
       <c r="E113">
-        <v>433</v>
+        <v>0</v>
       </c>
       <c r="F113">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="G113">
-        <v>296.5</v>
+        <v>0</v>
       </c>
       <c r="H113">
-        <v>492.74</v>
+        <v>0</v>
       </c>
       <c r="I113">
-        <v>577.83</v>
+        <v>0</v>
       </c>
       <c r="J113">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K113">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="L113">
-        <v>308.5</v>
+        <v>0</v>
       </c>
       <c r="M113">
-        <v>471.53</v>
+        <v>0</v>
       </c>
       <c r="N113">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="O113">
-        <v>520.29</v>
+        <v>0</v>
       </c>
       <c r="P113">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q113">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="R113">
-        <v>277.5</v>
+        <v>0</v>
       </c>
       <c r="S113">
-        <v>509.58</v>
+        <v>0</v>
       </c>
       <c r="T113">
         <v>0</v>
       </c>
       <c r="U113">
-        <v>532.33</v>
+        <v>0</v>
       </c>
       <c r="V113">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="W113">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="X113">
-        <v>322.5</v>
+        <v>0</v>
       </c>
       <c r="Y113">
-        <v>254.11</v>
+        <v>0</v>
       </c>
       <c r="Z113">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA113">
-        <v>326</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:27">
@@ -9803,76 +9803,76 @@
         <v>200</v>
       </c>
       <c r="D114">
-        <v>501.98</v>
+        <v>0</v>
       </c>
       <c r="E114">
-        <v>404</v>
+        <v>0</v>
       </c>
       <c r="F114">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="G114">
-        <v>331</v>
+        <v>0</v>
       </c>
       <c r="H114">
-        <v>486.76</v>
+        <v>0</v>
       </c>
       <c r="I114">
-        <v>593.8200000000001</v>
+        <v>0</v>
       </c>
       <c r="J114">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="K114">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="L114">
-        <v>323.5</v>
+        <v>0</v>
       </c>
       <c r="M114">
-        <v>316.82</v>
+        <v>0</v>
       </c>
       <c r="N114">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="O114">
-        <v>539.6799999999999</v>
+        <v>0</v>
       </c>
       <c r="P114">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="Q114">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="R114">
-        <v>333.5</v>
+        <v>0</v>
       </c>
       <c r="S114">
-        <v>238.87</v>
+        <v>0</v>
       </c>
       <c r="T114">
         <v>0</v>
       </c>
       <c r="U114">
-        <v>547.8</v>
+        <v>0</v>
       </c>
       <c r="V114">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="W114">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="X114">
-        <v>323.5</v>
+        <v>0</v>
       </c>
       <c r="Y114">
-        <v>321.74</v>
+        <v>0</v>
       </c>
       <c r="Z114">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="AA114">
-        <v>333.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:27">
@@ -9886,76 +9886,76 @@
         <v>200</v>
       </c>
       <c r="D115">
-        <v>520.98</v>
+        <v>0</v>
       </c>
       <c r="E115">
-        <v>121</v>
+        <v>0</v>
       </c>
       <c r="F115">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="G115">
-        <v>309</v>
+        <v>0</v>
       </c>
       <c r="H115">
-        <v>261.54</v>
+        <v>0</v>
       </c>
       <c r="I115">
-        <v>611.9400000000001</v>
+        <v>0</v>
       </c>
       <c r="J115">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K115">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="L115">
-        <v>304</v>
+        <v>0</v>
       </c>
       <c r="M115">
-        <v>344.71</v>
+        <v>0</v>
       </c>
       <c r="N115">
         <v>0</v>
       </c>
       <c r="O115">
-        <v>521.26</v>
+        <v>0</v>
       </c>
       <c r="P115">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="Q115">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="R115">
-        <v>309</v>
+        <v>0</v>
       </c>
       <c r="S115">
-        <v>261.48</v>
+        <v>0</v>
       </c>
       <c r="T115">
         <v>0</v>
       </c>
       <c r="U115">
-        <v>510.15</v>
+        <v>0</v>
       </c>
       <c r="V115">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="W115">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="X115">
-        <v>304</v>
+        <v>0</v>
       </c>
       <c r="Y115">
-        <v>349.24</v>
+        <v>0</v>
       </c>
       <c r="Z115">
         <v>0</v>
       </c>
       <c r="AA115">
-        <v>309</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:27">
@@ -9969,76 +9969,76 @@
         <v>200</v>
       </c>
       <c r="D116">
-        <v>504.23</v>
+        <v>0</v>
       </c>
       <c r="E116">
-        <v>430</v>
+        <v>0</v>
       </c>
       <c r="F116">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="G116">
-        <v>319.5</v>
+        <v>0</v>
       </c>
       <c r="H116">
-        <v>437.67</v>
+        <v>0</v>
       </c>
       <c r="I116">
-        <v>568.75</v>
+        <v>0</v>
       </c>
       <c r="J116">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="K116">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="L116">
-        <v>334.5</v>
+        <v>0</v>
       </c>
       <c r="M116">
-        <v>303.03</v>
+        <v>0</v>
       </c>
       <c r="N116">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O116">
-        <v>530.74</v>
+        <v>0</v>
       </c>
       <c r="P116">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Q116">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="R116">
-        <v>336.5</v>
+        <v>0</v>
       </c>
       <c r="S116">
-        <v>225.78</v>
+        <v>0</v>
       </c>
       <c r="T116">
         <v>0</v>
       </c>
       <c r="U116">
-        <v>596.58</v>
+        <v>0</v>
       </c>
       <c r="V116">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="W116">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="X116">
-        <v>334.5</v>
+        <v>0</v>
       </c>
       <c r="Y116">
-        <v>308.04</v>
+        <v>0</v>
       </c>
       <c r="Z116">
         <v>0</v>
       </c>
       <c r="AA116">
-        <v>336.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:27">
@@ -10052,10 +10052,10 @@
         <v>500</v>
       </c>
       <c r="D117">
-        <v>500.17</v>
+        <v>564.03</v>
       </c>
       <c r="E117">
-        <v>699</v>
+        <v>709</v>
       </c>
       <c r="F117">
         <v>0.4</v>
@@ -10064,10 +10064,10 @@
         <v>366.5</v>
       </c>
       <c r="H117">
-        <v>500.13</v>
+        <v>469.23</v>
       </c>
       <c r="I117">
-        <v>2939.91</v>
+        <v>2408.74</v>
       </c>
       <c r="J117">
         <v>3</v>
@@ -10079,46 +10079,46 @@
         <v>322</v>
       </c>
       <c r="M117">
-        <v>895.22</v>
+        <v>953.12</v>
       </c>
       <c r="N117">
         <v>0</v>
       </c>
       <c r="O117">
-        <v>637.62</v>
+        <v>603.0700000000001</v>
       </c>
       <c r="P117">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="Q117">
-        <v>0.37</v>
+        <v>0.38</v>
       </c>
       <c r="R117">
         <v>366.5</v>
       </c>
       <c r="S117">
-        <v>527.01</v>
+        <v>409.27</v>
       </c>
       <c r="T117">
-        <v>0.09</v>
+        <v>0.02</v>
       </c>
       <c r="U117">
-        <v>1283.51</v>
+        <v>840.41</v>
       </c>
       <c r="V117">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="W117">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="X117">
-        <v>322</v>
+        <v>366</v>
       </c>
       <c r="Y117">
-        <v>930.66</v>
+        <v>554.47</v>
       </c>
       <c r="Z117">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="AA117">
         <v>366.5</v>
@@ -10135,76 +10135,76 @@
         <v>500</v>
       </c>
       <c r="D118">
-        <v>503.59</v>
+        <v>532.33</v>
       </c>
       <c r="E118">
-        <v>611</v>
+        <v>639</v>
       </c>
       <c r="F118">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
       <c r="G118">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="H118">
-        <v>503.56</v>
+        <v>465.05</v>
       </c>
       <c r="I118">
-        <v>3139.7</v>
+        <v>858.5700000000001</v>
       </c>
       <c r="J118">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="K118">
-        <v>0.33</v>
+        <v>0.35</v>
       </c>
       <c r="L118">
-        <v>331.5</v>
+        <v>357</v>
       </c>
       <c r="M118">
-        <v>838.61</v>
+        <v>467.02</v>
       </c>
       <c r="N118">
-        <v>-0</v>
+        <v>0.04</v>
       </c>
       <c r="O118">
-        <v>629.77</v>
+        <v>597.5599999999999</v>
       </c>
       <c r="P118">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q118">
-        <v>0.39</v>
+        <v>0.35</v>
       </c>
       <c r="R118">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="S118">
-        <v>519.73</v>
+        <v>469.77</v>
       </c>
       <c r="T118">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="U118">
-        <v>1174.06</v>
+        <v>724.39</v>
       </c>
       <c r="V118">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="W118">
-        <v>0.33</v>
+        <v>0.35</v>
       </c>
       <c r="X118">
-        <v>331.5</v>
+        <v>357</v>
       </c>
       <c r="Y118">
-        <v>862.95</v>
+        <v>474.79</v>
       </c>
       <c r="Z118">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="AA118">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="119" spans="1:27">
@@ -10218,76 +10218,2732 @@
         <v>500</v>
       </c>
       <c r="D119">
-        <v>514.24</v>
+        <v>567.6900000000001</v>
       </c>
       <c r="E119">
-        <v>667</v>
+        <v>697</v>
       </c>
       <c r="F119">
-        <v>0.39</v>
+        <v>0.34</v>
       </c>
       <c r="G119">
-        <v>354</v>
+        <v>328.5</v>
       </c>
       <c r="H119">
-        <v>467.52</v>
+        <v>500</v>
       </c>
       <c r="I119">
-        <v>2937.21</v>
+        <v>1006.43</v>
       </c>
       <c r="J119">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="K119">
+        <v>0.31</v>
+      </c>
+      <c r="L119">
+        <v>347.5</v>
+      </c>
+      <c r="M119">
+        <v>781.3</v>
+      </c>
+      <c r="N119">
+        <v>0.1</v>
+      </c>
+      <c r="O119">
+        <v>647.01</v>
+      </c>
+      <c r="P119">
+        <v>32</v>
+      </c>
+      <c r="Q119">
         <v>0.32</v>
-      </c>
-      <c r="L119">
-        <v>313.5</v>
-      </c>
-      <c r="M119">
-        <v>1142.69</v>
-      </c>
-      <c r="N119">
-        <v>0</v>
-      </c>
-      <c r="O119">
-        <v>605.65</v>
-      </c>
-      <c r="P119">
-        <v>28</v>
-      </c>
-      <c r="Q119">
-        <v>0.4</v>
       </c>
       <c r="R119">
         <v>354</v>
       </c>
       <c r="S119">
-        <v>483.11</v>
+        <v>372.29</v>
       </c>
       <c r="T119">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="U119">
-        <v>1542.69</v>
+        <v>872.98</v>
       </c>
       <c r="V119">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="W119">
-        <v>0.32</v>
+        <v>0.37</v>
       </c>
       <c r="X119">
-        <v>313.5</v>
+        <v>353.5</v>
       </c>
       <c r="Y119">
-        <v>1179.46</v>
+        <v>613.97</v>
       </c>
       <c r="Z119">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="AA119">
         <v>354</v>
+      </c>
+    </row>
+    <row r="120" spans="1:27">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120">
+        <v>40</v>
+      </c>
+      <c r="C120">
+        <v>500</v>
+      </c>
+      <c r="D120">
+        <v>512.99</v>
+      </c>
+      <c r="E120">
+        <v>742</v>
+      </c>
+      <c r="F120">
+        <v>0.3</v>
+      </c>
+      <c r="G120">
+        <v>315.5</v>
+      </c>
+      <c r="H120">
+        <v>376.77</v>
+      </c>
+      <c r="I120">
+        <v>815.74</v>
+      </c>
+      <c r="J120">
+        <v>29</v>
+      </c>
+      <c r="K120">
+        <v>0.3</v>
+      </c>
+      <c r="L120">
+        <v>315.5</v>
+      </c>
+      <c r="M120">
+        <v>366.55</v>
+      </c>
+      <c r="N120">
+        <v>0</v>
+      </c>
+      <c r="O120">
+        <v>558.65</v>
+      </c>
+      <c r="P120">
+        <v>31</v>
+      </c>
+      <c r="Q120">
+        <v>0.3</v>
+      </c>
+      <c r="R120">
+        <v>315.5</v>
+      </c>
+      <c r="S120">
+        <v>357.95</v>
+      </c>
+      <c r="T120">
+        <v>0</v>
+      </c>
+      <c r="U120">
+        <v>600.75</v>
+      </c>
+      <c r="V120">
+        <v>27</v>
+      </c>
+      <c r="W120">
+        <v>0.3</v>
+      </c>
+      <c r="X120">
+        <v>315.5</v>
+      </c>
+      <c r="Y120">
+        <v>358.39</v>
+      </c>
+      <c r="Z120">
+        <v>0</v>
+      </c>
+      <c r="AA120">
+        <v>315.5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:27">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121">
+        <v>40</v>
+      </c>
+      <c r="C121">
+        <v>500</v>
+      </c>
+      <c r="D121">
+        <v>530.46</v>
+      </c>
+      <c r="E121">
+        <v>650</v>
+      </c>
+      <c r="F121">
+        <v>0.34</v>
+      </c>
+      <c r="G121">
+        <v>356.5</v>
+      </c>
+      <c r="H121">
+        <v>355.28</v>
+      </c>
+      <c r="I121">
+        <v>932.3</v>
+      </c>
+      <c r="J121">
+        <v>41</v>
+      </c>
+      <c r="K121">
+        <v>0.29</v>
+      </c>
+      <c r="L121">
+        <v>331</v>
+      </c>
+      <c r="M121">
+        <v>658.76</v>
+      </c>
+      <c r="N121">
+        <v>0</v>
+      </c>
+      <c r="O121">
+        <v>656.5599999999999</v>
+      </c>
+      <c r="P121">
+        <v>20</v>
+      </c>
+      <c r="Q121">
+        <v>0.32</v>
+      </c>
+      <c r="R121">
+        <v>356.5</v>
+      </c>
+      <c r="S121">
+        <v>355.7</v>
+      </c>
+      <c r="T121">
+        <v>0.03</v>
+      </c>
+      <c r="U121">
+        <v>992.58</v>
+      </c>
+      <c r="V121">
+        <v>41</v>
+      </c>
+      <c r="W121">
+        <v>0.29</v>
+      </c>
+      <c r="X121">
+        <v>331</v>
+      </c>
+      <c r="Y121">
+        <v>669.1799999999999</v>
+      </c>
+      <c r="Z121">
+        <v>0</v>
+      </c>
+      <c r="AA121">
+        <v>356.5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:27">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122">
+        <v>50</v>
+      </c>
+      <c r="C122">
+        <v>10</v>
+      </c>
+      <c r="D122">
+        <v>512.29</v>
+      </c>
+      <c r="E122">
+        <v>690</v>
+      </c>
+      <c r="F122">
+        <v>0.24</v>
+      </c>
+      <c r="G122">
+        <v>207</v>
+      </c>
+      <c r="H122">
+        <v>96.53</v>
+      </c>
+      <c r="I122">
+        <v>506.13</v>
+      </c>
+      <c r="J122">
+        <v>312</v>
+      </c>
+      <c r="K122">
+        <v>0.27</v>
+      </c>
+      <c r="L122">
+        <v>206</v>
+      </c>
+      <c r="M122">
+        <v>143.39</v>
+      </c>
+      <c r="N122">
+        <v>0.03</v>
+      </c>
+      <c r="O122">
+        <v>509.1</v>
+      </c>
+      <c r="P122">
+        <v>381</v>
+      </c>
+      <c r="Q122">
+        <v>0.3</v>
+      </c>
+      <c r="R122">
+        <v>220.5</v>
+      </c>
+      <c r="S122">
+        <v>6.03</v>
+      </c>
+      <c r="T122">
+        <v>0.03</v>
+      </c>
+      <c r="U122">
+        <v>500.81</v>
+      </c>
+      <c r="V122">
+        <v>179</v>
+      </c>
+      <c r="W122">
+        <v>0.27</v>
+      </c>
+      <c r="X122">
+        <v>206</v>
+      </c>
+      <c r="Y122">
+        <v>147.95</v>
+      </c>
+      <c r="Z122">
+        <v>0.02</v>
+      </c>
+      <c r="AA122">
+        <v>220.5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:27">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123">
+        <v>50</v>
+      </c>
+      <c r="C123">
+        <v>10</v>
+      </c>
+      <c r="D123">
+        <v>513.83</v>
+      </c>
+      <c r="E123">
+        <v>1061</v>
+      </c>
+      <c r="F123">
+        <v>0.26</v>
+      </c>
+      <c r="G123">
+        <v>203.5</v>
+      </c>
+      <c r="H123">
+        <v>167.08</v>
+      </c>
+      <c r="I123">
+        <v>500.81</v>
+      </c>
+      <c r="J123">
+        <v>32</v>
+      </c>
+      <c r="K123">
+        <v>0.25</v>
+      </c>
+      <c r="L123">
+        <v>202.5</v>
+      </c>
+      <c r="M123">
+        <v>262.49</v>
+      </c>
+      <c r="N123">
+        <v>0.05</v>
+      </c>
+      <c r="O123">
+        <v>508.54</v>
+      </c>
+      <c r="P123">
+        <v>8</v>
+      </c>
+      <c r="Q123">
+        <v>0.24</v>
+      </c>
+      <c r="R123">
+        <v>190.5</v>
+      </c>
+      <c r="S123">
+        <v>335.06</v>
+      </c>
+      <c r="T123">
+        <v>-0</v>
+      </c>
+      <c r="U123">
+        <v>505.9</v>
+      </c>
+      <c r="V123">
+        <v>802</v>
+      </c>
+      <c r="W123">
+        <v>0.29</v>
+      </c>
+      <c r="X123">
+        <v>203</v>
+      </c>
+      <c r="Y123">
+        <v>122.69</v>
+      </c>
+      <c r="Z123">
+        <v>0</v>
+      </c>
+      <c r="AA123">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="124" spans="1:27">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124">
+        <v>50</v>
+      </c>
+      <c r="C124">
+        <v>10</v>
+      </c>
+      <c r="D124">
+        <v>505.86</v>
+      </c>
+      <c r="E124">
+        <v>329</v>
+      </c>
+      <c r="F124">
+        <v>0.03</v>
+      </c>
+      <c r="G124">
+        <v>191</v>
+      </c>
+      <c r="H124">
+        <v>457.45</v>
+      </c>
+      <c r="I124">
+        <v>500.09</v>
+      </c>
+      <c r="J124">
+        <v>106</v>
+      </c>
+      <c r="K124">
+        <v>0</v>
+      </c>
+      <c r="L124">
+        <v>197</v>
+      </c>
+      <c r="M124">
+        <v>23.59</v>
+      </c>
+      <c r="N124">
+        <v>0.05</v>
+      </c>
+      <c r="O124">
+        <v>514.75</v>
+      </c>
+      <c r="P124">
+        <v>442</v>
+      </c>
+      <c r="Q124">
+        <v>0.02</v>
+      </c>
+      <c r="R124">
+        <v>190</v>
+      </c>
+      <c r="S124">
+        <v>169.76</v>
+      </c>
+      <c r="T124">
+        <v>0</v>
+      </c>
+      <c r="U124">
+        <v>503.67</v>
+      </c>
+      <c r="V124">
+        <v>387</v>
+      </c>
+      <c r="W124">
+        <v>0.02</v>
+      </c>
+      <c r="X124">
+        <v>190</v>
+      </c>
+      <c r="Y124">
+        <v>168.91</v>
+      </c>
+      <c r="Z124">
+        <v>0</v>
+      </c>
+      <c r="AA124">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="125" spans="1:27">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125">
+        <v>50</v>
+      </c>
+      <c r="C125">
+        <v>10</v>
+      </c>
+      <c r="D125">
+        <v>374.12</v>
+      </c>
+      <c r="E125">
+        <v>70</v>
+      </c>
+      <c r="F125">
+        <v>0</v>
+      </c>
+      <c r="G125">
+        <v>195</v>
+      </c>
+      <c r="H125">
+        <v>373.67</v>
+      </c>
+      <c r="I125">
+        <v>327.91</v>
+      </c>
+      <c r="J125">
+        <v>1</v>
+      </c>
+      <c r="K125">
+        <v>0</v>
+      </c>
+      <c r="L125">
+        <v>197</v>
+      </c>
+      <c r="M125">
+        <v>299.57</v>
+      </c>
+      <c r="N125">
+        <v>0.01</v>
+      </c>
+      <c r="O125">
+        <v>343.17</v>
+      </c>
+      <c r="P125">
+        <v>28</v>
+      </c>
+      <c r="Q125">
+        <v>0</v>
+      </c>
+      <c r="R125">
+        <v>197</v>
+      </c>
+      <c r="S125">
+        <v>317.88</v>
+      </c>
+      <c r="T125">
+        <v>0.01</v>
+      </c>
+      <c r="U125">
+        <v>253.93</v>
+      </c>
+      <c r="V125">
+        <v>14</v>
+      </c>
+      <c r="W125">
+        <v>0</v>
+      </c>
+      <c r="X125">
+        <v>201.5</v>
+      </c>
+      <c r="Y125">
+        <v>144.41</v>
+      </c>
+      <c r="Z125">
+        <v>0.03</v>
+      </c>
+      <c r="AA125">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="126" spans="1:27">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126">
+        <v>50</v>
+      </c>
+      <c r="C126">
+        <v>10</v>
+      </c>
+      <c r="D126">
+        <v>506.65</v>
+      </c>
+      <c r="E126">
+        <v>1539</v>
+      </c>
+      <c r="F126">
+        <v>0.27</v>
+      </c>
+      <c r="G126">
+        <v>200.5</v>
+      </c>
+      <c r="H126">
+        <v>239.82</v>
+      </c>
+      <c r="I126">
+        <v>506.55</v>
+      </c>
+      <c r="J126">
+        <v>603</v>
+      </c>
+      <c r="K126">
+        <v>0.32</v>
+      </c>
+      <c r="L126">
+        <v>206.5</v>
+      </c>
+      <c r="M126">
+        <v>269.55</v>
+      </c>
+      <c r="N126">
+        <v>0</v>
+      </c>
+      <c r="O126">
+        <v>501.6</v>
+      </c>
+      <c r="P126">
+        <v>879</v>
+      </c>
+      <c r="Q126">
+        <v>0.32</v>
+      </c>
+      <c r="R126">
+        <v>243.5</v>
+      </c>
+      <c r="S126">
+        <v>5.77</v>
+      </c>
+      <c r="T126">
+        <v>0.16</v>
+      </c>
+      <c r="U126">
+        <v>507.55</v>
+      </c>
+      <c r="V126">
+        <v>376</v>
+      </c>
+      <c r="W126">
+        <v>0.33</v>
+      </c>
+      <c r="X126">
+        <v>208</v>
+      </c>
+      <c r="Y126">
+        <v>177.79</v>
+      </c>
+      <c r="Z126">
+        <v>-0</v>
+      </c>
+      <c r="AA126">
+        <v>243.5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:27">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127">
+        <v>50</v>
+      </c>
+      <c r="C127">
+        <v>20</v>
+      </c>
+      <c r="D127">
+        <v>500.1</v>
+      </c>
+      <c r="E127">
+        <v>171</v>
+      </c>
+      <c r="F127">
+        <v>0.22</v>
+      </c>
+      <c r="G127">
+        <v>219.5</v>
+      </c>
+      <c r="H127">
+        <v>382.12</v>
+      </c>
+      <c r="I127">
+        <v>508.79</v>
+      </c>
+      <c r="J127">
+        <v>77</v>
+      </c>
+      <c r="K127">
+        <v>0.18</v>
+      </c>
+      <c r="L127">
+        <v>200</v>
+      </c>
+      <c r="M127">
+        <v>336.39</v>
+      </c>
+      <c r="N127">
+        <v>0</v>
+      </c>
+      <c r="O127">
+        <v>502.3</v>
+      </c>
+      <c r="P127">
+        <v>185</v>
+      </c>
+      <c r="Q127">
+        <v>0.25</v>
+      </c>
+      <c r="R127">
+        <v>221</v>
+      </c>
+      <c r="S127">
+        <v>45.54</v>
+      </c>
+      <c r="T127">
+        <v>0.01</v>
+      </c>
+      <c r="U127">
+        <v>563.3</v>
+      </c>
+      <c r="V127">
+        <v>0</v>
+      </c>
+      <c r="W127">
+        <v>0.13</v>
+      </c>
+      <c r="X127">
+        <v>204.5</v>
+      </c>
+      <c r="Y127">
+        <v>264.55</v>
+      </c>
+      <c r="Z127">
+        <v>0</v>
+      </c>
+      <c r="AA127">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="128" spans="1:27">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128">
+        <v>50</v>
+      </c>
+      <c r="C128">
+        <v>20</v>
+      </c>
+      <c r="D128">
+        <v>503.29</v>
+      </c>
+      <c r="E128">
+        <v>251</v>
+      </c>
+      <c r="F128">
+        <v>0.18</v>
+      </c>
+      <c r="G128">
+        <v>211.5</v>
+      </c>
+      <c r="H128">
+        <v>245.44</v>
+      </c>
+      <c r="I128">
+        <v>502.56</v>
+      </c>
+      <c r="J128">
+        <v>154</v>
+      </c>
+      <c r="K128">
+        <v>0.23</v>
+      </c>
+      <c r="L128">
+        <v>235.5</v>
+      </c>
+      <c r="M128">
+        <v>107.99</v>
+      </c>
+      <c r="N128">
+        <v>0.06</v>
+      </c>
+      <c r="O128">
+        <v>541.4</v>
+      </c>
+      <c r="P128">
+        <v>8</v>
+      </c>
+      <c r="Q128">
+        <v>0.24</v>
+      </c>
+      <c r="R128">
+        <v>223</v>
+      </c>
+      <c r="S128">
+        <v>342.69</v>
+      </c>
+      <c r="T128">
+        <v>0</v>
+      </c>
+      <c r="U128">
+        <v>511.84</v>
+      </c>
+      <c r="V128">
+        <v>37</v>
+      </c>
+      <c r="W128">
+        <v>0.19</v>
+      </c>
+      <c r="X128">
+        <v>213</v>
+      </c>
+      <c r="Y128">
+        <v>447.82</v>
+      </c>
+      <c r="Z128">
+        <v>0.01</v>
+      </c>
+      <c r="AA128">
+        <v>262.5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:27">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129">
+        <v>50</v>
+      </c>
+      <c r="C129">
+        <v>20</v>
+      </c>
+      <c r="D129">
+        <v>501.33</v>
+      </c>
+      <c r="E129">
+        <v>1196</v>
+      </c>
+      <c r="F129">
+        <v>0.32</v>
+      </c>
+      <c r="G129">
+        <v>226.5</v>
+      </c>
+      <c r="H129">
+        <v>463.34</v>
+      </c>
+      <c r="I129">
+        <v>510.64</v>
+      </c>
+      <c r="J129">
+        <v>285</v>
+      </c>
+      <c r="K129">
+        <v>0.35</v>
+      </c>
+      <c r="L129">
+        <v>237</v>
+      </c>
+      <c r="M129">
+        <v>372.07</v>
+      </c>
+      <c r="N129">
+        <v>0.04</v>
+      </c>
+      <c r="O129">
+        <v>501.93</v>
+      </c>
+      <c r="P129">
+        <v>262</v>
+      </c>
+      <c r="Q129">
+        <v>0.32</v>
+      </c>
+      <c r="R129">
+        <v>237.5</v>
+      </c>
+      <c r="S129">
+        <v>52.69</v>
+      </c>
+      <c r="T129">
+        <v>0.09</v>
+      </c>
+      <c r="U129">
+        <v>505.18</v>
+      </c>
+      <c r="V129">
+        <v>587</v>
+      </c>
+      <c r="W129">
+        <v>0.32</v>
+      </c>
+      <c r="X129">
+        <v>237.5</v>
+      </c>
+      <c r="Y129">
+        <v>53.04</v>
+      </c>
+      <c r="Z129">
+        <v>0.09</v>
+      </c>
+      <c r="AA129">
+        <v>237.5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:27">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130">
+        <v>50</v>
+      </c>
+      <c r="C130">
+        <v>20</v>
+      </c>
+      <c r="D130">
+        <v>501.53</v>
+      </c>
+      <c r="E130">
+        <v>33</v>
+      </c>
+      <c r="F130">
+        <v>0.01</v>
+      </c>
+      <c r="G130">
+        <v>209.5</v>
+      </c>
+      <c r="H130">
+        <v>388.73</v>
+      </c>
+      <c r="I130">
+        <v>484.77</v>
+      </c>
+      <c r="J130">
+        <v>7</v>
+      </c>
+      <c r="K130">
+        <v>0</v>
+      </c>
+      <c r="L130">
+        <v>214.5</v>
+      </c>
+      <c r="M130">
+        <v>36.53</v>
+      </c>
+      <c r="N130">
+        <v>0.02</v>
+      </c>
+      <c r="O130">
+        <v>109.67</v>
+      </c>
+      <c r="P130">
+        <v>9</v>
+      </c>
+      <c r="Q130">
+        <v>0</v>
+      </c>
+      <c r="R130">
+        <v>214.5</v>
+      </c>
+      <c r="S130">
+        <v>35.04</v>
+      </c>
+      <c r="T130">
+        <v>0.02</v>
+      </c>
+      <c r="U130">
+        <v>116.47</v>
+      </c>
+      <c r="V130">
+        <v>11</v>
+      </c>
+      <c r="W130">
+        <v>0</v>
+      </c>
+      <c r="X130">
+        <v>214.5</v>
+      </c>
+      <c r="Y130">
+        <v>34.46</v>
+      </c>
+      <c r="Z130">
+        <v>0.02</v>
+      </c>
+      <c r="AA130">
+        <v>214.5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:27">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131">
+        <v>50</v>
+      </c>
+      <c r="C131">
+        <v>20</v>
+      </c>
+      <c r="D131">
+        <v>506.32</v>
+      </c>
+      <c r="E131">
+        <v>421</v>
+      </c>
+      <c r="F131">
+        <v>0.2</v>
+      </c>
+      <c r="G131">
+        <v>219.5</v>
+      </c>
+      <c r="H131">
+        <v>253.83</v>
+      </c>
+      <c r="I131">
+        <v>504.96</v>
+      </c>
+      <c r="J131">
+        <v>117</v>
+      </c>
+      <c r="K131">
+        <v>0.21</v>
+      </c>
+      <c r="L131">
+        <v>226</v>
+      </c>
+      <c r="M131">
+        <v>343.01</v>
+      </c>
+      <c r="N131">
+        <v>0.06</v>
+      </c>
+      <c r="O131">
+        <v>506.77</v>
+      </c>
+      <c r="P131">
+        <v>89</v>
+      </c>
+      <c r="Q131">
+        <v>0.23</v>
+      </c>
+      <c r="R131">
+        <v>236.5</v>
+      </c>
+      <c r="S131">
+        <v>61.88</v>
+      </c>
+      <c r="T131">
+        <v>0.08</v>
+      </c>
+      <c r="U131">
+        <v>508.67</v>
+      </c>
+      <c r="V131">
+        <v>127</v>
+      </c>
+      <c r="W131">
+        <v>0.26</v>
+      </c>
+      <c r="X131">
+        <v>232.5</v>
+      </c>
+      <c r="Y131">
+        <v>123.1</v>
+      </c>
+      <c r="Z131">
+        <v>0.02</v>
+      </c>
+      <c r="AA131">
+        <v>236.5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:27">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132">
+        <v>50</v>
+      </c>
+      <c r="C132">
+        <v>50</v>
+      </c>
+      <c r="D132">
+        <v>503.72</v>
+      </c>
+      <c r="E132">
+        <v>191</v>
+      </c>
+      <c r="F132">
+        <v>0.2</v>
+      </c>
+      <c r="G132">
+        <v>225.5</v>
+      </c>
+      <c r="H132">
+        <v>269.19</v>
+      </c>
+      <c r="I132">
+        <v>504.35</v>
+      </c>
+      <c r="J132">
+        <v>53</v>
+      </c>
+      <c r="K132">
+        <v>0.21</v>
+      </c>
+      <c r="L132">
+        <v>253</v>
+      </c>
+      <c r="M132">
+        <v>344.5</v>
+      </c>
+      <c r="N132">
+        <v>0.12</v>
+      </c>
+      <c r="O132">
+        <v>513.47</v>
+      </c>
+      <c r="P132">
+        <v>3</v>
+      </c>
+      <c r="Q132">
+        <v>0.22</v>
+      </c>
+      <c r="R132">
+        <v>225.5</v>
+      </c>
+      <c r="S132">
+        <v>440</v>
+      </c>
+      <c r="T132">
+        <v>-0</v>
+      </c>
+      <c r="U132">
+        <v>524.97</v>
+      </c>
+      <c r="V132">
+        <v>88</v>
+      </c>
+      <c r="W132">
+        <v>0.22</v>
+      </c>
+      <c r="X132">
+        <v>225.5</v>
+      </c>
+      <c r="Y132">
+        <v>380.34</v>
+      </c>
+      <c r="Z132">
+        <v>-0</v>
+      </c>
+      <c r="AA132">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="133" spans="1:27">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133">
+        <v>50</v>
+      </c>
+      <c r="C133">
+        <v>50</v>
+      </c>
+      <c r="D133">
+        <v>515.91</v>
+      </c>
+      <c r="E133">
+        <v>43</v>
+      </c>
+      <c r="F133">
+        <v>0.16</v>
+      </c>
+      <c r="G133">
+        <v>225.5</v>
+      </c>
+      <c r="H133">
+        <v>260.61</v>
+      </c>
+      <c r="I133">
+        <v>516.48</v>
+      </c>
+      <c r="J133">
+        <v>41</v>
+      </c>
+      <c r="K133">
+        <v>0.19</v>
+      </c>
+      <c r="L133">
+        <v>230</v>
+      </c>
+      <c r="M133">
+        <v>124.98</v>
+      </c>
+      <c r="N133">
+        <v>0.01</v>
+      </c>
+      <c r="O133">
+        <v>546.12</v>
+      </c>
+      <c r="P133">
+        <v>47</v>
+      </c>
+      <c r="Q133">
+        <v>0.21</v>
+      </c>
+      <c r="R133">
+        <v>231.5</v>
+      </c>
+      <c r="S133">
+        <v>52.8</v>
+      </c>
+      <c r="T133">
+        <v>-0</v>
+      </c>
+      <c r="U133">
+        <v>509.75</v>
+      </c>
+      <c r="V133">
+        <v>24</v>
+      </c>
+      <c r="W133">
+        <v>0.19</v>
+      </c>
+      <c r="X133">
+        <v>230</v>
+      </c>
+      <c r="Y133">
+        <v>123.47</v>
+      </c>
+      <c r="Z133">
+        <v>0.01</v>
+      </c>
+      <c r="AA133">
+        <v>231.5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:27">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134">
+        <v>50</v>
+      </c>
+      <c r="C134">
+        <v>50</v>
+      </c>
+      <c r="D134">
+        <v>543.13</v>
+      </c>
+      <c r="E134">
+        <v>48</v>
+      </c>
+      <c r="F134">
+        <v>0.19</v>
+      </c>
+      <c r="G134">
+        <v>222.5</v>
+      </c>
+      <c r="H134">
+        <v>217.15</v>
+      </c>
+      <c r="I134">
+        <v>513.45</v>
+      </c>
+      <c r="J134">
+        <v>19</v>
+      </c>
+      <c r="K134">
+        <v>0.22</v>
+      </c>
+      <c r="L134">
+        <v>220.5</v>
+      </c>
+      <c r="M134">
+        <v>341.91</v>
+      </c>
+      <c r="N134">
+        <v>0</v>
+      </c>
+      <c r="O134">
+        <v>512.03</v>
+      </c>
+      <c r="P134">
+        <v>17</v>
+      </c>
+      <c r="Q134">
+        <v>0.26</v>
+      </c>
+      <c r="R134">
+        <v>233</v>
+      </c>
+      <c r="S134">
+        <v>162.24</v>
+      </c>
+      <c r="T134">
+        <v>0</v>
+      </c>
+      <c r="U134">
+        <v>512.66</v>
+      </c>
+      <c r="V134">
+        <v>0</v>
+      </c>
+      <c r="W134">
+        <v>0.22</v>
+      </c>
+      <c r="X134">
+        <v>220.5</v>
+      </c>
+      <c r="Y134">
+        <v>341.19</v>
+      </c>
+      <c r="Z134">
+        <v>0</v>
+      </c>
+      <c r="AA134">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="135" spans="1:27">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135">
+        <v>50</v>
+      </c>
+      <c r="C135">
+        <v>50</v>
+      </c>
+      <c r="D135">
+        <v>536.61</v>
+      </c>
+      <c r="E135">
+        <v>262</v>
+      </c>
+      <c r="F135">
+        <v>0.3</v>
+      </c>
+      <c r="G135">
+        <v>235</v>
+      </c>
+      <c r="H135">
+        <v>480.19</v>
+      </c>
+      <c r="I135">
+        <v>502.86</v>
+      </c>
+      <c r="J135">
+        <v>28</v>
+      </c>
+      <c r="K135">
+        <v>0.27</v>
+      </c>
+      <c r="L135">
+        <v>256</v>
+      </c>
+      <c r="M135">
+        <v>97.45999999999999</v>
+      </c>
+      <c r="N135">
+        <v>0.11</v>
+      </c>
+      <c r="O135">
+        <v>514.45</v>
+      </c>
+      <c r="P135">
+        <v>5</v>
+      </c>
+      <c r="Q135">
+        <v>0.26</v>
+      </c>
+      <c r="R135">
+        <v>225</v>
+      </c>
+      <c r="S135">
+        <v>461.86</v>
+      </c>
+      <c r="T135">
+        <v>0</v>
+      </c>
+      <c r="U135">
+        <v>511.27</v>
+      </c>
+      <c r="V135">
+        <v>23</v>
+      </c>
+      <c r="W135">
+        <v>0.27</v>
+      </c>
+      <c r="X135">
+        <v>256</v>
+      </c>
+      <c r="Y135">
+        <v>98.88</v>
+      </c>
+      <c r="Z135">
+        <v>0.11</v>
+      </c>
+      <c r="AA135">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="136" spans="1:27">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136">
+        <v>50</v>
+      </c>
+      <c r="C136">
+        <v>50</v>
+      </c>
+      <c r="D136">
+        <v>523.2</v>
+      </c>
+      <c r="E136">
+        <v>340</v>
+      </c>
+      <c r="F136">
+        <v>0.3</v>
+      </c>
+      <c r="G136">
+        <v>242.5</v>
+      </c>
+      <c r="H136">
+        <v>61.63</v>
+      </c>
+      <c r="I136">
+        <v>551.76</v>
+      </c>
+      <c r="J136">
+        <v>72</v>
+      </c>
+      <c r="K136">
+        <v>0.31</v>
+      </c>
+      <c r="L136">
+        <v>242.5</v>
+      </c>
+      <c r="M136">
+        <v>61.36</v>
+      </c>
+      <c r="N136">
+        <v>0</v>
+      </c>
+      <c r="O136">
+        <v>507.85</v>
+      </c>
+      <c r="P136">
+        <v>42</v>
+      </c>
+      <c r="Q136">
+        <v>0.31</v>
+      </c>
+      <c r="R136">
+        <v>242.5</v>
+      </c>
+      <c r="S136">
+        <v>62.39</v>
+      </c>
+      <c r="T136">
+        <v>-0</v>
+      </c>
+      <c r="U136">
+        <v>506.38</v>
+      </c>
+      <c r="V136">
+        <v>43</v>
+      </c>
+      <c r="W136">
+        <v>0.31</v>
+      </c>
+      <c r="X136">
+        <v>242.5</v>
+      </c>
+      <c r="Y136">
+        <v>62.34</v>
+      </c>
+      <c r="Z136">
+        <v>0</v>
+      </c>
+      <c r="AA136">
+        <v>242.5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:27">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137">
+        <v>50</v>
+      </c>
+      <c r="C137">
+        <v>100</v>
+      </c>
+      <c r="D137">
+        <v>511.5</v>
+      </c>
+      <c r="E137">
+        <v>263</v>
+      </c>
+      <c r="F137">
+        <v>0.22</v>
+      </c>
+      <c r="G137">
+        <v>224.5</v>
+      </c>
+      <c r="H137">
+        <v>413.9</v>
+      </c>
+      <c r="I137">
+        <v>500.47</v>
+      </c>
+      <c r="J137">
+        <v>16</v>
+      </c>
+      <c r="K137">
+        <v>0.29</v>
+      </c>
+      <c r="L137">
+        <v>242.5</v>
+      </c>
+      <c r="M137">
+        <v>153.36</v>
+      </c>
+      <c r="N137">
+        <v>-0</v>
+      </c>
+      <c r="O137">
+        <v>504.19</v>
+      </c>
+      <c r="P137">
+        <v>12</v>
+      </c>
+      <c r="Q137">
+        <v>0.29</v>
+      </c>
+      <c r="R137">
+        <v>242.5</v>
+      </c>
+      <c r="S137">
+        <v>155.34</v>
+      </c>
+      <c r="T137">
+        <v>-0</v>
+      </c>
+      <c r="U137">
+        <v>524.23</v>
+      </c>
+      <c r="V137">
+        <v>24</v>
+      </c>
+      <c r="W137">
+        <v>0.29</v>
+      </c>
+      <c r="X137">
+        <v>242.5</v>
+      </c>
+      <c r="Y137">
+        <v>154.94</v>
+      </c>
+      <c r="Z137">
+        <v>-0</v>
+      </c>
+      <c r="AA137">
+        <v>242.5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:27">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138">
+        <v>50</v>
+      </c>
+      <c r="C138">
+        <v>100</v>
+      </c>
+      <c r="D138">
+        <v>503.64</v>
+      </c>
+      <c r="E138">
+        <v>163</v>
+      </c>
+      <c r="F138">
+        <v>0.24</v>
+      </c>
+      <c r="G138">
+        <v>246</v>
+      </c>
+      <c r="H138">
+        <v>402.85</v>
+      </c>
+      <c r="I138">
+        <v>563.88</v>
+      </c>
+      <c r="J138">
+        <v>5</v>
+      </c>
+      <c r="K138">
+        <v>0.25</v>
+      </c>
+      <c r="L138">
+        <v>249.5</v>
+      </c>
+      <c r="M138">
+        <v>149.81</v>
+      </c>
+      <c r="N138">
+        <v>-0</v>
+      </c>
+      <c r="O138">
+        <v>510.71</v>
+      </c>
+      <c r="P138">
+        <v>3</v>
+      </c>
+      <c r="Q138">
+        <v>0.25</v>
+      </c>
+      <c r="R138">
+        <v>249.5</v>
+      </c>
+      <c r="S138">
+        <v>150.63</v>
+      </c>
+      <c r="T138">
+        <v>-0</v>
+      </c>
+      <c r="U138">
+        <v>524.86</v>
+      </c>
+      <c r="V138">
+        <v>3</v>
+      </c>
+      <c r="W138">
+        <v>0.25</v>
+      </c>
+      <c r="X138">
+        <v>249.5</v>
+      </c>
+      <c r="Y138">
+        <v>150.1</v>
+      </c>
+      <c r="Z138">
+        <v>-0</v>
+      </c>
+      <c r="AA138">
+        <v>249.5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:27">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139">
+        <v>50</v>
+      </c>
+      <c r="C139">
+        <v>100</v>
+      </c>
+      <c r="D139">
+        <v>520.28</v>
+      </c>
+      <c r="E139">
+        <v>232</v>
+      </c>
+      <c r="F139">
+        <v>0.4</v>
+      </c>
+      <c r="G139">
+        <v>285.5</v>
+      </c>
+      <c r="H139">
+        <v>206.35</v>
+      </c>
+      <c r="I139">
+        <v>556.1</v>
+      </c>
+      <c r="J139">
+        <v>1</v>
+      </c>
+      <c r="K139">
+        <v>0.27</v>
+      </c>
+      <c r="L139">
+        <v>232</v>
+      </c>
+      <c r="M139">
+        <v>412.81</v>
+      </c>
+      <c r="N139">
+        <v>-0</v>
+      </c>
+      <c r="O139">
+        <v>596.85</v>
+      </c>
+      <c r="P139">
+        <v>9</v>
+      </c>
+      <c r="Q139">
+        <v>0.29</v>
+      </c>
+      <c r="R139">
+        <v>240.5</v>
+      </c>
+      <c r="S139">
+        <v>534.04</v>
+      </c>
+      <c r="T139">
+        <v>0</v>
+      </c>
+      <c r="U139">
+        <v>513.17</v>
+      </c>
+      <c r="V139">
+        <v>1</v>
+      </c>
+      <c r="W139">
+        <v>0.27</v>
+      </c>
+      <c r="X139">
+        <v>232</v>
+      </c>
+      <c r="Y139">
+        <v>416.6</v>
+      </c>
+      <c r="Z139">
+        <v>-0</v>
+      </c>
+      <c r="AA139">
+        <v>285.5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:27">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="B140">
+        <v>50</v>
+      </c>
+      <c r="C140">
+        <v>100</v>
+      </c>
+      <c r="D140">
+        <v>538.38</v>
+      </c>
+      <c r="E140">
+        <v>177</v>
+      </c>
+      <c r="F140">
+        <v>0.28</v>
+      </c>
+      <c r="G140">
+        <v>255</v>
+      </c>
+      <c r="H140">
+        <v>60.93</v>
+      </c>
+      <c r="I140">
+        <v>504.71</v>
+      </c>
+      <c r="J140">
+        <v>16</v>
+      </c>
+      <c r="K140">
+        <v>0.25</v>
+      </c>
+      <c r="L140">
+        <v>246.5</v>
+      </c>
+      <c r="M140">
+        <v>330.49</v>
+      </c>
+      <c r="N140">
+        <v>0.02</v>
+      </c>
+      <c r="O140">
+        <v>508.4</v>
+      </c>
+      <c r="P140">
+        <v>6</v>
+      </c>
+      <c r="Q140">
+        <v>0.25</v>
+      </c>
+      <c r="R140">
+        <v>255</v>
+      </c>
+      <c r="S140">
+        <v>61.16</v>
+      </c>
+      <c r="T140">
+        <v>0.05</v>
+      </c>
+      <c r="U140">
+        <v>541.34</v>
+      </c>
+      <c r="V140">
+        <v>16</v>
+      </c>
+      <c r="W140">
+        <v>0.25</v>
+      </c>
+      <c r="X140">
+        <v>246.5</v>
+      </c>
+      <c r="Y140">
+        <v>332.62</v>
+      </c>
+      <c r="Z140">
+        <v>0.02</v>
+      </c>
+      <c r="AA140">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="141" spans="1:27">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141">
+        <v>50</v>
+      </c>
+      <c r="C141">
+        <v>100</v>
+      </c>
+      <c r="D141">
+        <v>522.4400000000001</v>
+      </c>
+      <c r="E141">
+        <v>162</v>
+      </c>
+      <c r="F141">
+        <v>0.16</v>
+      </c>
+      <c r="G141">
+        <v>241.5</v>
+      </c>
+      <c r="H141">
+        <v>333.55</v>
+      </c>
+      <c r="I141">
+        <v>536.74</v>
+      </c>
+      <c r="J141">
+        <v>0</v>
+      </c>
+      <c r="K141">
+        <v>0.22</v>
+      </c>
+      <c r="L141">
+        <v>256.5</v>
+      </c>
+      <c r="M141">
+        <v>143.16</v>
+      </c>
+      <c r="N141">
+        <v>0</v>
+      </c>
+      <c r="O141">
+        <v>532.79</v>
+      </c>
+      <c r="P141">
+        <v>0</v>
+      </c>
+      <c r="Q141">
+        <v>0.12</v>
+      </c>
+      <c r="R141">
+        <v>229.5</v>
+      </c>
+      <c r="S141">
+        <v>348.71</v>
+      </c>
+      <c r="T141">
+        <v>0</v>
+      </c>
+      <c r="U141">
+        <v>504.44</v>
+      </c>
+      <c r="V141">
+        <v>9</v>
+      </c>
+      <c r="W141">
+        <v>0.06</v>
+      </c>
+      <c r="X141">
+        <v>229.5</v>
+      </c>
+      <c r="Y141">
+        <v>349.38</v>
+      </c>
+      <c r="Z141">
+        <v>0.01</v>
+      </c>
+      <c r="AA141">
+        <v>256.5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:27">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142">
+        <v>50</v>
+      </c>
+      <c r="C142">
+        <v>200</v>
+      </c>
+      <c r="D142">
+        <v>507.34</v>
+      </c>
+      <c r="E142">
+        <v>245</v>
+      </c>
+      <c r="F142">
+        <v>0.27</v>
+      </c>
+      <c r="G142">
+        <v>280</v>
+      </c>
+      <c r="H142">
+        <v>319.92</v>
+      </c>
+      <c r="I142">
+        <v>578.3099999999999</v>
+      </c>
+      <c r="J142">
+        <v>5</v>
+      </c>
+      <c r="K142">
+        <v>0.29</v>
+      </c>
+      <c r="L142">
+        <v>287</v>
+      </c>
+      <c r="M142">
+        <v>449.73</v>
+      </c>
+      <c r="N142">
+        <v>-0</v>
+      </c>
+      <c r="O142">
+        <v>579.3200000000001</v>
+      </c>
+      <c r="P142">
+        <v>1</v>
+      </c>
+      <c r="Q142">
+        <v>0.18</v>
+      </c>
+      <c r="R142">
+        <v>248.5</v>
+      </c>
+      <c r="S142">
+        <v>527.54</v>
+      </c>
+      <c r="T142">
+        <v>0</v>
+      </c>
+      <c r="U142">
+        <v>556.34</v>
+      </c>
+      <c r="V142">
+        <v>9</v>
+      </c>
+      <c r="W142">
+        <v>0.31</v>
+      </c>
+      <c r="X142">
+        <v>295.5</v>
+      </c>
+      <c r="Y142">
+        <v>104.57</v>
+      </c>
+      <c r="Z142">
+        <v>-0</v>
+      </c>
+      <c r="AA142">
+        <v>295.5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:27">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143">
+        <v>50</v>
+      </c>
+      <c r="C143">
+        <v>200</v>
+      </c>
+      <c r="D143">
+        <v>661.8200000000001</v>
+      </c>
+      <c r="E143">
+        <v>242</v>
+      </c>
+      <c r="F143">
+        <v>0.32</v>
+      </c>
+      <c r="G143">
+        <v>284.5</v>
+      </c>
+      <c r="H143">
+        <v>500</v>
+      </c>
+      <c r="I143">
+        <v>2011.28</v>
+      </c>
+      <c r="J143">
+        <v>3</v>
+      </c>
+      <c r="K143">
+        <v>0.33</v>
+      </c>
+      <c r="L143">
+        <v>277</v>
+      </c>
+      <c r="M143">
+        <v>1857.29</v>
+      </c>
+      <c r="N143">
+        <v>-0</v>
+      </c>
+      <c r="O143">
+        <v>547.76</v>
+      </c>
+      <c r="P143">
+        <v>5</v>
+      </c>
+      <c r="Q143">
+        <v>0.36</v>
+      </c>
+      <c r="R143">
+        <v>292</v>
+      </c>
+      <c r="S143">
+        <v>500.31</v>
+      </c>
+      <c r="T143">
+        <v>-0</v>
+      </c>
+      <c r="U143">
+        <v>974.35</v>
+      </c>
+      <c r="V143">
+        <v>4</v>
+      </c>
+      <c r="W143">
+        <v>0.34</v>
+      </c>
+      <c r="X143">
+        <v>284.5</v>
+      </c>
+      <c r="Y143">
+        <v>810.73</v>
+      </c>
+      <c r="Z143">
+        <v>-0</v>
+      </c>
+      <c r="AA143">
+        <v>284.5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:27">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144">
+        <v>50</v>
+      </c>
+      <c r="C144">
+        <v>200</v>
+      </c>
+      <c r="D144">
+        <v>510.46</v>
+      </c>
+      <c r="E144">
+        <v>252</v>
+      </c>
+      <c r="F144">
+        <v>0.3</v>
+      </c>
+      <c r="G144">
+        <v>269</v>
+      </c>
+      <c r="H144">
+        <v>473.07</v>
+      </c>
+      <c r="I144">
+        <v>795.8</v>
+      </c>
+      <c r="J144">
+        <v>13</v>
+      </c>
+      <c r="K144">
+        <v>0.34</v>
+      </c>
+      <c r="L144">
+        <v>280</v>
+      </c>
+      <c r="M144">
+        <v>570.27</v>
+      </c>
+      <c r="N144">
+        <v>0</v>
+      </c>
+      <c r="O144">
+        <v>590.96</v>
+      </c>
+      <c r="P144">
+        <v>9</v>
+      </c>
+      <c r="Q144">
+        <v>0.35</v>
+      </c>
+      <c r="R144">
+        <v>289.5</v>
+      </c>
+      <c r="S144">
+        <v>205.75</v>
+      </c>
+      <c r="T144">
+        <v>0.02</v>
+      </c>
+      <c r="U144">
+        <v>643.86</v>
+      </c>
+      <c r="V144">
+        <v>13</v>
+      </c>
+      <c r="W144">
+        <v>0.34</v>
+      </c>
+      <c r="X144">
+        <v>280</v>
+      </c>
+      <c r="Y144">
+        <v>514.75</v>
+      </c>
+      <c r="Z144">
+        <v>0</v>
+      </c>
+      <c r="AA144">
+        <v>289.5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:27">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145">
+        <v>50</v>
+      </c>
+      <c r="C145">
+        <v>200</v>
+      </c>
+      <c r="D145">
+        <v>630.64</v>
+      </c>
+      <c r="E145">
+        <v>237</v>
+      </c>
+      <c r="F145">
+        <v>0.27</v>
+      </c>
+      <c r="G145">
+        <v>294.5</v>
+      </c>
+      <c r="H145">
+        <v>413.72</v>
+      </c>
+      <c r="I145">
+        <v>991.88</v>
+      </c>
+      <c r="J145">
+        <v>10</v>
+      </c>
+      <c r="K145">
+        <v>0.15</v>
+      </c>
+      <c r="L145">
+        <v>274.5</v>
+      </c>
+      <c r="M145">
+        <v>705.8099999999999</v>
+      </c>
+      <c r="N145">
+        <v>0.08</v>
+      </c>
+      <c r="O145">
+        <v>693.74</v>
+      </c>
+      <c r="P145">
+        <v>8</v>
+      </c>
+      <c r="Q145">
+        <v>0.15</v>
+      </c>
+      <c r="R145">
+        <v>294.5</v>
+      </c>
+      <c r="S145">
+        <v>392.57</v>
+      </c>
+      <c r="T145">
+        <v>0.14</v>
+      </c>
+      <c r="U145">
+        <v>849.89</v>
+      </c>
+      <c r="V145">
+        <v>5</v>
+      </c>
+      <c r="W145">
+        <v>0.2</v>
+      </c>
+      <c r="X145">
+        <v>274.5</v>
+      </c>
+      <c r="Y145">
+        <v>659.17</v>
+      </c>
+      <c r="Z145">
+        <v>0.03</v>
+      </c>
+      <c r="AA145">
+        <v>294.5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:27">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="B146">
+        <v>50</v>
+      </c>
+      <c r="C146">
+        <v>200</v>
+      </c>
+      <c r="D146">
+        <v>536.8</v>
+      </c>
+      <c r="E146">
+        <v>259</v>
+      </c>
+      <c r="F146">
+        <v>0.33</v>
+      </c>
+      <c r="G146">
+        <v>280.5</v>
+      </c>
+      <c r="H146">
+        <v>522.39</v>
+      </c>
+      <c r="I146">
+        <v>982.46</v>
+      </c>
+      <c r="J146">
+        <v>18</v>
+      </c>
+      <c r="K146">
+        <v>0.28</v>
+      </c>
+      <c r="L146">
+        <v>261</v>
+      </c>
+      <c r="M146">
+        <v>821.51</v>
+      </c>
+      <c r="N146">
+        <v>0</v>
+      </c>
+      <c r="O146">
+        <v>719.96</v>
+      </c>
+      <c r="P146">
+        <v>15</v>
+      </c>
+      <c r="Q146">
+        <v>0.3</v>
+      </c>
+      <c r="R146">
+        <v>280.5</v>
+      </c>
+      <c r="S146">
+        <v>563.9299999999999</v>
+      </c>
+      <c r="T146">
+        <v>0.05</v>
+      </c>
+      <c r="U146">
+        <v>878.84</v>
+      </c>
+      <c r="V146">
+        <v>19</v>
+      </c>
+      <c r="W146">
+        <v>0.29</v>
+      </c>
+      <c r="X146">
+        <v>262.5</v>
+      </c>
+      <c r="Y146">
+        <v>660.39</v>
+      </c>
+      <c r="Z146">
+        <v>-0</v>
+      </c>
+      <c r="AA146">
+        <v>280.5</v>
+      </c>
+    </row>
+    <row r="147" spans="1:27">
+      <c r="A147" s="1">
+        <v>145</v>
+      </c>
+      <c r="B147">
+        <v>50</v>
+      </c>
+      <c r="C147">
+        <v>500</v>
+      </c>
+      <c r="D147">
+        <v>585.99</v>
+      </c>
+      <c r="E147">
+        <v>484</v>
+      </c>
+      <c r="F147">
+        <v>0.35</v>
+      </c>
+      <c r="G147">
+        <v>323</v>
+      </c>
+      <c r="H147">
+        <v>229.81</v>
+      </c>
+      <c r="I147">
+        <v>5267.85</v>
+      </c>
+      <c r="J147">
+        <v>3</v>
+      </c>
+      <c r="K147">
+        <v>0.31</v>
+      </c>
+      <c r="L147">
+        <v>296</v>
+      </c>
+      <c r="M147">
+        <v>893.97</v>
+      </c>
+      <c r="N147">
+        <v>0</v>
+      </c>
+      <c r="O147">
+        <v>1095.59</v>
+      </c>
+      <c r="P147">
+        <v>12</v>
+      </c>
+      <c r="Q147">
+        <v>0.35</v>
+      </c>
+      <c r="R147">
+        <v>323</v>
+      </c>
+      <c r="S147">
+        <v>373.35</v>
+      </c>
+      <c r="T147">
+        <v>0.05</v>
+      </c>
+      <c r="U147">
+        <v>2053.88</v>
+      </c>
+      <c r="V147">
+        <v>12</v>
+      </c>
+      <c r="W147">
+        <v>0.31</v>
+      </c>
+      <c r="X147">
+        <v>296</v>
+      </c>
+      <c r="Y147">
+        <v>1189.34</v>
+      </c>
+      <c r="Z147">
+        <v>0</v>
+      </c>
+      <c r="AA147">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="148" spans="1:27">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+      <c r="B148">
+        <v>50</v>
+      </c>
+      <c r="C148">
+        <v>500</v>
+      </c>
+      <c r="D148">
+        <v>593.76</v>
+      </c>
+      <c r="E148">
+        <v>435</v>
+      </c>
+      <c r="F148">
+        <v>0.31</v>
+      </c>
+      <c r="G148">
+        <v>314</v>
+      </c>
+      <c r="H148">
+        <v>228.35</v>
+      </c>
+      <c r="I148">
+        <v>10167.44</v>
+      </c>
+      <c r="J148">
+        <v>1</v>
+      </c>
+      <c r="K148">
+        <v>0.13</v>
+      </c>
+      <c r="L148">
+        <v>249.5</v>
+      </c>
+      <c r="M148">
+        <v>4229.32</v>
+      </c>
+      <c r="N148">
+        <v>0</v>
+      </c>
+      <c r="O148">
+        <v>1307.05</v>
+      </c>
+      <c r="P148">
+        <v>19</v>
+      </c>
+      <c r="Q148">
+        <v>0.3</v>
+      </c>
+      <c r="R148">
+        <v>314</v>
+      </c>
+      <c r="S148">
+        <v>360.83</v>
+      </c>
+      <c r="T148">
+        <v>0.03</v>
+      </c>
+      <c r="U148">
+        <v>7610.45</v>
+      </c>
+      <c r="V148">
+        <v>0</v>
+      </c>
+      <c r="W148">
+        <v>0.17</v>
+      </c>
+      <c r="X148">
+        <v>249.5</v>
+      </c>
+      <c r="Y148">
+        <v>5649.72</v>
+      </c>
+      <c r="Z148">
+        <v>0</v>
+      </c>
+      <c r="AA148">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="149" spans="1:27">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="B149">
+        <v>50</v>
+      </c>
+      <c r="C149">
+        <v>500</v>
+      </c>
+      <c r="D149">
+        <v>578.3200000000001</v>
+      </c>
+      <c r="E149">
+        <v>412</v>
+      </c>
+      <c r="F149">
+        <v>0.88</v>
+      </c>
+      <c r="G149">
+        <v>366.5</v>
+      </c>
+      <c r="H149">
+        <v>578.27</v>
+      </c>
+      <c r="I149">
+        <v>16659.76</v>
+      </c>
+      <c r="J149">
+        <v>2</v>
+      </c>
+      <c r="K149">
+        <v>0.25</v>
+      </c>
+      <c r="L149">
+        <v>269.5</v>
+      </c>
+      <c r="M149">
+        <v>9065.32</v>
+      </c>
+      <c r="N149">
+        <v>0</v>
+      </c>
+      <c r="O149">
+        <v>1865.49</v>
+      </c>
+      <c r="P149">
+        <v>4</v>
+      </c>
+      <c r="Q149">
+        <v>0.35</v>
+      </c>
+      <c r="R149">
+        <v>335</v>
+      </c>
+      <c r="S149">
+        <v>1357.33</v>
+      </c>
+      <c r="T149">
+        <v>0.13</v>
+      </c>
+      <c r="U149">
+        <v>10125.96</v>
+      </c>
+      <c r="V149">
+        <v>12</v>
+      </c>
+      <c r="W149">
+        <v>0.31</v>
+      </c>
+      <c r="X149">
+        <v>279</v>
+      </c>
+      <c r="Y149">
+        <v>7328.34</v>
+      </c>
+      <c r="Z149">
+        <v>0</v>
+      </c>
+      <c r="AA149">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="150" spans="1:27">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="B150">
+        <v>50</v>
+      </c>
+      <c r="C150">
+        <v>500</v>
+      </c>
+      <c r="D150">
+        <v>531.64</v>
+      </c>
+      <c r="E150">
+        <v>412</v>
+      </c>
+      <c r="F150">
+        <v>0.87</v>
+      </c>
+      <c r="G150">
+        <v>335.5</v>
+      </c>
+      <c r="H150">
+        <v>531.5700000000001</v>
+      </c>
+      <c r="I150">
+        <v>23836.99</v>
+      </c>
+      <c r="J150">
+        <v>2</v>
+      </c>
+      <c r="K150">
+        <v>0.34</v>
+      </c>
+      <c r="L150">
+        <v>98</v>
+      </c>
+      <c r="M150">
+        <v>20985.17</v>
+      </c>
+      <c r="N150">
+        <v>-1.76</v>
+      </c>
+      <c r="O150">
+        <v>1330.05</v>
+      </c>
+      <c r="P150">
+        <v>7</v>
+      </c>
+      <c r="Q150">
+        <v>0.41</v>
+      </c>
+      <c r="R150">
+        <v>307.5</v>
+      </c>
+      <c r="S150">
+        <v>1178.07</v>
+      </c>
+      <c r="T150">
+        <v>0</v>
+      </c>
+      <c r="U150">
+        <v>9038.85</v>
+      </c>
+      <c r="V150">
+        <v>7</v>
+      </c>
+      <c r="W150">
+        <v>0.33</v>
+      </c>
+      <c r="X150">
+        <v>275.5</v>
+      </c>
+      <c r="Y150">
+        <v>7637.94</v>
+      </c>
+      <c r="Z150">
+        <v>0</v>
+      </c>
+      <c r="AA150">
+        <v>307.5</v>
+      </c>
+    </row>
+    <row r="151" spans="1:27">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+      <c r="B151">
+        <v>50</v>
+      </c>
+      <c r="C151">
+        <v>500</v>
+      </c>
+      <c r="D151">
+        <v>1293.6</v>
+      </c>
+      <c r="E151">
+        <v>410</v>
+      </c>
+      <c r="F151">
+        <v>0.86</v>
+      </c>
+      <c r="G151">
+        <v>301.5</v>
+      </c>
+      <c r="H151">
+        <v>1293.54</v>
+      </c>
+      <c r="I151">
+        <v>17389.66</v>
+      </c>
+      <c r="J151">
+        <v>2</v>
+      </c>
+      <c r="K151">
+        <v>0.24</v>
+      </c>
+      <c r="L151">
+        <v>277</v>
+      </c>
+      <c r="M151">
+        <v>9333.459999999999</v>
+      </c>
+      <c r="N151">
+        <v>0</v>
+      </c>
+      <c r="O151">
+        <v>2529.54</v>
+      </c>
+      <c r="P151">
+        <v>6</v>
+      </c>
+      <c r="Q151">
+        <v>0.3</v>
+      </c>
+      <c r="R151">
+        <v>301.5</v>
+      </c>
+      <c r="S151">
+        <v>1752.63</v>
+      </c>
+      <c r="T151">
+        <v>0.02</v>
+      </c>
+      <c r="U151">
+        <v>7029.83</v>
+      </c>
+      <c r="V151">
+        <v>12</v>
+      </c>
+      <c r="W151">
+        <v>0.31</v>
+      </c>
+      <c r="X151">
+        <v>298</v>
+      </c>
+      <c r="Y151">
+        <v>4659.21</v>
+      </c>
+      <c r="Z151">
+        <v>0</v>
+      </c>
+      <c r="AA151">
+        <v>301.5</v>
       </c>
     </row>
   </sheetData>

--- a/Two-stage Recoverable FLP/Local Branching/output.xlsx
+++ b/Two-stage Recoverable FLP/Local Branching/output.xlsx
@@ -410,7 +410,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA119"/>
+  <dimension ref="A1:AA109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9460,836 +9460,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:27">
-      <c r="A110" s="1">
-        <v>108</v>
-      </c>
-      <c r="B110">
-        <v>40</v>
-      </c>
-      <c r="C110">
-        <v>100</v>
-      </c>
-      <c r="D110">
-        <v>0</v>
-      </c>
-      <c r="E110">
-        <v>0</v>
-      </c>
-      <c r="F110">
-        <v>0</v>
-      </c>
-      <c r="G110">
-        <v>0</v>
-      </c>
-      <c r="H110">
-        <v>0</v>
-      </c>
-      <c r="I110">
-        <v>0</v>
-      </c>
-      <c r="J110">
-        <v>0</v>
-      </c>
-      <c r="K110">
-        <v>0</v>
-      </c>
-      <c r="L110">
-        <v>0</v>
-      </c>
-      <c r="M110">
-        <v>0</v>
-      </c>
-      <c r="N110">
-        <v>0</v>
-      </c>
-      <c r="O110">
-        <v>0</v>
-      </c>
-      <c r="P110">
-        <v>0</v>
-      </c>
-      <c r="Q110">
-        <v>0</v>
-      </c>
-      <c r="R110">
-        <v>0</v>
-      </c>
-      <c r="S110">
-        <v>0</v>
-      </c>
-      <c r="T110">
-        <v>0</v>
-      </c>
-      <c r="U110">
-        <v>0</v>
-      </c>
-      <c r="V110">
-        <v>0</v>
-      </c>
-      <c r="W110">
-        <v>0</v>
-      </c>
-      <c r="X110">
-        <v>0</v>
-      </c>
-      <c r="Y110">
-        <v>0</v>
-      </c>
-      <c r="Z110">
-        <v>0</v>
-      </c>
-      <c r="AA110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:27">
-      <c r="A111" s="1">
-        <v>109</v>
-      </c>
-      <c r="B111">
-        <v>40</v>
-      </c>
-      <c r="C111">
-        <v>100</v>
-      </c>
-      <c r="D111">
-        <v>501.63</v>
-      </c>
-      <c r="E111">
-        <v>134</v>
-      </c>
-      <c r="F111">
-        <v>0.26</v>
-      </c>
-      <c r="G111">
-        <v>294.5</v>
-      </c>
-      <c r="H111">
-        <v>352.38</v>
-      </c>
-      <c r="I111">
-        <v>502.66</v>
-      </c>
-      <c r="J111">
-        <v>63</v>
-      </c>
-      <c r="K111">
-        <v>0.29</v>
-      </c>
-      <c r="L111">
-        <v>297</v>
-      </c>
-      <c r="M111">
-        <v>116.11</v>
-      </c>
-      <c r="N111">
-        <v>-0</v>
-      </c>
-      <c r="O111">
-        <v>508.22</v>
-      </c>
-      <c r="P111">
-        <v>18</v>
-      </c>
-      <c r="Q111">
-        <v>0.33</v>
-      </c>
-      <c r="R111">
-        <v>312</v>
-      </c>
-      <c r="S111">
-        <v>71.78</v>
-      </c>
-      <c r="T111">
-        <v>-0</v>
-      </c>
-      <c r="U111">
-        <v>508.11</v>
-      </c>
-      <c r="V111">
-        <v>8</v>
-      </c>
-      <c r="W111">
-        <v>0.29</v>
-      </c>
-      <c r="X111">
-        <v>297</v>
-      </c>
-      <c r="Y111">
-        <v>119.42</v>
-      </c>
-      <c r="Z111">
-        <v>-0</v>
-      </c>
-      <c r="AA111">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="112" spans="1:27">
-      <c r="A112" s="1">
-        <v>110</v>
-      </c>
-      <c r="B112">
-        <v>40</v>
-      </c>
-      <c r="C112">
-        <v>200</v>
-      </c>
-      <c r="D112">
-        <v>510.19</v>
-      </c>
-      <c r="E112">
-        <v>26</v>
-      </c>
-      <c r="F112">
-        <v>0.24</v>
-      </c>
-      <c r="G112">
-        <v>290</v>
-      </c>
-      <c r="H112">
-        <v>435.47</v>
-      </c>
-      <c r="I112">
-        <v>587.83</v>
-      </c>
-      <c r="J112">
-        <v>11</v>
-      </c>
-      <c r="K112">
-        <v>0.3</v>
-      </c>
-      <c r="L112">
-        <v>308</v>
-      </c>
-      <c r="M112">
-        <v>211.23</v>
-      </c>
-      <c r="N112">
-        <v>-0</v>
-      </c>
-      <c r="O112">
-        <v>519.5700000000001</v>
-      </c>
-      <c r="P112">
-        <v>17</v>
-      </c>
-      <c r="Q112">
-        <v>0.3</v>
-      </c>
-      <c r="R112">
-        <v>308</v>
-      </c>
-      <c r="S112">
-        <v>213.73</v>
-      </c>
-      <c r="T112">
-        <v>-0</v>
-      </c>
-      <c r="U112">
-        <v>533.99</v>
-      </c>
-      <c r="V112">
-        <v>29</v>
-      </c>
-      <c r="W112">
-        <v>0.3</v>
-      </c>
-      <c r="X112">
-        <v>308</v>
-      </c>
-      <c r="Y112">
-        <v>214.59</v>
-      </c>
-      <c r="Z112">
-        <v>-0</v>
-      </c>
-      <c r="AA112">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="113" spans="1:27">
-      <c r="A113" s="1">
-        <v>111</v>
-      </c>
-      <c r="B113">
-        <v>40</v>
-      </c>
-      <c r="C113">
-        <v>200</v>
-      </c>
-      <c r="D113">
-        <v>508.01</v>
-      </c>
-      <c r="E113">
-        <v>433</v>
-      </c>
-      <c r="F113">
-        <v>0.27</v>
-      </c>
-      <c r="G113">
-        <v>296.5</v>
-      </c>
-      <c r="H113">
-        <v>492.74</v>
-      </c>
-      <c r="I113">
-        <v>577.83</v>
-      </c>
-      <c r="J113">
-        <v>12</v>
-      </c>
-      <c r="K113">
-        <v>0.27</v>
-      </c>
-      <c r="L113">
-        <v>308.5</v>
-      </c>
-      <c r="M113">
-        <v>471.53</v>
-      </c>
-      <c r="N113">
-        <v>0.05</v>
-      </c>
-      <c r="O113">
-        <v>520.29</v>
-      </c>
-      <c r="P113">
-        <v>5</v>
-      </c>
-      <c r="Q113">
-        <v>0.23</v>
-      </c>
-      <c r="R113">
-        <v>277.5</v>
-      </c>
-      <c r="S113">
-        <v>509.58</v>
-      </c>
-      <c r="T113">
-        <v>0</v>
-      </c>
-      <c r="U113">
-        <v>532.33</v>
-      </c>
-      <c r="V113">
-        <v>24</v>
-      </c>
-      <c r="W113">
-        <v>0.33</v>
-      </c>
-      <c r="X113">
-        <v>322.5</v>
-      </c>
-      <c r="Y113">
-        <v>254.11</v>
-      </c>
-      <c r="Z113">
-        <v>-0</v>
-      </c>
-      <c r="AA113">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="114" spans="1:27">
-      <c r="A114" s="1">
-        <v>112</v>
-      </c>
-      <c r="B114">
-        <v>40</v>
-      </c>
-      <c r="C114">
-        <v>200</v>
-      </c>
-      <c r="D114">
-        <v>501.98</v>
-      </c>
-      <c r="E114">
-        <v>404</v>
-      </c>
-      <c r="F114">
-        <v>0.26</v>
-      </c>
-      <c r="G114">
-        <v>331</v>
-      </c>
-      <c r="H114">
-        <v>486.76</v>
-      </c>
-      <c r="I114">
-        <v>593.8200000000001</v>
-      </c>
-      <c r="J114">
-        <v>13</v>
-      </c>
-      <c r="K114">
-        <v>0.22</v>
-      </c>
-      <c r="L114">
-        <v>323.5</v>
-      </c>
-      <c r="M114">
-        <v>316.82</v>
-      </c>
-      <c r="N114">
-        <v>0.04</v>
-      </c>
-      <c r="O114">
-        <v>539.6799999999999</v>
-      </c>
-      <c r="P114">
-        <v>19</v>
-      </c>
-      <c r="Q114">
-        <v>0.28</v>
-      </c>
-      <c r="R114">
-        <v>333.5</v>
-      </c>
-      <c r="S114">
-        <v>238.87</v>
-      </c>
-      <c r="T114">
-        <v>0</v>
-      </c>
-      <c r="U114">
-        <v>547.8</v>
-      </c>
-      <c r="V114">
-        <v>11</v>
-      </c>
-      <c r="W114">
-        <v>0.22</v>
-      </c>
-      <c r="X114">
-        <v>323.5</v>
-      </c>
-      <c r="Y114">
-        <v>321.74</v>
-      </c>
-      <c r="Z114">
-        <v>0.04</v>
-      </c>
-      <c r="AA114">
-        <v>333.5</v>
-      </c>
-    </row>
-    <row r="115" spans="1:27">
-      <c r="A115" s="1">
-        <v>113</v>
-      </c>
-      <c r="B115">
-        <v>40</v>
-      </c>
-      <c r="C115">
-        <v>200</v>
-      </c>
-      <c r="D115">
-        <v>520.98</v>
-      </c>
-      <c r="E115">
-        <v>121</v>
-      </c>
-      <c r="F115">
-        <v>0.36</v>
-      </c>
-      <c r="G115">
-        <v>309</v>
-      </c>
-      <c r="H115">
-        <v>261.54</v>
-      </c>
-      <c r="I115">
-        <v>611.9400000000001</v>
-      </c>
-      <c r="J115">
-        <v>6</v>
-      </c>
-      <c r="K115">
-        <v>0.37</v>
-      </c>
-      <c r="L115">
-        <v>304</v>
-      </c>
-      <c r="M115">
-        <v>344.71</v>
-      </c>
-      <c r="N115">
-        <v>0</v>
-      </c>
-      <c r="O115">
-        <v>521.26</v>
-      </c>
-      <c r="P115">
-        <v>19</v>
-      </c>
-      <c r="Q115">
-        <v>0.38</v>
-      </c>
-      <c r="R115">
-        <v>309</v>
-      </c>
-      <c r="S115">
-        <v>261.48</v>
-      </c>
-      <c r="T115">
-        <v>0</v>
-      </c>
-      <c r="U115">
-        <v>510.15</v>
-      </c>
-      <c r="V115">
-        <v>4</v>
-      </c>
-      <c r="W115">
-        <v>0.37</v>
-      </c>
-      <c r="X115">
-        <v>304</v>
-      </c>
-      <c r="Y115">
-        <v>349.24</v>
-      </c>
-      <c r="Z115">
-        <v>0</v>
-      </c>
-      <c r="AA115">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="116" spans="1:27">
-      <c r="A116" s="1">
-        <v>114</v>
-      </c>
-      <c r="B116">
-        <v>40</v>
-      </c>
-      <c r="C116">
-        <v>200</v>
-      </c>
-      <c r="D116">
-        <v>504.23</v>
-      </c>
-      <c r="E116">
-        <v>430</v>
-      </c>
-      <c r="F116">
-        <v>0.33</v>
-      </c>
-      <c r="G116">
-        <v>319.5</v>
-      </c>
-      <c r="H116">
-        <v>437.67</v>
-      </c>
-      <c r="I116">
-        <v>568.75</v>
-      </c>
-      <c r="J116">
-        <v>13</v>
-      </c>
-      <c r="K116">
-        <v>0.36</v>
-      </c>
-      <c r="L116">
-        <v>334.5</v>
-      </c>
-      <c r="M116">
-        <v>303.03</v>
-      </c>
-      <c r="N116">
-        <v>-0</v>
-      </c>
-      <c r="O116">
-        <v>530.74</v>
-      </c>
-      <c r="P116">
-        <v>15</v>
-      </c>
-      <c r="Q116">
-        <v>0.36</v>
-      </c>
-      <c r="R116">
-        <v>336.5</v>
-      </c>
-      <c r="S116">
-        <v>225.78</v>
-      </c>
-      <c r="T116">
-        <v>0</v>
-      </c>
-      <c r="U116">
-        <v>596.58</v>
-      </c>
-      <c r="V116">
-        <v>22</v>
-      </c>
-      <c r="W116">
-        <v>0.36</v>
-      </c>
-      <c r="X116">
-        <v>334.5</v>
-      </c>
-      <c r="Y116">
-        <v>308.04</v>
-      </c>
-      <c r="Z116">
-        <v>0</v>
-      </c>
-      <c r="AA116">
-        <v>336.5</v>
-      </c>
-    </row>
-    <row r="117" spans="1:27">
-      <c r="A117" s="1">
-        <v>115</v>
-      </c>
-      <c r="B117">
-        <v>40</v>
-      </c>
-      <c r="C117">
-        <v>500</v>
-      </c>
-      <c r="D117">
-        <v>500.17</v>
-      </c>
-      <c r="E117">
-        <v>699</v>
-      </c>
-      <c r="F117">
-        <v>0.4</v>
-      </c>
-      <c r="G117">
-        <v>366.5</v>
-      </c>
-      <c r="H117">
-        <v>500.13</v>
-      </c>
-      <c r="I117">
-        <v>2939.91</v>
-      </c>
-      <c r="J117">
-        <v>3</v>
-      </c>
-      <c r="K117">
-        <v>0.34</v>
-      </c>
-      <c r="L117">
-        <v>322</v>
-      </c>
-      <c r="M117">
-        <v>895.22</v>
-      </c>
-      <c r="N117">
-        <v>0</v>
-      </c>
-      <c r="O117">
-        <v>637.62</v>
-      </c>
-      <c r="P117">
-        <v>8</v>
-      </c>
-      <c r="Q117">
-        <v>0.37</v>
-      </c>
-      <c r="R117">
-        <v>366.5</v>
-      </c>
-      <c r="S117">
-        <v>527.01</v>
-      </c>
-      <c r="T117">
-        <v>0.09</v>
-      </c>
-      <c r="U117">
-        <v>1283.51</v>
-      </c>
-      <c r="V117">
-        <v>12</v>
-      </c>
-      <c r="W117">
-        <v>0.33</v>
-      </c>
-      <c r="X117">
-        <v>322</v>
-      </c>
-      <c r="Y117">
-        <v>930.66</v>
-      </c>
-      <c r="Z117">
-        <v>0</v>
-      </c>
-      <c r="AA117">
-        <v>366.5</v>
-      </c>
-    </row>
-    <row r="118" spans="1:27">
-      <c r="A118" s="1">
-        <v>116</v>
-      </c>
-      <c r="B118">
-        <v>40</v>
-      </c>
-      <c r="C118">
-        <v>500</v>
-      </c>
-      <c r="D118">
-        <v>503.59</v>
-      </c>
-      <c r="E118">
-        <v>611</v>
-      </c>
-      <c r="F118">
-        <v>0.39</v>
-      </c>
-      <c r="G118">
-        <v>360</v>
-      </c>
-      <c r="H118">
-        <v>503.56</v>
-      </c>
-      <c r="I118">
-        <v>3139.7</v>
-      </c>
-      <c r="J118">
-        <v>6</v>
-      </c>
-      <c r="K118">
-        <v>0.33</v>
-      </c>
-      <c r="L118">
-        <v>331.5</v>
-      </c>
-      <c r="M118">
-        <v>838.61</v>
-      </c>
-      <c r="N118">
-        <v>-0</v>
-      </c>
-      <c r="O118">
-        <v>629.77</v>
-      </c>
-      <c r="P118">
-        <v>27</v>
-      </c>
-      <c r="Q118">
-        <v>0.39</v>
-      </c>
-      <c r="R118">
-        <v>360</v>
-      </c>
-      <c r="S118">
-        <v>519.73</v>
-      </c>
-      <c r="T118">
-        <v>0</v>
-      </c>
-      <c r="U118">
-        <v>1174.06</v>
-      </c>
-      <c r="V118">
-        <v>17</v>
-      </c>
-      <c r="W118">
-        <v>0.33</v>
-      </c>
-      <c r="X118">
-        <v>331.5</v>
-      </c>
-      <c r="Y118">
-        <v>862.95</v>
-      </c>
-      <c r="Z118">
-        <v>0</v>
-      </c>
-      <c r="AA118">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="119" spans="1:27">
-      <c r="A119" s="1">
-        <v>117</v>
-      </c>
-      <c r="B119">
-        <v>40</v>
-      </c>
-      <c r="C119">
-        <v>500</v>
-      </c>
-      <c r="D119">
-        <v>514.24</v>
-      </c>
-      <c r="E119">
-        <v>667</v>
-      </c>
-      <c r="F119">
-        <v>0.39</v>
-      </c>
-      <c r="G119">
-        <v>354</v>
-      </c>
-      <c r="H119">
-        <v>467.52</v>
-      </c>
-      <c r="I119">
-        <v>2937.21</v>
-      </c>
-      <c r="J119">
-        <v>1</v>
-      </c>
-      <c r="K119">
-        <v>0.32</v>
-      </c>
-      <c r="L119">
-        <v>313.5</v>
-      </c>
-      <c r="M119">
-        <v>1142.69</v>
-      </c>
-      <c r="N119">
-        <v>0</v>
-      </c>
-      <c r="O119">
-        <v>605.65</v>
-      </c>
-      <c r="P119">
-        <v>28</v>
-      </c>
-      <c r="Q119">
-        <v>0.4</v>
-      </c>
-      <c r="R119">
-        <v>354</v>
-      </c>
-      <c r="S119">
-        <v>483.11</v>
-      </c>
-      <c r="T119">
-        <v>0</v>
-      </c>
-      <c r="U119">
-        <v>1542.69</v>
-      </c>
-      <c r="V119">
-        <v>14</v>
-      </c>
-      <c r="W119">
-        <v>0.32</v>
-      </c>
-      <c r="X119">
-        <v>313.5</v>
-      </c>
-      <c r="Y119">
-        <v>1179.46</v>
-      </c>
-      <c r="Z119">
-        <v>0</v>
-      </c>
-      <c r="AA119">
-        <v>354</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
